--- a/code/excels/building/building_unit_enemy.xlsx
+++ b/code/excels/building/building_unit_enemy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2620" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="462">
   <si>
     <t>主键</t>
   </si>
@@ -375,6 +375,9 @@
     <t>npc_dota_creature</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_1</t>
+  </si>
+  <si>
     <t>DOTA_HULL_SIZE_HERO</t>
   </si>
   <si>
@@ -393,6 +396,9 @@
     <t>particles/items2_fx/necronomicon_archer_projectile.vpcf</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_2</t>
+  </si>
+  <si>
     <t>wave_3</t>
   </si>
   <si>
@@ -402,6 +408,9 @@
     <t>models/creeps/neutral_creeps/n_creep_eimermole/n_creep_eimermole.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_3</t>
+  </si>
+  <si>
     <t>wave_4</t>
   </si>
   <si>
@@ -411,6 +420,9 @@
     <t>models/items/courier/loco_the_crocodile_courier/loco_the_crocodile_courier.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_4</t>
+  </si>
+  <si>
     <t>wave_5</t>
   </si>
   <si>
@@ -423,9 +435,15 @@
     <t>minimap_death</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_5</t>
+  </si>
+  <si>
     <t>wave_6</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_6</t>
+  </si>
+  <si>
     <t>wave_7</t>
   </si>
   <si>
@@ -438,6 +456,9 @@
     <t>particles/units/heroes/hero_warlock/warlock_base_attack.vpcf</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_7</t>
+  </si>
+  <si>
     <t>wave_8</t>
   </si>
   <si>
@@ -447,6 +468,9 @@
     <t>models/courier/imp/imp.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_8</t>
+  </si>
+  <si>
     <t>wave_9</t>
   </si>
   <si>
@@ -456,6 +480,9 @@
     <t>models/items/courier/lilnova/lilnova.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_9</t>
+  </si>
+  <si>
     <t>wave_10</t>
   </si>
   <si>
@@ -465,6 +492,9 @@
     <t>models/items/courier/roddy_the_jerboa_courier/roddy_the_jerboa_courier.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_10</t>
+  </si>
+  <si>
     <t>wave_11</t>
   </si>
   <si>
@@ -477,6 +507,9 @@
     <t>particles/base_attacks/ranged_tower_good.vpcf</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_11</t>
+  </si>
+  <si>
     <t>wave_12</t>
   </si>
   <si>
@@ -486,6 +519,9 @@
     <t>models/items/courier/blue_lightning_horse/blue_lightning_horse.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_12</t>
+  </si>
+  <si>
     <t>wave_13</t>
   </si>
   <si>
@@ -495,6 +531,9 @@
     <t>models/items/courier/kupu_courier/kupu_courier.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_13</t>
+  </si>
+  <si>
     <t>wave_14</t>
   </si>
   <si>
@@ -507,6 +546,9 @@
     <t>particles/units/heroes/hero_leshrac/leshrac_base_attack.vpcf</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_14</t>
+  </si>
+  <si>
     <t>wave_15</t>
   </si>
   <si>
@@ -516,6 +558,9 @@
     <t>models/items/courier/supernova_rave_courier/supernova_rave_courier.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_15</t>
+  </si>
+  <si>
     <t>wave_16</t>
   </si>
   <si>
@@ -525,6 +570,9 @@
     <t>models/items/courier/mole_messenger/mole_messenger_lvl2_flying.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_16</t>
+  </si>
+  <si>
     <t>wave_17</t>
   </si>
   <si>
@@ -534,6 +582,9 @@
     <t>models/items/courier/mole_messenger/mole_messenger_flying.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_17</t>
+  </si>
+  <si>
     <t>wave_18</t>
   </si>
   <si>
@@ -546,6 +597,9 @@
     <t>particles/units/heroes/hero_bane/bane_projectile.vpcf</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_18</t>
+  </si>
+  <si>
     <t>wave_19</t>
   </si>
   <si>
@@ -555,6 +609,9 @@
     <t>models/items/courier/weta_automaton/weta_automaton_flying.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_19</t>
+  </si>
+  <si>
     <t>wave_20</t>
   </si>
   <si>
@@ -564,6 +621,9 @@
     <t>models/items/courier/weta_automaton/weta_automaton.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_20</t>
+  </si>
+  <si>
     <t>wave_21</t>
   </si>
   <si>
@@ -573,6 +633,9 @@
     <t>models/items/broodmother/spiderling/ti9_cache_brood_carnivorous_mimicry_spiderling/ti9_cache_brood_carnivorous_mimicry_spiderling.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_21</t>
+  </si>
+  <si>
     <t>wave_22</t>
   </si>
   <si>
@@ -582,6 +645,9 @@
     <t>models/items/broodmother/spiderling/perceptive_spiderling/perceptive_spiderling.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_22</t>
+  </si>
+  <si>
     <t>wave_23</t>
   </si>
   <si>
@@ -591,6 +657,9 @@
     <t>models/items/courier/jumo/jumo.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_23</t>
+  </si>
+  <si>
     <t>wave_24</t>
   </si>
   <si>
@@ -600,6 +669,9 @@
     <t>models/courier/otter_dragon/otter_dragon.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_24</t>
+  </si>
+  <si>
     <t>wave_25</t>
   </si>
   <si>
@@ -609,6 +681,9 @@
     <t>models/items/courier/devourling/devourling_flying.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_25</t>
+  </si>
+  <si>
     <t>wave_26</t>
   </si>
   <si>
@@ -618,6 +693,9 @@
     <t>models/items/courier/corsair_ship/corsair_ship.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_26</t>
+  </si>
+  <si>
     <t>wave_27</t>
   </si>
   <si>
@@ -627,6 +705,9 @@
     <t>models/items/courier/coral_furryfish/coral_furryfish_flying.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_27</t>
+  </si>
+  <si>
     <t>wave_28</t>
   </si>
   <si>
@@ -636,6 +717,9 @@
     <t>models/items/courier/calabaxa_courier/calabaxa_courier.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_28</t>
+  </si>
+  <si>
     <t>wave_29</t>
   </si>
   <si>
@@ -645,6 +729,9 @@
     <t>models/courier/drodo/drodo.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_29</t>
+  </si>
+  <si>
     <t>wave_30</t>
   </si>
   <si>
@@ -654,6 +741,9 @@
     <t>models/items/courier/snowl/snowl.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_30</t>
+  </si>
+  <si>
     <t>wave_31</t>
   </si>
   <si>
@@ -663,6 +753,9 @@
     <t>models/items/furion/treant/ravenous_woodfang/ravenous_woodfang.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_31</t>
+  </si>
+  <si>
     <t>wave_32</t>
   </si>
   <si>
@@ -672,6 +765,9 @@
     <t>models/items/enigma/eidolon/absolute_zero_updated_eidolon/absolute_zero_updated_eidolon.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_32</t>
+  </si>
+  <si>
     <t>wave_33</t>
   </si>
   <si>
@@ -681,6 +777,9 @@
     <t>models/items/furion/treant/shroomling_treant/shroomling_treant.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_33</t>
+  </si>
+  <si>
     <t>wave_34</t>
   </si>
   <si>
@@ -690,6 +789,9 @@
     <t>models/creeps/neutral_creeps/n_creep_ghost_b/n_creep_ghost_frost.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_34</t>
+  </si>
+  <si>
     <t>wave_35</t>
   </si>
   <si>
@@ -699,6 +801,9 @@
     <t>models/items/courier/courier_mvp_redkita/courier_mvp_redkita_flying.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_35</t>
+  </si>
+  <si>
     <t>wave_36</t>
   </si>
   <si>
@@ -708,6 +813,9 @@
     <t>models/items/courier/throe/throe.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_36</t>
+  </si>
+  <si>
     <t>wave_37</t>
   </si>
   <si>
@@ -717,6 +825,9 @@
     <t>models/items/courier/deathbringer/deathbringer.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_37</t>
+  </si>
+  <si>
     <t>wave_38</t>
   </si>
   <si>
@@ -726,6 +837,9 @@
     <t>models/items/beastmaster/boar/shrieking_razorback/shrieking_razorback.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_38</t>
+  </si>
+  <si>
     <t>wave_39</t>
   </si>
   <si>
@@ -735,6 +849,9 @@
     <t>models/items/furion/treant/allfather_of_nature_treant/allfather_of_nature_treant.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_39</t>
+  </si>
+  <si>
     <t>wave_40</t>
   </si>
   <si>
@@ -744,6 +861,9 @@
     <t>models/items/courier/babka_bewitcher_blue/babka_bewitcher_blue_flying.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_40</t>
+  </si>
+  <si>
     <t>wave_41</t>
   </si>
   <si>
@@ -753,6 +873,9 @@
     <t>models/creeps/lane_creeps/creep_bad_melee/creep_bad_melee_mega.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_41</t>
+  </si>
+  <si>
     <t>wave_42</t>
   </si>
   <si>
@@ -762,6 +885,9 @@
     <t>models/creeps/lane_creeps/creep_dire_hulk/creep_dire_ancient_hulk.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_42</t>
+  </si>
+  <si>
     <t>wave_43</t>
   </si>
   <si>
@@ -771,6 +897,9 @@
     <t>models/heroes/warlock/warlock_demon.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_43</t>
+  </si>
+  <si>
     <t>wave_44</t>
   </si>
   <si>
@@ -780,12 +909,18 @@
     <t>models/items/courier/amphibian_kid/amphibian_kid.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_44</t>
+  </si>
+  <si>
     <t>wave_45</t>
   </si>
   <si>
     <t>models/courier/mega_greevil_courier/mega_greevil_courier.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_45</t>
+  </si>
+  <si>
     <t>wave_46</t>
   </si>
   <si>
@@ -795,6 +930,9 @@
     <t>models/courier/frog/frog.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_46</t>
+  </si>
+  <si>
     <t>wave_47</t>
   </si>
   <si>
@@ -804,6 +942,9 @@
     <t>models/items/furion/treant/treant_cis/treant_cis.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_47</t>
+  </si>
+  <si>
     <t>wave_48</t>
   </si>
   <si>
@@ -813,6 +954,9 @@
     <t>models/items/furion/treant/furion_treant_nelum_red/furion_treant_nelum_red.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_48</t>
+  </si>
+  <si>
     <t>wave_49</t>
   </si>
   <si>
@@ -822,6 +966,9 @@
     <t>models/items/furion/treant/primeval_treant/primeval_treant.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_49</t>
+  </si>
+  <si>
     <t>wave_50</t>
   </si>
   <si>
@@ -831,6 +978,9 @@
     <t>models/items/hex/fish_hex/fish_hex.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_50</t>
+  </si>
+  <si>
     <t>wave_51</t>
   </si>
   <si>
@@ -840,6 +990,9 @@
     <t>models/items/courier/deathripper/deathripper.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_51</t>
+  </si>
+  <si>
     <t>wave_52</t>
   </si>
   <si>
@@ -849,6 +1002,9 @@
     <t>models/items/courier/nexon_turtle_11_blue/nexon_turtle_11_blue.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_52</t>
+  </si>
+  <si>
     <t>wave_53</t>
   </si>
   <si>
@@ -858,6 +1014,9 @@
     <t>models/items/furion/treant/the_ancient_guardian_the_ancient_treants/the_ancient_guardian_the_ancient_treants.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_53</t>
+  </si>
+  <si>
     <t>wave_54</t>
   </si>
   <si>
@@ -867,6 +1026,9 @@
     <t>models/items/courier/butch_pudge_dog/butch_pudge_dog.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_54</t>
+  </si>
+  <si>
     <t>wave_55</t>
   </si>
   <si>
@@ -882,6 +1044,9 @@
     <t>minimap_roshancamp</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_55</t>
+  </si>
+  <si>
     <t>wave_goldx3</t>
   </si>
   <si>
@@ -897,6 +1062,9 @@
     <t>minimap_ancient</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_goldx3</t>
+  </si>
+  <si>
     <t>wave_gold</t>
   </si>
   <si>
@@ -906,6 +1074,9 @@
     <t>models/courier/flopjaw/flopjaw.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_gold</t>
+  </si>
+  <si>
     <t>wave_phantom_roshan</t>
   </si>
   <si>
@@ -915,6 +1086,9 @@
     <t>models/courier/baby_rosh/babyroshan_ti10_flying.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_phantom_roshan</t>
+  </si>
+  <si>
     <t>wave_challenge_gold</t>
   </si>
   <si>
@@ -924,6 +1098,9 @@
     <t>models/courier/greevil/gold_greevil.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_challenge_gold</t>
+  </si>
+  <si>
     <t>wave_challenge_wood</t>
   </si>
   <si>
@@ -933,6 +1110,9 @@
     <t>models/items/furion/treant/fungal_lord_shroomthing/fungal_lord_shroomthing.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_challenge_wood</t>
+  </si>
+  <si>
     <t>wave_challenge_crystal</t>
   </si>
   <si>
@@ -942,6 +1122,9 @@
     <t>models/creeps/ice_biome/ogreseal/ogreseal_rednose.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_challenge_crystal</t>
+  </si>
+  <si>
     <t>wave_challenge_equip</t>
   </si>
   <si>
@@ -951,6 +1134,9 @@
     <t>models/creeps/neutral_creeps/n_creep_dragonspawn_a/n_creep_dragonspawn_a.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_challenge_equip</t>
+  </si>
+  <si>
     <t>wave_challenge_star_card</t>
   </si>
   <si>
@@ -960,6 +1146,9 @@
     <t>models/creeps/ice_biome/ogreseal/ogreseal_undead.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_challenge_star_card</t>
+  </si>
+  <si>
     <t>wave_challenge_woodlevel</t>
   </si>
   <si>
@@ -969,6 +1158,9 @@
     <t>models/creeps/lane_creeps/ti9_crocodilian_dire/ti9_crocodilian_dire_ranged.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_challenge_woodlevel</t>
+  </si>
+  <si>
     <t>roshan_accompany_physical</t>
   </si>
   <si>
@@ -978,18 +1170,27 @@
     <t>models/courier/baby_rosh/babyroshan_elemental_flying.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\roshan_accompany_physical</t>
+  </si>
+  <si>
     <t>roshan_accompany_magical</t>
   </si>
   <si>
     <t>小肉山-魔法</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\roshan_accompany_magical</t>
+  </si>
+  <si>
     <t>roshan_3</t>
   </si>
   <si>
     <t>小肉山3</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\roshan_3</t>
+  </si>
+  <si>
     <t>candy_meteor</t>
   </si>
   <si>
@@ -1002,6 +1203,9 @@
     <t>models/props_structures/spring_meteor/spring_meteor.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\candy_meteor</t>
+  </si>
+  <si>
     <t>wave_candy</t>
   </si>
   <si>
@@ -1014,6 +1218,9 @@
     <t>models/creeps/lane_creeps/creep_bad_melee/creep_bad_melee_mega_crystal.vmdl</t>
   </si>
   <si>
+    <t>npc\units\building\enemy\wave_candy</t>
+  </si>
+  <si>
     <t>candy_boss</t>
   </si>
   <si>
@@ -1024,6 +1231,9 @@
   </si>
   <si>
     <t>minimap_nian</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\candy_boss</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1199,10 +1409,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1247,7 +1457,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1261,15 +1516,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1277,6 +1558,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1292,69 +1587,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1362,29 +1595,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1411,13 +1621,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,7 +1687,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,31 +1765,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,109 +1801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1677,15 +1887,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1697,6 +1898,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1718,44 +1943,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1774,16 +1966,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1792,137 +2002,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1975,6 +2185,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2297,8 +2516,8 @@
   <sheetPr/>
   <dimension ref="A1:BI72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1:AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2314,6 +2533,7 @@
     <col min="27" max="27" width="14.8333333333333" customWidth="1"/>
     <col min="31" max="31" width="17.5833333333333" customWidth="1"/>
     <col min="38" max="38" width="31.25" customWidth="1"/>
+    <col min="43" max="43" width="32.0833333333333" style="19" customWidth="1"/>
     <col min="44" max="46" width="15.25" customWidth="1"/>
     <col min="47" max="51" width="9.08333333333333" customWidth="1"/>
     <col min="53" max="53" width="16.1666666666667" customWidth="1"/>
@@ -2805,7 +3025,9 @@
       <c r="AP3" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ3" s="6"/>
+      <c r="AQ3" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="AR3" s="8"/>
       <c r="AS3" s="8"/>
       <c r="AT3" s="8"/>
@@ -2828,25 +3050,25 @@
         <v>1500</v>
       </c>
       <c r="BG3" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH3" s="8"/>
       <c r="BI3" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:61">
       <c r="A4" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E4" s="6">
         <v>2</v>
@@ -2911,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD4" s="6">
         <v>1.1</v>
@@ -2941,7 +3163,7 @@
         <v>116</v>
       </c>
       <c r="AM4" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN4" s="9">
         <v>900</v>
@@ -2952,7 +3174,9 @@
       <c r="AP4" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ4" s="6"/>
+      <c r="AQ4" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="AR4" s="8"/>
       <c r="AS4" s="8"/>
       <c r="AT4" s="8"/>
@@ -2975,25 +3199,25 @@
         <v>1500</v>
       </c>
       <c r="BG4" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH4" s="8"/>
       <c r="BI4" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" ht="15.5" spans="1:61">
       <c r="A5" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E5" s="6">
         <v>3</v>
@@ -3058,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AD5" s="6">
         <v>1</v>
@@ -3095,7 +3319,9 @@
       <c r="AP5" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ5" s="6"/>
+      <c r="AQ5" s="21" t="s">
+        <v>130</v>
+      </c>
       <c r="AR5" s="8"/>
       <c r="AS5" s="8"/>
       <c r="AT5" s="8"/>
@@ -3118,25 +3344,25 @@
         <v>1500</v>
       </c>
       <c r="BG5" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH5" s="8"/>
       <c r="BI5" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" ht="15.5" spans="1:61">
       <c r="A6" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
@@ -3201,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AD6" s="9">
         <v>1</v>
@@ -3238,7 +3464,9 @@
       <c r="AP6" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ6" s="6"/>
+      <c r="AQ6" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8"/>
       <c r="AT6" s="8"/>
@@ -3261,25 +3489,25 @@
         <v>1500</v>
       </c>
       <c r="BG6" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH6" s="8"/>
       <c r="BI6" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" ht="15.5" spans="1:61">
       <c r="A7" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E7" s="6">
         <v>4</v>
@@ -3344,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AD7" s="9">
         <v>2</v>
@@ -3356,7 +3584,7 @@
         <v>114</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH7" s="6">
         <v>350</v>
@@ -3381,7 +3609,9 @@
       <c r="AP7" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ7" s="6"/>
+      <c r="AQ7" s="21" t="s">
+        <v>139</v>
+      </c>
       <c r="AR7" s="8"/>
       <c r="AS7" s="8"/>
       <c r="AT7" s="8"/>
@@ -3404,25 +3634,25 @@
         <v>1500</v>
       </c>
       <c r="BG7" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH7" s="8"/>
       <c r="BI7" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" ht="15.5" spans="1:61">
       <c r="A8" s="6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
@@ -3487,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD8" s="9">
         <v>1</v>
@@ -3524,7 +3754,9 @@
       <c r="AP8" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ8" s="6"/>
+      <c r="AQ8" s="21" t="s">
+        <v>141</v>
+      </c>
       <c r="AR8" s="8"/>
       <c r="AS8" s="8"/>
       <c r="AT8" s="8"/>
@@ -3547,25 +3779,25 @@
         <v>1500</v>
       </c>
       <c r="BG8" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH8" s="8"/>
       <c r="BI8" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" ht="15.5" spans="1:61">
       <c r="A9" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E9" s="6">
         <v>4</v>
@@ -3630,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD9" s="7">
         <v>1</v>
@@ -3660,7 +3892,7 @@
         <v>116</v>
       </c>
       <c r="AM9" s="9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AN9" s="9">
         <v>900</v>
@@ -3671,7 +3903,9 @@
       <c r="AP9" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ9" s="6"/>
+      <c r="AQ9" s="21" t="s">
+        <v>146</v>
+      </c>
       <c r="AR9" s="8"/>
       <c r="AS9" s="8"/>
       <c r="AT9" s="8"/>
@@ -3694,25 +3928,25 @@
         <v>1500</v>
       </c>
       <c r="BG9" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH9" s="8"/>
       <c r="BI9" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" ht="15.5" spans="1:61">
       <c r="A10" s="6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E10" s="6">
         <v>4</v>
@@ -3777,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AD10" s="7">
         <v>1</v>
@@ -3814,7 +4048,9 @@
       <c r="AP10" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ10" s="6"/>
+      <c r="AQ10" s="21" t="s">
+        <v>150</v>
+      </c>
       <c r="AR10" s="8"/>
       <c r="AS10" s="8"/>
       <c r="AT10" s="8"/>
@@ -3837,25 +4073,25 @@
         <v>1500</v>
       </c>
       <c r="BG10" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH10" s="8"/>
       <c r="BI10" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" ht="15.5" spans="1:61">
       <c r="A11" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E11" s="6">
         <v>5</v>
@@ -3920,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AD11" s="7">
         <v>1</v>
@@ -3957,7 +4193,9 @@
       <c r="AP11" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ11" s="6"/>
+      <c r="AQ11" s="21" t="s">
+        <v>154</v>
+      </c>
       <c r="AR11" s="8"/>
       <c r="AS11" s="8"/>
       <c r="AT11" s="8"/>
@@ -3980,25 +4218,25 @@
         <v>1500</v>
       </c>
       <c r="BG11" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH11" s="8"/>
       <c r="BI11" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" ht="15.5" spans="1:61">
       <c r="A12" s="6" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E12" s="6">
         <v>3</v>
@@ -4063,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AD12" s="7">
         <v>2</v>
@@ -4075,7 +4313,7 @@
         <v>114</v>
       </c>
       <c r="AG12" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH12" s="6">
         <v>350</v>
@@ -4100,7 +4338,9 @@
       <c r="AP12" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ12" s="6"/>
+      <c r="AQ12" s="21" t="s">
+        <v>158</v>
+      </c>
       <c r="AR12" s="8"/>
       <c r="AS12" s="8"/>
       <c r="AT12" s="8"/>
@@ -4123,25 +4363,25 @@
         <v>1500</v>
       </c>
       <c r="BG12" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH12" s="8"/>
       <c r="BI12" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" ht="15.5" spans="1:61">
       <c r="A13" s="6" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E13" s="6">
         <v>4</v>
@@ -4206,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="AD13" s="7">
         <v>1.3</v>
@@ -4236,7 +4476,7 @@
         <v>116</v>
       </c>
       <c r="AM13" s="9" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AN13" s="9">
         <v>900</v>
@@ -4247,7 +4487,9 @@
       <c r="AP13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ13" s="6"/>
+      <c r="AQ13" s="21" t="s">
+        <v>163</v>
+      </c>
       <c r="AR13" s="8"/>
       <c r="AS13" s="8"/>
       <c r="AT13" s="8"/>
@@ -4270,25 +4512,25 @@
         <v>1500</v>
       </c>
       <c r="BG13" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH13" s="8"/>
       <c r="BI13" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" ht="15.5" spans="1:61">
       <c r="A14" s="6" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E14" s="6">
         <v>4</v>
@@ -4353,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AD14" s="7">
         <v>1</v>
@@ -4390,7 +4632,9 @@
       <c r="AP14" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ14" s="6"/>
+      <c r="AQ14" s="21" t="s">
+        <v>167</v>
+      </c>
       <c r="AR14" s="8"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
@@ -4413,25 +4657,25 @@
         <v>1500</v>
       </c>
       <c r="BG14" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH14" s="8"/>
       <c r="BI14" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" ht="15.5" spans="1:61">
       <c r="A15" s="6" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E15" s="6">
         <v>5</v>
@@ -4496,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AD15" s="7">
         <v>1</v>
@@ -4533,7 +4777,9 @@
       <c r="AP15" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ15" s="6"/>
+      <c r="AQ15" s="21" t="s">
+        <v>171</v>
+      </c>
       <c r="AR15" s="8"/>
       <c r="AS15" s="8"/>
       <c r="AT15" s="8"/>
@@ -4556,25 +4802,25 @@
         <v>1500</v>
       </c>
       <c r="BG15" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH15" s="8"/>
       <c r="BI15" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" ht="15.5" spans="1:61">
       <c r="A16" s="6" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E16" s="6">
         <v>6</v>
@@ -4639,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="AD16" s="9">
         <v>1</v>
@@ -4669,7 +4915,7 @@
         <v>116</v>
       </c>
       <c r="AM16" s="9" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="AN16" s="9">
         <v>900</v>
@@ -4680,7 +4926,9 @@
       <c r="AP16" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ16" s="6"/>
+      <c r="AQ16" s="21" t="s">
+        <v>176</v>
+      </c>
       <c r="AR16" s="8"/>
       <c r="AS16" s="8"/>
       <c r="AT16" s="8"/>
@@ -4703,25 +4951,25 @@
         <v>1500</v>
       </c>
       <c r="BG16" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH16" s="8"/>
       <c r="BI16" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" ht="15.5" spans="1:61">
       <c r="A17" s="6" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="E17" s="6">
         <v>5</v>
@@ -4786,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="AD17" s="7">
         <v>2</v>
@@ -4798,7 +5046,7 @@
         <v>114</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH17" s="6">
         <v>350</v>
@@ -4823,7 +5071,9 @@
       <c r="AP17" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ17" s="6"/>
+      <c r="AQ17" s="21" t="s">
+        <v>180</v>
+      </c>
       <c r="AR17" s="8"/>
       <c r="AS17" s="8"/>
       <c r="AT17" s="8"/>
@@ -4846,25 +5096,25 @@
         <v>1500</v>
       </c>
       <c r="BG17" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH17" s="8"/>
       <c r="BI17" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" ht="15.5" spans="1:61">
       <c r="A18" s="6" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="E18" s="6">
         <v>4</v>
@@ -4929,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="AD18" s="7">
         <v>1.1</v>
@@ -4966,7 +5216,9 @@
       <c r="AP18" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ18" s="6"/>
+      <c r="AQ18" s="21" t="s">
+        <v>184</v>
+      </c>
       <c r="AR18" s="8"/>
       <c r="AS18" s="8"/>
       <c r="AT18" s="8"/>
@@ -4989,25 +5241,25 @@
         <v>1500</v>
       </c>
       <c r="BG18" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH18" s="8"/>
       <c r="BI18" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" ht="15.5" spans="1:61">
       <c r="A19" s="6" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="E19" s="6">
         <v>5</v>
@@ -5072,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="AD19" s="9">
         <v>1.1</v>
@@ -5109,7 +5361,9 @@
       <c r="AP19" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ19" s="6"/>
+      <c r="AQ19" s="21" t="s">
+        <v>188</v>
+      </c>
       <c r="AR19" s="8"/>
       <c r="AS19" s="8"/>
       <c r="AT19" s="8"/>
@@ -5132,25 +5386,25 @@
         <v>1500</v>
       </c>
       <c r="BG19" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH19" s="8"/>
       <c r="BI19" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" ht="15.5" spans="1:61">
       <c r="A20" s="6" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E20" s="6">
         <v>5</v>
@@ -5215,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="AD20" s="9">
         <v>2</v>
@@ -5245,7 +5499,7 @@
         <v>116</v>
       </c>
       <c r="AM20" s="9" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="AN20" s="9">
         <v>900</v>
@@ -5256,7 +5510,9 @@
       <c r="AP20" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ20" s="6"/>
+      <c r="AQ20" s="21" t="s">
+        <v>193</v>
+      </c>
       <c r="AR20" s="8"/>
       <c r="AS20" s="8"/>
       <c r="AT20" s="8"/>
@@ -5279,25 +5535,25 @@
         <v>1500</v>
       </c>
       <c r="BG20" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH20" s="8"/>
       <c r="BI20" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" ht="15.5" spans="1:61">
       <c r="A21" s="6" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="E21" s="6">
         <v>6</v>
@@ -5362,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="AD21" s="9">
         <v>1</v>
@@ -5399,7 +5655,9 @@
       <c r="AP21" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ21" s="6"/>
+      <c r="AQ21" s="21" t="s">
+        <v>197</v>
+      </c>
       <c r="AR21" s="8"/>
       <c r="AS21" s="8"/>
       <c r="AT21" s="8"/>
@@ -5422,25 +5680,25 @@
         <v>1500</v>
       </c>
       <c r="BG21" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH21" s="8"/>
       <c r="BI21" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" ht="15.5" spans="1:61">
       <c r="A22" s="6" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="E22" s="6">
         <v>6</v>
@@ -5505,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="AD22" s="9">
         <v>2</v>
@@ -5517,7 +5775,7 @@
         <v>114</v>
       </c>
       <c r="AG22" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH22" s="6">
         <v>350</v>
@@ -5542,7 +5800,9 @@
       <c r="AP22" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ22" s="6"/>
+      <c r="AQ22" s="21" t="s">
+        <v>201</v>
+      </c>
       <c r="AR22" s="8"/>
       <c r="AS22" s="8"/>
       <c r="AT22" s="8"/>
@@ -5565,25 +5825,25 @@
         <v>1500</v>
       </c>
       <c r="BG22" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH22" s="8"/>
       <c r="BI22" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" ht="15.5" spans="1:61">
       <c r="A23" s="6" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="E23" s="6">
         <v>7</v>
@@ -5648,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="AD23" s="9">
         <v>0.5</v>
@@ -5685,7 +5945,9 @@
       <c r="AP23" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ23" s="6"/>
+      <c r="AQ23" s="21" t="s">
+        <v>205</v>
+      </c>
       <c r="AR23" s="8"/>
       <c r="AS23" s="8"/>
       <c r="AT23" s="8"/>
@@ -5708,25 +5970,25 @@
         <v>1500</v>
       </c>
       <c r="BG23" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH23" s="8"/>
       <c r="BI23" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" ht="15.5" spans="1:61">
       <c r="A24" s="6" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="E24" s="6">
         <v>8</v>
@@ -5791,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="AD24" s="9">
         <v>0.7</v>
@@ -5828,7 +6090,9 @@
       <c r="AP24" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ24" s="6"/>
+      <c r="AQ24" s="21" t="s">
+        <v>209</v>
+      </c>
       <c r="AR24" s="8"/>
       <c r="AS24" s="8"/>
       <c r="AT24" s="8"/>
@@ -5851,25 +6115,25 @@
         <v>1500</v>
       </c>
       <c r="BG24" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH24" s="8"/>
       <c r="BI24" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" ht="15.5" spans="1:61">
       <c r="A25" s="6" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E25" s="6">
         <v>9</v>
@@ -5934,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="AD25" s="9">
         <v>1.5</v>
@@ -5971,7 +6235,9 @@
       <c r="AP25" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ25" s="6"/>
+      <c r="AQ25" s="21" t="s">
+        <v>213</v>
+      </c>
       <c r="AR25" s="8"/>
       <c r="AS25" s="8"/>
       <c r="AT25" s="8"/>
@@ -5994,25 +6260,25 @@
         <v>1500</v>
       </c>
       <c r="BG25" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH25" s="8"/>
       <c r="BI25" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" ht="15.5" spans="1:61">
       <c r="A26" s="6" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="E26" s="6">
         <v>10</v>
@@ -6077,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="AD26" s="9">
         <v>1.5</v>
@@ -6089,7 +6355,7 @@
         <v>114</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH26" s="6">
         <v>350</v>
@@ -6114,7 +6380,9 @@
       <c r="AP26" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ26" s="6"/>
+      <c r="AQ26" s="21" t="s">
+        <v>217</v>
+      </c>
       <c r="AR26" s="8"/>
       <c r="AS26" s="8"/>
       <c r="AT26" s="8"/>
@@ -6137,25 +6405,25 @@
         <v>1500</v>
       </c>
       <c r="BG26" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH26" s="8"/>
       <c r="BI26" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" ht="15.5" spans="1:61">
       <c r="A27" s="6" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="E27" s="6">
         <v>12</v>
@@ -6220,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="AD27" s="9">
         <v>2</v>
@@ -6232,7 +6500,7 @@
         <v>114</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH27" s="6">
         <v>350</v>
@@ -6257,7 +6525,9 @@
       <c r="AP27" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ27" s="6"/>
+      <c r="AQ27" s="21" t="s">
+        <v>221</v>
+      </c>
       <c r="AR27" s="8"/>
       <c r="AS27" s="8"/>
       <c r="AT27" s="8"/>
@@ -6280,25 +6550,25 @@
         <v>1500</v>
       </c>
       <c r="BG27" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH27" s="8"/>
       <c r="BI27" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" ht="15.5" spans="1:61">
       <c r="A28" s="6" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="E28" s="6">
         <v>12</v>
@@ -6363,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AD28" s="9">
         <v>1.1</v>
@@ -6375,7 +6645,7 @@
         <v>114</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH28" s="6">
         <v>350</v>
@@ -6400,7 +6670,9 @@
       <c r="AP28" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ28" s="6"/>
+      <c r="AQ28" s="21" t="s">
+        <v>225</v>
+      </c>
       <c r="AR28" s="8"/>
       <c r="AS28" s="8"/>
       <c r="AT28" s="8"/>
@@ -6423,25 +6695,25 @@
         <v>1500</v>
       </c>
       <c r="BG28" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH28" s="8"/>
       <c r="BI28" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" ht="15.5" spans="1:61">
       <c r="A29" s="6" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="E29" s="6">
         <v>13</v>
@@ -6506,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="AD29" s="9">
         <v>1</v>
@@ -6543,7 +6815,9 @@
       <c r="AP29" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ29" s="6"/>
+      <c r="AQ29" s="21" t="s">
+        <v>229</v>
+      </c>
       <c r="AR29" s="8"/>
       <c r="AS29" s="8"/>
       <c r="AT29" s="8"/>
@@ -6566,25 +6840,25 @@
         <v>1500</v>
       </c>
       <c r="BG29" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH29" s="8"/>
       <c r="BI29" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" ht="15.5" spans="1:61">
       <c r="A30" s="6" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E30" s="6">
         <v>14</v>
@@ -6649,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="AD30" s="9">
         <v>1.2</v>
@@ -6661,7 +6935,7 @@
         <v>114</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH30" s="6">
         <v>350</v>
@@ -6686,7 +6960,9 @@
       <c r="AP30" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ30" s="6"/>
+      <c r="AQ30" s="21" t="s">
+        <v>233</v>
+      </c>
       <c r="AR30" s="8"/>
       <c r="AS30" s="8"/>
       <c r="AT30" s="8"/>
@@ -6709,25 +6985,25 @@
         <v>1500</v>
       </c>
       <c r="BG30" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH30" s="8"/>
       <c r="BI30" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" ht="15.5" spans="1:61">
       <c r="A31" s="6" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="E31" s="6">
         <v>15</v>
@@ -6792,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="AD31" s="9">
         <v>1</v>
@@ -6804,7 +7080,7 @@
         <v>114</v>
       </c>
       <c r="AG31" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH31" s="6">
         <v>350</v>
@@ -6829,7 +7105,9 @@
       <c r="AP31" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ31" s="6"/>
+      <c r="AQ31" s="21" t="s">
+        <v>237</v>
+      </c>
       <c r="AR31" s="8"/>
       <c r="AS31" s="8"/>
       <c r="AT31" s="8"/>
@@ -6852,25 +7130,25 @@
         <v>1500</v>
       </c>
       <c r="BG31" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH31" s="8"/>
       <c r="BI31" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" ht="15.5" spans="1:61">
       <c r="A32" s="6" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="E32" s="6">
         <v>16</v>
@@ -6935,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="AD32" s="9">
         <v>2</v>
@@ -6947,7 +7225,7 @@
         <v>114</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH32" s="6">
         <v>350</v>
@@ -6972,7 +7250,9 @@
       <c r="AP32" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ32" s="6"/>
+      <c r="AQ32" s="21" t="s">
+        <v>241</v>
+      </c>
       <c r="AR32" s="8"/>
       <c r="AS32" s="8"/>
       <c r="AT32" s="8"/>
@@ -6995,25 +7275,25 @@
         <v>1500</v>
       </c>
       <c r="BG32" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH32" s="8"/>
       <c r="BI32" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" ht="15.5" spans="1:61">
       <c r="A33" s="6" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="E33" s="6">
         <v>17</v>
@@ -7078,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="AD33" s="9">
         <v>0.7</v>
@@ -7090,7 +7370,7 @@
         <v>114</v>
       </c>
       <c r="AG33" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH33" s="6">
         <v>350</v>
@@ -7115,7 +7395,9 @@
       <c r="AP33" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ33" s="6"/>
+      <c r="AQ33" s="21" t="s">
+        <v>245</v>
+      </c>
       <c r="AR33" s="8"/>
       <c r="AS33" s="8"/>
       <c r="AT33" s="8"/>
@@ -7138,25 +7420,25 @@
         <v>1500</v>
       </c>
       <c r="BG33" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH33" s="8"/>
       <c r="BI33" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" ht="15.5" spans="1:61">
       <c r="A34" s="6" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="E34" s="6">
         <v>17</v>
@@ -7221,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AD34" s="9">
         <v>1</v>
@@ -7258,7 +7540,9 @@
       <c r="AP34" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ34" s="6"/>
+      <c r="AQ34" s="21" t="s">
+        <v>249</v>
+      </c>
       <c r="AR34" s="8"/>
       <c r="AS34" s="8"/>
       <c r="AT34" s="8"/>
@@ -7281,25 +7565,25 @@
         <v>1500</v>
       </c>
       <c r="BG34" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH34" s="8"/>
       <c r="BI34" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" ht="15.5" spans="1:61">
       <c r="A35" s="6" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="E35" s="6">
         <v>18</v>
@@ -7364,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="AD35" s="9">
         <v>1</v>
@@ -7401,7 +7685,9 @@
       <c r="AP35" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ35" s="6"/>
+      <c r="AQ35" s="21" t="s">
+        <v>253</v>
+      </c>
       <c r="AR35" s="8"/>
       <c r="AS35" s="8"/>
       <c r="AT35" s="8"/>
@@ -7424,25 +7710,25 @@
         <v>1500</v>
       </c>
       <c r="BG35" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH35" s="8"/>
       <c r="BI35" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" ht="15.5" spans="1:61">
       <c r="A36" s="6" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="E36" s="6">
         <v>22</v>
@@ -7507,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="AD36" s="9">
         <v>1.3</v>
@@ -7544,7 +7830,9 @@
       <c r="AP36" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ36" s="6"/>
+      <c r="AQ36" s="21" t="s">
+        <v>257</v>
+      </c>
       <c r="AR36" s="8"/>
       <c r="AS36" s="8"/>
       <c r="AT36" s="8"/>
@@ -7567,25 +7855,25 @@
         <v>1500</v>
       </c>
       <c r="BG36" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH36" s="8"/>
       <c r="BI36" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" ht="15.5" spans="1:61">
       <c r="A37" s="6" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="E37" s="6">
         <v>22</v>
@@ -7650,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="AD37" s="9">
         <v>2</v>
@@ -7662,7 +7950,7 @@
         <v>114</v>
       </c>
       <c r="AG37" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH37" s="6">
         <v>350</v>
@@ -7687,7 +7975,9 @@
       <c r="AP37" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ37" s="6"/>
+      <c r="AQ37" s="21" t="s">
+        <v>261</v>
+      </c>
       <c r="AR37" s="8"/>
       <c r="AS37" s="8"/>
       <c r="AT37" s="8"/>
@@ -7710,25 +8000,25 @@
         <v>1500</v>
       </c>
       <c r="BG37" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH37" s="8"/>
       <c r="BI37" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" ht="15.5" spans="1:61">
       <c r="A38" s="6" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="E38" s="6">
         <v>23</v>
@@ -7793,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="AD38" s="9">
         <v>2</v>
@@ -7830,7 +8120,9 @@
       <c r="AP38" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ38" s="6"/>
+      <c r="AQ38" s="21" t="s">
+        <v>265</v>
+      </c>
       <c r="AR38" s="8"/>
       <c r="AS38" s="8"/>
       <c r="AT38" s="8"/>
@@ -7853,25 +8145,25 @@
         <v>1500</v>
       </c>
       <c r="BG38" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH38" s="8"/>
       <c r="BI38" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" ht="15.5" spans="1:61">
       <c r="A39" s="6" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="E39" s="6">
         <v>24</v>
@@ -7936,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="AD39" s="9">
         <v>1</v>
@@ -7973,7 +8265,9 @@
       <c r="AP39" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ39" s="6"/>
+      <c r="AQ39" s="21" t="s">
+        <v>269</v>
+      </c>
       <c r="AR39" s="8"/>
       <c r="AS39" s="8"/>
       <c r="AT39" s="8"/>
@@ -7996,25 +8290,25 @@
         <v>1500</v>
       </c>
       <c r="BG39" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH39" s="8"/>
       <c r="BI39" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="15.5" spans="1:61">
       <c r="A40" s="6" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="E40" s="6">
         <v>25</v>
@@ -8079,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="AD40" s="9">
         <v>0.7</v>
@@ -8116,7 +8410,9 @@
       <c r="AP40" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ40" s="6"/>
+      <c r="AQ40" s="21" t="s">
+        <v>273</v>
+      </c>
       <c r="AR40" s="8"/>
       <c r="AS40" s="8"/>
       <c r="AT40" s="8"/>
@@ -8139,25 +8435,25 @@
         <v>1500</v>
       </c>
       <c r="BG40" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH40" s="8"/>
       <c r="BI40" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" ht="15.5" spans="1:61">
       <c r="A41" s="6" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="E41" s="6">
         <v>30</v>
@@ -8222,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="6" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="AD41" s="9">
         <v>0.7</v>
@@ -8259,7 +8555,9 @@
       <c r="AP41" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ41" s="6"/>
+      <c r="AQ41" s="21" t="s">
+        <v>277</v>
+      </c>
       <c r="AR41" s="8"/>
       <c r="AS41" s="8"/>
       <c r="AT41" s="8"/>
@@ -8282,25 +8580,25 @@
         <v>1500</v>
       </c>
       <c r="BG41" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH41" s="8"/>
       <c r="BI41" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" ht="15.5" spans="1:61">
       <c r="A42" s="6" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="E42" s="6">
         <v>32</v>
@@ -8365,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="6" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="AD42" s="9">
         <v>2</v>
@@ -8377,7 +8675,7 @@
         <v>114</v>
       </c>
       <c r="AG42" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH42" s="6">
         <v>350</v>
@@ -8402,7 +8700,9 @@
       <c r="AP42" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ42" s="6"/>
+      <c r="AQ42" s="21" t="s">
+        <v>281</v>
+      </c>
       <c r="AR42" s="8"/>
       <c r="AS42" s="8"/>
       <c r="AT42" s="8"/>
@@ -8425,25 +8725,25 @@
         <v>1500</v>
       </c>
       <c r="BG42" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH42" s="8"/>
       <c r="BI42" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" ht="15.5" spans="1:61">
       <c r="A43" s="6" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="E43" s="6">
         <v>28</v>
@@ -8508,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="6" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="AD43" s="9">
         <v>1</v>
@@ -8520,7 +8820,7 @@
         <v>114</v>
       </c>
       <c r="AG43" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH43" s="6">
         <v>350</v>
@@ -8545,7 +8845,9 @@
       <c r="AP43" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ43" s="6"/>
+      <c r="AQ43" s="21" t="s">
+        <v>285</v>
+      </c>
       <c r="AR43" s="8"/>
       <c r="AS43" s="8"/>
       <c r="AT43" s="8"/>
@@ -8568,25 +8870,25 @@
         <v>1500</v>
       </c>
       <c r="BG43" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH43" s="8"/>
       <c r="BI43" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" ht="15.5" spans="1:61">
       <c r="A44" s="6" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="E44" s="6">
         <v>29</v>
@@ -8651,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="AD44" s="9">
         <v>0.8</v>
@@ -8663,7 +8965,7 @@
         <v>114</v>
       </c>
       <c r="AG44" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH44" s="6">
         <v>350</v>
@@ -8688,7 +8990,9 @@
       <c r="AP44" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ44" s="6"/>
+      <c r="AQ44" s="21" t="s">
+        <v>289</v>
+      </c>
       <c r="AR44" s="8"/>
       <c r="AS44" s="8"/>
       <c r="AT44" s="8"/>
@@ -8711,25 +9015,25 @@
         <v>1500</v>
       </c>
       <c r="BG44" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH44" s="8"/>
       <c r="BI44" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" ht="15.5" spans="1:61">
       <c r="A45" s="6" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="E45" s="6">
         <v>27</v>
@@ -8794,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="AD45" s="9">
         <v>1</v>
@@ -8806,7 +9110,7 @@
         <v>114</v>
       </c>
       <c r="AG45" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH45" s="6">
         <v>350</v>
@@ -8831,7 +9135,9 @@
       <c r="AP45" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ45" s="6"/>
+      <c r="AQ45" s="21" t="s">
+        <v>293</v>
+      </c>
       <c r="AR45" s="8"/>
       <c r="AS45" s="8"/>
       <c r="AT45" s="8"/>
@@ -8854,25 +9160,25 @@
         <v>1500</v>
       </c>
       <c r="BG45" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH45" s="8"/>
       <c r="BI45" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" ht="15.5" spans="1:61">
       <c r="A46" s="6" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="E46" s="6">
         <v>27</v>
@@ -8937,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="AD46" s="9">
         <v>2</v>
@@ -8949,7 +9255,7 @@
         <v>114</v>
       </c>
       <c r="AG46" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH46" s="6">
         <v>350</v>
@@ -8974,7 +9280,9 @@
       <c r="AP46" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ46" s="6"/>
+      <c r="AQ46" s="21" t="s">
+        <v>297</v>
+      </c>
       <c r="AR46" s="8"/>
       <c r="AS46" s="8"/>
       <c r="AT46" s="8"/>
@@ -8997,25 +9305,25 @@
         <v>1500</v>
       </c>
       <c r="BG46" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH46" s="8"/>
       <c r="BI46" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" ht="15.5" spans="1:61">
       <c r="A47" s="6" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="E47" s="6">
         <v>32</v>
@@ -9080,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="AD47" s="9">
         <v>1.2</v>
@@ -9092,7 +9400,7 @@
         <v>114</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH47" s="6">
         <v>350</v>
@@ -9117,7 +9425,9 @@
       <c r="AP47" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ47" s="6"/>
+      <c r="AQ47" s="21" t="s">
+        <v>300</v>
+      </c>
       <c r="AR47" s="8"/>
       <c r="AS47" s="8"/>
       <c r="AT47" s="8"/>
@@ -9140,25 +9450,25 @@
         <v>1500</v>
       </c>
       <c r="BG47" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH47" s="8"/>
       <c r="BI47" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" ht="15.5" spans="1:61">
       <c r="A48" s="6" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="E48" s="6">
         <v>33</v>
@@ -9223,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="AD48" s="9">
         <v>1.3</v>
@@ -9260,7 +9570,9 @@
       <c r="AP48" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ48" s="6"/>
+      <c r="AQ48" s="21" t="s">
+        <v>304</v>
+      </c>
       <c r="AR48" s="8"/>
       <c r="AS48" s="8"/>
       <c r="AT48" s="8"/>
@@ -9283,25 +9595,25 @@
         <v>1500</v>
       </c>
       <c r="BG48" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH48" s="8"/>
       <c r="BI48" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" ht="15.5" spans="1:61">
       <c r="A49" s="6" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="E49" s="6">
         <v>34</v>
@@ -9366,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="AD49" s="9">
         <v>1.3</v>
@@ -9378,7 +9690,7 @@
         <v>114</v>
       </c>
       <c r="AG49" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH49" s="6">
         <v>350</v>
@@ -9403,7 +9715,9 @@
       <c r="AP49" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ49" s="6"/>
+      <c r="AQ49" s="21" t="s">
+        <v>308</v>
+      </c>
       <c r="AR49" s="8"/>
       <c r="AS49" s="8"/>
       <c r="AT49" s="8"/>
@@ -9426,25 +9740,25 @@
         <v>1500</v>
       </c>
       <c r="BG49" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH49" s="8"/>
       <c r="BI49" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" ht="15.5" spans="1:61">
       <c r="A50" s="6" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="E50" s="6">
         <v>35</v>
@@ -9509,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="AD50" s="9">
         <v>1.3</v>
@@ -9546,7 +9860,9 @@
       <c r="AP50" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ50" s="6"/>
+      <c r="AQ50" s="21" t="s">
+        <v>312</v>
+      </c>
       <c r="AR50" s="8"/>
       <c r="AS50" s="8"/>
       <c r="AT50" s="8"/>
@@ -9569,25 +9885,25 @@
         <v>1500</v>
       </c>
       <c r="BG50" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH50" s="8"/>
       <c r="BI50" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" ht="15.5" spans="1:61">
       <c r="A51" s="6" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="E51" s="6">
         <v>37</v>
@@ -9652,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="AD51" s="9">
         <v>1.3</v>
@@ -9664,7 +9980,7 @@
         <v>114</v>
       </c>
       <c r="AG51" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH51" s="6">
         <v>350</v>
@@ -9689,7 +10005,9 @@
       <c r="AP51" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ51" s="6"/>
+      <c r="AQ51" s="21" t="s">
+        <v>316</v>
+      </c>
       <c r="AR51" s="8"/>
       <c r="AS51" s="8"/>
       <c r="AT51" s="8"/>
@@ -9712,25 +10030,25 @@
         <v>1500</v>
       </c>
       <c r="BG51" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH51" s="8"/>
       <c r="BI51" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" ht="15.5" spans="1:61">
       <c r="A52" s="6" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="E52" s="6">
         <v>37</v>
@@ -9795,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="AD52" s="9">
         <v>1.3</v>
@@ -9807,7 +10125,7 @@
         <v>114</v>
       </c>
       <c r="AG52" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH52" s="6">
         <v>350</v>
@@ -9832,7 +10150,9 @@
       <c r="AP52" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ52" s="6"/>
+      <c r="AQ52" s="21" t="s">
+        <v>320</v>
+      </c>
       <c r="AR52" s="8"/>
       <c r="AS52" s="8"/>
       <c r="AT52" s="8"/>
@@ -9855,25 +10175,25 @@
         <v>1500</v>
       </c>
       <c r="BG52" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH52" s="8"/>
       <c r="BI52" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" ht="15.5" spans="1:61">
       <c r="A53" s="6" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="E53" s="6">
         <v>38</v>
@@ -9938,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="AD53" s="9">
         <v>1.3</v>
@@ -9950,7 +10270,7 @@
         <v>114</v>
       </c>
       <c r="AG53" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH53" s="6">
         <v>350</v>
@@ -9975,7 +10295,9 @@
       <c r="AP53" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ53" s="6"/>
+      <c r="AQ53" s="21" t="s">
+        <v>324</v>
+      </c>
       <c r="AR53" s="8"/>
       <c r="AS53" s="8"/>
       <c r="AT53" s="8"/>
@@ -9998,25 +10320,25 @@
         <v>1500</v>
       </c>
       <c r="BG53" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH53" s="8"/>
       <c r="BI53" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" ht="15.5" spans="1:61">
       <c r="A54" s="6" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="E54" s="6">
         <v>39</v>
@@ -10081,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="6" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="AD54" s="9">
         <v>1.5</v>
@@ -10118,7 +10440,9 @@
       <c r="AP54" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ54" s="6"/>
+      <c r="AQ54" s="21" t="s">
+        <v>328</v>
+      </c>
       <c r="AR54" s="8"/>
       <c r="AS54" s="8"/>
       <c r="AT54" s="8"/>
@@ -10141,25 +10465,25 @@
         <v>1500</v>
       </c>
       <c r="BG54" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH54" s="8"/>
       <c r="BI54" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" ht="15.5" spans="1:61">
       <c r="A55" s="6" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="E55" s="6">
         <v>40</v>
@@ -10224,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="AD55" s="9">
         <v>1.3</v>
@@ -10236,7 +10560,7 @@
         <v>114</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH55" s="6">
         <v>350</v>
@@ -10261,7 +10585,9 @@
       <c r="AP55" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ55" s="6"/>
+      <c r="AQ55" s="21" t="s">
+        <v>332</v>
+      </c>
       <c r="AR55" s="8"/>
       <c r="AS55" s="8"/>
       <c r="AT55" s="8"/>
@@ -10284,25 +10610,25 @@
         <v>1500</v>
       </c>
       <c r="BG55" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH55" s="8"/>
       <c r="BI55" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" ht="15.5" spans="1:61">
       <c r="A56" s="6" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="E56" s="6">
         <v>42</v>
@@ -10367,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="AD56" s="9">
         <v>1.3</v>
@@ -10379,7 +10705,7 @@
         <v>114</v>
       </c>
       <c r="AG56" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH56" s="6">
         <v>350</v>
@@ -10404,7 +10730,9 @@
       <c r="AP56" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ56" s="6"/>
+      <c r="AQ56" s="21" t="s">
+        <v>336</v>
+      </c>
       <c r="AR56" s="8"/>
       <c r="AS56" s="8"/>
       <c r="AT56" s="8"/>
@@ -10427,25 +10755,25 @@
         <v>1500</v>
       </c>
       <c r="BG56" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH56" s="8"/>
       <c r="BI56" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" ht="15.5" spans="1:61">
       <c r="A57" s="6" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="E57" s="6">
         <v>40</v>
@@ -10497,7 +10825,7 @@
       <c r="V57" s="9"/>
       <c r="W57" s="9"/>
       <c r="X57" s="8" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="Y57" s="8">
         <v>0</v>
@@ -10510,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="6" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="AD57" s="9">
         <v>1.2</v>
@@ -10522,7 +10850,7 @@
         <v>114</v>
       </c>
       <c r="AG57" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH57" s="6">
         <v>450</v>
@@ -10547,7 +10875,9 @@
       <c r="AP57" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ57" s="6"/>
+      <c r="AQ57" s="21" t="s">
+        <v>342</v>
+      </c>
       <c r="AR57" s="8"/>
       <c r="AS57" s="8"/>
       <c r="AT57" s="8"/>
@@ -10570,25 +10900,25 @@
         <v>1500</v>
       </c>
       <c r="BG57" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH57" s="8"/>
       <c r="BI57" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" ht="15.5" spans="1:61">
       <c r="A58" s="6" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="E58" s="6">
         <v>4</v>
@@ -10640,7 +10970,7 @@
       <c r="V58" s="9"/>
       <c r="W58" s="9"/>
       <c r="X58" s="8" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="Y58" s="8">
         <v>0</v>
@@ -10653,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="6" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="AD58" s="9">
         <v>1</v>
@@ -10665,7 +10995,7 @@
         <v>114</v>
       </c>
       <c r="AG58" s="6" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="AH58" s="6">
         <v>350</v>
@@ -10690,7 +11020,9 @@
       <c r="AP58" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ58" s="6"/>
+      <c r="AQ58" s="21" t="s">
+        <v>348</v>
+      </c>
       <c r="AR58" s="8"/>
       <c r="AS58" s="8"/>
       <c r="AT58" s="8"/>
@@ -10713,25 +11045,25 @@
         <v>1500</v>
       </c>
       <c r="BG58" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH58" s="8"/>
       <c r="BI58" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" ht="15.5" spans="1:61">
       <c r="A59" s="6" t="s">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
       <c r="E59" s="6">
         <v>2</v>
@@ -10783,7 +11115,7 @@
       <c r="V59" s="9"/>
       <c r="W59" s="9"/>
       <c r="X59" s="8" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="Y59" s="8">
         <v>0</v>
@@ -10796,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="6" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="AD59" s="9">
         <v>2.3</v>
@@ -10808,7 +11140,7 @@
         <v>114</v>
       </c>
       <c r="AG59" s="6" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="AH59" s="6">
         <v>350</v>
@@ -10833,7 +11165,9 @@
       <c r="AP59" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ59" s="6"/>
+      <c r="AQ59" s="21" t="s">
+        <v>352</v>
+      </c>
       <c r="AR59" s="8"/>
       <c r="AS59" s="8"/>
       <c r="AT59" s="8"/>
@@ -10856,25 +11190,25 @@
         <v>1500</v>
       </c>
       <c r="BG59" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH59" s="8"/>
       <c r="BI59" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" ht="15.5" spans="1:61">
       <c r="A60" s="6" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="E60" s="6">
         <v>25</v>
@@ -10926,7 +11260,7 @@
       <c r="V60" s="9"/>
       <c r="W60" s="9"/>
       <c r="X60" s="8" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="Y60" s="8">
         <v>0</v>
@@ -10939,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="AD60" s="9">
         <v>2.7</v>
@@ -10951,7 +11285,7 @@
         <v>114</v>
       </c>
       <c r="AG60" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH60" s="6">
         <v>450</v>
@@ -10976,7 +11310,9 @@
       <c r="AP60" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ60" s="6"/>
+      <c r="AQ60" s="21" t="s">
+        <v>356</v>
+      </c>
       <c r="AR60" s="8"/>
       <c r="AS60" s="8"/>
       <c r="AT60" s="8"/>
@@ -10999,25 +11335,25 @@
         <v>1500</v>
       </c>
       <c r="BG60" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH60" s="8"/>
       <c r="BI60" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" ht="15.5" spans="1:61">
       <c r="A61" s="6" t="s">
-        <v>299</v>
+        <v>357</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="E61" s="6">
         <v>3</v>
@@ -11082,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="6" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="AD61" s="9">
         <v>1</v>
@@ -11094,7 +11430,7 @@
         <v>114</v>
       </c>
       <c r="AG61" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH61" s="6">
         <v>450</v>
@@ -11119,7 +11455,9 @@
       <c r="AP61" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ61" s="6"/>
+      <c r="AQ61" s="21" t="s">
+        <v>360</v>
+      </c>
       <c r="AR61" s="8"/>
       <c r="AS61" s="8"/>
       <c r="AT61" s="8"/>
@@ -11142,25 +11480,25 @@
         <v>1500</v>
       </c>
       <c r="BG61" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH61" s="8"/>
       <c r="BI61" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" ht="15.5" spans="1:61">
       <c r="A62" s="6" t="s">
-        <v>302</v>
+        <v>361</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="E62" s="6">
         <v>6</v>
@@ -11225,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>304</v>
+        <v>363</v>
       </c>
       <c r="AD62" s="9">
         <v>1</v>
@@ -11237,7 +11575,7 @@
         <v>114</v>
       </c>
       <c r="AG62" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH62" s="6">
         <v>450</v>
@@ -11262,7 +11600,9 @@
       <c r="AP62" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ62" s="6"/>
+      <c r="AQ62" s="21" t="s">
+        <v>364</v>
+      </c>
       <c r="AR62" s="8"/>
       <c r="AS62" s="8"/>
       <c r="AT62" s="8"/>
@@ -11285,25 +11625,25 @@
         <v>1500</v>
       </c>
       <c r="BG62" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH62" s="8"/>
       <c r="BI62" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" ht="15.5" spans="1:61">
       <c r="A63" s="6" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>306</v>
+        <v>366</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>306</v>
+        <v>366</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>306</v>
+        <v>366</v>
       </c>
       <c r="E63" s="6">
         <v>25</v>
@@ -11355,7 +11695,7 @@
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
       <c r="X63" s="8" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="Y63" s="8">
         <v>0</v>
@@ -11368,7 +11708,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>307</v>
+        <v>367</v>
       </c>
       <c r="AD63" s="9">
         <v>1</v>
@@ -11380,7 +11720,7 @@
         <v>114</v>
       </c>
       <c r="AG63" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH63" s="6">
         <v>450</v>
@@ -11405,7 +11745,9 @@
       <c r="AP63" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ63" s="6"/>
+      <c r="AQ63" s="21" t="s">
+        <v>368</v>
+      </c>
       <c r="AR63" s="8"/>
       <c r="AS63" s="8"/>
       <c r="AT63" s="8"/>
@@ -11428,25 +11770,25 @@
         <v>1500</v>
       </c>
       <c r="BG63" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH63" s="8"/>
       <c r="BI63" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" ht="15.5" spans="1:61">
       <c r="A64" s="6" t="s">
-        <v>308</v>
+        <v>369</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>309</v>
+        <v>370</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>309</v>
+        <v>370</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>309</v>
+        <v>370</v>
       </c>
       <c r="E64" s="6">
         <v>10</v>
@@ -11498,7 +11840,7 @@
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
       <c r="X64" s="8" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="Y64" s="8">
         <v>0</v>
@@ -11511,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>310</v>
+        <v>371</v>
       </c>
       <c r="AD64" s="9">
         <v>1.3</v>
@@ -11523,7 +11865,7 @@
         <v>114</v>
       </c>
       <c r="AG64" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH64" s="6">
         <v>450</v>
@@ -11548,7 +11890,9 @@
       <c r="AP64" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ64" s="6"/>
+      <c r="AQ64" s="21" t="s">
+        <v>372</v>
+      </c>
       <c r="AR64" s="8"/>
       <c r="AS64" s="8"/>
       <c r="AT64" s="8"/>
@@ -11571,25 +11915,25 @@
         <v>1500</v>
       </c>
       <c r="BG64" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH64" s="8"/>
       <c r="BI64" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" ht="15.5" spans="1:61">
       <c r="A65" s="6" t="s">
-        <v>311</v>
+        <v>373</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="E65" s="6">
         <v>25</v>
@@ -11641,7 +11985,7 @@
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
       <c r="X65" s="8" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="Y65" s="8">
         <v>0</v>
@@ -11654,7 +11998,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>313</v>
+        <v>375</v>
       </c>
       <c r="AD65" s="9">
         <v>1</v>
@@ -11666,7 +12010,7 @@
         <v>114</v>
       </c>
       <c r="AG65" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH65" s="6">
         <v>450</v>
@@ -11691,7 +12035,9 @@
       <c r="AP65" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ65" s="6"/>
+      <c r="AQ65" s="21" t="s">
+        <v>376</v>
+      </c>
       <c r="AR65" s="8"/>
       <c r="AS65" s="8"/>
       <c r="AT65" s="8"/>
@@ -11714,25 +12060,25 @@
         <v>1500</v>
       </c>
       <c r="BG65" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH65" s="8"/>
       <c r="BI65" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" ht="15.5" spans="1:61">
       <c r="A66" s="6" t="s">
-        <v>314</v>
+        <v>377</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="E66" s="6">
         <v>10</v>
@@ -11784,7 +12130,7 @@
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
       <c r="X66" s="8" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="Y66" s="8">
         <v>0</v>
@@ -11797,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>316</v>
+        <v>379</v>
       </c>
       <c r="AD66" s="9">
         <v>1.4</v>
@@ -11809,7 +12155,7 @@
         <v>114</v>
       </c>
       <c r="AG66" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH66" s="6">
         <v>450</v>
@@ -11834,7 +12180,9 @@
       <c r="AP66" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ66" s="6"/>
+      <c r="AQ66" s="21" t="s">
+        <v>380</v>
+      </c>
       <c r="AR66" s="8"/>
       <c r="AS66" s="8"/>
       <c r="AT66" s="8"/>
@@ -11857,25 +12205,25 @@
         <v>1500</v>
       </c>
       <c r="BG66" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH66" s="8"/>
       <c r="BI66" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" ht="15.5" spans="1:61">
       <c r="A67" s="6" t="s">
-        <v>317</v>
+        <v>381</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>318</v>
+        <v>382</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>318</v>
+        <v>382</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>318</v>
+        <v>382</v>
       </c>
       <c r="E67" s="6">
         <v>10</v>
@@ -11927,7 +12275,7 @@
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
       <c r="X67" s="8" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="Y67" s="8">
         <v>0</v>
@@ -11940,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>319</v>
+        <v>383</v>
       </c>
       <c r="AD67" s="9">
         <v>1.3</v>
@@ -11952,7 +12300,7 @@
         <v>114</v>
       </c>
       <c r="AG67" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH67" s="6">
         <v>450</v>
@@ -11977,7 +12325,9 @@
       <c r="AP67" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ67" s="6"/>
+      <c r="AQ67" s="21" t="s">
+        <v>384</v>
+      </c>
       <c r="AR67" s="8"/>
       <c r="AS67" s="8"/>
       <c r="AT67" s="8"/>
@@ -12000,25 +12350,25 @@
         <v>1500</v>
       </c>
       <c r="BG67" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH67" s="8"/>
       <c r="BI67" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" ht="15.5" spans="1:61">
       <c r="A68" s="6" t="s">
-        <v>320</v>
+        <v>385</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
       <c r="E68" s="6">
         <v>10</v>
@@ -12070,7 +12420,7 @@
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
       <c r="X68" s="8" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="Y68" s="8">
         <v>0</v>
@@ -12083,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>319</v>
+        <v>383</v>
       </c>
       <c r="AD68" s="9">
         <v>1.3</v>
@@ -12095,7 +12445,7 @@
         <v>114</v>
       </c>
       <c r="AG68" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH68" s="6">
         <v>450</v>
@@ -12120,7 +12470,9 @@
       <c r="AP68" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ68" s="6"/>
+      <c r="AQ68" s="21" t="s">
+        <v>387</v>
+      </c>
       <c r="AR68" s="8"/>
       <c r="AS68" s="8"/>
       <c r="AT68" s="8"/>
@@ -12143,25 +12495,25 @@
         <v>1500</v>
       </c>
       <c r="BG68" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH68" s="8"/>
       <c r="BI68" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" ht="15.5" spans="1:61">
       <c r="A69" s="6" t="s">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="E69" s="6">
         <v>10</v>
@@ -12213,7 +12565,7 @@
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="8" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="Y69" s="8">
         <v>0</v>
@@ -12226,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="6" t="s">
-        <v>319</v>
+        <v>383</v>
       </c>
       <c r="AD69" s="9">
         <v>1.3</v>
@@ -12238,7 +12590,7 @@
         <v>114</v>
       </c>
       <c r="AG69" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH69" s="6">
         <v>450</v>
@@ -12263,7 +12615,9 @@
       <c r="AP69" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ69" s="6"/>
+      <c r="AQ69" s="21" t="s">
+        <v>390</v>
+      </c>
       <c r="AR69" s="8"/>
       <c r="AS69" s="8"/>
       <c r="AT69" s="8"/>
@@ -12286,25 +12640,25 @@
         <v>1500</v>
       </c>
       <c r="BG69" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH69" s="8"/>
       <c r="BI69" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" ht="15.5" spans="1:61">
       <c r="A70" s="6" t="s">
-        <v>324</v>
+        <v>391</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>325</v>
+        <v>392</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>325</v>
+        <v>392</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>325</v>
+        <v>392</v>
       </c>
       <c r="E70" s="6">
         <v>0</v>
@@ -12356,7 +12710,7 @@
       <c r="V70" s="6"/>
       <c r="W70" s="6"/>
       <c r="X70" s="8" t="s">
-        <v>326</v>
+        <v>393</v>
       </c>
       <c r="Y70" s="8">
         <v>0</v>
@@ -12369,7 +12723,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="6" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="AD70" s="6">
         <v>1</v>
@@ -12381,7 +12735,7 @@
         <v>114</v>
       </c>
       <c r="AG70" s="6" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="AH70" s="6">
         <v>450</v>
@@ -12406,7 +12760,9 @@
       <c r="AP70" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ70" s="6"/>
+      <c r="AQ70" s="21" t="s">
+        <v>395</v>
+      </c>
       <c r="AR70" s="8"/>
       <c r="AS70" s="8"/>
       <c r="AT70" s="8"/>
@@ -12429,25 +12785,25 @@
         <v>1500</v>
       </c>
       <c r="BG70" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH70" s="8"/>
       <c r="BI70" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" ht="15.5" spans="1:61">
       <c r="A71" s="6" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="E71" s="6">
         <v>15</v>
@@ -12499,7 +12855,7 @@
       <c r="V71" s="9"/>
       <c r="W71" s="9"/>
       <c r="X71" s="8" t="s">
-        <v>330</v>
+        <v>398</v>
       </c>
       <c r="Y71" s="8">
         <v>0</v>
@@ -12512,7 +12868,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="AD71" s="9">
         <v>1</v>
@@ -12524,7 +12880,7 @@
         <v>114</v>
       </c>
       <c r="AG71" s="6" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="AH71" s="6">
         <v>125</v>
@@ -12549,7 +12905,9 @@
       <c r="AP71" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ71" s="6"/>
+      <c r="AQ71" s="21" t="s">
+        <v>400</v>
+      </c>
       <c r="AR71" s="8"/>
       <c r="AS71" s="8"/>
       <c r="AT71" s="8"/>
@@ -12572,25 +12930,25 @@
         <v>1500</v>
       </c>
       <c r="BG71" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH71" s="8"/>
       <c r="BI71" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" ht="15.5" spans="1:61">
       <c r="A72" s="6" t="s">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="E72" s="6">
         <v>150</v>
@@ -12642,7 +13000,7 @@
       <c r="V72" s="9"/>
       <c r="W72" s="9"/>
       <c r="X72" s="8" t="s">
-        <v>326</v>
+        <v>393</v>
       </c>
       <c r="Y72" s="8">
         <v>0</v>
@@ -12655,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="6" t="s">
-        <v>334</v>
+        <v>403</v>
       </c>
       <c r="AD72" s="9">
         <v>2.4</v>
@@ -12667,7 +13025,7 @@
         <v>114</v>
       </c>
       <c r="AG72" s="6" t="s">
-        <v>335</v>
+        <v>404</v>
       </c>
       <c r="AH72" s="6">
         <v>500</v>
@@ -12692,7 +13050,9 @@
       <c r="AP72" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ72" s="6"/>
+      <c r="AQ72" s="21" t="s">
+        <v>405</v>
+      </c>
       <c r="AR72" s="8"/>
       <c r="AS72" s="8"/>
       <c r="AT72" s="8"/>
@@ -12715,11 +13075,11 @@
         <v>1500</v>
       </c>
       <c r="BG72" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH72" s="8"/>
       <c r="BI72" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -12745,10 +13105,10 @@
   <sheetData>
     <row r="1" ht="28" spans="1:59">
       <c r="A1" s="17" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>337</v>
+        <v>407</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -12922,10 +13282,10 @@
     </row>
     <row r="2" ht="42" spans="1:59">
       <c r="A2" s="17" t="s">
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>339</v>
+        <v>409</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>58</v>
@@ -13042,7 +13402,7 @@
         <v>98</v>
       </c>
       <c r="AO2" s="17" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="AP2" s="16" t="s">
         <v>99</v>
@@ -13101,192 +13461,192 @@
     </row>
     <row r="3" ht="15.5" spans="1:59">
       <c r="A3" s="17" t="s">
-        <v>341</v>
+        <v>411</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>342</v>
+        <v>412</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>343</v>
+        <v>413</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="U3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="X3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="AA3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="AC3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="AD3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="AE3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="AF3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="AG3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="AH3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="AI3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="AJ3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="AK3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="AL3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="AM3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="AN3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="AO3" s="17" t="s">
-        <v>342</v>
+        <v>412</v>
       </c>
       <c r="AP3" s="17" t="s">
-        <v>345</v>
+        <v>415</v>
       </c>
       <c r="AQ3" s="17" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="AR3" s="17" t="s">
-        <v>347</v>
+        <v>417</v>
       </c>
       <c r="AS3" s="17" t="s">
-        <v>348</v>
+        <v>418</v>
       </c>
       <c r="AT3" s="17" t="s">
-        <v>349</v>
+        <v>419</v>
       </c>
       <c r="AU3" s="17" t="s">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="AV3" s="17" t="s">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="AW3" s="17" t="s">
-        <v>352</v>
+        <v>422</v>
       </c>
       <c r="AX3" s="17" t="s">
-        <v>353</v>
+        <v>423</v>
       </c>
       <c r="AY3" s="17" t="s">
-        <v>354</v>
+        <v>424</v>
       </c>
       <c r="AZ3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="BA3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="BB3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="BC3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="BD3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="BE3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="BF3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="BG3" s="17" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:59">
       <c r="A4" s="17" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>356</v>
+        <v>426</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>339</v>
+        <v>409</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>58</v>
@@ -13403,34 +13763,34 @@
         <v>58</v>
       </c>
       <c r="AP4" s="17" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="AQ4" s="17" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="AR4" s="17" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="AS4" s="17" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="AT4" s="17" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="AU4" s="17" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="AV4" s="17" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="AW4" s="17" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="AX4" s="17" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="AY4" s="17" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="AZ4" s="18" t="s">
         <v>58</v>
@@ -13985,25 +14345,25 @@
         <v>1500</v>
       </c>
       <c r="BG3" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH3" s="8"/>
       <c r="BI3" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:61">
       <c r="A4" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E4" s="6">
         <v>2</v>
@@ -14068,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD4" s="6">
         <v>1.1</v>
@@ -14098,7 +14458,7 @@
         <v>116</v>
       </c>
       <c r="AM4" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN4" s="9">
         <v>900</v>
@@ -14132,25 +14492,25 @@
         <v>1500</v>
       </c>
       <c r="BG4" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH4" s="8"/>
       <c r="BI4" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" ht="15.5" spans="1:61">
       <c r="A5" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E5" s="6">
         <v>3</v>
@@ -14215,7 +14575,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AD5" s="6">
         <v>1</v>
@@ -14275,25 +14635,25 @@
         <v>1500</v>
       </c>
       <c r="BG5" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH5" s="8"/>
       <c r="BI5" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" ht="15.5" spans="1:61">
       <c r="A6" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
@@ -14358,7 +14718,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AD6" s="9">
         <v>1</v>
@@ -14418,25 +14778,25 @@
         <v>1500</v>
       </c>
       <c r="BG6" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH6" s="8"/>
       <c r="BI6" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" ht="15.5" spans="1:61">
       <c r="A7" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E7" s="6">
         <v>4</v>
@@ -14484,7 +14844,7 @@
         <v>4</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>357</v>
+        <v>427</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -14503,7 +14863,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AD7" s="9">
         <v>2</v>
@@ -14515,7 +14875,7 @@
         <v>114</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH7" s="6">
         <v>350</v>
@@ -14563,25 +14923,25 @@
         <v>1500</v>
       </c>
       <c r="BG7" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH7" s="8"/>
       <c r="BI7" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" ht="15.5" spans="1:61">
       <c r="A8" s="6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
@@ -14646,7 +15006,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD8" s="9">
         <v>1</v>
@@ -14706,25 +15066,25 @@
         <v>1500</v>
       </c>
       <c r="BG8" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH8" s="8"/>
       <c r="BI8" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" ht="15.5" spans="1:61">
       <c r="A9" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E9" s="6">
         <v>4</v>
@@ -14789,7 +15149,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD9" s="7">
         <v>1</v>
@@ -14819,7 +15179,7 @@
         <v>116</v>
       </c>
       <c r="AM9" s="9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AN9" s="9">
         <v>900</v>
@@ -14853,25 +15213,25 @@
         <v>1500</v>
       </c>
       <c r="BG9" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH9" s="8"/>
       <c r="BI9" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" ht="15.5" spans="1:61">
       <c r="A10" s="6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E10" s="6">
         <v>4</v>
@@ -14936,7 +15296,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AD10" s="7">
         <v>1</v>
@@ -14996,25 +15356,25 @@
         <v>1500</v>
       </c>
       <c r="BG10" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH10" s="8"/>
       <c r="BI10" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" ht="15.5" spans="1:61">
       <c r="A11" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E11" s="6">
         <v>5</v>
@@ -15062,7 +15422,7 @@
         <v>4</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>358</v>
+        <v>428</v>
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -15081,7 +15441,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AD11" s="7">
         <v>1</v>
@@ -15141,25 +15501,25 @@
         <v>1500</v>
       </c>
       <c r="BG11" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH11" s="8"/>
       <c r="BI11" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" ht="15.5" spans="1:61">
       <c r="A12" s="6" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E12" s="6">
         <v>3</v>
@@ -15207,7 +15567,7 @@
         <v>4</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>359</v>
+        <v>429</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
@@ -15226,7 +15586,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AD12" s="7">
         <v>2</v>
@@ -15238,7 +15598,7 @@
         <v>114</v>
       </c>
       <c r="AG12" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH12" s="6">
         <v>350</v>
@@ -15286,25 +15646,25 @@
         <v>1500</v>
       </c>
       <c r="BG12" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH12" s="8"/>
       <c r="BI12" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" ht="15.5" spans="1:61">
       <c r="A13" s="6" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E13" s="6">
         <v>4</v>
@@ -15369,7 +15729,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="AD13" s="7">
         <v>1.3</v>
@@ -15399,7 +15759,7 @@
         <v>116</v>
       </c>
       <c r="AM13" s="9" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AN13" s="9">
         <v>900</v>
@@ -15433,25 +15793,25 @@
         <v>1500</v>
       </c>
       <c r="BG13" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH13" s="8"/>
       <c r="BI13" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" ht="15.5" spans="1:61">
       <c r="A14" s="6" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E14" s="6">
         <v>4</v>
@@ -15516,7 +15876,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AD14" s="7">
         <v>1</v>
@@ -15576,25 +15936,25 @@
         <v>1500</v>
       </c>
       <c r="BG14" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH14" s="8"/>
       <c r="BI14" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" ht="15.5" spans="1:61">
       <c r="A15" s="6" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E15" s="6">
         <v>5</v>
@@ -15659,7 +16019,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AD15" s="7">
         <v>1</v>
@@ -15719,25 +16079,25 @@
         <v>1500</v>
       </c>
       <c r="BG15" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH15" s="8"/>
       <c r="BI15" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" ht="15.5" spans="1:61">
       <c r="A16" s="6" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E16" s="6">
         <v>6</v>
@@ -15785,7 +16145,7 @@
         <v>4</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
@@ -15804,7 +16164,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="AD16" s="9">
         <v>1</v>
@@ -15834,7 +16194,7 @@
         <v>116</v>
       </c>
       <c r="AM16" s="9" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="AN16" s="9">
         <v>900</v>
@@ -15868,25 +16228,25 @@
         <v>1500</v>
       </c>
       <c r="BG16" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH16" s="8"/>
       <c r="BI16" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" ht="15.5" spans="1:61">
       <c r="A17" s="6" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="E17" s="6">
         <v>5</v>
@@ -15934,7 +16294,7 @@
         <v>4</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>361</v>
+        <v>431</v>
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
@@ -15953,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="AD17" s="7">
         <v>2</v>
@@ -15965,7 +16325,7 @@
         <v>114</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH17" s="6">
         <v>350</v>
@@ -16013,25 +16373,25 @@
         <v>1500</v>
       </c>
       <c r="BG17" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH17" s="8"/>
       <c r="BI17" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" ht="15.5" spans="1:61">
       <c r="A18" s="6" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="E18" s="6">
         <v>4</v>
@@ -16096,7 +16456,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="AD18" s="7">
         <v>1.1</v>
@@ -16156,25 +16516,25 @@
         <v>1500</v>
       </c>
       <c r="BG18" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH18" s="8"/>
       <c r="BI18" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" ht="15.5" spans="1:61">
       <c r="A19" s="6" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="E19" s="6">
         <v>5</v>
@@ -16239,7 +16599,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="AD19" s="9">
         <v>1.1</v>
@@ -16299,25 +16659,25 @@
         <v>1500</v>
       </c>
       <c r="BG19" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH19" s="8"/>
       <c r="BI19" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" ht="15.5" spans="1:61">
       <c r="A20" s="6" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E20" s="6">
         <v>5</v>
@@ -16382,7 +16742,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="AD20" s="9">
         <v>2</v>
@@ -16412,7 +16772,7 @@
         <v>116</v>
       </c>
       <c r="AM20" s="9" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="AN20" s="9">
         <v>900</v>
@@ -16446,25 +16806,25 @@
         <v>1500</v>
       </c>
       <c r="BG20" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH20" s="8"/>
       <c r="BI20" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" ht="15.5" spans="1:61">
       <c r="A21" s="6" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="E21" s="6">
         <v>6</v>
@@ -16512,7 +16872,7 @@
         <v>4</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
@@ -16531,7 +16891,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="AD21" s="9">
         <v>1</v>
@@ -16591,25 +16951,25 @@
         <v>1500</v>
       </c>
       <c r="BG21" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH21" s="8"/>
       <c r="BI21" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" ht="15.5" spans="1:61">
       <c r="A22" s="6" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="E22" s="6">
         <v>6</v>
@@ -16657,7 +17017,7 @@
         <v>4</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>363</v>
+        <v>433</v>
       </c>
       <c r="U22" s="10"/>
       <c r="V22" s="9"/>
@@ -16676,7 +17036,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="AD22" s="9">
         <v>2</v>
@@ -16688,7 +17048,7 @@
         <v>114</v>
       </c>
       <c r="AG22" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH22" s="6">
         <v>350</v>
@@ -16736,25 +17096,25 @@
         <v>1500</v>
       </c>
       <c r="BG22" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH22" s="8"/>
       <c r="BI22" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" ht="15.5" spans="1:61">
       <c r="A23" s="6" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="E23" s="6">
         <v>7</v>
@@ -16819,7 +17179,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="AD23" s="9">
         <v>0.5</v>
@@ -16879,25 +17239,25 @@
         <v>1500</v>
       </c>
       <c r="BG23" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH23" s="8"/>
       <c r="BI23" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" ht="15.5" spans="1:61">
       <c r="A24" s="6" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="E24" s="6">
         <v>8</v>
@@ -16962,7 +17322,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="AD24" s="9">
         <v>0.7</v>
@@ -17022,25 +17382,25 @@
         <v>1500</v>
       </c>
       <c r="BG24" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH24" s="8"/>
       <c r="BI24" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" ht="15.5" spans="1:61">
       <c r="A25" s="6" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E25" s="6">
         <v>9</v>
@@ -17105,7 +17465,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="AD25" s="9">
         <v>1.5</v>
@@ -17165,25 +17525,25 @@
         <v>1500</v>
       </c>
       <c r="BG25" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH25" s="8"/>
       <c r="BI25" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" ht="15.5" spans="1:61">
       <c r="A26" s="6" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="E26" s="6">
         <v>10</v>
@@ -17231,7 +17591,7 @@
         <v>4</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>364</v>
+        <v>434</v>
       </c>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
@@ -17250,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="AD26" s="9">
         <v>1.5</v>
@@ -17262,7 +17622,7 @@
         <v>114</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH26" s="6">
         <v>350</v>
@@ -17310,25 +17670,25 @@
         <v>1500</v>
       </c>
       <c r="BG26" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH26" s="8"/>
       <c r="BI26" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" ht="15.5" spans="1:61">
       <c r="A27" s="6" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="E27" s="6">
         <v>12</v>
@@ -17376,7 +17736,7 @@
         <v>4</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
@@ -17395,7 +17755,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="AD27" s="9">
         <v>2</v>
@@ -17407,7 +17767,7 @@
         <v>114</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH27" s="6">
         <v>350</v>
@@ -17455,25 +17815,25 @@
         <v>1500</v>
       </c>
       <c r="BG27" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH27" s="8"/>
       <c r="BI27" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" ht="15.5" spans="1:61">
       <c r="A28" s="6" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="E28" s="6">
         <v>12</v>
@@ -17538,7 +17898,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AD28" s="9">
         <v>1.1</v>
@@ -17550,7 +17910,7 @@
         <v>114</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH28" s="6">
         <v>350</v>
@@ -17598,25 +17958,25 @@
         <v>1500</v>
       </c>
       <c r="BG28" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH28" s="8"/>
       <c r="BI28" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" ht="15.5" spans="1:61">
       <c r="A29" s="6" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="E29" s="6">
         <v>13</v>
@@ -17681,7 +18041,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="AD29" s="9">
         <v>1</v>
@@ -17741,25 +18101,25 @@
         <v>1500</v>
       </c>
       <c r="BG29" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH29" s="8"/>
       <c r="BI29" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" ht="15.5" spans="1:61">
       <c r="A30" s="6" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E30" s="6">
         <v>14</v>
@@ -17824,7 +18184,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="AD30" s="9">
         <v>1.2</v>
@@ -17836,7 +18196,7 @@
         <v>114</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH30" s="6">
         <v>350</v>
@@ -17884,25 +18244,25 @@
         <v>1500</v>
       </c>
       <c r="BG30" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH30" s="8"/>
       <c r="BI30" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" ht="15.5" spans="1:61">
       <c r="A31" s="6" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="E31" s="6">
         <v>15</v>
@@ -17950,7 +18310,7 @@
         <v>4</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>366</v>
+        <v>436</v>
       </c>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
@@ -17969,7 +18329,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="AD31" s="9">
         <v>1</v>
@@ -17981,7 +18341,7 @@
         <v>114</v>
       </c>
       <c r="AG31" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH31" s="6">
         <v>350</v>
@@ -18029,25 +18389,25 @@
         <v>1500</v>
       </c>
       <c r="BG31" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH31" s="8"/>
       <c r="BI31" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" ht="15.5" spans="1:61">
       <c r="A32" s="6" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="E32" s="6">
         <v>16</v>
@@ -18095,7 +18455,7 @@
         <v>4</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>367</v>
+        <v>437</v>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
@@ -18114,7 +18474,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="AD32" s="9">
         <v>2</v>
@@ -18126,7 +18486,7 @@
         <v>114</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH32" s="6">
         <v>350</v>
@@ -18174,25 +18534,25 @@
         <v>1500</v>
       </c>
       <c r="BG32" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH32" s="8"/>
       <c r="BI32" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" ht="15.5" spans="1:61">
       <c r="A33" s="6" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="E33" s="6">
         <v>17</v>
@@ -18257,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="AD33" s="9">
         <v>0.7</v>
@@ -18269,7 +18629,7 @@
         <v>114</v>
       </c>
       <c r="AG33" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH33" s="6">
         <v>350</v>
@@ -18317,25 +18677,25 @@
         <v>1500</v>
       </c>
       <c r="BG33" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH33" s="8"/>
       <c r="BI33" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" ht="15.5" spans="1:61">
       <c r="A34" s="6" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="E34" s="6">
         <v>17</v>
@@ -18400,7 +18760,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AD34" s="9">
         <v>1</v>
@@ -18460,25 +18820,25 @@
         <v>1500</v>
       </c>
       <c r="BG34" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH34" s="8"/>
       <c r="BI34" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" ht="15.5" spans="1:61">
       <c r="A35" s="6" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="E35" s="6">
         <v>18</v>
@@ -18526,7 +18886,7 @@
         <v>4</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>368</v>
+        <v>438</v>
       </c>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
@@ -18545,7 +18905,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="AD35" s="9">
         <v>1</v>
@@ -18605,25 +18965,25 @@
         <v>1500</v>
       </c>
       <c r="BG35" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH35" s="8"/>
       <c r="BI35" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" ht="15.5" spans="1:61">
       <c r="A36" s="6" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="E36" s="6">
         <v>22</v>
@@ -18671,7 +19031,7 @@
         <v>4</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>369</v>
+        <v>439</v>
       </c>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
@@ -18690,7 +19050,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="AD36" s="9">
         <v>1.3</v>
@@ -18750,25 +19110,25 @@
         <v>1500</v>
       </c>
       <c r="BG36" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH36" s="8"/>
       <c r="BI36" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" ht="15.5" spans="1:61">
       <c r="A37" s="6" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="E37" s="6">
         <v>22</v>
@@ -18816,7 +19176,7 @@
         <v>4</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
@@ -18835,7 +19195,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="AD37" s="9">
         <v>2</v>
@@ -18847,7 +19207,7 @@
         <v>114</v>
       </c>
       <c r="AG37" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH37" s="6">
         <v>350</v>
@@ -18895,25 +19255,25 @@
         <v>1500</v>
       </c>
       <c r="BG37" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH37" s="8"/>
       <c r="BI37" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" ht="15.5" spans="1:61">
       <c r="A38" s="6" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="E38" s="6">
         <v>23</v>
@@ -18978,7 +19338,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="AD38" s="9">
         <v>2</v>
@@ -19038,25 +19398,25 @@
         <v>1500</v>
       </c>
       <c r="BG38" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH38" s="8"/>
       <c r="BI38" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" ht="15.5" spans="1:61">
       <c r="A39" s="6" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="E39" s="6">
         <v>24</v>
@@ -19104,7 +19464,7 @@
         <v>4</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>371</v>
+        <v>441</v>
       </c>
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
@@ -19123,7 +19483,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="AD39" s="9">
         <v>1</v>
@@ -19183,25 +19543,25 @@
         <v>1500</v>
       </c>
       <c r="BG39" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH39" s="8"/>
       <c r="BI39" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="15.5" spans="1:61">
       <c r="A40" s="6" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="E40" s="6">
         <v>25</v>
@@ -19266,7 +19626,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="AD40" s="9">
         <v>0.7</v>
@@ -19326,25 +19686,25 @@
         <v>1500</v>
       </c>
       <c r="BG40" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH40" s="8"/>
       <c r="BI40" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" ht="15.5" spans="1:61">
       <c r="A41" s="6" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="E41" s="6">
         <v>30</v>
@@ -19392,7 +19752,7 @@
         <v>4</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>372</v>
+        <v>442</v>
       </c>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
@@ -19411,7 +19771,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="6" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="AD41" s="9">
         <v>0.7</v>
@@ -19471,25 +19831,25 @@
         <v>1500</v>
       </c>
       <c r="BG41" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH41" s="8"/>
       <c r="BI41" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" ht="15.5" spans="1:61">
       <c r="A42" s="6" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="E42" s="6">
         <v>32</v>
@@ -19537,7 +19897,7 @@
         <v>4</v>
       </c>
       <c r="T42" s="8" t="s">
-        <v>373</v>
+        <v>443</v>
       </c>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
@@ -19556,7 +19916,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="6" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="AD42" s="9">
         <v>2</v>
@@ -19568,7 +19928,7 @@
         <v>114</v>
       </c>
       <c r="AG42" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH42" s="6">
         <v>350</v>
@@ -19616,25 +19976,25 @@
         <v>1500</v>
       </c>
       <c r="BG42" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH42" s="8"/>
       <c r="BI42" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" ht="15.5" spans="1:61">
       <c r="A43" s="6" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="E43" s="6">
         <v>28</v>
@@ -19699,7 +20059,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="6" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="AD43" s="9">
         <v>1</v>
@@ -19711,7 +20071,7 @@
         <v>114</v>
       </c>
       <c r="AG43" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH43" s="6">
         <v>350</v>
@@ -19759,25 +20119,25 @@
         <v>1500</v>
       </c>
       <c r="BG43" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH43" s="8"/>
       <c r="BI43" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" ht="15.5" spans="1:61">
       <c r="A44" s="6" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="E44" s="6">
         <v>29</v>
@@ -19842,7 +20202,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="AD44" s="9">
         <v>0.8</v>
@@ -19854,7 +20214,7 @@
         <v>114</v>
       </c>
       <c r="AG44" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH44" s="6">
         <v>350</v>
@@ -19902,25 +20262,25 @@
         <v>1500</v>
       </c>
       <c r="BG44" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH44" s="8"/>
       <c r="BI44" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" ht="15.5" spans="1:61">
       <c r="A45" s="6" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="E45" s="6">
         <v>27</v>
@@ -19968,7 +20328,7 @@
         <v>4</v>
       </c>
       <c r="T45" s="8" t="s">
-        <v>374</v>
+        <v>444</v>
       </c>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
@@ -19987,7 +20347,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="AD45" s="9">
         <v>1</v>
@@ -19999,7 +20359,7 @@
         <v>114</v>
       </c>
       <c r="AG45" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH45" s="6">
         <v>350</v>
@@ -20047,25 +20407,25 @@
         <v>1500</v>
       </c>
       <c r="BG45" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH45" s="8"/>
       <c r="BI45" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" ht="15.5" spans="1:61">
       <c r="A46" s="6" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="E46" s="6">
         <v>27</v>
@@ -20113,7 +20473,7 @@
         <v>4</v>
       </c>
       <c r="T46" s="8" t="s">
-        <v>375</v>
+        <v>445</v>
       </c>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
@@ -20132,7 +20492,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="AD46" s="9">
         <v>2</v>
@@ -20144,7 +20504,7 @@
         <v>114</v>
       </c>
       <c r="AG46" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH46" s="6">
         <v>350</v>
@@ -20192,25 +20552,25 @@
         <v>1500</v>
       </c>
       <c r="BG46" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH46" s="8"/>
       <c r="BI46" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" ht="15.5" spans="1:61">
       <c r="A47" s="6" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="E47" s="6">
         <v>32</v>
@@ -20275,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="AD47" s="9">
         <v>1.2</v>
@@ -20287,7 +20647,7 @@
         <v>114</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH47" s="6">
         <v>350</v>
@@ -20335,25 +20695,25 @@
         <v>1500</v>
       </c>
       <c r="BG47" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH47" s="8"/>
       <c r="BI47" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" ht="15.5" spans="1:61">
       <c r="A48" s="6" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="E48" s="6">
         <v>33</v>
@@ -20418,7 +20778,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="AD48" s="9">
         <v>1.3</v>
@@ -20478,25 +20838,25 @@
         <v>1500</v>
       </c>
       <c r="BG48" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH48" s="8"/>
       <c r="BI48" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" ht="15.5" spans="1:61">
       <c r="A49" s="6" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="E49" s="6">
         <v>34</v>
@@ -20561,7 +20921,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="AD49" s="9">
         <v>1.3</v>
@@ -20573,7 +20933,7 @@
         <v>114</v>
       </c>
       <c r="AG49" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH49" s="6">
         <v>350</v>
@@ -20621,25 +20981,25 @@
         <v>1500</v>
       </c>
       <c r="BG49" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH49" s="8"/>
       <c r="BI49" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" ht="15.5" spans="1:61">
       <c r="A50" s="6" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="E50" s="6">
         <v>35</v>
@@ -20704,7 +21064,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="AD50" s="9">
         <v>1.3</v>
@@ -20764,25 +21124,25 @@
         <v>1500</v>
       </c>
       <c r="BG50" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH50" s="8"/>
       <c r="BI50" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" ht="15.5" spans="1:61">
       <c r="A51" s="6" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="E51" s="6">
         <v>37</v>
@@ -20847,7 +21207,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="AD51" s="9">
         <v>1.3</v>
@@ -20859,7 +21219,7 @@
         <v>114</v>
       </c>
       <c r="AG51" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH51" s="6">
         <v>350</v>
@@ -20907,25 +21267,25 @@
         <v>1500</v>
       </c>
       <c r="BG51" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH51" s="8"/>
       <c r="BI51" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" ht="15.5" spans="1:61">
       <c r="A52" s="6" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="E52" s="6">
         <v>37</v>
@@ -20990,7 +21350,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="AD52" s="9">
         <v>1.3</v>
@@ -21002,7 +21362,7 @@
         <v>114</v>
       </c>
       <c r="AG52" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH52" s="6">
         <v>350</v>
@@ -21050,25 +21410,25 @@
         <v>1500</v>
       </c>
       <c r="BG52" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH52" s="8"/>
       <c r="BI52" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" ht="15.5" spans="1:61">
       <c r="A53" s="6" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="E53" s="6">
         <v>38</v>
@@ -21133,7 +21493,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="AD53" s="9">
         <v>1.3</v>
@@ -21145,7 +21505,7 @@
         <v>114</v>
       </c>
       <c r="AG53" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH53" s="6">
         <v>350</v>
@@ -21193,25 +21553,25 @@
         <v>1500</v>
       </c>
       <c r="BG53" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH53" s="8"/>
       <c r="BI53" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" ht="15.5" spans="1:61">
       <c r="A54" s="6" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="E54" s="6">
         <v>39</v>
@@ -21276,7 +21636,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="6" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="AD54" s="9">
         <v>1.5</v>
@@ -21336,25 +21696,25 @@
         <v>1500</v>
       </c>
       <c r="BG54" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH54" s="8"/>
       <c r="BI54" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" ht="15.5" spans="1:61">
       <c r="A55" s="6" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="E55" s="6">
         <v>40</v>
@@ -21419,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="AD55" s="9">
         <v>1.3</v>
@@ -21431,7 +21791,7 @@
         <v>114</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH55" s="6">
         <v>350</v>
@@ -21479,25 +21839,25 @@
         <v>1500</v>
       </c>
       <c r="BG55" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH55" s="8"/>
       <c r="BI55" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" ht="15.5" spans="1:61">
       <c r="A56" s="6" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="E56" s="6">
         <v>42</v>
@@ -21562,7 +21922,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="AD56" s="9">
         <v>1.3</v>
@@ -21574,7 +21934,7 @@
         <v>114</v>
       </c>
       <c r="AG56" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH56" s="6">
         <v>350</v>
@@ -21622,25 +21982,25 @@
         <v>1500</v>
       </c>
       <c r="BG56" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH56" s="8"/>
       <c r="BI56" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" ht="15.5" spans="1:61">
       <c r="A57" s="6" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="E57" s="6">
         <v>40</v>
@@ -21688,15 +22048,15 @@
         <v>4</v>
       </c>
       <c r="T57" s="8" t="s">
-        <v>376</v>
+        <v>446</v>
       </c>
       <c r="U57" s="9" t="s">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="V57" s="9"/>
       <c r="W57" s="9"/>
       <c r="X57" s="8" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="Y57" s="8">
         <v>0</v>
@@ -21709,7 +22069,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="6" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="AD57" s="9">
         <v>1.2</v>
@@ -21721,7 +22081,7 @@
         <v>114</v>
       </c>
       <c r="AG57" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH57" s="6">
         <v>450</v>
@@ -21769,25 +22129,25 @@
         <v>1500</v>
       </c>
       <c r="BG57" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH57" s="8"/>
       <c r="BI57" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" ht="15.5" spans="1:61">
       <c r="A58" s="6" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="E58" s="6">
         <v>4</v>
@@ -21839,7 +22199,7 @@
       <c r="V58" s="9"/>
       <c r="W58" s="9"/>
       <c r="X58" s="8" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="Y58" s="8">
         <v>0</v>
@@ -21852,7 +22212,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="6" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="AD58" s="9">
         <v>1</v>
@@ -21864,7 +22224,7 @@
         <v>114</v>
       </c>
       <c r="AG58" s="6" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="AH58" s="6">
         <v>350</v>
@@ -21912,25 +22272,25 @@
         <v>1500</v>
       </c>
       <c r="BG58" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH58" s="8"/>
       <c r="BI58" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" ht="15.5" spans="1:61">
       <c r="A59" s="6" t="s">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
       <c r="E59" s="6">
         <v>2</v>
@@ -21982,7 +22342,7 @@
       <c r="V59" s="9"/>
       <c r="W59" s="9"/>
       <c r="X59" s="8" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="Y59" s="8">
         <v>0</v>
@@ -21995,7 +22355,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="6" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="AD59" s="9">
         <v>2.3</v>
@@ -22007,7 +22367,7 @@
         <v>114</v>
       </c>
       <c r="AG59" s="6" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="AH59" s="6">
         <v>350</v>
@@ -22055,25 +22415,25 @@
         <v>1500</v>
       </c>
       <c r="BG59" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH59" s="8"/>
       <c r="BI59" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" ht="15.5" spans="1:61">
       <c r="A60" s="6" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="E60" s="6">
         <v>25</v>
@@ -22121,17 +22481,17 @@
         <v>4</v>
       </c>
       <c r="T60" s="8" t="s">
-        <v>378</v>
+        <v>448</v>
       </c>
       <c r="U60" s="9" t="s">
-        <v>379</v>
+        <v>449</v>
       </c>
       <c r="V60" s="9" t="s">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="W60" s="9"/>
       <c r="X60" s="8" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="Y60" s="8">
         <v>0</v>
@@ -22144,7 +22504,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="AD60" s="9">
         <v>2.7</v>
@@ -22156,7 +22516,7 @@
         <v>114</v>
       </c>
       <c r="AG60" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH60" s="6">
         <v>450</v>
@@ -22204,25 +22564,25 @@
         <v>1500</v>
       </c>
       <c r="BG60" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH60" s="8"/>
       <c r="BI60" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" ht="15.5" spans="1:61">
       <c r="A61" s="6" t="s">
-        <v>299</v>
+        <v>357</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="E61" s="6">
         <v>3</v>
@@ -22270,7 +22630,7 @@
         <v>4</v>
       </c>
       <c r="T61" s="8" t="s">
-        <v>381</v>
+        <v>451</v>
       </c>
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
@@ -22289,7 +22649,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="6" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="AD61" s="9">
         <v>1</v>
@@ -22301,7 +22661,7 @@
         <v>114</v>
       </c>
       <c r="AG61" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH61" s="6">
         <v>450</v>
@@ -22349,25 +22709,25 @@
         <v>1500</v>
       </c>
       <c r="BG61" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH61" s="8"/>
       <c r="BI61" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" ht="15.5" spans="1:61">
       <c r="A62" s="6" t="s">
-        <v>302</v>
+        <v>361</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="E62" s="6">
         <v>6</v>
@@ -22415,7 +22775,7 @@
         <v>4</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>382</v>
+        <v>452</v>
       </c>
       <c r="U62" s="9"/>
       <c r="V62" s="9"/>
@@ -22434,7 +22794,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>304</v>
+        <v>363</v>
       </c>
       <c r="AD62" s="9">
         <v>1</v>
@@ -22446,7 +22806,7 @@
         <v>114</v>
       </c>
       <c r="AG62" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH62" s="6">
         <v>450</v>
@@ -22494,25 +22854,25 @@
         <v>1500</v>
       </c>
       <c r="BG62" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH62" s="8"/>
       <c r="BI62" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" ht="15.5" spans="1:61">
       <c r="A63" s="6" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>306</v>
+        <v>366</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>306</v>
+        <v>366</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>306</v>
+        <v>366</v>
       </c>
       <c r="E63" s="6">
         <v>25</v>
@@ -22564,7 +22924,7 @@
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
       <c r="X63" s="8" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="Y63" s="8">
         <v>0</v>
@@ -22577,7 +22937,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>307</v>
+        <v>367</v>
       </c>
       <c r="AD63" s="9">
         <v>1</v>
@@ -22589,7 +22949,7 @@
         <v>114</v>
       </c>
       <c r="AG63" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH63" s="6">
         <v>450</v>
@@ -22637,25 +22997,25 @@
         <v>1500</v>
       </c>
       <c r="BG63" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH63" s="8"/>
       <c r="BI63" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" ht="15.5" spans="1:61">
       <c r="A64" s="6" t="s">
-        <v>308</v>
+        <v>369</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>309</v>
+        <v>370</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>309</v>
+        <v>370</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>309</v>
+        <v>370</v>
       </c>
       <c r="E64" s="6">
         <v>10</v>
@@ -22703,13 +23063,13 @@
         <v>4</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>383</v>
+        <v>453</v>
       </c>
       <c r="U64" s="9"/>
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
       <c r="X64" s="8" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="Y64" s="8">
         <v>0</v>
@@ -22722,7 +23082,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>310</v>
+        <v>371</v>
       </c>
       <c r="AD64" s="9">
         <v>1.3</v>
@@ -22734,7 +23094,7 @@
         <v>114</v>
       </c>
       <c r="AG64" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH64" s="6">
         <v>450</v>
@@ -22782,25 +23142,25 @@
         <v>1500</v>
       </c>
       <c r="BG64" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH64" s="8"/>
       <c r="BI64" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" ht="15.5" spans="1:61">
       <c r="A65" s="6" t="s">
-        <v>311</v>
+        <v>373</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="E65" s="6">
         <v>25</v>
@@ -22852,7 +23212,7 @@
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
       <c r="X65" s="8" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="Y65" s="8">
         <v>0</v>
@@ -22865,7 +23225,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>313</v>
+        <v>375</v>
       </c>
       <c r="AD65" s="9">
         <v>1</v>
@@ -22877,7 +23237,7 @@
         <v>114</v>
       </c>
       <c r="AG65" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH65" s="6">
         <v>450</v>
@@ -22925,25 +23285,25 @@
         <v>1500</v>
       </c>
       <c r="BG65" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH65" s="8"/>
       <c r="BI65" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" ht="15.5" spans="1:61">
       <c r="A66" s="6" t="s">
-        <v>314</v>
+        <v>377</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="E66" s="6">
         <v>10</v>
@@ -22995,7 +23355,7 @@
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
       <c r="X66" s="8" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="Y66" s="8">
         <v>0</v>
@@ -23008,7 +23368,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>316</v>
+        <v>379</v>
       </c>
       <c r="AD66" s="9">
         <v>1.4</v>
@@ -23020,7 +23380,7 @@
         <v>114</v>
       </c>
       <c r="AG66" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH66" s="6">
         <v>450</v>
@@ -23068,25 +23428,25 @@
         <v>1500</v>
       </c>
       <c r="BG66" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH66" s="8"/>
       <c r="BI66" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" ht="15.5" spans="1:61">
       <c r="A67" s="6" t="s">
-        <v>317</v>
+        <v>381</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>318</v>
+        <v>382</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>318</v>
+        <v>382</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>318</v>
+        <v>382</v>
       </c>
       <c r="E67" s="6">
         <v>10</v>
@@ -23134,15 +23494,15 @@
         <v>4</v>
       </c>
       <c r="T67" s="8" t="s">
-        <v>384</v>
+        <v>454</v>
       </c>
       <c r="U67" s="9" t="s">
-        <v>385</v>
+        <v>455</v>
       </c>
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
       <c r="X67" s="8" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="Y67" s="8">
         <v>0</v>
@@ -23155,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>319</v>
+        <v>383</v>
       </c>
       <c r="AD67" s="9">
         <v>1.3</v>
@@ -23167,7 +23527,7 @@
         <v>114</v>
       </c>
       <c r="AG67" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH67" s="6">
         <v>450</v>
@@ -23215,25 +23575,25 @@
         <v>1500</v>
       </c>
       <c r="BG67" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH67" s="8"/>
       <c r="BI67" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" ht="15.5" spans="1:61">
       <c r="A68" s="6" t="s">
-        <v>320</v>
+        <v>385</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
       <c r="E68" s="6">
         <v>10</v>
@@ -23281,15 +23641,15 @@
         <v>4</v>
       </c>
       <c r="T68" s="8" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="U68" s="9" t="s">
-        <v>387</v>
+        <v>457</v>
       </c>
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
       <c r="X68" s="8" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="Y68" s="8">
         <v>0</v>
@@ -23302,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>319</v>
+        <v>383</v>
       </c>
       <c r="AD68" s="9">
         <v>1.3</v>
@@ -23314,7 +23674,7 @@
         <v>114</v>
       </c>
       <c r="AG68" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH68" s="6">
         <v>450</v>
@@ -23362,25 +23722,25 @@
         <v>1500</v>
       </c>
       <c r="BG68" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH68" s="8"/>
       <c r="BI68" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" ht="15.5" spans="1:61">
       <c r="A69" s="6" t="s">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="E69" s="6">
         <v>10</v>
@@ -23428,15 +23788,15 @@
         <v>4</v>
       </c>
       <c r="T69" s="8" t="s">
-        <v>388</v>
+        <v>458</v>
       </c>
       <c r="U69" s="9" t="s">
-        <v>389</v>
+        <v>459</v>
       </c>
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="8" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="Y69" s="8">
         <v>0</v>
@@ -23449,7 +23809,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="6" t="s">
-        <v>319</v>
+        <v>383</v>
       </c>
       <c r="AD69" s="9">
         <v>1.3</v>
@@ -23461,7 +23821,7 @@
         <v>114</v>
       </c>
       <c r="AG69" s="6" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="AH69" s="6">
         <v>450</v>
@@ -23509,25 +23869,25 @@
         <v>1500</v>
       </c>
       <c r="BG69" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH69" s="8"/>
       <c r="BI69" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" ht="15.5" spans="1:61">
       <c r="A70" s="6" t="s">
-        <v>324</v>
+        <v>391</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>325</v>
+        <v>392</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>325</v>
+        <v>392</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>325</v>
+        <v>392</v>
       </c>
       <c r="E70" s="6">
         <v>0</v>
@@ -23575,13 +23935,13 @@
         <v>4</v>
       </c>
       <c r="T70" s="8" t="s">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
       <c r="W70" s="6"/>
       <c r="X70" s="8" t="s">
-        <v>326</v>
+        <v>393</v>
       </c>
       <c r="Y70" s="8">
         <v>0</v>
@@ -23594,7 +23954,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="6" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="AD70" s="6">
         <v>1</v>
@@ -23606,7 +23966,7 @@
         <v>114</v>
       </c>
       <c r="AG70" s="6" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="AH70" s="6">
         <v>450</v>
@@ -23654,25 +24014,25 @@
         <v>1500</v>
       </c>
       <c r="BG70" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH70" s="8"/>
       <c r="BI70" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" ht="15.5" spans="1:61">
       <c r="A71" s="6" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="E71" s="6">
         <v>15</v>
@@ -23724,7 +24084,7 @@
       <c r="V71" s="9"/>
       <c r="W71" s="9"/>
       <c r="X71" s="8" t="s">
-        <v>330</v>
+        <v>398</v>
       </c>
       <c r="Y71" s="8">
         <v>0</v>
@@ -23737,7 +24097,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="AD71" s="9">
         <v>1</v>
@@ -23749,7 +24109,7 @@
         <v>114</v>
       </c>
       <c r="AG71" s="6" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="AH71" s="6">
         <v>125</v>
@@ -23797,25 +24157,25 @@
         <v>1500</v>
       </c>
       <c r="BG71" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH71" s="8"/>
       <c r="BI71" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" ht="15.5" spans="1:61">
       <c r="A72" s="6" t="s">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="E72" s="6">
         <v>150</v>
@@ -23863,13 +24223,13 @@
         <v>4</v>
       </c>
       <c r="T72" s="8" t="s">
-        <v>391</v>
+        <v>461</v>
       </c>
       <c r="U72" s="9"/>
       <c r="V72" s="9"/>
       <c r="W72" s="9"/>
       <c r="X72" s="8" t="s">
-        <v>326</v>
+        <v>393</v>
       </c>
       <c r="Y72" s="8">
         <v>0</v>
@@ -23882,7 +24242,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="6" t="s">
-        <v>334</v>
+        <v>403</v>
       </c>
       <c r="AD72" s="9">
         <v>2.4</v>
@@ -23894,7 +24254,7 @@
         <v>114</v>
       </c>
       <c r="AG72" s="6" t="s">
-        <v>335</v>
+        <v>404</v>
       </c>
       <c r="AH72" s="6">
         <v>500</v>
@@ -23942,11 +24302,11 @@
         <v>1500</v>
       </c>
       <c r="BG72" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH72" s="8"/>
       <c r="BI72" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/building/building_unit_enemy.xlsx
+++ b/code/excels/building/building_unit_enemy.xlsx
@@ -1463,16 +1463,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1493,9 +1486,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1503,6 +1495,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1516,9 +1515,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1556,27 +1554,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1594,7 +1571,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1621,19 +1621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1645,7 +1633,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,13 +1723,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1681,25 +1759,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,97 +1795,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,16 +1888,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1911,17 +1911,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1937,17 +1931,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1976,11 +1959,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1990,10 +1990,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2002,16 +2002,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2020,115 +2020,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2516,8 +2516,8 @@
   <sheetPr/>
   <dimension ref="A1:BI72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1:AQ2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0.152542373</v>
       </c>
       <c r="I4" s="6">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0.107142857</v>
       </c>
       <c r="I5" s="6">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
@@ -3377,10 +3377,10 @@
         <v>0.193548387</v>
       </c>
       <c r="I6" s="6">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="J6" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K6" s="6">
         <v>500</v>
@@ -3522,10 +3522,10 @@
         <v>0.152542373</v>
       </c>
       <c r="I7" s="6">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="J7" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K7" s="6">
         <v>500</v>
@@ -3667,7 +3667,7 @@
         <v>0.193548387</v>
       </c>
       <c r="I8" s="6">
-        <v>410</v>
+        <v>10</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0.152542373</v>
       </c>
       <c r="I9" s="6">
-        <v>540</v>
+        <v>10</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0.230769231</v>
       </c>
       <c r="I10" s="6">
-        <v>690</v>
+        <v>10</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0.193548387</v>
       </c>
       <c r="I11" s="6">
-        <v>860</v>
+        <v>10</v>
       </c>
       <c r="J11" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K11" s="6">
         <v>500</v>
@@ -4251,10 +4251,10 @@
         <v>0.193548387</v>
       </c>
       <c r="I12" s="6">
-        <v>1050</v>
+        <v>10</v>
       </c>
       <c r="J12" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K12" s="6">
         <v>500</v>
@@ -4396,7 +4396,7 @@
         <v>0.152542373</v>
       </c>
       <c r="I13" s="6">
-        <v>1260</v>
+        <v>10</v>
       </c>
       <c r="J13" s="6">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>0.230769231</v>
       </c>
       <c r="I14" s="6">
-        <v>1490</v>
+        <v>10</v>
       </c>
       <c r="J14" s="6">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0.193548387</v>
       </c>
       <c r="I15" s="6">
-        <v>1740</v>
+        <v>10</v>
       </c>
       <c r="J15" s="6">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>0.230769231</v>
       </c>
       <c r="I16" s="6">
-        <v>2010</v>
+        <v>10</v>
       </c>
       <c r="J16" s="6">
         <v>0</v>
@@ -4984,7 +4984,7 @@
         <v>0.264705882</v>
       </c>
       <c r="I17" s="6">
-        <v>2300</v>
+        <v>10</v>
       </c>
       <c r="J17" s="6">
         <v>0</v>
@@ -5129,7 +5129,7 @@
         <v>0.230769231</v>
       </c>
       <c r="I18" s="6">
-        <v>2610</v>
+        <v>10</v>
       </c>
       <c r="J18" s="6">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>0.193548387</v>
       </c>
       <c r="I19" s="6">
-        <v>2940</v>
+        <v>10</v>
       </c>
       <c r="J19" s="6">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>0.264705882</v>
       </c>
       <c r="I20" s="6">
-        <v>3290</v>
+        <v>10</v>
       </c>
       <c r="J20" s="6">
         <v>0</v>
@@ -5568,10 +5568,10 @@
         <v>0.230769231</v>
       </c>
       <c r="I21" s="6">
-        <v>3660</v>
+        <v>10</v>
       </c>
       <c r="J21" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K21" s="6">
         <v>500</v>
@@ -5713,10 +5713,10 @@
         <v>0.295774648</v>
       </c>
       <c r="I22" s="6">
-        <v>4050</v>
+        <v>10</v>
       </c>
       <c r="J22" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K22" s="6">
         <v>500</v>
@@ -5858,7 +5858,7 @@
         <v>0.264705882</v>
       </c>
       <c r="I23" s="6">
-        <v>4460</v>
+        <v>10</v>
       </c>
       <c r="J23" s="6">
         <v>0</v>
@@ -6003,7 +6003,7 @@
         <v>0.350649351</v>
       </c>
       <c r="I24" s="6">
-        <v>4890</v>
+        <v>10</v>
       </c>
       <c r="J24" s="6">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>0.324324324</v>
       </c>
       <c r="I25" s="6">
-        <v>5340</v>
+        <v>10</v>
       </c>
       <c r="J25" s="6">
         <v>0</v>
@@ -6293,10 +6293,10 @@
         <v>0.397590361</v>
       </c>
       <c r="I26" s="6">
-        <v>5810</v>
+        <v>10</v>
       </c>
       <c r="J26" s="6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K26" s="6">
         <v>500</v>
@@ -6438,10 +6438,10 @@
         <v>0.397590361</v>
       </c>
       <c r="I27" s="6">
-        <v>6300</v>
+        <v>10</v>
       </c>
       <c r="J27" s="6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K27" s="6">
         <v>500</v>
@@ -6583,7 +6583,7 @@
         <v>0.438202247</v>
       </c>
       <c r="I28" s="6">
-        <v>6810</v>
+        <v>10</v>
       </c>
       <c r="J28" s="6">
         <v>0</v>
@@ -6728,7 +6728,7 @@
         <v>0.418604651</v>
       </c>
       <c r="I29" s="6">
-        <v>7340</v>
+        <v>10</v>
       </c>
       <c r="J29" s="6">
         <v>0</v>
@@ -6873,7 +6873,7 @@
         <v>0.473684211</v>
       </c>
       <c r="I30" s="6">
-        <v>7890</v>
+        <v>10</v>
       </c>
       <c r="J30" s="6">
         <v>0</v>
@@ -7018,10 +7018,10 @@
         <v>0.456521739</v>
       </c>
       <c r="I31" s="6">
-        <v>8460</v>
+        <v>10</v>
       </c>
       <c r="J31" s="6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K31" s="6">
         <v>500</v>
@@ -7163,10 +7163,10 @@
         <v>0.504950495</v>
       </c>
       <c r="I32" s="6">
-        <v>9050</v>
+        <v>10</v>
       </c>
       <c r="J32" s="6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K32" s="6">
         <v>500</v>
@@ -7308,7 +7308,7 @@
         <v>0.489795918</v>
       </c>
       <c r="I33" s="6">
-        <v>9660</v>
+        <v>10</v>
       </c>
       <c r="J33" s="6">
         <v>0</v>
@@ -7453,7 +7453,7 @@
         <v>0.519230769</v>
       </c>
       <c r="I34" s="6">
-        <v>10290</v>
+        <v>10</v>
       </c>
       <c r="J34" s="6">
         <v>0</v>
@@ -7598,7 +7598,7 @@
         <v>0.504950495</v>
       </c>
       <c r="I35" s="6">
-        <v>10940</v>
+        <v>10</v>
       </c>
       <c r="J35" s="6">
         <v>0</v>
@@ -7743,10 +7743,10 @@
         <v>0.568965517</v>
       </c>
       <c r="I36" s="6">
-        <v>11610</v>
+        <v>10</v>
       </c>
       <c r="J36" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K36" s="6">
         <v>500</v>
@@ -7888,10 +7888,10 @@
         <v>0.568965517</v>
       </c>
       <c r="I37" s="6">
-        <v>12300</v>
+        <v>10</v>
       </c>
       <c r="J37" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K37" s="6">
         <v>500</v>
@@ -8033,7 +8033,7 @@
         <v>0.590163934</v>
       </c>
       <c r="I38" s="6">
-        <v>13010</v>
+        <v>10</v>
       </c>
       <c r="J38" s="6">
         <v>0</v>
@@ -8178,7 +8178,7 @@
         <v>0.579831933</v>
       </c>
       <c r="I39" s="6">
-        <v>13740</v>
+        <v>10</v>
       </c>
       <c r="J39" s="6">
         <v>0</v>
@@ -8323,7 +8323,7 @@
         <v>0.618320611</v>
       </c>
       <c r="I40" s="6">
-        <v>14490</v>
+        <v>10</v>
       </c>
       <c r="J40" s="6">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>0.635036496</v>
       </c>
       <c r="I41" s="6">
-        <v>18540</v>
+        <v>10</v>
       </c>
       <c r="J41" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K41" s="6">
         <v>500</v>
@@ -8613,10 +8613,10 @@
         <v>0.657534247</v>
       </c>
       <c r="I42" s="6">
-        <v>19410</v>
+        <v>10</v>
       </c>
       <c r="J42" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K42" s="6">
         <v>500</v>
@@ -8758,7 +8758,7 @@
         <v>0.618320611</v>
       </c>
       <c r="I43" s="6">
-        <v>16860</v>
+        <v>10</v>
       </c>
       <c r="J43" s="6">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>0.642857143</v>
       </c>
       <c r="I44" s="6">
-        <v>17690</v>
+        <v>10</v>
       </c>
       <c r="J44" s="6">
         <v>0</v>
@@ -9048,7 +9048,7 @@
         <v>0.6</v>
       </c>
       <c r="I45" s="6">
-        <v>15260</v>
+        <v>10</v>
       </c>
       <c r="J45" s="6">
         <v>0</v>
@@ -9193,10 +9193,10 @@
         <v>0.626865672</v>
       </c>
       <c r="I46" s="6">
-        <v>16050</v>
+        <v>10</v>
       </c>
       <c r="J46" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K46" s="6">
         <v>500</v>
@@ -9338,10 +9338,10 @@
         <v>0.657534247</v>
       </c>
       <c r="I47" s="6">
-        <v>20300</v>
+        <v>10</v>
       </c>
       <c r="J47" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K47" s="6">
         <v>4000</v>
@@ -9483,7 +9483,7 @@
         <v>0.671052632</v>
       </c>
       <c r="I48" s="6">
-        <v>20300</v>
+        <v>10</v>
       </c>
       <c r="J48" s="6">
         <v>0</v>
@@ -9628,7 +9628,7 @@
         <v>0.66442953</v>
       </c>
       <c r="I49" s="6">
-        <v>20300</v>
+        <v>10</v>
       </c>
       <c r="J49" s="6">
         <v>0</v>
@@ -9773,7 +9773,7 @@
         <v>0.689440994</v>
       </c>
       <c r="I50" s="6">
-        <v>20300</v>
+        <v>10</v>
       </c>
       <c r="J50" s="6">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>0.677419355</v>
       </c>
       <c r="I51" s="6">
-        <v>20300</v>
+        <v>10</v>
       </c>
       <c r="J51" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K51" s="6">
         <v>4000</v>
@@ -10063,10 +10063,10 @@
         <v>0.695121951</v>
       </c>
       <c r="I52" s="6">
-        <v>20300</v>
+        <v>10</v>
       </c>
       <c r="J52" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K52" s="6">
         <v>4000</v>
@@ -10208,7 +10208,7 @@
         <v>0.689440994</v>
       </c>
       <c r="I53" s="6">
-        <v>20300</v>
+        <v>10</v>
       </c>
       <c r="J53" s="6">
         <v>0</v>
@@ -10353,7 +10353,7 @@
         <v>0.705882353</v>
       </c>
       <c r="I54" s="6">
-        <v>20300</v>
+        <v>10</v>
       </c>
       <c r="J54" s="6">
         <v>0</v>
@@ -10498,7 +10498,7 @@
         <v>0.700598802</v>
       </c>
       <c r="I55" s="6">
-        <v>20300</v>
+        <v>10</v>
       </c>
       <c r="J55" s="6">
         <v>0</v>
@@ -10643,10 +10643,10 @@
         <v>0.715909091</v>
       </c>
       <c r="I56" s="6">
-        <v>20300</v>
+        <v>10</v>
       </c>
       <c r="J56" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K56" s="6">
         <v>4000</v>
@@ -10788,10 +10788,10 @@
         <v>0.705882353</v>
       </c>
       <c r="I57" s="6">
-        <v>1000000</v>
+        <v>10</v>
       </c>
       <c r="J57" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K57" s="6">
         <v>20000</v>
@@ -10933,7 +10933,7 @@
         <v>0.107142857</v>
       </c>
       <c r="I58" s="6">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="J58" s="6">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0.193548387</v>
       </c>
       <c r="I59" s="6">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="J59" s="6">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0.6</v>
       </c>
       <c r="I60" s="6">
-        <v>500000</v>
+        <v>10</v>
       </c>
       <c r="J60" s="6">
         <v>0</v>
@@ -11368,7 +11368,7 @@
         <v>0.152542373</v>
       </c>
       <c r="I61" s="6">
-        <v>1200</v>
+        <v>10</v>
       </c>
       <c r="J61" s="6">
         <v>0</v>
@@ -11513,7 +11513,7 @@
         <v>0.264705882</v>
       </c>
       <c r="I62" s="6">
-        <v>2400</v>
+        <v>10</v>
       </c>
       <c r="J62" s="6">
         <v>0</v>
@@ -11658,7 +11658,7 @@
         <v>0.6</v>
       </c>
       <c r="I63" s="6">
-        <v>26000</v>
+        <v>10</v>
       </c>
       <c r="J63" s="6">
         <v>0</v>
@@ -11803,7 +11803,7 @@
         <v>0.375</v>
       </c>
       <c r="I64" s="6">
-        <v>20000</v>
+        <v>10</v>
       </c>
       <c r="J64" s="6">
         <v>0</v>
@@ -11948,7 +11948,7 @@
         <v>0.6</v>
       </c>
       <c r="I65" s="6">
-        <v>500000</v>
+        <v>10</v>
       </c>
       <c r="J65" s="6">
         <v>0</v>
@@ -12093,7 +12093,7 @@
         <v>0.375</v>
       </c>
       <c r="I66" s="6">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J66" s="6">
         <v>0</v>
@@ -12238,7 +12238,7 @@
         <v>0.375</v>
       </c>
       <c r="I67" s="6">
-        <v>16000</v>
+        <v>10</v>
       </c>
       <c r="J67" s="6">
         <v>0</v>
@@ -12383,7 +12383,7 @@
         <v>0.375</v>
       </c>
       <c r="I68" s="6">
-        <v>20000</v>
+        <v>10</v>
       </c>
       <c r="J68" s="6">
         <v>0</v>
@@ -12528,7 +12528,7 @@
         <v>0.375</v>
       </c>
       <c r="I69" s="6">
-        <v>20000</v>
+        <v>10</v>
       </c>
       <c r="J69" s="6">
         <v>0</v>
@@ -12673,7 +12673,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="6">
-        <v>20000</v>
+        <v>10</v>
       </c>
       <c r="J70" s="6">
         <v>0</v>
@@ -12818,7 +12818,7 @@
         <v>0.473684211</v>
       </c>
       <c r="I71" s="6">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="J71" s="6">
         <v>0</v>
@@ -12963,7 +12963,7 @@
         <v>0.9</v>
       </c>
       <c r="I72" s="6">
-        <v>500000</v>
+        <v>10</v>
       </c>
       <c r="J72" s="6">
         <v>0</v>

--- a/code/excels/building/building_unit_enemy.xlsx
+++ b/code/excels/building/building_unit_enemy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="463">
   <si>
     <t>主键</t>
   </si>
@@ -348,955 +348,958 @@
     <t>钻地小能手</t>
   </si>
   <si>
+    <t>DOTA_UNIT_CAP_MELEE_ATTACK</t>
+  </si>
+  <si>
+    <t>wave</t>
+  </si>
+  <si>
+    <t>models/items/courier/mole_messenger/mole_messenger_lvl3.vmdl</t>
+  </si>
+  <si>
+    <t>Creep_Bad_Melee</t>
+  </si>
+  <si>
+    <t>soundevents/game_sounds_creeps.vsndevts</t>
+  </si>
+  <si>
+    <t>minimap_creep</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
+  </si>
+  <si>
+    <t>DOTA_COMBAT_CLASS_DEFEND_HERO</t>
+  </si>
+  <si>
+    <t>npc_dota_creature</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_1</t>
+  </si>
+  <si>
+    <t>DOTA_HULL_SIZE_HERO</t>
+  </si>
+  <si>
+    <t>DOTA_COMBAT_CLASS_ATTACK_HERO</t>
+  </si>
+  <si>
+    <t>wave_2</t>
+  </si>
+  <si>
+    <t>矿车小能手</t>
+  </si>
+  <si>
+    <t>models/items/courier/mole_messenger/mole_messenger.vmdl</t>
+  </si>
+  <si>
+    <t>particles/items2_fx/necronomicon_archer_projectile.vpcf</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_2</t>
+  </si>
+  <si>
+    <t>wave_3</t>
+  </si>
+  <si>
+    <t>矿工地鼠</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_eimermole/n_creep_eimermole.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_3</t>
+  </si>
+  <si>
+    <t>wave_4</t>
+  </si>
+  <si>
+    <t>狂奔地鳄</t>
+  </si>
+  <si>
+    <t>models/items/courier/loco_the_crocodile_courier/loco_the_crocodile_courier.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_4</t>
+  </si>
+  <si>
+    <t>wave_5</t>
+  </si>
+  <si>
+    <t>魔法青蛙</t>
+  </si>
+  <si>
+    <t>models/items/courier/mango_the_courier/mango_the_courier.vmdl</t>
+  </si>
+  <si>
+    <t>minimap_death</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_5</t>
+  </si>
+  <si>
+    <t>wave_6</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_6</t>
+  </si>
+  <si>
+    <t>wave_7</t>
+  </si>
+  <si>
+    <t>残破的机械蜘蛛</t>
+  </si>
+  <si>
+    <t>models/courier/courier_mech/courier_mech.vmdl</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_warlock/warlock_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_7</t>
+  </si>
+  <si>
+    <t>wave_8</t>
+  </si>
+  <si>
+    <t>迅捷墨瞳</t>
+  </si>
+  <si>
+    <t>models/courier/imp/imp.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_8</t>
+  </si>
+  <si>
+    <t>wave_9</t>
+  </si>
+  <si>
+    <t>地灵幼狮</t>
+  </si>
+  <si>
+    <t>models/items/courier/lilnova/lilnova.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_9</t>
+  </si>
+  <si>
+    <t>wave_10</t>
+  </si>
+  <si>
+    <t>跳跳兔</t>
+  </si>
+  <si>
+    <t>models/items/courier/roddy_the_jerboa_courier/roddy_the_jerboa_courier.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_10</t>
+  </si>
+  <si>
+    <t>wave_11</t>
+  </si>
+  <si>
+    <t>南瓜女巫</t>
+  </si>
+  <si>
+    <t>models/items/courier/little_fraid_the_courier_of_simons_retribution/little_fraid_the_courier_of_simons_retribution.vmdl</t>
+  </si>
+  <si>
+    <t>particles/base_attacks/ranged_tower_good.vpcf</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_11</t>
+  </si>
+  <si>
+    <t>wave_12</t>
+  </si>
+  <si>
+    <t>蓝色小马</t>
+  </si>
+  <si>
+    <t>models/items/courier/blue_lightning_horse/blue_lightning_horse.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_12</t>
+  </si>
+  <si>
+    <t>wave_13</t>
+  </si>
+  <si>
+    <t>骚虫</t>
+  </si>
+  <si>
+    <t>models/items/courier/kupu_courier/kupu_courier.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_13</t>
+  </si>
+  <si>
+    <t>wave_14</t>
+  </si>
+  <si>
+    <t>双头剑械犬</t>
+  </si>
+  <si>
+    <t>models/items/courier/starladder_grillhound/starladder_grillhound.vmdl</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_leshrac/leshrac_base_attack.vpcf</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_14</t>
+  </si>
+  <si>
+    <t>wave_15</t>
+  </si>
+  <si>
+    <t>黑曜异形</t>
+  </si>
+  <si>
+    <t>models/items/courier/supernova_rave_courier/supernova_rave_courier.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_15</t>
+  </si>
+  <si>
+    <t>wave_16</t>
+  </si>
+  <si>
+    <t>飞天小能手</t>
+  </si>
+  <si>
+    <t>models/items/courier/mole_messenger/mole_messenger_lvl2_flying.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_16</t>
+  </si>
+  <si>
+    <t>wave_17</t>
+  </si>
+  <si>
+    <t>飞天矿工人</t>
+  </si>
+  <si>
+    <t>models/items/courier/mole_messenger/mole_messenger_flying.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_17</t>
+  </si>
+  <si>
+    <t>wave_18</t>
+  </si>
+  <si>
+    <t>异界企鹅</t>
+  </si>
+  <si>
+    <t>models/events/frostivus/penguin/penguin.vmdl</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_bane/bane_projectile.vpcf</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_18</t>
+  </si>
+  <si>
+    <t>wave_19</t>
+  </si>
+  <si>
+    <t>机械蝗虫</t>
+  </si>
+  <si>
+    <t>models/items/courier/weta_automaton/weta_automaton_flying.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_19</t>
+  </si>
+  <si>
+    <t>wave_20</t>
+  </si>
+  <si>
+    <t>炮车</t>
+  </si>
+  <si>
+    <t>models/items/courier/weta_automaton/weta_automaton.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_20</t>
+  </si>
+  <si>
+    <t>wave_21</t>
+  </si>
+  <si>
+    <t>大眼小恶魔</t>
+  </si>
+  <si>
+    <t>models/items/broodmother/spiderling/ti9_cache_brood_carnivorous_mimicry_spiderling/ti9_cache_brood_carnivorous_mimicry_spiderling.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_21</t>
+  </si>
+  <si>
+    <t>wave_22</t>
+  </si>
+  <si>
+    <t>灵藤蜘蛛</t>
+  </si>
+  <si>
+    <t>models/items/broodmother/spiderling/perceptive_spiderling/perceptive_spiderling.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_22</t>
+  </si>
+  <si>
+    <t>wave_23</t>
+  </si>
+  <si>
+    <t>秀小妹</t>
+  </si>
+  <si>
+    <t>models/items/courier/jumo/jumo.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_23</t>
+  </si>
+  <si>
+    <t>wave_24</t>
+  </si>
+  <si>
+    <t>分身龙</t>
+  </si>
+  <si>
+    <t>models/courier/otter_dragon/otter_dragon.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_24</t>
+  </si>
+  <si>
+    <t>wave_25</t>
+  </si>
+  <si>
+    <t>黑曜石鸟</t>
+  </si>
+  <si>
+    <t>models/items/courier/devourling/devourling_flying.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_25</t>
+  </si>
+  <si>
+    <t>wave_26</t>
+  </si>
+  <si>
+    <t>幽灵船</t>
+  </si>
+  <si>
+    <t>models/items/courier/corsair_ship/corsair_ship.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_26</t>
+  </si>
+  <si>
+    <t>wave_27</t>
+  </si>
+  <si>
+    <t>小小鱼</t>
+  </si>
+  <si>
+    <t>models/items/courier/coral_furryfish/coral_furryfish_flying.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_27</t>
+  </si>
+  <si>
+    <t>wave_28</t>
+  </si>
+  <si>
+    <t>南瓜八爪鱼</t>
+  </si>
+  <si>
+    <t>models/items/courier/calabaxa_courier/calabaxa_courier.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_28</t>
+  </si>
+  <si>
+    <t>wave_29</t>
+  </si>
+  <si>
+    <t>胆小鬼</t>
+  </si>
+  <si>
+    <t>models/courier/drodo/drodo.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_29</t>
+  </si>
+  <si>
+    <t>wave_30</t>
+  </si>
+  <si>
+    <t>雪鸟</t>
+  </si>
+  <si>
+    <t>models/items/courier/snowl/snowl.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_30</t>
+  </si>
+  <si>
+    <t>wave_31</t>
+  </si>
+  <si>
+    <t>大嘴怪</t>
+  </si>
+  <si>
+    <t>models/items/furion/treant/ravenous_woodfang/ravenous_woodfang.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_31</t>
+  </si>
+  <si>
+    <t>wave_32</t>
+  </si>
+  <si>
+    <t>小谜团</t>
+  </si>
+  <si>
+    <t>models/items/enigma/eidolon/absolute_zero_updated_eidolon/absolute_zero_updated_eidolon.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_32</t>
+  </si>
+  <si>
+    <t>wave_33</t>
+  </si>
+  <si>
+    <t>嚣张的蘑菇</t>
+  </si>
+  <si>
+    <t>models/items/furion/treant/shroomling_treant/shroomling_treant.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_33</t>
+  </si>
+  <si>
+    <t>wave_34</t>
+  </si>
+  <si>
+    <t>魂荡荡</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_ghost_b/n_creep_ghost_frost.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_34</t>
+  </si>
+  <si>
+    <t>wave_35</t>
+  </si>
+  <si>
+    <t>凤凰</t>
+  </si>
+  <si>
+    <t>models/items/courier/courier_mvp_redkita/courier_mvp_redkita_flying.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_35</t>
+  </si>
+  <si>
+    <t>wave_36</t>
+  </si>
+  <si>
+    <t>麋鹿</t>
+  </si>
+  <si>
+    <t>models/items/courier/throe/throe.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_36</t>
+  </si>
+  <si>
+    <t>wave_37</t>
+  </si>
+  <si>
+    <t>凶灵</t>
+  </si>
+  <si>
+    <t>models/items/courier/deathbringer/deathbringer.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_37</t>
+  </si>
+  <si>
+    <t>wave_38</t>
+  </si>
+  <si>
+    <t>龙尾兽</t>
+  </si>
+  <si>
+    <t>models/items/beastmaster/boar/shrieking_razorback/shrieking_razorback.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_38</t>
+  </si>
+  <si>
+    <t>wave_39</t>
+  </si>
+  <si>
+    <t>树妖犬</t>
+  </si>
+  <si>
+    <t>models/items/furion/treant/allfather_of_nature_treant/allfather_of_nature_treant.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_39</t>
+  </si>
+  <si>
+    <t>wave_40</t>
+  </si>
+  <si>
+    <t>灵动的妖婆</t>
+  </si>
+  <si>
+    <t>models/items/courier/babka_bewitcher_blue/babka_bewitcher_blue_flying.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_40</t>
+  </si>
+  <si>
+    <t>wave_41</t>
+  </si>
+  <si>
+    <t>囚徒士兵</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_bad_melee/creep_bad_melee_mega.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_41</t>
+  </si>
+  <si>
+    <t>wave_42</t>
+  </si>
+  <si>
+    <t>囚徒傀儡</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_dire_hulk/creep_dire_ancient_hulk.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_42</t>
+  </si>
+  <si>
+    <t>wave_43</t>
+  </si>
+  <si>
+    <t>熔岩囚徒</t>
+  </si>
+  <si>
+    <t>models/heroes/warlock/warlock_demon.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_43</t>
+  </si>
+  <si>
+    <t>wave_44</t>
+  </si>
+  <si>
+    <t>歌唱家</t>
+  </si>
+  <si>
+    <t>models/items/courier/amphibian_kid/amphibian_kid.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_44</t>
+  </si>
+  <si>
+    <t>wave_45</t>
+  </si>
+  <si>
+    <t>models/courier/mega_greevil_courier/mega_greevil_courier.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_45</t>
+  </si>
+  <si>
+    <t>wave_46</t>
+  </si>
+  <si>
+    <t>跳跳蛙</t>
+  </si>
+  <si>
+    <t>models/courier/frog/frog.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_46</t>
+  </si>
+  <si>
+    <t>wave_47</t>
+  </si>
+  <si>
+    <t>树老人</t>
+  </si>
+  <si>
+    <t>models/items/furion/treant/treant_cis/treant_cis.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_47</t>
+  </si>
+  <si>
+    <t>wave_48</t>
+  </si>
+  <si>
+    <t>树美人</t>
+  </si>
+  <si>
+    <t>models/items/furion/treant/furion_treant_nelum_red/furion_treant_nelum_red.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_48</t>
+  </si>
+  <si>
+    <t>wave_49</t>
+  </si>
+  <si>
+    <t>荆棘大嘴怪</t>
+  </si>
+  <si>
+    <t>models/items/furion/treant/primeval_treant/primeval_treant.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_49</t>
+  </si>
+  <si>
+    <t>wave_50</t>
+  </si>
+  <si>
+    <t>杀帽鱼</t>
+  </si>
+  <si>
+    <t>models/items/hex/fish_hex/fish_hex.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_50</t>
+  </si>
+  <si>
+    <t>wave_51</t>
+  </si>
+  <si>
+    <t>零件</t>
+  </si>
+  <si>
+    <t>models/items/courier/deathripper/deathripper.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_51</t>
+  </si>
+  <si>
+    <t>wave_52</t>
+  </si>
+  <si>
+    <t>铁壳蓝龟</t>
+  </si>
+  <si>
+    <t>models/items/courier/nexon_turtle_11_blue/nexon_turtle_11_blue.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_52</t>
+  </si>
+  <si>
+    <t>wave_53</t>
+  </si>
+  <si>
+    <t>拳手</t>
+  </si>
+  <si>
+    <t>models/items/furion/treant/the_ancient_guardian_the_ancient_treants/the_ancient_guardian_the_ancient_treants.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_53</t>
+  </si>
+  <si>
+    <t>wave_54</t>
+  </si>
+  <si>
+    <t>帕奇</t>
+  </si>
+  <si>
+    <t>models/items/courier/butch_pudge_dog/butch_pudge_dog.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_54</t>
+  </si>
+  <si>
+    <t>wave_55</t>
+  </si>
+  <si>
+    <t>肉山</t>
+  </si>
+  <si>
+    <t>BOSS</t>
+  </si>
+  <si>
+    <t>models/creeps/roshan/roshan.vmdl</t>
+  </si>
+  <si>
+    <t>minimap_roshancamp</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_55</t>
+  </si>
+  <si>
+    <t>wave_goldx3</t>
+  </si>
+  <si>
+    <t>咬人箱*3</t>
+  </si>
+  <si>
+    <t>GOLD_BOSS</t>
+  </si>
+  <si>
+    <t>models/courier/trapjaw/trapjaw.vmdl</t>
+  </si>
+  <si>
+    <t>minimap_ancient</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_goldx3</t>
+  </si>
+  <si>
+    <t>wave_gold</t>
+  </si>
+  <si>
+    <t>咬人箱</t>
+  </si>
+  <si>
+    <t>models/courier/flopjaw/flopjaw.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_gold</t>
+  </si>
+  <si>
+    <t>wave_phantom_roshan</t>
+  </si>
+  <si>
+    <t>幻影肉山（30回合BOSS）</t>
+  </si>
+  <si>
+    <t>models/courier/baby_rosh/babyroshan_ti10_flying.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_phantom_roshan</t>
+  </si>
+  <si>
+    <t>wave_challenge_gold</t>
+  </si>
+  <si>
+    <t>金币挑战怪</t>
+  </si>
+  <si>
+    <t>models/courier/greevil/gold_greevil.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_challenge_gold</t>
+  </si>
+  <si>
+    <t>wave_challenge_wood</t>
+  </si>
+  <si>
+    <t>木材挑战怪</t>
+  </si>
+  <si>
+    <t>models/items/furion/treant/fungal_lord_shroomthing/fungal_lord_shroomthing.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_challenge_wood</t>
+  </si>
+  <si>
+    <t>wave_challenge_crystal</t>
+  </si>
+  <si>
+    <t>魂晶挑战怪</t>
+  </si>
+  <si>
+    <t>models/creeps/ice_biome/ogreseal/ogreseal_rednose.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_challenge_crystal</t>
+  </si>
+  <si>
+    <t>wave_challenge_equip</t>
+  </si>
+  <si>
+    <t>神装挑战怪</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_dragonspawn_a/n_creep_dragonspawn_a.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_challenge_equip</t>
+  </si>
+  <si>
+    <t>wave_challenge_star_card</t>
+  </si>
+  <si>
+    <t>界限突破挑战怪</t>
+  </si>
+  <si>
+    <t>models/creeps/ice_biome/ogreseal/ogreseal_undead.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_challenge_star_card</t>
+  </si>
+  <si>
+    <t>wave_challenge_woodlevel</t>
+  </si>
+  <si>
+    <t>木材等级挑战怪</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/ti9_crocodilian_dire/ti9_crocodilian_dire_ranged.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_challenge_woodlevel</t>
+  </si>
+  <si>
+    <t>roshan_accompany_physical</t>
+  </si>
+  <si>
+    <t>小肉山-物理</t>
+  </si>
+  <si>
+    <t>models/courier/baby_rosh/babyroshan_elemental_flying.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\roshan_accompany_physical</t>
+  </si>
+  <si>
+    <t>roshan_accompany_magical</t>
+  </si>
+  <si>
+    <t>小肉山-魔法</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\roshan_accompany_magical</t>
+  </si>
+  <si>
+    <t>roshan_3</t>
+  </si>
+  <si>
+    <t>小肉山3</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\roshan_3</t>
+  </si>
+  <si>
+    <t>candy_meteor</t>
+  </si>
+  <si>
+    <t>陨石</t>
+  </si>
+  <si>
+    <t>CANDY_BOSS</t>
+  </si>
+  <si>
+    <t>models/props_structures/spring_meteor/spring_meteor.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\candy_meteor</t>
+  </si>
+  <si>
+    <t>wave_candy</t>
+  </si>
+  <si>
+    <t>陨石小怪</t>
+  </si>
+  <si>
+    <t>CANDY_WAVE</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_bad_melee/creep_bad_melee_mega_crystal.vmdl</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\wave_candy</t>
+  </si>
+  <si>
+    <t>candy_boss</t>
+  </si>
+  <si>
+    <t>糖果boss</t>
+  </si>
+  <si>
+    <t>models/items/courier/nian_courier/nian_courier_flying.vmdl</t>
+  </si>
+  <si>
+    <t>minimap_nian</t>
+  </si>
+  <si>
+    <t>npc\units\building\enemy\candy_boss</t>
+  </si>
+  <si>
+    <t>字段注释</t>
+  </si>
+  <si>
+    <t>表头</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>building_unit_enemy</t>
+  </si>
+  <si>
+    <t>Creature</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>K+</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>1&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>2&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>3&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>4&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>5&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>6&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>7&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>8&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>9&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>10&gt;ItemDef&gt;V</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
     <t>DOTA_UNIT_CAP_NO_ATTACK</t>
-  </si>
-  <si>
-    <t>wave</t>
-  </si>
-  <si>
-    <t>models/items/courier/mole_messenger/mole_messenger_lvl3.vmdl</t>
-  </si>
-  <si>
-    <t>Creep_Bad_Melee</t>
-  </si>
-  <si>
-    <t>soundevents/game_sounds_creeps.vsndevts</t>
-  </si>
-  <si>
-    <t>minimap_creep</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
-  </si>
-  <si>
-    <t>DOTA_COMBAT_CLASS_DEFEND_HERO</t>
-  </si>
-  <si>
-    <t>npc_dota_creature</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_1</t>
-  </si>
-  <si>
-    <t>DOTA_HULL_SIZE_HERO</t>
-  </si>
-  <si>
-    <t>DOTA_COMBAT_CLASS_ATTACK_HERO</t>
-  </si>
-  <si>
-    <t>wave_2</t>
-  </si>
-  <si>
-    <t>矿车小能手</t>
-  </si>
-  <si>
-    <t>models/items/courier/mole_messenger/mole_messenger.vmdl</t>
-  </si>
-  <si>
-    <t>particles/items2_fx/necronomicon_archer_projectile.vpcf</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_2</t>
-  </si>
-  <si>
-    <t>wave_3</t>
-  </si>
-  <si>
-    <t>矿工地鼠</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_eimermole/n_creep_eimermole.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_3</t>
-  </si>
-  <si>
-    <t>wave_4</t>
-  </si>
-  <si>
-    <t>狂奔地鳄</t>
-  </si>
-  <si>
-    <t>models/items/courier/loco_the_crocodile_courier/loco_the_crocodile_courier.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_4</t>
-  </si>
-  <si>
-    <t>wave_5</t>
-  </si>
-  <si>
-    <t>魔法青蛙</t>
-  </si>
-  <si>
-    <t>models/items/courier/mango_the_courier/mango_the_courier.vmdl</t>
-  </si>
-  <si>
-    <t>minimap_death</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_5</t>
-  </si>
-  <si>
-    <t>wave_6</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_6</t>
-  </si>
-  <si>
-    <t>wave_7</t>
-  </si>
-  <si>
-    <t>残破的机械蜘蛛</t>
-  </si>
-  <si>
-    <t>models/courier/courier_mech/courier_mech.vmdl</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_warlock/warlock_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_7</t>
-  </si>
-  <si>
-    <t>wave_8</t>
-  </si>
-  <si>
-    <t>迅捷墨瞳</t>
-  </si>
-  <si>
-    <t>models/courier/imp/imp.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_8</t>
-  </si>
-  <si>
-    <t>wave_9</t>
-  </si>
-  <si>
-    <t>地灵幼狮</t>
-  </si>
-  <si>
-    <t>models/items/courier/lilnova/lilnova.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_9</t>
-  </si>
-  <si>
-    <t>wave_10</t>
-  </si>
-  <si>
-    <t>跳跳兔</t>
-  </si>
-  <si>
-    <t>models/items/courier/roddy_the_jerboa_courier/roddy_the_jerboa_courier.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_10</t>
-  </si>
-  <si>
-    <t>wave_11</t>
-  </si>
-  <si>
-    <t>南瓜女巫</t>
-  </si>
-  <si>
-    <t>models/items/courier/little_fraid_the_courier_of_simons_retribution/little_fraid_the_courier_of_simons_retribution.vmdl</t>
-  </si>
-  <si>
-    <t>particles/base_attacks/ranged_tower_good.vpcf</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_11</t>
-  </si>
-  <si>
-    <t>wave_12</t>
-  </si>
-  <si>
-    <t>蓝色小马</t>
-  </si>
-  <si>
-    <t>models/items/courier/blue_lightning_horse/blue_lightning_horse.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_12</t>
-  </si>
-  <si>
-    <t>wave_13</t>
-  </si>
-  <si>
-    <t>骚虫</t>
-  </si>
-  <si>
-    <t>models/items/courier/kupu_courier/kupu_courier.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_13</t>
-  </si>
-  <si>
-    <t>wave_14</t>
-  </si>
-  <si>
-    <t>双头剑械犬</t>
-  </si>
-  <si>
-    <t>models/items/courier/starladder_grillhound/starladder_grillhound.vmdl</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_leshrac/leshrac_base_attack.vpcf</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_14</t>
-  </si>
-  <si>
-    <t>wave_15</t>
-  </si>
-  <si>
-    <t>黑曜异形</t>
-  </si>
-  <si>
-    <t>models/items/courier/supernova_rave_courier/supernova_rave_courier.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_15</t>
-  </si>
-  <si>
-    <t>wave_16</t>
-  </si>
-  <si>
-    <t>飞天小能手</t>
-  </si>
-  <si>
-    <t>models/items/courier/mole_messenger/mole_messenger_lvl2_flying.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_16</t>
-  </si>
-  <si>
-    <t>wave_17</t>
-  </si>
-  <si>
-    <t>飞天矿工人</t>
-  </si>
-  <si>
-    <t>models/items/courier/mole_messenger/mole_messenger_flying.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_17</t>
-  </si>
-  <si>
-    <t>wave_18</t>
-  </si>
-  <si>
-    <t>异界企鹅</t>
-  </si>
-  <si>
-    <t>models/events/frostivus/penguin/penguin.vmdl</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_bane/bane_projectile.vpcf</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_18</t>
-  </si>
-  <si>
-    <t>wave_19</t>
-  </si>
-  <si>
-    <t>机械蝗虫</t>
-  </si>
-  <si>
-    <t>models/items/courier/weta_automaton/weta_automaton_flying.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_19</t>
-  </si>
-  <si>
-    <t>wave_20</t>
-  </si>
-  <si>
-    <t>炮车</t>
-  </si>
-  <si>
-    <t>models/items/courier/weta_automaton/weta_automaton.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_20</t>
-  </si>
-  <si>
-    <t>wave_21</t>
-  </si>
-  <si>
-    <t>大眼小恶魔</t>
-  </si>
-  <si>
-    <t>models/items/broodmother/spiderling/ti9_cache_brood_carnivorous_mimicry_spiderling/ti9_cache_brood_carnivorous_mimicry_spiderling.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_21</t>
-  </si>
-  <si>
-    <t>wave_22</t>
-  </si>
-  <si>
-    <t>灵藤蜘蛛</t>
-  </si>
-  <si>
-    <t>models/items/broodmother/spiderling/perceptive_spiderling/perceptive_spiderling.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_22</t>
-  </si>
-  <si>
-    <t>wave_23</t>
-  </si>
-  <si>
-    <t>秀小妹</t>
-  </si>
-  <si>
-    <t>models/items/courier/jumo/jumo.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_23</t>
-  </si>
-  <si>
-    <t>wave_24</t>
-  </si>
-  <si>
-    <t>分身龙</t>
-  </si>
-  <si>
-    <t>models/courier/otter_dragon/otter_dragon.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_24</t>
-  </si>
-  <si>
-    <t>wave_25</t>
-  </si>
-  <si>
-    <t>黑曜石鸟</t>
-  </si>
-  <si>
-    <t>models/items/courier/devourling/devourling_flying.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_25</t>
-  </si>
-  <si>
-    <t>wave_26</t>
-  </si>
-  <si>
-    <t>幽灵船</t>
-  </si>
-  <si>
-    <t>models/items/courier/corsair_ship/corsair_ship.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_26</t>
-  </si>
-  <si>
-    <t>wave_27</t>
-  </si>
-  <si>
-    <t>小小鱼</t>
-  </si>
-  <si>
-    <t>models/items/courier/coral_furryfish/coral_furryfish_flying.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_27</t>
-  </si>
-  <si>
-    <t>wave_28</t>
-  </si>
-  <si>
-    <t>南瓜八爪鱼</t>
-  </si>
-  <si>
-    <t>models/items/courier/calabaxa_courier/calabaxa_courier.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_28</t>
-  </si>
-  <si>
-    <t>wave_29</t>
-  </si>
-  <si>
-    <t>胆小鬼</t>
-  </si>
-  <si>
-    <t>models/courier/drodo/drodo.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_29</t>
-  </si>
-  <si>
-    <t>wave_30</t>
-  </si>
-  <si>
-    <t>雪鸟</t>
-  </si>
-  <si>
-    <t>models/items/courier/snowl/snowl.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_30</t>
-  </si>
-  <si>
-    <t>wave_31</t>
-  </si>
-  <si>
-    <t>大嘴怪</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant/ravenous_woodfang/ravenous_woodfang.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_31</t>
-  </si>
-  <si>
-    <t>wave_32</t>
-  </si>
-  <si>
-    <t>小谜团</t>
-  </si>
-  <si>
-    <t>models/items/enigma/eidolon/absolute_zero_updated_eidolon/absolute_zero_updated_eidolon.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_32</t>
-  </si>
-  <si>
-    <t>wave_33</t>
-  </si>
-  <si>
-    <t>嚣张的蘑菇</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant/shroomling_treant/shroomling_treant.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_33</t>
-  </si>
-  <si>
-    <t>wave_34</t>
-  </si>
-  <si>
-    <t>魂荡荡</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_ghost_b/n_creep_ghost_frost.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_34</t>
-  </si>
-  <si>
-    <t>wave_35</t>
-  </si>
-  <si>
-    <t>凤凰</t>
-  </si>
-  <si>
-    <t>models/items/courier/courier_mvp_redkita/courier_mvp_redkita_flying.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_35</t>
-  </si>
-  <si>
-    <t>wave_36</t>
-  </si>
-  <si>
-    <t>麋鹿</t>
-  </si>
-  <si>
-    <t>models/items/courier/throe/throe.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_36</t>
-  </si>
-  <si>
-    <t>wave_37</t>
-  </si>
-  <si>
-    <t>凶灵</t>
-  </si>
-  <si>
-    <t>models/items/courier/deathbringer/deathbringer.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_37</t>
-  </si>
-  <si>
-    <t>wave_38</t>
-  </si>
-  <si>
-    <t>龙尾兽</t>
-  </si>
-  <si>
-    <t>models/items/beastmaster/boar/shrieking_razorback/shrieking_razorback.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_38</t>
-  </si>
-  <si>
-    <t>wave_39</t>
-  </si>
-  <si>
-    <t>树妖犬</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant/allfather_of_nature_treant/allfather_of_nature_treant.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_39</t>
-  </si>
-  <si>
-    <t>wave_40</t>
-  </si>
-  <si>
-    <t>灵动的妖婆</t>
-  </si>
-  <si>
-    <t>models/items/courier/babka_bewitcher_blue/babka_bewitcher_blue_flying.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_40</t>
-  </si>
-  <si>
-    <t>wave_41</t>
-  </si>
-  <si>
-    <t>囚徒士兵</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/creep_bad_melee/creep_bad_melee_mega.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_41</t>
-  </si>
-  <si>
-    <t>wave_42</t>
-  </si>
-  <si>
-    <t>囚徒傀儡</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/creep_dire_hulk/creep_dire_ancient_hulk.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_42</t>
-  </si>
-  <si>
-    <t>wave_43</t>
-  </si>
-  <si>
-    <t>熔岩囚徒</t>
-  </si>
-  <si>
-    <t>models/heroes/warlock/warlock_demon.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_43</t>
-  </si>
-  <si>
-    <t>wave_44</t>
-  </si>
-  <si>
-    <t>歌唱家</t>
-  </si>
-  <si>
-    <t>models/items/courier/amphibian_kid/amphibian_kid.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_44</t>
-  </si>
-  <si>
-    <t>wave_45</t>
-  </si>
-  <si>
-    <t>models/courier/mega_greevil_courier/mega_greevil_courier.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_45</t>
-  </si>
-  <si>
-    <t>wave_46</t>
-  </si>
-  <si>
-    <t>跳跳蛙</t>
-  </si>
-  <si>
-    <t>models/courier/frog/frog.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_46</t>
-  </si>
-  <si>
-    <t>wave_47</t>
-  </si>
-  <si>
-    <t>树老人</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant/treant_cis/treant_cis.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_47</t>
-  </si>
-  <si>
-    <t>wave_48</t>
-  </si>
-  <si>
-    <t>树美人</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant/furion_treant_nelum_red/furion_treant_nelum_red.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_48</t>
-  </si>
-  <si>
-    <t>wave_49</t>
-  </si>
-  <si>
-    <t>荆棘大嘴怪</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant/primeval_treant/primeval_treant.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_49</t>
-  </si>
-  <si>
-    <t>wave_50</t>
-  </si>
-  <si>
-    <t>杀帽鱼</t>
-  </si>
-  <si>
-    <t>models/items/hex/fish_hex/fish_hex.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_50</t>
-  </si>
-  <si>
-    <t>wave_51</t>
-  </si>
-  <si>
-    <t>零件</t>
-  </si>
-  <si>
-    <t>models/items/courier/deathripper/deathripper.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_51</t>
-  </si>
-  <si>
-    <t>wave_52</t>
-  </si>
-  <si>
-    <t>铁壳蓝龟</t>
-  </si>
-  <si>
-    <t>models/items/courier/nexon_turtle_11_blue/nexon_turtle_11_blue.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_52</t>
-  </si>
-  <si>
-    <t>wave_53</t>
-  </si>
-  <si>
-    <t>拳手</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant/the_ancient_guardian_the_ancient_treants/the_ancient_guardian_the_ancient_treants.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_53</t>
-  </si>
-  <si>
-    <t>wave_54</t>
-  </si>
-  <si>
-    <t>帕奇</t>
-  </si>
-  <si>
-    <t>models/items/courier/butch_pudge_dog/butch_pudge_dog.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_54</t>
-  </si>
-  <si>
-    <t>wave_55</t>
-  </si>
-  <si>
-    <t>肉山</t>
-  </si>
-  <si>
-    <t>BOSS</t>
-  </si>
-  <si>
-    <t>models/creeps/roshan/roshan.vmdl</t>
-  </si>
-  <si>
-    <t>minimap_roshancamp</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_55</t>
-  </si>
-  <si>
-    <t>wave_goldx3</t>
-  </si>
-  <si>
-    <t>咬人箱*3</t>
-  </si>
-  <si>
-    <t>GOLD_BOSS</t>
-  </si>
-  <si>
-    <t>models/courier/trapjaw/trapjaw.vmdl</t>
-  </si>
-  <si>
-    <t>minimap_ancient</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_goldx3</t>
-  </si>
-  <si>
-    <t>wave_gold</t>
-  </si>
-  <si>
-    <t>咬人箱</t>
-  </si>
-  <si>
-    <t>models/courier/flopjaw/flopjaw.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_gold</t>
-  </si>
-  <si>
-    <t>wave_phantom_roshan</t>
-  </si>
-  <si>
-    <t>幻影肉山（30回合BOSS）</t>
-  </si>
-  <si>
-    <t>models/courier/baby_rosh/babyroshan_ti10_flying.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_phantom_roshan</t>
-  </si>
-  <si>
-    <t>wave_challenge_gold</t>
-  </si>
-  <si>
-    <t>金币挑战怪</t>
-  </si>
-  <si>
-    <t>models/courier/greevil/gold_greevil.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_challenge_gold</t>
-  </si>
-  <si>
-    <t>wave_challenge_wood</t>
-  </si>
-  <si>
-    <t>木材挑战怪</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant/fungal_lord_shroomthing/fungal_lord_shroomthing.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_challenge_wood</t>
-  </si>
-  <si>
-    <t>wave_challenge_crystal</t>
-  </si>
-  <si>
-    <t>魂晶挑战怪</t>
-  </si>
-  <si>
-    <t>models/creeps/ice_biome/ogreseal/ogreseal_rednose.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_challenge_crystal</t>
-  </si>
-  <si>
-    <t>wave_challenge_equip</t>
-  </si>
-  <si>
-    <t>神装挑战怪</t>
-  </si>
-  <si>
-    <t>models/creeps/neutral_creeps/n_creep_dragonspawn_a/n_creep_dragonspawn_a.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_challenge_equip</t>
-  </si>
-  <si>
-    <t>wave_challenge_star_card</t>
-  </si>
-  <si>
-    <t>界限突破挑战怪</t>
-  </si>
-  <si>
-    <t>models/creeps/ice_biome/ogreseal/ogreseal_undead.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_challenge_star_card</t>
-  </si>
-  <si>
-    <t>wave_challenge_woodlevel</t>
-  </si>
-  <si>
-    <t>木材等级挑战怪</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/ti9_crocodilian_dire/ti9_crocodilian_dire_ranged.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_challenge_woodlevel</t>
-  </si>
-  <si>
-    <t>roshan_accompany_physical</t>
-  </si>
-  <si>
-    <t>小肉山-物理</t>
-  </si>
-  <si>
-    <t>models/courier/baby_rosh/babyroshan_elemental_flying.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\roshan_accompany_physical</t>
-  </si>
-  <si>
-    <t>roshan_accompany_magical</t>
-  </si>
-  <si>
-    <t>小肉山-魔法</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\roshan_accompany_magical</t>
-  </si>
-  <si>
-    <t>roshan_3</t>
-  </si>
-  <si>
-    <t>小肉山3</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\roshan_3</t>
-  </si>
-  <si>
-    <t>candy_meteor</t>
-  </si>
-  <si>
-    <t>陨石</t>
-  </si>
-  <si>
-    <t>CANDY_BOSS</t>
-  </si>
-  <si>
-    <t>models/props_structures/spring_meteor/spring_meteor.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\candy_meteor</t>
-  </si>
-  <si>
-    <t>wave_candy</t>
-  </si>
-  <si>
-    <t>陨石小怪</t>
-  </si>
-  <si>
-    <t>CANDY_WAVE</t>
-  </si>
-  <si>
-    <t>models/creeps/lane_creeps/creep_bad_melee/creep_bad_melee_mega_crystal.vmdl</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\wave_candy</t>
-  </si>
-  <si>
-    <t>candy_boss</t>
-  </si>
-  <si>
-    <t>糖果boss</t>
-  </si>
-  <si>
-    <t>models/items/courier/nian_courier/nian_courier_flying.vmdl</t>
-  </si>
-  <si>
-    <t>minimap_nian</t>
-  </si>
-  <si>
-    <t>npc\units\building\enemy\candy_boss</t>
-  </si>
-  <si>
-    <t>字段注释</t>
-  </si>
-  <si>
-    <t>表头</t>
-  </si>
-  <si>
-    <t>字段</t>
-  </si>
-  <si>
-    <t>building_unit_enemy</t>
-  </si>
-  <si>
-    <t>Creature</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>K+</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>1&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>2&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>3&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>4&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>5&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>6&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>7&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>8&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>9&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>10&gt;ItemDef&gt;V</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>root</t>
   </si>
   <si>
     <t>peace</t>
@@ -1463,9 +1466,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1487,21 +1489,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1516,15 +1512,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1554,6 +1542,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1571,12 +1581,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1586,15 +1597,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1621,85 +1624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,37 +1636,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1759,7 +1666,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1771,7 +1774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,25 +1792,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1887,21 +1890,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1911,11 +1899,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1931,21 +1925,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1976,11 +1955,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1990,10 +1993,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2002,137 +2005,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2187,6 +2190,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2516,8 +2522,8 @@
   <sheetPr/>
   <dimension ref="A1:BI72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I72"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2526,7 +2532,7 @@
     <col min="2" max="4" width="10.6666666666667" customWidth="1"/>
     <col min="7" max="8" width="12.6666666666667" customWidth="1"/>
     <col min="11" max="11" width="8.83333333333333" customWidth="1"/>
-    <col min="17" max="17" width="27.3333333333333" customWidth="1"/>
+    <col min="17" max="17" width="32.8333333333333" customWidth="1"/>
     <col min="20" max="20" width="7.33333333333333" customWidth="1"/>
     <col min="24" max="24" width="13.3333333333333" customWidth="1"/>
     <col min="26" max="26" width="20.5833333333333" customWidth="1"/>
@@ -2938,13 +2944,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L3" s="6">
         <v>0</v>
@@ -2961,11 +2967,11 @@
       <c r="P3" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R3" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S3" s="6">
         <v>4</v>
@@ -3025,7 +3031,7 @@
       <c r="AP3" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ3" s="20" t="s">
+      <c r="AQ3" s="21" t="s">
         <v>119</v>
       </c>
       <c r="AR3" s="8"/>
@@ -3083,13 +3089,13 @@
         <v>0.152542373</v>
       </c>
       <c r="I4" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -3106,11 +3112,11 @@
       <c r="P4" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R4" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S4" s="6">
         <v>4</v>
@@ -3174,7 +3180,7 @@
       <c r="AP4" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ4" s="21" t="s">
+      <c r="AQ4" s="22" t="s">
         <v>126</v>
       </c>
       <c r="AR4" s="8"/>
@@ -3232,13 +3238,13 @@
         <v>0.107142857</v>
       </c>
       <c r="I5" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -3255,11 +3261,11 @@
       <c r="P5" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R5" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S5" s="6">
         <v>4</v>
@@ -3319,7 +3325,7 @@
       <c r="AP5" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ5" s="21" t="s">
+      <c r="AQ5" s="22" t="s">
         <v>130</v>
       </c>
       <c r="AR5" s="8"/>
@@ -3377,13 +3383,13 @@
         <v>0.193548387</v>
       </c>
       <c r="I6" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -3400,11 +3406,11 @@
       <c r="P6" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R6" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S6" s="6">
         <v>4</v>
@@ -3464,7 +3470,7 @@
       <c r="AP6" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ6" s="21" t="s">
+      <c r="AQ6" s="22" t="s">
         <v>134</v>
       </c>
       <c r="AR6" s="8"/>
@@ -3522,13 +3528,13 @@
         <v>0.152542373</v>
       </c>
       <c r="I7" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -3545,11 +3551,11 @@
       <c r="P7" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R7" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S7" s="6">
         <v>4</v>
@@ -3609,7 +3615,7 @@
       <c r="AP7" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ7" s="21" t="s">
+      <c r="AQ7" s="22" t="s">
         <v>139</v>
       </c>
       <c r="AR7" s="8"/>
@@ -3667,13 +3673,13 @@
         <v>0.193548387</v>
       </c>
       <c r="I8" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -3690,11 +3696,11 @@
       <c r="P8" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R8" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S8" s="6">
         <v>4</v>
@@ -3754,7 +3760,7 @@
       <c r="AP8" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ8" s="21" t="s">
+      <c r="AQ8" s="22" t="s">
         <v>141</v>
       </c>
       <c r="AR8" s="8"/>
@@ -3812,13 +3818,13 @@
         <v>0.152542373</v>
       </c>
       <c r="I9" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -3835,11 +3841,11 @@
       <c r="P9" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R9" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S9" s="6">
         <v>4</v>
@@ -3903,7 +3909,7 @@
       <c r="AP9" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ9" s="21" t="s">
+      <c r="AQ9" s="22" t="s">
         <v>146</v>
       </c>
       <c r="AR9" s="8"/>
@@ -3961,13 +3967,13 @@
         <v>0.230769231</v>
       </c>
       <c r="I10" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -3984,11 +3990,11 @@
       <c r="P10" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R10" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S10" s="6">
         <v>4</v>
@@ -4048,7 +4054,7 @@
       <c r="AP10" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ10" s="21" t="s">
+      <c r="AQ10" s="22" t="s">
         <v>150</v>
       </c>
       <c r="AR10" s="8"/>
@@ -4106,13 +4112,13 @@
         <v>0.193548387</v>
       </c>
       <c r="I11" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J11" s="6">
         <v>0</v>
       </c>
       <c r="K11" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -4129,11 +4135,11 @@
       <c r="P11" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R11" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S11" s="6">
         <v>4</v>
@@ -4193,7 +4199,7 @@
       <c r="AP11" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ11" s="21" t="s">
+      <c r="AQ11" s="22" t="s">
         <v>154</v>
       </c>
       <c r="AR11" s="8"/>
@@ -4251,13 +4257,13 @@
         <v>0.193548387</v>
       </c>
       <c r="I12" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J12" s="6">
         <v>0</v>
       </c>
       <c r="K12" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -4274,11 +4280,11 @@
       <c r="P12" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R12" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S12" s="6">
         <v>4</v>
@@ -4338,7 +4344,7 @@
       <c r="AP12" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ12" s="21" t="s">
+      <c r="AQ12" s="22" t="s">
         <v>158</v>
       </c>
       <c r="AR12" s="8"/>
@@ -4396,13 +4402,13 @@
         <v>0.152542373</v>
       </c>
       <c r="I13" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J13" s="6">
         <v>0</v>
       </c>
       <c r="K13" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -4419,11 +4425,11 @@
       <c r="P13" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R13" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S13" s="6">
         <v>4</v>
@@ -4487,7 +4493,7 @@
       <c r="AP13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ13" s="21" t="s">
+      <c r="AQ13" s="22" t="s">
         <v>163</v>
       </c>
       <c r="AR13" s="8"/>
@@ -4545,13 +4551,13 @@
         <v>0.230769231</v>
       </c>
       <c r="I14" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J14" s="6">
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -4568,11 +4574,11 @@
       <c r="P14" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R14" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S14" s="6">
         <v>4</v>
@@ -4632,7 +4638,7 @@
       <c r="AP14" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ14" s="21" t="s">
+      <c r="AQ14" s="22" t="s">
         <v>167</v>
       </c>
       <c r="AR14" s="8"/>
@@ -4690,13 +4696,13 @@
         <v>0.193548387</v>
       </c>
       <c r="I15" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J15" s="6">
         <v>0</v>
       </c>
       <c r="K15" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -4713,11 +4719,11 @@
       <c r="P15" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R15" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S15" s="6">
         <v>4</v>
@@ -4777,7 +4783,7 @@
       <c r="AP15" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ15" s="21" t="s">
+      <c r="AQ15" s="22" t="s">
         <v>171</v>
       </c>
       <c r="AR15" s="8"/>
@@ -4835,13 +4841,13 @@
         <v>0.230769231</v>
       </c>
       <c r="I16" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J16" s="6">
         <v>0</v>
       </c>
       <c r="K16" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -4858,11 +4864,11 @@
       <c r="P16" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R16" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S16" s="6">
         <v>4</v>
@@ -4926,7 +4932,7 @@
       <c r="AP16" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ16" s="21" t="s">
+      <c r="AQ16" s="22" t="s">
         <v>176</v>
       </c>
       <c r="AR16" s="8"/>
@@ -4984,13 +4990,13 @@
         <v>0.264705882</v>
       </c>
       <c r="I17" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J17" s="6">
         <v>0</v>
       </c>
       <c r="K17" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -5007,11 +5013,11 @@
       <c r="P17" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="Q17" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R17" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S17" s="6">
         <v>4</v>
@@ -5071,7 +5077,7 @@
       <c r="AP17" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ17" s="21" t="s">
+      <c r="AQ17" s="22" t="s">
         <v>180</v>
       </c>
       <c r="AR17" s="8"/>
@@ -5129,13 +5135,13 @@
         <v>0.230769231</v>
       </c>
       <c r="I18" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J18" s="6">
         <v>0</v>
       </c>
       <c r="K18" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -5152,11 +5158,11 @@
       <c r="P18" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R18" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S18" s="6">
         <v>4</v>
@@ -5216,7 +5222,7 @@
       <c r="AP18" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ18" s="21" t="s">
+      <c r="AQ18" s="22" t="s">
         <v>184</v>
       </c>
       <c r="AR18" s="8"/>
@@ -5274,13 +5280,13 @@
         <v>0.193548387</v>
       </c>
       <c r="I19" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J19" s="6">
         <v>0</v>
       </c>
       <c r="K19" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L19" s="6">
         <v>0</v>
@@ -5297,11 +5303,11 @@
       <c r="P19" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R19" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S19" s="6">
         <v>4</v>
@@ -5361,7 +5367,7 @@
       <c r="AP19" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ19" s="21" t="s">
+      <c r="AQ19" s="22" t="s">
         <v>188</v>
       </c>
       <c r="AR19" s="8"/>
@@ -5419,13 +5425,13 @@
         <v>0.264705882</v>
       </c>
       <c r="I20" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J20" s="6">
         <v>0</v>
       </c>
       <c r="K20" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L20" s="6">
         <v>0</v>
@@ -5442,11 +5448,11 @@
       <c r="P20" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R20" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S20" s="6">
         <v>4</v>
@@ -5510,7 +5516,7 @@
       <c r="AP20" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ20" s="21" t="s">
+      <c r="AQ20" s="22" t="s">
         <v>193</v>
       </c>
       <c r="AR20" s="8"/>
@@ -5568,13 +5574,13 @@
         <v>0.230769231</v>
       </c>
       <c r="I21" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J21" s="6">
         <v>0</v>
       </c>
       <c r="K21" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L21" s="6">
         <v>0</v>
@@ -5591,11 +5597,11 @@
       <c r="P21" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R21" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S21" s="6">
         <v>4</v>
@@ -5655,7 +5661,7 @@
       <c r="AP21" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ21" s="21" t="s">
+      <c r="AQ21" s="22" t="s">
         <v>197</v>
       </c>
       <c r="AR21" s="8"/>
@@ -5713,13 +5719,13 @@
         <v>0.295774648</v>
       </c>
       <c r="I22" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J22" s="6">
         <v>0</v>
       </c>
       <c r="K22" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L22" s="6">
         <v>0</v>
@@ -5736,11 +5742,11 @@
       <c r="P22" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q22" s="6" t="s">
+      <c r="Q22" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R22" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S22" s="6">
         <v>4</v>
@@ -5800,7 +5806,7 @@
       <c r="AP22" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ22" s="21" t="s">
+      <c r="AQ22" s="22" t="s">
         <v>201</v>
       </c>
       <c r="AR22" s="8"/>
@@ -5858,13 +5864,13 @@
         <v>0.264705882</v>
       </c>
       <c r="I23" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J23" s="6">
         <v>0</v>
       </c>
       <c r="K23" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L23" s="6">
         <v>0</v>
@@ -5881,11 +5887,11 @@
       <c r="P23" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="Q23" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R23" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S23" s="6">
         <v>4</v>
@@ -5945,7 +5951,7 @@
       <c r="AP23" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ23" s="21" t="s">
+      <c r="AQ23" s="22" t="s">
         <v>205</v>
       </c>
       <c r="AR23" s="8"/>
@@ -6003,13 +6009,13 @@
         <v>0.350649351</v>
       </c>
       <c r="I24" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J24" s="6">
         <v>0</v>
       </c>
       <c r="K24" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L24" s="6">
         <v>0</v>
@@ -6026,11 +6032,11 @@
       <c r="P24" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R24" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S24" s="6">
         <v>4</v>
@@ -6090,7 +6096,7 @@
       <c r="AP24" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ24" s="21" t="s">
+      <c r="AQ24" s="22" t="s">
         <v>209</v>
       </c>
       <c r="AR24" s="8"/>
@@ -6148,13 +6154,13 @@
         <v>0.324324324</v>
       </c>
       <c r="I25" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J25" s="6">
         <v>0</v>
       </c>
       <c r="K25" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L25" s="6">
         <v>0</v>
@@ -6171,11 +6177,11 @@
       <c r="P25" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R25" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S25" s="6">
         <v>4</v>
@@ -6235,7 +6241,7 @@
       <c r="AP25" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ25" s="21" t="s">
+      <c r="AQ25" s="22" t="s">
         <v>213</v>
       </c>
       <c r="AR25" s="8"/>
@@ -6293,13 +6299,13 @@
         <v>0.397590361</v>
       </c>
       <c r="I26" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J26" s="6">
         <v>0</v>
       </c>
       <c r="K26" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L26" s="6">
         <v>0</v>
@@ -6316,11 +6322,11 @@
       <c r="P26" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q26" s="6" t="s">
+      <c r="Q26" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R26" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S26" s="6">
         <v>4</v>
@@ -6380,7 +6386,7 @@
       <c r="AP26" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ26" s="21" t="s">
+      <c r="AQ26" s="22" t="s">
         <v>217</v>
       </c>
       <c r="AR26" s="8"/>
@@ -6438,13 +6444,13 @@
         <v>0.397590361</v>
       </c>
       <c r="I27" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J27" s="6">
         <v>0</v>
       </c>
       <c r="K27" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L27" s="6">
         <v>0</v>
@@ -6461,11 +6467,11 @@
       <c r="P27" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q27" s="6" t="s">
+      <c r="Q27" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R27" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S27" s="6">
         <v>4</v>
@@ -6525,7 +6531,7 @@
       <c r="AP27" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ27" s="21" t="s">
+      <c r="AQ27" s="22" t="s">
         <v>221</v>
       </c>
       <c r="AR27" s="8"/>
@@ -6583,13 +6589,13 @@
         <v>0.438202247</v>
       </c>
       <c r="I28" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J28" s="6">
         <v>0</v>
       </c>
       <c r="K28" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L28" s="6">
         <v>0</v>
@@ -6606,11 +6612,11 @@
       <c r="P28" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q28" s="6" t="s">
+      <c r="Q28" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R28" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S28" s="6">
         <v>4</v>
@@ -6670,7 +6676,7 @@
       <c r="AP28" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ28" s="21" t="s">
+      <c r="AQ28" s="22" t="s">
         <v>225</v>
       </c>
       <c r="AR28" s="8"/>
@@ -6728,13 +6734,13 @@
         <v>0.418604651</v>
       </c>
       <c r="I29" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J29" s="6">
         <v>0</v>
       </c>
       <c r="K29" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L29" s="6">
         <v>0</v>
@@ -6751,11 +6757,11 @@
       <c r="P29" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q29" s="6" t="s">
+      <c r="Q29" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R29" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S29" s="6">
         <v>4</v>
@@ -6815,7 +6821,7 @@
       <c r="AP29" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ29" s="21" t="s">
+      <c r="AQ29" s="22" t="s">
         <v>229</v>
       </c>
       <c r="AR29" s="8"/>
@@ -6873,13 +6879,13 @@
         <v>0.473684211</v>
       </c>
       <c r="I30" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J30" s="6">
         <v>0</v>
       </c>
       <c r="K30" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L30" s="6">
         <v>0</v>
@@ -6896,11 +6902,11 @@
       <c r="P30" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q30" s="6" t="s">
+      <c r="Q30" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R30" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S30" s="6">
         <v>4</v>
@@ -6960,7 +6966,7 @@
       <c r="AP30" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ30" s="21" t="s">
+      <c r="AQ30" s="22" t="s">
         <v>233</v>
       </c>
       <c r="AR30" s="8"/>
@@ -7018,13 +7024,13 @@
         <v>0.456521739</v>
       </c>
       <c r="I31" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J31" s="6">
         <v>0</v>
       </c>
       <c r="K31" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L31" s="6">
         <v>0</v>
@@ -7041,11 +7047,11 @@
       <c r="P31" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q31" s="6" t="s">
+      <c r="Q31" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R31" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S31" s="6">
         <v>4</v>
@@ -7105,7 +7111,7 @@
       <c r="AP31" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ31" s="21" t="s">
+      <c r="AQ31" s="22" t="s">
         <v>237</v>
       </c>
       <c r="AR31" s="8"/>
@@ -7163,13 +7169,13 @@
         <v>0.504950495</v>
       </c>
       <c r="I32" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J32" s="6">
         <v>0</v>
       </c>
       <c r="K32" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L32" s="6">
         <v>0</v>
@@ -7186,11 +7192,11 @@
       <c r="P32" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q32" s="6" t="s">
+      <c r="Q32" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R32" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S32" s="6">
         <v>4</v>
@@ -7250,7 +7256,7 @@
       <c r="AP32" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ32" s="21" t="s">
+      <c r="AQ32" s="22" t="s">
         <v>241</v>
       </c>
       <c r="AR32" s="8"/>
@@ -7308,13 +7314,13 @@
         <v>0.489795918</v>
       </c>
       <c r="I33" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J33" s="6">
         <v>0</v>
       </c>
       <c r="K33" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L33" s="6">
         <v>0</v>
@@ -7331,11 +7337,11 @@
       <c r="P33" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q33" s="6" t="s">
+      <c r="Q33" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R33" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S33" s="6">
         <v>4</v>
@@ -7395,7 +7401,7 @@
       <c r="AP33" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ33" s="21" t="s">
+      <c r="AQ33" s="22" t="s">
         <v>245</v>
       </c>
       <c r="AR33" s="8"/>
@@ -7453,13 +7459,13 @@
         <v>0.519230769</v>
       </c>
       <c r="I34" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J34" s="6">
         <v>0</v>
       </c>
       <c r="K34" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L34" s="6">
         <v>0</v>
@@ -7476,11 +7482,11 @@
       <c r="P34" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q34" s="6" t="s">
+      <c r="Q34" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R34" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S34" s="6">
         <v>4</v>
@@ -7540,7 +7546,7 @@
       <c r="AP34" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ34" s="21" t="s">
+      <c r="AQ34" s="22" t="s">
         <v>249</v>
       </c>
       <c r="AR34" s="8"/>
@@ -7598,13 +7604,13 @@
         <v>0.504950495</v>
       </c>
       <c r="I35" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J35" s="6">
         <v>0</v>
       </c>
       <c r="K35" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L35" s="6">
         <v>0</v>
@@ -7621,11 +7627,11 @@
       <c r="P35" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q35" s="6" t="s">
+      <c r="Q35" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R35" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S35" s="6">
         <v>4</v>
@@ -7685,7 +7691,7 @@
       <c r="AP35" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ35" s="21" t="s">
+      <c r="AQ35" s="22" t="s">
         <v>253</v>
       </c>
       <c r="AR35" s="8"/>
@@ -7743,13 +7749,13 @@
         <v>0.568965517</v>
       </c>
       <c r="I36" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J36" s="6">
         <v>0</v>
       </c>
       <c r="K36" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L36" s="6">
         <v>0</v>
@@ -7766,11 +7772,11 @@
       <c r="P36" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q36" s="6" t="s">
+      <c r="Q36" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R36" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S36" s="6">
         <v>4</v>
@@ -7830,7 +7836,7 @@
       <c r="AP36" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ36" s="21" t="s">
+      <c r="AQ36" s="22" t="s">
         <v>257</v>
       </c>
       <c r="AR36" s="8"/>
@@ -7888,13 +7894,13 @@
         <v>0.568965517</v>
       </c>
       <c r="I37" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J37" s="6">
         <v>0</v>
       </c>
       <c r="K37" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L37" s="6">
         <v>0</v>
@@ -7911,11 +7917,11 @@
       <c r="P37" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q37" s="6" t="s">
+      <c r="Q37" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R37" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S37" s="6">
         <v>4</v>
@@ -7975,7 +7981,7 @@
       <c r="AP37" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ37" s="21" t="s">
+      <c r="AQ37" s="22" t="s">
         <v>261</v>
       </c>
       <c r="AR37" s="8"/>
@@ -8033,13 +8039,13 @@
         <v>0.590163934</v>
       </c>
       <c r="I38" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J38" s="6">
         <v>0</v>
       </c>
       <c r="K38" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L38" s="6">
         <v>0</v>
@@ -8056,11 +8062,11 @@
       <c r="P38" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q38" s="6" t="s">
+      <c r="Q38" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R38" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S38" s="6">
         <v>4</v>
@@ -8120,7 +8126,7 @@
       <c r="AP38" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ38" s="21" t="s">
+      <c r="AQ38" s="22" t="s">
         <v>265</v>
       </c>
       <c r="AR38" s="8"/>
@@ -8178,13 +8184,13 @@
         <v>0.579831933</v>
       </c>
       <c r="I39" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J39" s="6">
         <v>0</v>
       </c>
       <c r="K39" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L39" s="6">
         <v>0</v>
@@ -8201,11 +8207,11 @@
       <c r="P39" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q39" s="6" t="s">
+      <c r="Q39" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R39" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S39" s="6">
         <v>4</v>
@@ -8265,7 +8271,7 @@
       <c r="AP39" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ39" s="21" t="s">
+      <c r="AQ39" s="22" t="s">
         <v>269</v>
       </c>
       <c r="AR39" s="8"/>
@@ -8323,13 +8329,13 @@
         <v>0.618320611</v>
       </c>
       <c r="I40" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J40" s="6">
         <v>0</v>
       </c>
       <c r="K40" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L40" s="6">
         <v>0</v>
@@ -8346,11 +8352,11 @@
       <c r="P40" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q40" s="6" t="s">
+      <c r="Q40" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R40" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S40" s="6">
         <v>4</v>
@@ -8410,7 +8416,7 @@
       <c r="AP40" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ40" s="21" t="s">
+      <c r="AQ40" s="22" t="s">
         <v>273</v>
       </c>
       <c r="AR40" s="8"/>
@@ -8468,13 +8474,13 @@
         <v>0.635036496</v>
       </c>
       <c r="I41" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J41" s="6">
         <v>0</v>
       </c>
       <c r="K41" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L41" s="6">
         <v>0</v>
@@ -8491,11 +8497,11 @@
       <c r="P41" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q41" s="6" t="s">
+      <c r="Q41" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R41" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S41" s="6">
         <v>4</v>
@@ -8555,7 +8561,7 @@
       <c r="AP41" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ41" s="21" t="s">
+      <c r="AQ41" s="22" t="s">
         <v>277</v>
       </c>
       <c r="AR41" s="8"/>
@@ -8613,13 +8619,13 @@
         <v>0.657534247</v>
       </c>
       <c r="I42" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J42" s="6">
         <v>0</v>
       </c>
       <c r="K42" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L42" s="6">
         <v>0</v>
@@ -8636,11 +8642,11 @@
       <c r="P42" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q42" s="6" t="s">
+      <c r="Q42" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R42" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S42" s="6">
         <v>4</v>
@@ -8700,7 +8706,7 @@
       <c r="AP42" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ42" s="21" t="s">
+      <c r="AQ42" s="22" t="s">
         <v>281</v>
       </c>
       <c r="AR42" s="8"/>
@@ -8758,13 +8764,13 @@
         <v>0.618320611</v>
       </c>
       <c r="I43" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J43" s="6">
         <v>0</v>
       </c>
       <c r="K43" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L43" s="6">
         <v>0</v>
@@ -8781,11 +8787,11 @@
       <c r="P43" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q43" s="6" t="s">
+      <c r="Q43" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R43" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S43" s="6">
         <v>4</v>
@@ -8845,7 +8851,7 @@
       <c r="AP43" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ43" s="21" t="s">
+      <c r="AQ43" s="22" t="s">
         <v>285</v>
       </c>
       <c r="AR43" s="8"/>
@@ -8903,13 +8909,13 @@
         <v>0.642857143</v>
       </c>
       <c r="I44" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J44" s="6">
         <v>0</v>
       </c>
       <c r="K44" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L44" s="6">
         <v>0</v>
@@ -8926,11 +8932,11 @@
       <c r="P44" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q44" s="6" t="s">
+      <c r="Q44" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R44" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S44" s="6">
         <v>4</v>
@@ -8990,7 +8996,7 @@
       <c r="AP44" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ44" s="21" t="s">
+      <c r="AQ44" s="22" t="s">
         <v>289</v>
       </c>
       <c r="AR44" s="8"/>
@@ -9048,13 +9054,13 @@
         <v>0.6</v>
       </c>
       <c r="I45" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J45" s="6">
         <v>0</v>
       </c>
       <c r="K45" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L45" s="6">
         <v>0</v>
@@ -9071,11 +9077,11 @@
       <c r="P45" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q45" s="6" t="s">
+      <c r="Q45" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R45" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S45" s="6">
         <v>4</v>
@@ -9135,7 +9141,7 @@
       <c r="AP45" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ45" s="21" t="s">
+      <c r="AQ45" s="22" t="s">
         <v>293</v>
       </c>
       <c r="AR45" s="8"/>
@@ -9193,13 +9199,13 @@
         <v>0.626865672</v>
       </c>
       <c r="I46" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J46" s="6">
         <v>0</v>
       </c>
       <c r="K46" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L46" s="6">
         <v>0</v>
@@ -9216,11 +9222,11 @@
       <c r="P46" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q46" s="6" t="s">
+      <c r="Q46" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R46" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S46" s="6">
         <v>4</v>
@@ -9280,7 +9286,7 @@
       <c r="AP46" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ46" s="21" t="s">
+      <c r="AQ46" s="22" t="s">
         <v>297</v>
       </c>
       <c r="AR46" s="8"/>
@@ -9338,13 +9344,13 @@
         <v>0.657534247</v>
       </c>
       <c r="I47" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J47" s="6">
         <v>0</v>
       </c>
       <c r="K47" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L47" s="6">
         <v>0</v>
@@ -9361,11 +9367,11 @@
       <c r="P47" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q47" s="6" t="s">
+      <c r="Q47" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R47" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S47" s="6">
         <v>4</v>
@@ -9425,7 +9431,7 @@
       <c r="AP47" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ47" s="21" t="s">
+      <c r="AQ47" s="22" t="s">
         <v>300</v>
       </c>
       <c r="AR47" s="8"/>
@@ -9483,13 +9489,13 @@
         <v>0.671052632</v>
       </c>
       <c r="I48" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J48" s="6">
         <v>0</v>
       </c>
       <c r="K48" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L48" s="6">
         <v>0</v>
@@ -9506,11 +9512,11 @@
       <c r="P48" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q48" s="6" t="s">
+      <c r="Q48" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R48" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S48" s="6">
         <v>4</v>
@@ -9570,7 +9576,7 @@
       <c r="AP48" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ48" s="21" t="s">
+      <c r="AQ48" s="22" t="s">
         <v>304</v>
       </c>
       <c r="AR48" s="8"/>
@@ -9628,13 +9634,13 @@
         <v>0.66442953</v>
       </c>
       <c r="I49" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J49" s="6">
         <v>0</v>
       </c>
       <c r="K49" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L49" s="6">
         <v>0</v>
@@ -9651,11 +9657,11 @@
       <c r="P49" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q49" s="6" t="s">
+      <c r="Q49" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R49" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S49" s="6">
         <v>4</v>
@@ -9715,7 +9721,7 @@
       <c r="AP49" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ49" s="21" t="s">
+      <c r="AQ49" s="22" t="s">
         <v>308</v>
       </c>
       <c r="AR49" s="8"/>
@@ -9773,13 +9779,13 @@
         <v>0.689440994</v>
       </c>
       <c r="I50" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J50" s="6">
         <v>0</v>
       </c>
       <c r="K50" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L50" s="6">
         <v>0</v>
@@ -9796,11 +9802,11 @@
       <c r="P50" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q50" s="6" t="s">
+      <c r="Q50" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R50" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S50" s="6">
         <v>4</v>
@@ -9860,7 +9866,7 @@
       <c r="AP50" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ50" s="21" t="s">
+      <c r="AQ50" s="22" t="s">
         <v>312</v>
       </c>
       <c r="AR50" s="8"/>
@@ -9918,13 +9924,13 @@
         <v>0.677419355</v>
       </c>
       <c r="I51" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J51" s="6">
         <v>0</v>
       </c>
       <c r="K51" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L51" s="6">
         <v>0</v>
@@ -9941,11 +9947,11 @@
       <c r="P51" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q51" s="6" t="s">
+      <c r="Q51" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R51" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S51" s="6">
         <v>4</v>
@@ -10005,7 +10011,7 @@
       <c r="AP51" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ51" s="21" t="s">
+      <c r="AQ51" s="22" t="s">
         <v>316</v>
       </c>
       <c r="AR51" s="8"/>
@@ -10063,13 +10069,13 @@
         <v>0.695121951</v>
       </c>
       <c r="I52" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J52" s="6">
         <v>0</v>
       </c>
       <c r="K52" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L52" s="6">
         <v>0</v>
@@ -10086,11 +10092,11 @@
       <c r="P52" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q52" s="6" t="s">
+      <c r="Q52" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R52" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S52" s="6">
         <v>4</v>
@@ -10150,7 +10156,7 @@
       <c r="AP52" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ52" s="21" t="s">
+      <c r="AQ52" s="22" t="s">
         <v>320</v>
       </c>
       <c r="AR52" s="8"/>
@@ -10208,13 +10214,13 @@
         <v>0.689440994</v>
       </c>
       <c r="I53" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J53" s="6">
         <v>0</v>
       </c>
       <c r="K53" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L53" s="6">
         <v>0</v>
@@ -10231,11 +10237,11 @@
       <c r="P53" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q53" s="6" t="s">
+      <c r="Q53" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R53" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S53" s="6">
         <v>4</v>
@@ -10295,7 +10301,7 @@
       <c r="AP53" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ53" s="21" t="s">
+      <c r="AQ53" s="22" t="s">
         <v>324</v>
       </c>
       <c r="AR53" s="8"/>
@@ -10353,13 +10359,13 @@
         <v>0.705882353</v>
       </c>
       <c r="I54" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J54" s="6">
         <v>0</v>
       </c>
       <c r="K54" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L54" s="6">
         <v>0</v>
@@ -10376,11 +10382,11 @@
       <c r="P54" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q54" s="6" t="s">
+      <c r="Q54" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R54" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S54" s="6">
         <v>4</v>
@@ -10440,7 +10446,7 @@
       <c r="AP54" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ54" s="21" t="s">
+      <c r="AQ54" s="22" t="s">
         <v>328</v>
       </c>
       <c r="AR54" s="8"/>
@@ -10498,13 +10504,13 @@
         <v>0.700598802</v>
       </c>
       <c r="I55" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J55" s="6">
         <v>0</v>
       </c>
       <c r="K55" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L55" s="6">
         <v>0</v>
@@ -10521,11 +10527,11 @@
       <c r="P55" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q55" s="6" t="s">
+      <c r="Q55" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R55" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S55" s="6">
         <v>4</v>
@@ -10585,7 +10591,7 @@
       <c r="AP55" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ55" s="21" t="s">
+      <c r="AQ55" s="22" t="s">
         <v>332</v>
       </c>
       <c r="AR55" s="8"/>
@@ -10643,13 +10649,13 @@
         <v>0.715909091</v>
       </c>
       <c r="I56" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J56" s="6">
         <v>0</v>
       </c>
       <c r="K56" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L56" s="6">
         <v>0</v>
@@ -10666,11 +10672,11 @@
       <c r="P56" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q56" s="6" t="s">
+      <c r="Q56" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R56" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S56" s="6">
         <v>4</v>
@@ -10730,7 +10736,7 @@
       <c r="AP56" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ56" s="21" t="s">
+      <c r="AQ56" s="22" t="s">
         <v>336</v>
       </c>
       <c r="AR56" s="8"/>
@@ -10788,13 +10794,13 @@
         <v>0.705882353</v>
       </c>
       <c r="I57" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J57" s="6">
         <v>0</v>
       </c>
       <c r="K57" s="6">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="L57" s="6">
         <v>0</v>
@@ -10811,11 +10817,11 @@
       <c r="P57" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q57" s="6" t="s">
+      <c r="Q57" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R57" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S57" s="6">
         <v>4</v>
@@ -10875,7 +10881,7 @@
       <c r="AP57" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ57" s="21" t="s">
+      <c r="AQ57" s="22" t="s">
         <v>342</v>
       </c>
       <c r="AR57" s="8"/>
@@ -10933,13 +10939,13 @@
         <v>0.107142857</v>
       </c>
       <c r="I58" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J58" s="6">
         <v>0</v>
       </c>
       <c r="K58" s="6">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="L58" s="6">
         <v>0</v>
@@ -10956,11 +10962,11 @@
       <c r="P58" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q58" s="6" t="s">
+      <c r="Q58" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R58" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S58" s="6">
         <v>4</v>
@@ -11020,7 +11026,7 @@
       <c r="AP58" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ58" s="21" t="s">
+      <c r="AQ58" s="22" t="s">
         <v>348</v>
       </c>
       <c r="AR58" s="8"/>
@@ -11078,13 +11084,13 @@
         <v>0.193548387</v>
       </c>
       <c r="I59" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J59" s="6">
         <v>0</v>
       </c>
       <c r="K59" s="6">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="L59" s="6">
         <v>0</v>
@@ -11101,11 +11107,11 @@
       <c r="P59" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q59" s="6" t="s">
+      <c r="Q59" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R59" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S59" s="6">
         <v>4</v>
@@ -11165,7 +11171,7 @@
       <c r="AP59" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ59" s="21" t="s">
+      <c r="AQ59" s="22" t="s">
         <v>352</v>
       </c>
       <c r="AR59" s="8"/>
@@ -11223,13 +11229,13 @@
         <v>0.6</v>
       </c>
       <c r="I60" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J60" s="6">
         <v>0</v>
       </c>
       <c r="K60" s="6">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="L60" s="6">
         <v>0</v>
@@ -11246,11 +11252,11 @@
       <c r="P60" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q60" s="6" t="s">
+      <c r="Q60" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R60" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S60" s="6">
         <v>4</v>
@@ -11310,7 +11316,7 @@
       <c r="AP60" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ60" s="21" t="s">
+      <c r="AQ60" s="22" t="s">
         <v>356</v>
       </c>
       <c r="AR60" s="8"/>
@@ -11368,13 +11374,13 @@
         <v>0.152542373</v>
       </c>
       <c r="I61" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J61" s="6">
         <v>0</v>
       </c>
       <c r="K61" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L61" s="6">
         <v>0</v>
@@ -11391,11 +11397,11 @@
       <c r="P61" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q61" s="6" t="s">
+      <c r="Q61" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R61" s="9">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S61" s="6">
         <v>4</v>
@@ -11455,7 +11461,7 @@
       <c r="AP61" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ61" s="21" t="s">
+      <c r="AQ61" s="22" t="s">
         <v>360</v>
       </c>
       <c r="AR61" s="8"/>
@@ -11513,13 +11519,13 @@
         <v>0.264705882</v>
       </c>
       <c r="I62" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J62" s="6">
         <v>0</v>
       </c>
       <c r="K62" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L62" s="6">
         <v>0</v>
@@ -11536,11 +11542,11 @@
       <c r="P62" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q62" s="6" t="s">
+      <c r="Q62" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R62" s="9">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S62" s="6">
         <v>4</v>
@@ -11600,7 +11606,7 @@
       <c r="AP62" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ62" s="21" t="s">
+      <c r="AQ62" s="22" t="s">
         <v>364</v>
       </c>
       <c r="AR62" s="8"/>
@@ -11658,13 +11664,13 @@
         <v>0.6</v>
       </c>
       <c r="I63" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J63" s="6">
         <v>0</v>
       </c>
       <c r="K63" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L63" s="6">
         <v>0</v>
@@ -11681,11 +11687,11 @@
       <c r="P63" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q63" s="6" t="s">
+      <c r="Q63" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R63" s="9">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S63" s="6">
         <v>4</v>
@@ -11745,7 +11751,7 @@
       <c r="AP63" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ63" s="21" t="s">
+      <c r="AQ63" s="22" t="s">
         <v>368</v>
       </c>
       <c r="AR63" s="8"/>
@@ -11803,13 +11809,13 @@
         <v>0.375</v>
       </c>
       <c r="I64" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J64" s="6">
         <v>0</v>
       </c>
       <c r="K64" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L64" s="6">
         <v>0</v>
@@ -11826,11 +11832,11 @@
       <c r="P64" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q64" s="6" t="s">
+      <c r="Q64" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R64" s="9">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S64" s="6">
         <v>4</v>
@@ -11890,7 +11896,7 @@
       <c r="AP64" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ64" s="21" t="s">
+      <c r="AQ64" s="22" t="s">
         <v>372</v>
       </c>
       <c r="AR64" s="8"/>
@@ -11948,13 +11954,13 @@
         <v>0.6</v>
       </c>
       <c r="I65" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J65" s="6">
         <v>0</v>
       </c>
       <c r="K65" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L65" s="6">
         <v>0</v>
@@ -11971,11 +11977,11 @@
       <c r="P65" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q65" s="6" t="s">
+      <c r="Q65" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R65" s="9">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S65" s="6">
         <v>4</v>
@@ -12035,7 +12041,7 @@
       <c r="AP65" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ65" s="21" t="s">
+      <c r="AQ65" s="22" t="s">
         <v>376</v>
       </c>
       <c r="AR65" s="8"/>
@@ -12093,13 +12099,13 @@
         <v>0.375</v>
       </c>
       <c r="I66" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J66" s="6">
         <v>0</v>
       </c>
       <c r="K66" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L66" s="6">
         <v>0</v>
@@ -12116,11 +12122,11 @@
       <c r="P66" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q66" s="6" t="s">
+      <c r="Q66" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R66" s="9">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S66" s="6">
         <v>4</v>
@@ -12180,7 +12186,7 @@
       <c r="AP66" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ66" s="21" t="s">
+      <c r="AQ66" s="22" t="s">
         <v>380</v>
       </c>
       <c r="AR66" s="8"/>
@@ -12238,13 +12244,13 @@
         <v>0.375</v>
       </c>
       <c r="I67" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J67" s="6">
         <v>0</v>
       </c>
       <c r="K67" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L67" s="6">
         <v>0</v>
@@ -12261,11 +12267,11 @@
       <c r="P67" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q67" s="6" t="s">
+      <c r="Q67" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R67" s="9">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S67" s="6">
         <v>4</v>
@@ -12325,7 +12331,7 @@
       <c r="AP67" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ67" s="21" t="s">
+      <c r="AQ67" s="22" t="s">
         <v>384</v>
       </c>
       <c r="AR67" s="8"/>
@@ -12383,13 +12389,13 @@
         <v>0.375</v>
       </c>
       <c r="I68" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J68" s="6">
         <v>0</v>
       </c>
       <c r="K68" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L68" s="6">
         <v>0</v>
@@ -12406,11 +12412,11 @@
       <c r="P68" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q68" s="6" t="s">
+      <c r="Q68" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R68" s="9">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S68" s="6">
         <v>4</v>
@@ -12470,7 +12476,7 @@
       <c r="AP68" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ68" s="21" t="s">
+      <c r="AQ68" s="22" t="s">
         <v>387</v>
       </c>
       <c r="AR68" s="8"/>
@@ -12528,13 +12534,13 @@
         <v>0.375</v>
       </c>
       <c r="I69" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J69" s="6">
         <v>0</v>
       </c>
       <c r="K69" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L69" s="6">
         <v>0</v>
@@ -12551,11 +12557,11 @@
       <c r="P69" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q69" s="6" t="s">
+      <c r="Q69" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R69" s="9">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S69" s="6">
         <v>4</v>
@@ -12615,7 +12621,7 @@
       <c r="AP69" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ69" s="21" t="s">
+      <c r="AQ69" s="22" t="s">
         <v>390</v>
       </c>
       <c r="AR69" s="8"/>
@@ -12673,13 +12679,13 @@
         <v>0</v>
       </c>
       <c r="I70" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J70" s="6">
         <v>0</v>
       </c>
       <c r="K70" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L70" s="6">
         <v>0</v>
@@ -12696,11 +12702,11 @@
       <c r="P70" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q70" s="6" t="s">
+      <c r="Q70" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R70" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S70" s="6">
         <v>4</v>
@@ -12760,7 +12766,7 @@
       <c r="AP70" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AQ70" s="21" t="s">
+      <c r="AQ70" s="22" t="s">
         <v>395</v>
       </c>
       <c r="AR70" s="8"/>
@@ -12818,13 +12824,13 @@
         <v>0.473684211</v>
       </c>
       <c r="I71" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J71" s="6">
         <v>0</v>
       </c>
       <c r="K71" s="6">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L71" s="6">
         <v>0</v>
@@ -12841,11 +12847,11 @@
       <c r="P71" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q71" s="6" t="s">
+      <c r="Q71" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R71" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S71" s="6">
         <v>4</v>
@@ -12905,7 +12911,7 @@
       <c r="AP71" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ71" s="21" t="s">
+      <c r="AQ71" s="22" t="s">
         <v>400</v>
       </c>
       <c r="AR71" s="8"/>
@@ -12963,13 +12969,13 @@
         <v>0.9</v>
       </c>
       <c r="I72" s="6">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J72" s="6">
         <v>0</v>
       </c>
       <c r="K72" s="6">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="L72" s="6">
         <v>0</v>
@@ -12986,11 +12992,11 @@
       <c r="P72" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q72" s="6" t="s">
+      <c r="Q72" s="20" t="s">
         <v>110</v>
       </c>
       <c r="R72" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S72" s="6">
         <v>4</v>
@@ -13050,7 +13056,7 @@
       <c r="AP72" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ72" s="21" t="s">
+      <c r="AQ72" s="22" t="s">
         <v>405</v>
       </c>
       <c r="AR72" s="8"/>
@@ -14259,7 +14265,7 @@
         <v>0.3</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R3" s="6">
         <v>200</v>
@@ -14402,7 +14408,7 @@
         <v>0.3</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R4" s="6">
         <v>200</v>
@@ -14549,7 +14555,7 @@
         <v>0.3</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R5" s="6">
         <v>200</v>
@@ -14692,7 +14698,7 @@
         <v>0.3</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R6" s="6">
         <v>200</v>
@@ -14835,7 +14841,7 @@
         <v>0.3</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R7" s="6">
         <v>200</v>
@@ -14844,7 +14850,7 @@
         <v>4</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -14980,7 +14986,7 @@
         <v>0.3</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R8" s="6">
         <v>200</v>
@@ -15123,7 +15129,7 @@
         <v>0.3</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R9" s="6">
         <v>200</v>
@@ -15270,7 +15276,7 @@
         <v>0.3</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R10" s="6">
         <v>200</v>
@@ -15413,7 +15419,7 @@
         <v>0.3</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R11" s="6">
         <v>200</v>
@@ -15422,7 +15428,7 @@
         <v>4</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -15558,7 +15564,7 @@
         <v>0.3</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R12" s="6">
         <v>200</v>
@@ -15567,7 +15573,7 @@
         <v>4</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
@@ -15703,7 +15709,7 @@
         <v>0.3</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R13" s="6">
         <v>200</v>
@@ -15850,7 +15856,7 @@
         <v>0.3</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R14" s="6">
         <v>200</v>
@@ -15993,7 +15999,7 @@
         <v>0.3</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R15" s="6">
         <v>200</v>
@@ -16136,7 +16142,7 @@
         <v>0.3</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R16" s="6">
         <v>200</v>
@@ -16145,7 +16151,7 @@
         <v>4</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
@@ -16285,7 +16291,7 @@
         <v>0.3</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R17" s="6">
         <v>200</v>
@@ -16294,7 +16300,7 @@
         <v>4</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
@@ -16430,7 +16436,7 @@
         <v>0.3</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R18" s="6">
         <v>200</v>
@@ -16573,7 +16579,7 @@
         <v>0.3</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R19" s="6">
         <v>200</v>
@@ -16716,7 +16722,7 @@
         <v>0.3</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R20" s="6">
         <v>200</v>
@@ -16863,7 +16869,7 @@
         <v>0.3</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R21" s="6">
         <v>200</v>
@@ -16872,7 +16878,7 @@
         <v>4</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
@@ -17008,7 +17014,7 @@
         <v>0.3</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R22" s="6">
         <v>200</v>
@@ -17017,7 +17023,7 @@
         <v>4</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="U22" s="10"/>
       <c r="V22" s="9"/>
@@ -17153,7 +17159,7 @@
         <v>0.3</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R23" s="6">
         <v>200</v>
@@ -17296,7 +17302,7 @@
         <v>0.3</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R24" s="6">
         <v>200</v>
@@ -17439,7 +17445,7 @@
         <v>0.3</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R25" s="6">
         <v>200</v>
@@ -17582,7 +17588,7 @@
         <v>0.3</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R26" s="6">
         <v>200</v>
@@ -17591,7 +17597,7 @@
         <v>4</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
@@ -17727,7 +17733,7 @@
         <v>0.3</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R27" s="6">
         <v>200</v>
@@ -17736,7 +17742,7 @@
         <v>4</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
@@ -17872,7 +17878,7 @@
         <v>0.3</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R28" s="6">
         <v>200</v>
@@ -18015,7 +18021,7 @@
         <v>0.3</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R29" s="6">
         <v>200</v>
@@ -18158,7 +18164,7 @@
         <v>0.3</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R30" s="6">
         <v>200</v>
@@ -18301,7 +18307,7 @@
         <v>0.3</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R31" s="6">
         <v>200</v>
@@ -18310,7 +18316,7 @@
         <v>4</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
@@ -18446,7 +18452,7 @@
         <v>0.3</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R32" s="6">
         <v>200</v>
@@ -18455,7 +18461,7 @@
         <v>4</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
@@ -18591,7 +18597,7 @@
         <v>0.3</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R33" s="6">
         <v>200</v>
@@ -18734,7 +18740,7 @@
         <v>0.3</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R34" s="6">
         <v>200</v>
@@ -18877,7 +18883,7 @@
         <v>0.3</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R35" s="6">
         <v>200</v>
@@ -18886,7 +18892,7 @@
         <v>4</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
@@ -19022,7 +19028,7 @@
         <v>0.3</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R36" s="6">
         <v>200</v>
@@ -19031,7 +19037,7 @@
         <v>4</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
@@ -19167,7 +19173,7 @@
         <v>0.3</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R37" s="6">
         <v>200</v>
@@ -19176,7 +19182,7 @@
         <v>4</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
@@ -19312,7 +19318,7 @@
         <v>0.3</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R38" s="6">
         <v>200</v>
@@ -19455,7 +19461,7 @@
         <v>0.3</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R39" s="6">
         <v>200</v>
@@ -19464,7 +19470,7 @@
         <v>4</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
@@ -19600,7 +19606,7 @@
         <v>0.3</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R40" s="6">
         <v>200</v>
@@ -19743,7 +19749,7 @@
         <v>0.3</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R41" s="6">
         <v>200</v>
@@ -19752,7 +19758,7 @@
         <v>4</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
@@ -19888,7 +19894,7 @@
         <v>0.3</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R42" s="6">
         <v>200</v>
@@ -19897,7 +19903,7 @@
         <v>4</v>
       </c>
       <c r="T42" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
@@ -20033,7 +20039,7 @@
         <v>0.3</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R43" s="6">
         <v>200</v>
@@ -20176,7 +20182,7 @@
         <v>0.3</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R44" s="6">
         <v>200</v>
@@ -20319,7 +20325,7 @@
         <v>0.3</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R45" s="6">
         <v>200</v>
@@ -20328,7 +20334,7 @@
         <v>4</v>
       </c>
       <c r="T45" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
@@ -20464,7 +20470,7 @@
         <v>0.3</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R46" s="6">
         <v>200</v>
@@ -20473,7 +20479,7 @@
         <v>4</v>
       </c>
       <c r="T46" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
@@ -20609,7 +20615,7 @@
         <v>0.3</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R47" s="6">
         <v>200</v>
@@ -20752,7 +20758,7 @@
         <v>0.3</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R48" s="6">
         <v>200</v>
@@ -20895,7 +20901,7 @@
         <v>0.3</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R49" s="6">
         <v>200</v>
@@ -21038,7 +21044,7 @@
         <v>0.3</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R50" s="6">
         <v>200</v>
@@ -21181,7 +21187,7 @@
         <v>0.3</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R51" s="6">
         <v>200</v>
@@ -21324,7 +21330,7 @@
         <v>0.3</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R52" s="6">
         <v>200</v>
@@ -21467,7 +21473,7 @@
         <v>0.3</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R53" s="6">
         <v>200</v>
@@ -21610,7 +21616,7 @@
         <v>0.3</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R54" s="6">
         <v>200</v>
@@ -21753,7 +21759,7 @@
         <v>0.3</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R55" s="6">
         <v>200</v>
@@ -21896,7 +21902,7 @@
         <v>0.3</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R56" s="6">
         <v>200</v>
@@ -22039,7 +22045,7 @@
         <v>0.3</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R57" s="6">
         <v>200</v>
@@ -22048,10 +22054,10 @@
         <v>4</v>
       </c>
       <c r="T57" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="U57" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="V57" s="9"/>
       <c r="W57" s="9"/>
@@ -22186,7 +22192,7 @@
         <v>0.3</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R58" s="6">
         <v>200</v>
@@ -22329,7 +22335,7 @@
         <v>0.3</v>
       </c>
       <c r="Q59" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R59" s="6">
         <v>200</v>
@@ -22472,7 +22478,7 @@
         <v>0.3</v>
       </c>
       <c r="Q60" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R60" s="6">
         <v>200</v>
@@ -22481,13 +22487,13 @@
         <v>4</v>
       </c>
       <c r="T60" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="U60" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="V60" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="W60" s="9"/>
       <c r="X60" s="8" t="s">
@@ -22621,7 +22627,7 @@
         <v>0.3</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R61" s="9">
         <v>200</v>
@@ -22630,7 +22636,7 @@
         <v>4</v>
       </c>
       <c r="T61" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
@@ -22766,7 +22772,7 @@
         <v>0.3</v>
       </c>
       <c r="Q62" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R62" s="9">
         <v>200</v>
@@ -22775,7 +22781,7 @@
         <v>4</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="U62" s="9"/>
       <c r="V62" s="9"/>
@@ -22911,7 +22917,7 @@
         <v>0.3</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R63" s="9">
         <v>200</v>
@@ -23054,7 +23060,7 @@
         <v>0.3</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R64" s="9">
         <v>200</v>
@@ -23063,7 +23069,7 @@
         <v>4</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="U64" s="9"/>
       <c r="V64" s="9"/>
@@ -23199,7 +23205,7 @@
         <v>0.3</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R65" s="9">
         <v>200</v>
@@ -23342,7 +23348,7 @@
         <v>0.3</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R66" s="9">
         <v>200</v>
@@ -23485,7 +23491,7 @@
         <v>0.3</v>
       </c>
       <c r="Q67" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R67" s="9">
         <v>200</v>
@@ -23494,10 +23500,10 @@
         <v>4</v>
       </c>
       <c r="T67" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="U67" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
@@ -23632,7 +23638,7 @@
         <v>0.3</v>
       </c>
       <c r="Q68" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R68" s="9">
         <v>200</v>
@@ -23641,10 +23647,10 @@
         <v>4</v>
       </c>
       <c r="T68" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="U68" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
@@ -23779,7 +23785,7 @@
         <v>0.3</v>
       </c>
       <c r="Q69" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R69" s="9">
         <v>200</v>
@@ -23788,10 +23794,10 @@
         <v>4</v>
       </c>
       <c r="T69" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="U69" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
@@ -23926,7 +23932,7 @@
         <v>0.3</v>
       </c>
       <c r="Q70" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R70" s="6">
         <v>200</v>
@@ -23935,7 +23941,7 @@
         <v>4</v>
       </c>
       <c r="T70" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
@@ -24071,7 +24077,7 @@
         <v>0.3</v>
       </c>
       <c r="Q71" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R71" s="6">
         <v>200</v>
@@ -24214,7 +24220,7 @@
         <v>0.3</v>
       </c>
       <c r="Q72" s="6" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="R72" s="6">
         <v>200</v>
@@ -24223,7 +24229,7 @@
         <v>4</v>
       </c>
       <c r="T72" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="U72" s="9"/>
       <c r="V72" s="9"/>

--- a/code/excels/building/building_unit_enemy.xlsx
+++ b/code/excels/building/building_unit_enemy.xlsx
@@ -4137,8 +4137,8 @@
   <sheetPr/>
   <dimension ref="A1:BP183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F183"/>
+    <sheetView tabSelected="1" topLeftCell="Q31" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:S183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4611,11 +4611,11 @@
         <v>350</v>
       </c>
       <c r="R3" s="21">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S3" s="21">
-        <f t="shared" ref="S3:S66" si="0">R3*3</f>
-        <v>30</v>
+        <f t="shared" ref="S3:S66" si="0">R3*2</f>
+        <v>100</v>
       </c>
       <c r="T3" s="21">
         <v>1</v>
@@ -4746,11 +4746,11 @@
         <v>350</v>
       </c>
       <c r="R4" s="21">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="S4" s="21">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="T4" s="21">
         <v>1</v>
@@ -4887,11 +4887,11 @@
         <v>350</v>
       </c>
       <c r="R5" s="21">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="S5" s="21">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="T5" s="21">
         <v>1</v>
@@ -5022,11 +5022,11 @@
         <v>350</v>
       </c>
       <c r="R6" s="21">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="S6" s="21">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="T6" s="21">
         <v>1</v>
@@ -5163,11 +5163,11 @@
         <v>300</v>
       </c>
       <c r="R7" s="21">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="S7" s="21">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="T7" s="21">
         <v>1</v>
@@ -5298,11 +5298,11 @@
         <v>350</v>
       </c>
       <c r="R8" s="21">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="S8" s="21">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="T8" s="21">
         <v>1</v>
@@ -5439,11 +5439,11 @@
         <v>350</v>
       </c>
       <c r="R9" s="21">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="S9" s="21">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="T9" s="21">
         <v>1</v>
@@ -5580,11 +5580,11 @@
         <v>350</v>
       </c>
       <c r="R10" s="21">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="S10" s="21">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="T10" s="21">
         <v>1</v>
@@ -5715,11 +5715,11 @@
         <v>350</v>
       </c>
       <c r="R11" s="21">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="S11" s="21">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="T11" s="21">
         <v>1</v>
@@ -5856,11 +5856,11 @@
         <v>350</v>
       </c>
       <c r="R12" s="21">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="S12" s="21">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="T12" s="21">
         <v>1</v>
@@ -5991,11 +5991,11 @@
         <v>300</v>
       </c>
       <c r="R13" s="21">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="S13" s="21">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="T13" s="21">
         <v>1</v>
@@ -6126,11 +6126,11 @@
         <v>350</v>
       </c>
       <c r="R14" s="21">
-        <v>27.5</v>
+        <v>72</v>
       </c>
       <c r="S14" s="21">
         <f t="shared" si="0"/>
-        <v>82.5</v>
+        <v>144</v>
       </c>
       <c r="T14" s="21">
         <v>1</v>
@@ -6267,11 +6267,11 @@
         <v>350</v>
       </c>
       <c r="R15" s="21">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="S15" s="21">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="T15" s="21">
         <v>1</v>
@@ -6408,11 +6408,11 @@
         <v>300</v>
       </c>
       <c r="R16" s="21">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="S16" s="21">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="T16" s="21">
         <v>1</v>
@@ -6543,11 +6543,11 @@
         <v>350</v>
       </c>
       <c r="R17" s="21">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="S17" s="21">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="T17" s="21">
         <v>1</v>
@@ -6684,11 +6684,11 @@
         <v>350</v>
       </c>
       <c r="R18" s="21">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="S18" s="21">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T18" s="21">
         <v>1</v>
@@ -6819,11 +6819,11 @@
         <v>350</v>
       </c>
       <c r="R19" s="21">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="S19" s="21">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="T19" s="21">
         <v>1</v>
@@ -6954,11 +6954,11 @@
         <v>350</v>
       </c>
       <c r="R20" s="21">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="S20" s="21">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="T20" s="21">
         <v>1</v>
@@ -7095,11 +7095,11 @@
         <v>350</v>
       </c>
       <c r="R21" s="21">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="S21" s="21">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="T21" s="21">
         <v>1</v>
@@ -7236,11 +7236,11 @@
         <v>350</v>
       </c>
       <c r="R22" s="21">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="S22" s="21">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="T22" s="21">
         <v>1</v>
@@ -7371,11 +7371,11 @@
         <v>350</v>
       </c>
       <c r="R23" s="21">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="S23" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="T23" s="21">
         <v>1</v>
@@ -7506,11 +7506,11 @@
         <v>350</v>
       </c>
       <c r="R24" s="21">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="S24" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="T24" s="21">
         <v>1</v>
@@ -7641,11 +7641,11 @@
         <v>1200</v>
       </c>
       <c r="R25" s="21">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="S25" s="21">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="T25" s="21">
         <v>1</v>
@@ -7770,11 +7770,11 @@
         <v>8</v>
       </c>
       <c r="R26" s="21">
-        <v>27.5</v>
+        <v>96</v>
       </c>
       <c r="S26" s="21">
         <f t="shared" si="0"/>
-        <v>82.5</v>
+        <v>192</v>
       </c>
       <c r="T26" s="21">
         <v>1</v>
@@ -7908,11 +7908,11 @@
         <v>400</v>
       </c>
       <c r="R27" s="21">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="S27" s="21">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>196</v>
       </c>
       <c r="T27" s="21">
         <v>1</v>
@@ -8055,11 +8055,11 @@
         <v>400</v>
       </c>
       <c r="R28" s="21">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S28" s="21">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="T28" s="21">
         <v>1</v>
@@ -8211,11 +8211,11 @@
         <v>400</v>
       </c>
       <c r="R29" s="21">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="S29" s="21">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>204</v>
       </c>
       <c r="T29" s="21">
         <v>1</v>
@@ -8370,11 +8370,11 @@
         <v>400</v>
       </c>
       <c r="R30" s="21">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="S30" s="21">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>208</v>
       </c>
       <c r="T30" s="21">
         <v>1</v>
@@ -8526,11 +8526,11 @@
         <v>400</v>
       </c>
       <c r="R31" s="21">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="S31" s="21">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>212</v>
       </c>
       <c r="T31" s="21">
         <v>1</v>
@@ -8688,11 +8688,11 @@
         <v>400</v>
       </c>
       <c r="R32" s="21">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="S32" s="21">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>216</v>
       </c>
       <c r="T32" s="21">
         <v>1</v>
@@ -8850,11 +8850,11 @@
         <v>400</v>
       </c>
       <c r="R33" s="21">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="S33" s="21">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>220</v>
       </c>
       <c r="T33" s="21">
         <v>1</v>
@@ -8994,11 +8994,11 @@
         <v>400</v>
       </c>
       <c r="R34" s="21">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="S34" s="21">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>224</v>
       </c>
       <c r="T34" s="21">
         <v>1</v>
@@ -9147,11 +9147,11 @@
         <v>350</v>
       </c>
       <c r="R35" s="21">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="S35" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>228</v>
       </c>
       <c r="T35" s="21">
         <v>1</v>
@@ -9282,11 +9282,11 @@
         <v>350</v>
       </c>
       <c r="R36" s="21">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="S36" s="21">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>232</v>
       </c>
       <c r="T36" s="21">
         <v>1</v>
@@ -9423,11 +9423,11 @@
         <v>350</v>
       </c>
       <c r="R37" s="21">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="S37" s="21">
         <f t="shared" si="0"/>
-        <v>570</v>
+        <v>236</v>
       </c>
       <c r="T37" s="21">
         <v>1</v>
@@ -9576,11 +9576,11 @@
         <v>350</v>
       </c>
       <c r="R38" s="21">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="S38" s="21">
         <f t="shared" si="0"/>
-        <v>570</v>
+        <v>240</v>
       </c>
       <c r="T38" s="21">
         <v>1</v>
@@ -9729,11 +9729,11 @@
         <v>350</v>
       </c>
       <c r="R39" s="21">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="S39" s="21">
         <f t="shared" si="0"/>
-        <v>570</v>
+        <v>244</v>
       </c>
       <c r="T39" s="21">
         <v>1</v>
@@ -9882,11 +9882,11 @@
         <v>350</v>
       </c>
       <c r="R40" s="21">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="S40" s="21">
         <f t="shared" si="0"/>
-        <v>780</v>
+        <v>248</v>
       </c>
       <c r="T40" s="21">
         <v>1</v>
@@ -10035,11 +10035,11 @@
         <v>350</v>
       </c>
       <c r="R41" s="21">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="S41" s="21">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="T41" s="21">
         <v>1</v>
@@ -10170,11 +10170,11 @@
         <v>350</v>
       </c>
       <c r="R42" s="21">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="S42" s="21">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="T42" s="21">
         <v>1</v>
@@ -10320,11 +10320,11 @@
         <v>350</v>
       </c>
       <c r="R43" s="21">
-        <v>1100</v>
+        <v>130</v>
       </c>
       <c r="S43" s="21">
         <f t="shared" si="0"/>
-        <v>3300</v>
+        <v>260</v>
       </c>
       <c r="T43" s="21">
         <v>1</v>
@@ -10461,11 +10461,11 @@
         <v>350</v>
       </c>
       <c r="R44" s="21">
-        <v>1600</v>
+        <v>132</v>
       </c>
       <c r="S44" s="21">
         <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>264</v>
       </c>
       <c r="T44" s="21">
         <v>1</v>
@@ -10596,11 +10596,11 @@
         <v>350</v>
       </c>
       <c r="R45" s="21">
-        <v>110000</v>
+        <v>134</v>
       </c>
       <c r="S45" s="21">
         <f t="shared" si="0"/>
-        <v>330000</v>
+        <v>268</v>
       </c>
       <c r="T45" s="21">
         <v>1</v>
@@ -10737,11 +10737,11 @@
         <v>350</v>
       </c>
       <c r="R46" s="21">
-        <v>2800</v>
+        <v>136</v>
       </c>
       <c r="S46" s="21">
         <f t="shared" si="0"/>
-        <v>8400</v>
+        <v>272</v>
       </c>
       <c r="T46" s="21">
         <v>1</v>
@@ -10890,11 +10890,11 @@
         <v>350</v>
       </c>
       <c r="R47" s="21">
-        <v>3500</v>
+        <v>138</v>
       </c>
       <c r="S47" s="21">
         <f t="shared" si="0"/>
-        <v>10500</v>
+        <v>276</v>
       </c>
       <c r="T47" s="21">
         <v>1</v>
@@ -11043,11 +11043,11 @@
         <v>350</v>
       </c>
       <c r="R48" s="21">
-        <v>5900</v>
+        <v>140</v>
       </c>
       <c r="S48" s="21">
         <f t="shared" si="0"/>
-        <v>17700</v>
+        <v>280</v>
       </c>
       <c r="T48" s="21">
         <v>1</v>
@@ -11202,11 +11202,11 @@
         <v>350</v>
       </c>
       <c r="R49" s="21">
-        <v>7500</v>
+        <v>142</v>
       </c>
       <c r="S49" s="21">
         <f t="shared" si="0"/>
-        <v>22500</v>
+        <v>284</v>
       </c>
       <c r="T49" s="21">
         <v>1</v>
@@ -11355,11 +11355,11 @@
         <v>350</v>
       </c>
       <c r="R50" s="21">
-        <v>9500</v>
+        <v>144</v>
       </c>
       <c r="S50" s="21">
         <f t="shared" si="0"/>
-        <v>28500</v>
+        <v>288</v>
       </c>
       <c r="T50" s="21">
         <v>1</v>
@@ -11514,11 +11514,11 @@
         <v>350</v>
       </c>
       <c r="R51" s="21">
-        <v>14000</v>
+        <v>146</v>
       </c>
       <c r="S51" s="21">
         <f t="shared" si="0"/>
-        <v>42000</v>
+        <v>292</v>
       </c>
       <c r="T51" s="21">
         <v>1</v>
@@ -11667,11 +11667,11 @@
         <v>350</v>
       </c>
       <c r="R52" s="21">
-        <v>18500</v>
+        <v>148</v>
       </c>
       <c r="S52" s="21">
         <f t="shared" si="0"/>
-        <v>55500</v>
+        <v>296</v>
       </c>
       <c r="T52" s="21">
         <v>1</v>
@@ -11820,11 +11820,11 @@
         <v>350</v>
       </c>
       <c r="R53" s="21">
-        <v>28000</v>
+        <v>150</v>
       </c>
       <c r="S53" s="21">
         <f t="shared" si="0"/>
-        <v>84000</v>
+        <v>300</v>
       </c>
       <c r="T53" s="21">
         <v>1</v>
@@ -11970,11 +11970,11 @@
         <v>350</v>
       </c>
       <c r="R54" s="21">
-        <v>40000</v>
+        <v>152</v>
       </c>
       <c r="S54" s="21">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>304</v>
       </c>
       <c r="T54" s="21">
         <v>1</v>
@@ -12123,11 +12123,11 @@
         <v>350</v>
       </c>
       <c r="R55" s="21">
-        <v>210000</v>
+        <v>154</v>
       </c>
       <c r="S55" s="21">
         <f t="shared" si="0"/>
-        <v>630000</v>
+        <v>308</v>
       </c>
       <c r="T55" s="21">
         <v>1</v>
@@ -12279,11 +12279,11 @@
         <v>350</v>
       </c>
       <c r="R56" s="21">
-        <v>105000</v>
+        <v>156</v>
       </c>
       <c r="S56" s="21">
         <f t="shared" si="0"/>
-        <v>315000</v>
+        <v>312</v>
       </c>
       <c r="T56" s="21">
         <v>1</v>
@@ -12435,11 +12435,11 @@
         <v>350</v>
       </c>
       <c r="R57" s="21">
-        <v>480000</v>
+        <v>158</v>
       </c>
       <c r="S57" s="21">
         <f t="shared" si="0"/>
-        <v>1440000</v>
+        <v>316</v>
       </c>
       <c r="T57" s="21">
         <v>1</v>
@@ -12594,11 +12594,11 @@
         <v>350</v>
       </c>
       <c r="R58" s="21">
-        <v>576000</v>
+        <v>160</v>
       </c>
       <c r="S58" s="21">
         <f t="shared" si="0"/>
-        <v>1728000</v>
+        <v>320</v>
       </c>
       <c r="T58" s="21">
         <v>1</v>
@@ -12750,11 +12750,11 @@
         <v>350</v>
       </c>
       <c r="R59" s="21">
-        <v>700000</v>
+        <v>162</v>
       </c>
       <c r="S59" s="21">
         <f t="shared" si="0"/>
-        <v>2100000</v>
+        <v>324</v>
       </c>
       <c r="T59" s="21">
         <v>1</v>
@@ -12906,11 +12906,11 @@
         <v>350</v>
       </c>
       <c r="R60" s="21">
-        <v>840000</v>
+        <v>164</v>
       </c>
       <c r="S60" s="21">
         <f t="shared" si="0"/>
-        <v>2520000</v>
+        <v>328</v>
       </c>
       <c r="T60" s="21">
         <v>1</v>
@@ -13068,11 +13068,11 @@
         <v>350</v>
       </c>
       <c r="R61" s="21">
-        <v>1000000</v>
+        <v>166</v>
       </c>
       <c r="S61" s="21">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>332</v>
       </c>
       <c r="T61" s="21">
         <v>1</v>
@@ -13221,11 +13221,11 @@
         <v>350</v>
       </c>
       <c r="R62" s="21">
-        <v>1200000</v>
+        <v>168</v>
       </c>
       <c r="S62" s="21">
         <f t="shared" si="0"/>
-        <v>3600000</v>
+        <v>336</v>
       </c>
       <c r="T62" s="21">
         <v>1</v>
@@ -13377,11 +13377,11 @@
         <v>350</v>
       </c>
       <c r="R63" s="21">
-        <v>1440000</v>
+        <v>170</v>
       </c>
       <c r="S63" s="21">
         <f t="shared" si="0"/>
-        <v>4320000</v>
+        <v>340</v>
       </c>
       <c r="T63" s="21">
         <v>1</v>
@@ -13527,11 +13527,11 @@
         <v>350</v>
       </c>
       <c r="R64" s="21">
-        <v>1700000</v>
+        <v>172</v>
       </c>
       <c r="S64" s="21">
         <f t="shared" si="0"/>
-        <v>5100000</v>
+        <v>344</v>
       </c>
       <c r="T64" s="21">
         <v>1</v>
@@ -13680,11 +13680,11 @@
         <v>350</v>
       </c>
       <c r="R65" s="21">
-        <v>2100000</v>
+        <v>174</v>
       </c>
       <c r="S65" s="21">
         <f t="shared" si="0"/>
-        <v>6300000</v>
+        <v>348</v>
       </c>
       <c r="T65" s="21">
         <v>1</v>
@@ -13839,11 +13839,11 @@
         <v>350</v>
       </c>
       <c r="R66" s="21">
-        <v>2400000</v>
+        <v>176</v>
       </c>
       <c r="S66" s="21">
         <f t="shared" si="0"/>
-        <v>7200000</v>
+        <v>352</v>
       </c>
       <c r="T66" s="21">
         <v>1</v>
@@ -13992,11 +13992,11 @@
         <v>350</v>
       </c>
       <c r="R67" s="21">
-        <v>600000</v>
+        <v>178</v>
       </c>
       <c r="S67" s="21">
-        <f t="shared" ref="S67:S130" si="1">R67*3</f>
-        <v>1800000</v>
+        <f t="shared" ref="S67:S130" si="1">R67*2</f>
+        <v>356</v>
       </c>
       <c r="T67" s="21">
         <v>1</v>
@@ -14127,11 +14127,11 @@
         <v>350</v>
       </c>
       <c r="R68" s="21">
-        <v>3500000</v>
+        <v>180</v>
       </c>
       <c r="S68" s="21">
         <f t="shared" si="1"/>
-        <v>10500000</v>
+        <v>360</v>
       </c>
       <c r="T68" s="21">
         <v>1</v>
@@ -14283,11 +14283,11 @@
         <v>350</v>
       </c>
       <c r="R69" s="21">
-        <v>880000</v>
+        <v>182</v>
       </c>
       <c r="S69" s="21">
         <f t="shared" si="1"/>
-        <v>2640000</v>
+        <v>364</v>
       </c>
       <c r="T69" s="21">
         <v>1</v>
@@ -14418,11 +14418,11 @@
         <v>350</v>
       </c>
       <c r="R70" s="21">
-        <v>4650000</v>
+        <v>184</v>
       </c>
       <c r="S70" s="21">
         <f t="shared" si="1"/>
-        <v>13950000</v>
+        <v>368</v>
       </c>
       <c r="T70" s="21">
         <v>1</v>
@@ -14568,11 +14568,11 @@
         <v>350</v>
       </c>
       <c r="R71" s="21">
-        <v>1162500</v>
+        <v>186</v>
       </c>
       <c r="S71" s="21">
         <f t="shared" si="1"/>
-        <v>3487500</v>
+        <v>372</v>
       </c>
       <c r="T71" s="21">
         <v>1</v>
@@ -14709,11 +14709,11 @@
         <v>350</v>
       </c>
       <c r="R72" s="21">
-        <v>6200000</v>
+        <v>188</v>
       </c>
       <c r="S72" s="21">
         <f t="shared" si="1"/>
-        <v>18600000</v>
+        <v>376</v>
       </c>
       <c r="T72" s="21">
         <v>1</v>
@@ -14868,11 +14868,11 @@
         <v>350</v>
       </c>
       <c r="R73" s="21">
-        <v>1550000</v>
+        <v>190</v>
       </c>
       <c r="S73" s="21">
         <f t="shared" si="1"/>
-        <v>4650000</v>
+        <v>380</v>
       </c>
       <c r="T73" s="21">
         <v>1</v>
@@ -14988,11 +14988,11 @@
         <v>350</v>
       </c>
       <c r="R74" s="21">
-        <v>8800000</v>
+        <v>192</v>
       </c>
       <c r="S74" s="21">
         <f t="shared" si="1"/>
-        <v>26400000</v>
+        <v>384</v>
       </c>
       <c r="T74" s="21">
         <v>1</v>
@@ -15102,11 +15102,11 @@
         <v>350</v>
       </c>
       <c r="R75" s="21">
-        <v>2200000</v>
+        <v>194</v>
       </c>
       <c r="S75" s="21">
         <f t="shared" si="1"/>
-        <v>6600000</v>
+        <v>388</v>
       </c>
       <c r="T75" s="21">
         <v>1</v>
@@ -15216,11 +15216,11 @@
         <v>350</v>
       </c>
       <c r="R76" s="21">
-        <v>11000000</v>
+        <v>196</v>
       </c>
       <c r="S76" s="21">
         <f t="shared" si="1"/>
-        <v>33000000</v>
+        <v>392</v>
       </c>
       <c r="T76" s="21">
         <v>1</v>
@@ -15348,11 +15348,11 @@
         <v>350</v>
       </c>
       <c r="R77" s="21">
-        <v>2750000</v>
+        <v>198</v>
       </c>
       <c r="S77" s="21">
         <f t="shared" si="1"/>
-        <v>8250000</v>
+        <v>396</v>
       </c>
       <c r="T77" s="21">
         <v>1</v>
@@ -15468,11 +15468,11 @@
         <v>350</v>
       </c>
       <c r="R78" s="21">
-        <v>13500000</v>
+        <v>200</v>
       </c>
       <c r="S78" s="21">
         <f t="shared" si="1"/>
-        <v>40500000</v>
+        <v>400</v>
       </c>
       <c r="T78" s="21">
         <v>1</v>
@@ -15597,11 +15597,11 @@
         <v>350</v>
       </c>
       <c r="R79" s="21">
-        <v>3375000</v>
+        <v>202</v>
       </c>
       <c r="S79" s="21">
         <f t="shared" si="1"/>
-        <v>10125000</v>
+        <v>404</v>
       </c>
       <c r="T79" s="21">
         <v>1</v>
@@ -15717,11 +15717,11 @@
         <v>350</v>
       </c>
       <c r="R80" s="21">
-        <v>17000000</v>
+        <v>204</v>
       </c>
       <c r="S80" s="21">
         <f t="shared" si="1"/>
-        <v>51000000</v>
+        <v>408</v>
       </c>
       <c r="T80" s="21">
         <v>1</v>
@@ -15855,11 +15855,11 @@
         <v>350</v>
       </c>
       <c r="R81" s="21">
-        <v>4250000</v>
+        <v>206</v>
       </c>
       <c r="S81" s="21">
         <f t="shared" si="1"/>
-        <v>12750000</v>
+        <v>412</v>
       </c>
       <c r="T81" s="21">
         <v>1</v>
@@ -15969,11 +15969,11 @@
         <v>350</v>
       </c>
       <c r="R82" s="21">
-        <v>20000000</v>
+        <v>208</v>
       </c>
       <c r="S82" s="21">
         <f t="shared" si="1"/>
-        <v>60000000</v>
+        <v>416</v>
       </c>
       <c r="T82" s="21">
         <v>1</v>
@@ -16098,11 +16098,11 @@
         <v>350</v>
       </c>
       <c r="R83" s="21">
-        <v>5000000</v>
+        <v>50</v>
       </c>
       <c r="S83" s="21">
         <f t="shared" si="1"/>
-        <v>15000000</v>
+        <v>100</v>
       </c>
       <c r="T83" s="21">
         <v>1</v>
@@ -16212,11 +16212,11 @@
         <v>350</v>
       </c>
       <c r="R84" s="21">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="S84" s="21">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>104</v>
       </c>
       <c r="T84" s="21">
         <v>1</v>
@@ -16326,11 +16326,11 @@
         <v>350</v>
       </c>
       <c r="R85" s="21">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="S85" s="21">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>108</v>
       </c>
       <c r="T85" s="21">
         <v>1</v>
@@ -16458,11 +16458,11 @@
         <v>350</v>
       </c>
       <c r="R86" s="21">
-        <v>750</v>
+        <v>56</v>
       </c>
       <c r="S86" s="21">
         <f t="shared" si="1"/>
-        <v>2250</v>
+        <v>112</v>
       </c>
       <c r="T86" s="21">
         <v>1</v>
@@ -16596,11 +16596,11 @@
         <v>350</v>
       </c>
       <c r="R87" s="21">
-        <v>4200</v>
+        <v>58</v>
       </c>
       <c r="S87" s="21">
         <f t="shared" si="1"/>
-        <v>12600</v>
+        <v>116</v>
       </c>
       <c r="T87" s="21">
         <v>1</v>
@@ -16710,11 +16710,11 @@
         <v>350</v>
       </c>
       <c r="R88" s="21">
-        <v>15000</v>
+        <v>60</v>
       </c>
       <c r="S88" s="21">
         <f t="shared" si="1"/>
-        <v>45000</v>
+        <v>120</v>
       </c>
       <c r="T88" s="21">
         <v>1</v>
@@ -16830,11 +16830,11 @@
         <v>350</v>
       </c>
       <c r="R89" s="21">
-        <v>28000</v>
+        <v>62</v>
       </c>
       <c r="S89" s="21">
         <f t="shared" si="1"/>
-        <v>84000</v>
+        <v>124</v>
       </c>
       <c r="T89" s="21">
         <v>1</v>
@@ -16950,11 +16950,11 @@
         <v>350</v>
       </c>
       <c r="R90" s="21">
-        <v>42000</v>
+        <v>64</v>
       </c>
       <c r="S90" s="21">
         <f t="shared" si="1"/>
-        <v>126000</v>
+        <v>128</v>
       </c>
       <c r="T90" s="21">
         <v>1</v>
@@ -17070,11 +17070,11 @@
         <v>350</v>
       </c>
       <c r="R91" s="21">
-        <v>120000</v>
+        <v>66</v>
       </c>
       <c r="S91" s="21">
         <f t="shared" si="1"/>
-        <v>360000</v>
+        <v>132</v>
       </c>
       <c r="T91" s="21">
         <v>1</v>
@@ -17184,11 +17184,11 @@
         <v>350</v>
       </c>
       <c r="R92" s="21">
-        <v>350000</v>
+        <v>68</v>
       </c>
       <c r="S92" s="21">
         <f t="shared" si="1"/>
-        <v>1050000</v>
+        <v>136</v>
       </c>
       <c r="T92" s="21">
         <v>1</v>
@@ -17304,11 +17304,11 @@
         <v>350</v>
       </c>
       <c r="R93" s="21">
-        <v>750000</v>
+        <v>70</v>
       </c>
       <c r="S93" s="21">
         <f t="shared" si="1"/>
-        <v>2250000</v>
+        <v>140</v>
       </c>
       <c r="T93" s="21">
         <v>1</v>
@@ -17418,11 +17418,11 @@
         <v>350</v>
       </c>
       <c r="R94" s="21">
-        <v>3200000</v>
+        <v>72</v>
       </c>
       <c r="S94" s="21">
         <f t="shared" si="1"/>
-        <v>9600000</v>
+        <v>144</v>
       </c>
       <c r="T94" s="21">
         <v>1</v>
@@ -17550,11 +17550,11 @@
         <v>350</v>
       </c>
       <c r="R95" s="21">
-        <v>7500000</v>
+        <v>74</v>
       </c>
       <c r="S95" s="21">
         <f t="shared" si="1"/>
-        <v>22500000</v>
+        <v>148</v>
       </c>
       <c r="T95" s="21">
         <v>1</v>
@@ -17664,11 +17664,11 @@
         <v>350</v>
       </c>
       <c r="R96" s="21">
-        <v>1300</v>
+        <v>76</v>
       </c>
       <c r="S96" s="21">
         <f t="shared" si="1"/>
-        <v>3900</v>
+        <v>152</v>
       </c>
       <c r="T96" s="21">
         <v>1</v>
@@ -17784,11 +17784,11 @@
         <v>350</v>
       </c>
       <c r="R97" s="21">
-        <v>600</v>
+        <v>78</v>
       </c>
       <c r="S97" s="21">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>156</v>
       </c>
       <c r="T97" s="21">
         <v>1</v>
@@ -17916,11 +17916,11 @@
         <v>350</v>
       </c>
       <c r="R98" s="21">
-        <v>12000</v>
+        <v>80</v>
       </c>
       <c r="S98" s="21">
         <f t="shared" si="1"/>
-        <v>36000</v>
+        <v>160</v>
       </c>
       <c r="T98" s="21">
         <v>1</v>
@@ -18042,11 +18042,11 @@
         <v>350</v>
       </c>
       <c r="R99" s="21">
-        <v>6000</v>
+        <v>82</v>
       </c>
       <c r="S99" s="21">
         <f t="shared" si="1"/>
-        <v>18000</v>
+        <v>164</v>
       </c>
       <c r="T99" s="21">
         <v>1</v>
@@ -18174,11 +18174,11 @@
         <v>350</v>
       </c>
       <c r="R100" s="21">
-        <v>90000</v>
+        <v>84</v>
       </c>
       <c r="S100" s="21">
         <f t="shared" si="1"/>
-        <v>270000</v>
+        <v>168</v>
       </c>
       <c r="T100" s="21">
         <v>1</v>
@@ -18303,11 +18303,11 @@
         <v>350</v>
       </c>
       <c r="R101" s="21">
-        <v>1250000</v>
+        <v>86</v>
       </c>
       <c r="S101" s="21">
         <f t="shared" si="1"/>
-        <v>3750000</v>
+        <v>172</v>
       </c>
       <c r="T101" s="21">
         <v>1</v>
@@ -18426,11 +18426,11 @@
         <v>350</v>
       </c>
       <c r="R102" s="21">
-        <v>1250000</v>
+        <v>88</v>
       </c>
       <c r="S102" s="21">
         <f t="shared" si="1"/>
-        <v>3750000</v>
+        <v>176</v>
       </c>
       <c r="T102" s="21">
         <v>1</v>
@@ -18558,11 +18558,11 @@
         <v>350</v>
       </c>
       <c r="R103" s="21">
-        <v>240000</v>
+        <v>90</v>
       </c>
       <c r="S103" s="21">
         <f t="shared" si="1"/>
-        <v>720000</v>
+        <v>180</v>
       </c>
       <c r="T103" s="21">
         <v>1</v>
@@ -18699,11 +18699,11 @@
         <v>350</v>
       </c>
       <c r="R104" s="21">
-        <v>2800000</v>
+        <v>92</v>
       </c>
       <c r="S104" s="21">
         <f t="shared" si="1"/>
-        <v>8400000</v>
+        <v>184</v>
       </c>
       <c r="T104" s="21">
         <v>1</v>
@@ -18834,11 +18834,11 @@
         <v>350</v>
       </c>
       <c r="R105" s="21">
-        <v>2800000</v>
+        <v>94</v>
       </c>
       <c r="S105" s="21">
         <f t="shared" si="1"/>
-        <v>8400000</v>
+        <v>188</v>
       </c>
       <c r="T105" s="21">
         <v>1</v>
@@ -18966,11 +18966,11 @@
         <v>350</v>
       </c>
       <c r="R106" s="21">
-        <v>2800000</v>
+        <v>96</v>
       </c>
       <c r="S106" s="21">
         <f t="shared" si="1"/>
-        <v>8400000</v>
+        <v>192</v>
       </c>
       <c r="T106" s="21">
         <v>1</v>
@@ -19098,11 +19098,11 @@
         <v>350</v>
       </c>
       <c r="R107" s="21">
-        <v>18000000</v>
+        <v>98</v>
       </c>
       <c r="S107" s="21">
         <f t="shared" si="1"/>
-        <v>54000000</v>
+        <v>196</v>
       </c>
       <c r="T107" s="21">
         <v>1</v>
@@ -19233,11 +19233,11 @@
         <v>350</v>
       </c>
       <c r="R108" s="21">
-        <v>400000</v>
+        <v>100</v>
       </c>
       <c r="S108" s="21">
         <f t="shared" si="1"/>
-        <v>1200000</v>
+        <v>200</v>
       </c>
       <c r="T108" s="21">
         <v>1</v>
@@ -19362,11 +19362,11 @@
         <v>350</v>
       </c>
       <c r="R109" s="21">
-        <v>22000000</v>
+        <v>102</v>
       </c>
       <c r="S109" s="21">
         <f t="shared" si="1"/>
-        <v>66000000</v>
+        <v>204</v>
       </c>
       <c r="T109" s="21">
         <v>1</v>
@@ -19494,11 +19494,11 @@
         <v>350</v>
       </c>
       <c r="R110" s="21">
-        <v>250</v>
+        <v>104</v>
       </c>
       <c r="S110" s="21">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>208</v>
       </c>
       <c r="T110" s="21">
         <v>1</v>
@@ -19623,11 +19623,11 @@
         <v>350</v>
       </c>
       <c r="R111" s="21">
-        <v>600</v>
+        <v>106</v>
       </c>
       <c r="S111" s="21">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>212</v>
       </c>
       <c r="T111" s="21">
         <v>1</v>
@@ -19752,11 +19752,11 @@
         <v>350</v>
       </c>
       <c r="R112" s="21">
-        <v>1500</v>
+        <v>108</v>
       </c>
       <c r="S112" s="21">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>216</v>
       </c>
       <c r="T112" s="21">
         <v>1</v>
@@ -19881,11 +19881,11 @@
         <v>350</v>
       </c>
       <c r="R113" s="21">
-        <v>20000</v>
+        <v>110</v>
       </c>
       <c r="S113" s="21">
         <f t="shared" si="1"/>
-        <v>60000</v>
+        <v>220</v>
       </c>
       <c r="T113" s="21">
         <v>1</v>
@@ -20010,11 +20010,11 @@
         <v>350</v>
       </c>
       <c r="R114" s="21">
-        <v>68000</v>
+        <v>112</v>
       </c>
       <c r="S114" s="21">
         <f t="shared" si="1"/>
-        <v>204000</v>
+        <v>224</v>
       </c>
       <c r="T114" s="21">
         <v>1</v>
@@ -20139,11 +20139,11 @@
         <v>350</v>
       </c>
       <c r="R115" s="21">
-        <v>200000</v>
+        <v>114</v>
       </c>
       <c r="S115" s="21">
         <f t="shared" si="1"/>
-        <v>600000</v>
+        <v>228</v>
       </c>
       <c r="T115" s="21">
         <v>1</v>
@@ -20268,11 +20268,11 @@
         <v>350</v>
       </c>
       <c r="R116" s="21">
-        <v>650000</v>
+        <v>116</v>
       </c>
       <c r="S116" s="21">
         <f t="shared" si="1"/>
-        <v>1950000</v>
+        <v>232</v>
       </c>
       <c r="T116" s="21">
         <v>1</v>
@@ -20397,11 +20397,11 @@
         <v>350</v>
       </c>
       <c r="R117" s="21">
-        <v>1700000</v>
+        <v>118</v>
       </c>
       <c r="S117" s="21">
         <f t="shared" si="1"/>
-        <v>5100000</v>
+        <v>236</v>
       </c>
       <c r="T117" s="21">
         <v>1</v>
@@ -20526,11 +20526,11 @@
         <v>350</v>
       </c>
       <c r="R118" s="21">
-        <v>3000000</v>
+        <v>120</v>
       </c>
       <c r="S118" s="21">
         <f t="shared" si="1"/>
-        <v>9000000</v>
+        <v>240</v>
       </c>
       <c r="T118" s="21">
         <v>1</v>
@@ -20655,11 +20655,11 @@
         <v>350</v>
       </c>
       <c r="R119" s="21">
-        <v>3000000</v>
+        <v>122</v>
       </c>
       <c r="S119" s="21">
         <f t="shared" si="1"/>
-        <v>9000000</v>
+        <v>244</v>
       </c>
       <c r="T119" s="21">
         <v>1</v>
@@ -20790,11 +20790,11 @@
         <v>400</v>
       </c>
       <c r="R120" s="21">
-        <v>6000000</v>
+        <v>124</v>
       </c>
       <c r="S120" s="21">
         <f t="shared" si="1"/>
-        <v>18000000</v>
+        <v>248</v>
       </c>
       <c r="T120" s="21">
         <v>1</v>
@@ -20913,11 +20913,11 @@
         <v>400</v>
       </c>
       <c r="R121" s="21">
-        <v>12000000</v>
+        <v>126</v>
       </c>
       <c r="S121" s="21">
         <f t="shared" si="1"/>
-        <v>36000000</v>
+        <v>252</v>
       </c>
       <c r="T121" s="21">
         <v>1</v>
@@ -21036,11 +21036,11 @@
         <v>400</v>
       </c>
       <c r="R122" s="21">
-        <v>24000000</v>
+        <v>128</v>
       </c>
       <c r="S122" s="21">
         <f t="shared" si="1"/>
-        <v>72000000</v>
+        <v>256</v>
       </c>
       <c r="T122" s="21">
         <v>1</v>
@@ -21159,11 +21159,11 @@
         <v>400</v>
       </c>
       <c r="R123" s="21">
-        <v>48000000</v>
+        <v>130</v>
       </c>
       <c r="S123" s="21">
         <f t="shared" si="1"/>
-        <v>144000000</v>
+        <v>260</v>
       </c>
       <c r="T123" s="21">
         <v>1</v>
@@ -21282,11 +21282,11 @@
         <v>400</v>
       </c>
       <c r="R124" s="21">
-        <v>96000000</v>
+        <v>132</v>
       </c>
       <c r="S124" s="21">
         <f t="shared" si="1"/>
-        <v>288000000</v>
+        <v>264</v>
       </c>
       <c r="T124" s="21">
         <v>1</v>
@@ -21405,11 +21405,11 @@
         <v>400</v>
       </c>
       <c r="R125" s="21">
-        <v>192000000</v>
+        <v>134</v>
       </c>
       <c r="S125" s="21">
         <f t="shared" si="1"/>
-        <v>576000000</v>
+        <v>268</v>
       </c>
       <c r="T125" s="21">
         <v>1</v>
@@ -21528,11 +21528,11 @@
         <v>400</v>
       </c>
       <c r="R126" s="21">
-        <v>384000000</v>
+        <v>136</v>
       </c>
       <c r="S126" s="21">
         <f t="shared" si="1"/>
-        <v>1152000000</v>
+        <v>272</v>
       </c>
       <c r="T126" s="21">
         <v>1</v>
@@ -21651,11 +21651,11 @@
         <v>400</v>
       </c>
       <c r="R127" s="21">
-        <v>768000000</v>
+        <v>138</v>
       </c>
       <c r="S127" s="21">
         <f t="shared" si="1"/>
-        <v>2304000000</v>
+        <v>276</v>
       </c>
       <c r="T127" s="21">
         <v>1</v>
@@ -21774,11 +21774,11 @@
         <v>400</v>
       </c>
       <c r="R128" s="21">
-        <v>1536000000</v>
+        <v>140</v>
       </c>
       <c r="S128" s="21">
         <f t="shared" si="1"/>
-        <v>4608000000</v>
+        <v>280</v>
       </c>
       <c r="T128" s="21">
         <v>1</v>
@@ -21897,11 +21897,11 @@
         <v>400</v>
       </c>
       <c r="R129" s="21">
-        <v>3072000000</v>
+        <v>142</v>
       </c>
       <c r="S129" s="21">
         <f t="shared" si="1"/>
-        <v>9216000000</v>
+        <v>284</v>
       </c>
       <c r="T129" s="21">
         <v>1</v>
@@ -22014,11 +22014,11 @@
         <v>350</v>
       </c>
       <c r="R130" s="21">
-        <v>5000</v>
+        <v>144</v>
       </c>
       <c r="S130" s="21">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>288</v>
       </c>
       <c r="T130" s="21">
         <v>1</v>
@@ -22146,11 +22146,11 @@
         <v>350</v>
       </c>
       <c r="R131" s="21">
-        <v>8500</v>
+        <v>146</v>
       </c>
       <c r="S131" s="21">
-        <f t="shared" ref="S131:S182" si="2">R131*3</f>
-        <v>25500</v>
+        <f t="shared" ref="S131:S183" si="2">R131*2</f>
+        <v>292</v>
       </c>
       <c r="T131" s="21">
         <v>1</v>
@@ -22278,11 +22278,11 @@
         <v>350</v>
       </c>
       <c r="R132" s="21">
-        <v>12000</v>
+        <v>148</v>
       </c>
       <c r="S132" s="21">
         <f t="shared" si="2"/>
-        <v>36000</v>
+        <v>296</v>
       </c>
       <c r="T132" s="21">
         <v>1</v>
@@ -22410,11 +22410,11 @@
         <v>350</v>
       </c>
       <c r="R133" s="21">
-        <v>23100</v>
+        <v>150</v>
       </c>
       <c r="S133" s="21">
         <f t="shared" si="2"/>
-        <v>69300</v>
+        <v>300</v>
       </c>
       <c r="T133" s="21">
         <v>1</v>
@@ -22542,11 +22542,11 @@
         <v>350</v>
       </c>
       <c r="R134" s="21">
-        <v>42000</v>
+        <v>152</v>
       </c>
       <c r="S134" s="21">
         <f t="shared" si="2"/>
-        <v>126000</v>
+        <v>304</v>
       </c>
       <c r="T134" s="21">
         <v>1</v>
@@ -22674,11 +22674,11 @@
         <v>350</v>
       </c>
       <c r="R135" s="21">
-        <v>63000</v>
+        <v>154</v>
       </c>
       <c r="S135" s="21">
         <f t="shared" si="2"/>
-        <v>189000</v>
+        <v>308</v>
       </c>
       <c r="T135" s="21">
         <v>1</v>
@@ -22806,11 +22806,11 @@
         <v>350</v>
       </c>
       <c r="R136" s="21">
-        <v>121000</v>
+        <v>156</v>
       </c>
       <c r="S136" s="21">
         <f t="shared" si="2"/>
-        <v>363000</v>
+        <v>312</v>
       </c>
       <c r="T136" s="21">
         <v>1</v>
@@ -22932,11 +22932,11 @@
         <v>350</v>
       </c>
       <c r="R137" s="21">
-        <v>165000</v>
+        <v>158</v>
       </c>
       <c r="S137" s="21">
         <f t="shared" si="2"/>
-        <v>495000</v>
+        <v>316</v>
       </c>
       <c r="T137" s="21">
         <v>1</v>
@@ -23058,11 +23058,11 @@
         <v>350</v>
       </c>
       <c r="R138" s="21">
-        <v>242000</v>
+        <v>160</v>
       </c>
       <c r="S138" s="21">
         <f t="shared" si="2"/>
-        <v>726000</v>
+        <v>320</v>
       </c>
       <c r="T138" s="21">
         <v>1</v>
@@ -23184,11 +23184,11 @@
         <v>350</v>
       </c>
       <c r="R139" s="21">
-        <v>460000</v>
+        <v>162</v>
       </c>
       <c r="S139" s="21">
         <f t="shared" si="2"/>
-        <v>1380000</v>
+        <v>324</v>
       </c>
       <c r="T139" s="21">
         <v>1</v>
@@ -23316,11 +23316,11 @@
         <v>350</v>
       </c>
       <c r="R140" s="21">
-        <v>600000</v>
+        <v>164</v>
       </c>
       <c r="S140" s="21">
         <f t="shared" si="2"/>
-        <v>1800000</v>
+        <v>328</v>
       </c>
       <c r="T140" s="21">
         <v>1</v>
@@ -23442,11 +23442,11 @@
         <v>350</v>
       </c>
       <c r="R141" s="21">
-        <v>960000</v>
+        <v>166</v>
       </c>
       <c r="S141" s="21">
         <f t="shared" si="2"/>
-        <v>2880000</v>
+        <v>332</v>
       </c>
       <c r="T141" s="21">
         <v>1</v>
@@ -23568,11 +23568,11 @@
         <v>350</v>
       </c>
       <c r="R142" s="21">
-        <v>1440000</v>
+        <v>168</v>
       </c>
       <c r="S142" s="21">
         <f t="shared" si="2"/>
-        <v>4320000</v>
+        <v>336</v>
       </c>
       <c r="T142" s="21">
         <v>1</v>
@@ -23694,11 +23694,11 @@
         <v>350</v>
       </c>
       <c r="R143" s="21">
-        <v>2000000</v>
+        <v>170</v>
       </c>
       <c r="S143" s="21">
         <f t="shared" si="2"/>
-        <v>6000000</v>
+        <v>340</v>
       </c>
       <c r="T143" s="21">
         <v>1</v>
@@ -23826,11 +23826,11 @@
         <v>350</v>
       </c>
       <c r="R144" s="21">
-        <v>2750000</v>
+        <v>172</v>
       </c>
       <c r="S144" s="21">
         <f t="shared" si="2"/>
-        <v>8250000</v>
+        <v>344</v>
       </c>
       <c r="T144" s="21">
         <v>1</v>
@@ -23958,11 +23958,11 @@
         <v>350</v>
       </c>
       <c r="R145" s="21">
-        <v>3750000</v>
+        <v>174</v>
       </c>
       <c r="S145" s="21">
         <f t="shared" si="2"/>
-        <v>11250000</v>
+        <v>348</v>
       </c>
       <c r="T145" s="21">
         <v>1</v>
@@ -24090,11 +24090,11 @@
         <v>350</v>
       </c>
       <c r="R146" s="21">
-        <v>5460000</v>
+        <v>176</v>
       </c>
       <c r="S146" s="21">
         <f t="shared" si="2"/>
-        <v>16380000</v>
+        <v>352</v>
       </c>
       <c r="T146" s="21">
         <v>1</v>
@@ -24222,11 +24222,11 @@
         <v>350</v>
       </c>
       <c r="R147" s="21">
-        <v>6760000</v>
+        <v>178</v>
       </c>
       <c r="S147" s="21">
         <f t="shared" si="2"/>
-        <v>20280000</v>
+        <v>356</v>
       </c>
       <c r="T147" s="21">
         <v>1</v>
@@ -24354,11 +24354,11 @@
         <v>350</v>
       </c>
       <c r="R148" s="21">
-        <v>8840000</v>
+        <v>180</v>
       </c>
       <c r="S148" s="21">
         <f t="shared" si="2"/>
-        <v>26520000</v>
+        <v>360</v>
       </c>
       <c r="T148" s="21">
         <v>1</v>
@@ -24486,11 +24486,11 @@
         <v>350</v>
       </c>
       <c r="R149" s="21">
-        <v>12825000</v>
+        <v>182</v>
       </c>
       <c r="S149" s="21">
         <f t="shared" si="2"/>
-        <v>38475000</v>
+        <v>364</v>
       </c>
       <c r="T149" s="21">
         <v>1</v>
@@ -24609,11 +24609,11 @@
         <v>0</v>
       </c>
       <c r="R150" s="21">
-        <v>650</v>
+        <v>184</v>
       </c>
       <c r="S150" s="21">
         <f t="shared" si="2"/>
-        <v>1950</v>
+        <v>368</v>
       </c>
       <c r="T150" s="21">
         <v>1</v>
@@ -24711,11 +24711,11 @@
         <v>0</v>
       </c>
       <c r="R151" s="21">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="S151" s="21">
         <f t="shared" si="2"/>
-        <v>750</v>
+        <v>372</v>
       </c>
       <c r="T151" s="21">
         <v>1</v>
@@ -24813,11 +24813,11 @@
         <v>0</v>
       </c>
       <c r="R152" s="21">
-        <v>48000</v>
+        <v>188</v>
       </c>
       <c r="S152" s="21">
         <f t="shared" si="2"/>
-        <v>144000</v>
+        <v>376</v>
       </c>
       <c r="T152" s="21">
         <v>1</v>
@@ -24915,11 +24915,11 @@
         <v>0</v>
       </c>
       <c r="R153" s="21">
-        <v>880000</v>
+        <v>190</v>
       </c>
       <c r="S153" s="21">
         <f t="shared" si="2"/>
-        <v>2640000</v>
+        <v>380</v>
       </c>
       <c r="T153" s="21">
         <v>1</v>
@@ -25035,11 +25035,11 @@
         <v>0</v>
       </c>
       <c r="R154" s="21">
-        <v>650000</v>
+        <v>192</v>
       </c>
       <c r="S154" s="21">
         <f t="shared" si="2"/>
-        <v>1950000</v>
+        <v>384</v>
       </c>
       <c r="T154" s="21">
         <v>1</v>
@@ -25155,11 +25155,11 @@
         <v>0</v>
       </c>
       <c r="R155" s="21">
-        <v>1300000</v>
+        <v>194</v>
       </c>
       <c r="S155" s="21">
         <f t="shared" si="2"/>
-        <v>3900000</v>
+        <v>388</v>
       </c>
       <c r="T155" s="21">
         <v>1</v>
@@ -25269,11 +25269,11 @@
         <v>0</v>
       </c>
       <c r="R156" s="21">
-        <v>4800000</v>
+        <v>196</v>
       </c>
       <c r="S156" s="21">
         <f t="shared" si="2"/>
-        <v>14400000</v>
+        <v>392</v>
       </c>
       <c r="T156" s="21">
         <v>1</v>
@@ -25386,11 +25386,11 @@
         <v>0</v>
       </c>
       <c r="R157" s="21">
-        <v>26000000</v>
+        <v>198</v>
       </c>
       <c r="S157" s="21">
         <f t="shared" si="2"/>
-        <v>78000000</v>
+        <v>396</v>
       </c>
       <c r="T157" s="21">
         <v>1</v>
@@ -25518,11 +25518,11 @@
         <v>350</v>
       </c>
       <c r="R158" s="21">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="S158" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="T158" s="21">
         <v>1</v>
@@ -25632,11 +25632,11 @@
         <v>350</v>
       </c>
       <c r="R159" s="21">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="S159" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>404</v>
       </c>
       <c r="T159" s="21">
         <v>1</v>
@@ -25740,11 +25740,11 @@
         <v>8</v>
       </c>
       <c r="R160" s="21">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="S160" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>408</v>
       </c>
       <c r="T160" s="21">
         <v>1</v>
@@ -25857,11 +25857,11 @@
         <v>150</v>
       </c>
       <c r="R161" s="21">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="S161" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>412</v>
       </c>
       <c r="T161" s="21">
         <v>1</v>
@@ -25971,11 +25971,11 @@
         <v>350</v>
       </c>
       <c r="R162" s="21">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="S162" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>416</v>
       </c>
       <c r="T162" s="21">
         <v>1</v>
@@ -26085,11 +26085,11 @@
         <v>350</v>
       </c>
       <c r="R163" s="21">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="S163" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>420</v>
       </c>
       <c r="T163" s="21">
         <v>1</v>
@@ -26199,11 +26199,11 @@
         <v>0</v>
       </c>
       <c r="R164" s="21">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="S164" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>424</v>
       </c>
       <c r="T164" s="21">
         <v>1</v>
@@ -26298,11 +26298,11 @@
         <v>0</v>
       </c>
       <c r="R165" s="21">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="S165" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>428</v>
       </c>
       <c r="T165" s="21">
         <v>1</v>
@@ -26397,11 +26397,11 @@
         <v>0</v>
       </c>
       <c r="R166" s="21">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="S166" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>432</v>
       </c>
       <c r="T166" s="21">
         <v>1</v>
@@ -26496,11 +26496,11 @@
         <v>0</v>
       </c>
       <c r="R167" s="21">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="S167" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>436</v>
       </c>
       <c r="T167" s="21">
         <v>1</v>
@@ -26595,11 +26595,11 @@
         <v>0</v>
       </c>
       <c r="R168" s="21">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="S168" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>440</v>
       </c>
       <c r="T168" s="21">
         <v>1</v>
@@ -26694,11 +26694,11 @@
         <v>0</v>
       </c>
       <c r="R169" s="21">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="S169" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>444</v>
       </c>
       <c r="T169" s="21">
         <v>1</v>
@@ -26796,11 +26796,11 @@
         <v>400</v>
       </c>
       <c r="R170" s="21">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="S170" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>448</v>
       </c>
       <c r="T170" s="21">
         <v>1</v>
@@ -26916,11 +26916,11 @@
         <v>400</v>
       </c>
       <c r="R171" s="21">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="S171" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>452</v>
       </c>
       <c r="T171" s="21">
         <v>1</v>
@@ -27042,11 +27042,11 @@
         <v>400</v>
       </c>
       <c r="R172" s="21">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="S172" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>456</v>
       </c>
       <c r="T172" s="21">
         <v>1</v>
@@ -27168,11 +27168,11 @@
         <v>400</v>
       </c>
       <c r="R173" s="21">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="S173" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>460</v>
       </c>
       <c r="T173" s="21">
         <v>1</v>
@@ -27294,11 +27294,11 @@
         <v>400</v>
       </c>
       <c r="R174" s="21">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="S174" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>464</v>
       </c>
       <c r="T174" s="21">
         <v>1</v>
@@ -27417,11 +27417,11 @@
         <v>400</v>
       </c>
       <c r="R175" s="21">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="S175" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>468</v>
       </c>
       <c r="T175" s="21">
         <v>1</v>
@@ -27522,11 +27522,11 @@
         <v>400</v>
       </c>
       <c r="R176" s="21">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="S176" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>472</v>
       </c>
       <c r="T176" s="21">
         <v>1</v>
@@ -27627,11 +27627,11 @@
         <v>400</v>
       </c>
       <c r="R177" s="21">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="S177" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>476</v>
       </c>
       <c r="T177" s="21">
         <v>1</v>
@@ -27747,11 +27747,11 @@
         <v>400</v>
       </c>
       <c r="R178" s="21">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="S178" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>480</v>
       </c>
       <c r="T178" s="21">
         <v>1</v>
@@ -27864,11 +27864,11 @@
         <v>400</v>
       </c>
       <c r="R179" s="21">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="S179" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>484</v>
       </c>
       <c r="T179" s="21">
         <v>1</v>
@@ -27987,11 +27987,11 @@
         <v>400</v>
       </c>
       <c r="R180" s="21">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="S180" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>488</v>
       </c>
       <c r="T180" s="21">
         <v>1</v>
@@ -28101,11 +28101,11 @@
         <v>400</v>
       </c>
       <c r="R181" s="21">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="S181" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>492</v>
       </c>
       <c r="T181" s="21">
         <v>1</v>
@@ -28224,11 +28224,11 @@
         <v>400</v>
       </c>
       <c r="R182" s="21">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="S182" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>496</v>
       </c>
       <c r="T182" s="21">
         <v>1</v>
@@ -28341,10 +28341,11 @@
         <v>0</v>
       </c>
       <c r="R183" s="21">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="S183" s="21">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="T183" s="21">
         <v>1</v>

--- a/code/excels/building/building_unit_enemy.xlsx
+++ b/code/excels/building/building_unit_enemy.xlsx
@@ -12682,8 +12682,8 @@
   <sheetPr/>
   <dimension ref="A1:CI306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:W125"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3:AF125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5"/>
@@ -13325,7 +13325,7 @@
       </c>
       <c r="AE3" s="32"/>
       <c r="AF3" s="36">
-        <v>1000</v>
+        <v>660</v>
       </c>
       <c r="AG3" s="3" t="s">
         <v>168</v>
@@ -13522,7 +13522,7 @@
       </c>
       <c r="AE4" s="32"/>
       <c r="AF4" s="36">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AG4" s="32"/>
       <c r="AH4" s="36">
@@ -13720,8 +13720,8 @@
         <v>243</v>
       </c>
       <c r="AE5" s="5"/>
-      <c r="AF5" s="7">
-        <v>1000</v>
+      <c r="AF5" s="36">
+        <v>700</v>
       </c>
       <c r="AG5" s="32"/>
       <c r="AH5" s="36">
@@ -13921,8 +13921,8 @@
         <v>243</v>
       </c>
       <c r="AE6" s="5"/>
-      <c r="AF6" s="7">
-        <v>1000</v>
+      <c r="AF6" s="36">
+        <v>600</v>
       </c>
       <c r="AG6" s="32"/>
       <c r="AH6" s="36">
@@ -14117,7 +14117,7 @@
       </c>
       <c r="AE7" s="32"/>
       <c r="AF7" s="36">
-        <v>1000</v>
+        <v>660</v>
       </c>
       <c r="AG7" s="3" t="s">
         <v>314</v>
@@ -14319,8 +14319,8 @@
         <v>243</v>
       </c>
       <c r="AE8" s="5"/>
-      <c r="AF8" s="7">
-        <v>1000</v>
+      <c r="AF8" s="36">
+        <v>660</v>
       </c>
       <c r="AG8" s="5" t="s">
         <v>314</v>
@@ -14522,8 +14522,8 @@
         <v>243</v>
       </c>
       <c r="AE9" s="5"/>
-      <c r="AF9" s="7">
-        <v>1000</v>
+      <c r="AF9" s="36">
+        <v>700</v>
       </c>
       <c r="AG9" s="5" t="s">
         <v>372</v>
@@ -14731,8 +14731,8 @@
         <v>168</v>
       </c>
       <c r="AE10" s="3"/>
-      <c r="AF10" s="37">
-        <v>1000</v>
+      <c r="AF10" s="36">
+        <v>640</v>
       </c>
       <c r="AG10" s="3"/>
       <c r="AH10" s="36">
@@ -14928,8 +14928,8 @@
         <v>168</v>
       </c>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="37">
-        <v>1000</v>
+      <c r="AF11" s="36">
+        <v>760</v>
       </c>
       <c r="AG11" s="3" t="s">
         <v>428</v>
@@ -15123,8 +15123,8 @@
         <v>313</v>
       </c>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="37">
-        <v>1000</v>
+      <c r="AF12" s="36">
+        <v>660</v>
       </c>
       <c r="AG12" s="3"/>
       <c r="AH12" s="36">
@@ -15320,8 +15320,8 @@
         <v>380</v>
       </c>
       <c r="AE13" s="5"/>
-      <c r="AF13" s="7">
-        <v>1000</v>
+      <c r="AF13" s="36">
+        <v>680</v>
       </c>
       <c r="AG13" s="5"/>
       <c r="AH13" s="36">
@@ -15517,8 +15517,8 @@
         <v>381</v>
       </c>
       <c r="AE14" s="3"/>
-      <c r="AF14" s="37">
-        <v>1000</v>
+      <c r="AF14" s="36">
+        <v>600</v>
       </c>
       <c r="AG14" s="3" t="s">
         <v>502</v>
@@ -15714,8 +15714,8 @@
         <v>169</v>
       </c>
       <c r="AE15" s="3"/>
-      <c r="AF15" s="37">
-        <v>1000</v>
+      <c r="AF15" s="36">
+        <v>660</v>
       </c>
       <c r="AG15" s="3" t="s">
         <v>528</v>
@@ -15911,8 +15911,8 @@
         <v>363</v>
       </c>
       <c r="AE16" s="3"/>
-      <c r="AF16" s="37">
-        <v>1000</v>
+      <c r="AF16" s="36">
+        <v>640</v>
       </c>
       <c r="AG16" s="3"/>
       <c r="AH16" s="36">
@@ -16106,8 +16106,8 @@
         <v>313</v>
       </c>
       <c r="AE17" s="5"/>
-      <c r="AF17" s="7">
-        <v>1000</v>
+      <c r="AF17" s="36">
+        <v>560</v>
       </c>
       <c r="AG17" s="32"/>
       <c r="AH17" s="36">
@@ -16299,8 +16299,8 @@
         <v>313</v>
       </c>
       <c r="AE18" s="5"/>
-      <c r="AF18" s="7">
-        <v>1000</v>
+      <c r="AF18" s="36">
+        <v>740</v>
       </c>
       <c r="AG18" s="32"/>
       <c r="AH18" s="36">
@@ -16496,8 +16496,8 @@
         <v>380</v>
       </c>
       <c r="AE19" s="5"/>
-      <c r="AF19" s="7">
-        <v>1000</v>
+      <c r="AF19" s="36">
+        <v>640</v>
       </c>
       <c r="AG19" s="32"/>
       <c r="AH19" s="36">
@@ -16683,8 +16683,8 @@
         <v>243</v>
       </c>
       <c r="AE20" s="5"/>
-      <c r="AF20" s="7">
-        <v>1000</v>
+      <c r="AF20" s="36">
+        <v>700</v>
       </c>
       <c r="AG20" s="5"/>
       <c r="AH20" s="36">
@@ -16886,8 +16886,8 @@
         <v>313</v>
       </c>
       <c r="AE21" s="5"/>
-      <c r="AF21" s="7">
-        <v>1000</v>
+      <c r="AF21" s="36">
+        <v>520</v>
       </c>
       <c r="AG21" s="5" t="s">
         <v>314</v>
@@ -17091,8 +17091,8 @@
         <v>243</v>
       </c>
       <c r="AE22" s="5"/>
-      <c r="AF22" s="7">
-        <v>1000</v>
+      <c r="AF22" s="36">
+        <v>560</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="36">
@@ -17288,8 +17288,8 @@
         <v>380</v>
       </c>
       <c r="AE23" s="5"/>
-      <c r="AF23" s="7">
-        <v>1000</v>
+      <c r="AF23" s="36">
+        <v>600</v>
       </c>
       <c r="AG23" s="32"/>
       <c r="AH23" s="36">
@@ -17487,8 +17487,8 @@
         <v>243</v>
       </c>
       <c r="AE24" s="5"/>
-      <c r="AF24" s="7">
-        <v>1000</v>
+      <c r="AF24" s="36">
+        <v>600</v>
       </c>
       <c r="AG24" s="3" t="s">
         <v>528</v>
@@ -17702,8 +17702,8 @@
         <v>579</v>
       </c>
       <c r="AE25" s="5"/>
-      <c r="AF25" s="7">
-        <v>1000</v>
+      <c r="AF25" s="36">
+        <v>720</v>
       </c>
       <c r="AG25" s="5"/>
       <c r="AH25" s="36">
@@ -17905,8 +17905,8 @@
         <v>243</v>
       </c>
       <c r="AE26" s="5"/>
-      <c r="AF26" s="7">
-        <v>1000</v>
+      <c r="AF26" s="36">
+        <v>560</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="36">
@@ -18106,8 +18106,8 @@
         <v>168</v>
       </c>
       <c r="AE27" s="5"/>
-      <c r="AF27" s="7">
-        <v>1000</v>
+      <c r="AF27" s="36">
+        <v>580</v>
       </c>
       <c r="AG27" s="32"/>
       <c r="AH27" s="36">
@@ -18303,8 +18303,8 @@
         <v>842</v>
       </c>
       <c r="AE28" s="5"/>
-      <c r="AF28" s="7">
-        <v>1000</v>
+      <c r="AF28" s="36">
+        <v>620</v>
       </c>
       <c r="AG28" s="5"/>
       <c r="AH28" s="36">
@@ -18502,8 +18502,8 @@
         <v>213</v>
       </c>
       <c r="AE29" s="5"/>
-      <c r="AF29" s="7">
-        <v>1000</v>
+      <c r="AF29" s="36">
+        <v>680</v>
       </c>
       <c r="AG29" s="5"/>
       <c r="AH29" s="36">
@@ -18695,8 +18695,8 @@
         <v>313</v>
       </c>
       <c r="AE30" s="5"/>
-      <c r="AF30" s="7">
-        <v>1000</v>
+      <c r="AF30" s="36">
+        <v>620</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="36">
@@ -18896,8 +18896,8 @@
         <v>313</v>
       </c>
       <c r="AE31" s="5"/>
-      <c r="AF31" s="7">
-        <v>1000</v>
+      <c r="AF31" s="36">
+        <v>560</v>
       </c>
       <c r="AG31" s="5" t="s">
         <v>314</v>
@@ -19099,8 +19099,8 @@
         <v>938</v>
       </c>
       <c r="AE32" s="5"/>
-      <c r="AF32" s="7">
-        <v>1000</v>
+      <c r="AF32" s="36">
+        <v>640</v>
       </c>
       <c r="AG32" s="32"/>
       <c r="AH32" s="36">
@@ -19298,8 +19298,8 @@
         <v>380</v>
       </c>
       <c r="AE33" s="5"/>
-      <c r="AF33" s="7">
-        <v>1000</v>
+      <c r="AF33" s="36">
+        <v>640</v>
       </c>
       <c r="AG33" s="5" t="s">
         <v>334</v>
@@ -19491,8 +19491,8 @@
         <v>842</v>
       </c>
       <c r="AE34" s="5"/>
-      <c r="AF34" s="7">
-        <v>1000</v>
+      <c r="AF34" s="36">
+        <v>720</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="36">
@@ -19682,8 +19682,8 @@
         <v>243</v>
       </c>
       <c r="AE35" s="5"/>
-      <c r="AF35" s="7">
-        <v>1000</v>
+      <c r="AF35" s="36">
+        <v>620</v>
       </c>
       <c r="AG35" s="3" t="s">
         <v>528</v>
@@ -19877,8 +19877,8 @@
         <v>1021</v>
       </c>
       <c r="AE36" s="5"/>
-      <c r="AF36" s="7">
-        <v>1000</v>
+      <c r="AF36" s="36">
+        <v>540</v>
       </c>
       <c r="AG36" s="5"/>
       <c r="AH36" s="36">
@@ -20076,8 +20076,8 @@
         <v>380</v>
       </c>
       <c r="AE37" s="5"/>
-      <c r="AF37" s="7">
-        <v>1000</v>
+      <c r="AF37" s="36">
+        <v>620</v>
       </c>
       <c r="AG37" s="5"/>
       <c r="AH37" s="36">
@@ -20273,8 +20273,8 @@
         <v>168</v>
       </c>
       <c r="AE38" s="5"/>
-      <c r="AF38" s="7">
-        <v>1000</v>
+      <c r="AF38" s="36">
+        <v>640</v>
       </c>
       <c r="AG38" s="5" t="s">
         <v>528</v>
@@ -20468,8 +20468,8 @@
         <v>313</v>
       </c>
       <c r="AE39" s="5"/>
-      <c r="AF39" s="7">
-        <v>1000</v>
+      <c r="AF39" s="36">
+        <v>620</v>
       </c>
       <c r="AG39" s="5"/>
       <c r="AH39" s="36">
@@ -20671,8 +20671,8 @@
         <v>313</v>
       </c>
       <c r="AE40" s="5"/>
-      <c r="AF40" s="7">
-        <v>1000</v>
+      <c r="AF40" s="36">
+        <v>620</v>
       </c>
       <c r="AG40" s="5"/>
       <c r="AH40" s="36">
@@ -20869,7 +20869,7 @@
       </c>
       <c r="AE41" s="32"/>
       <c r="AF41" s="36">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="AG41" s="32"/>
       <c r="AH41" s="36">
@@ -21075,8 +21075,8 @@
         <v>842</v>
       </c>
       <c r="AE42" s="5"/>
-      <c r="AF42" s="7">
-        <v>1000</v>
+      <c r="AF42" s="36">
+        <v>540</v>
       </c>
       <c r="AG42" s="5" t="s">
         <v>1161</v>
@@ -21276,8 +21276,8 @@
         <v>243</v>
       </c>
       <c r="AE43" s="5"/>
-      <c r="AF43" s="7">
-        <v>1000</v>
+      <c r="AF43" s="36">
+        <v>620</v>
       </c>
       <c r="AG43" s="5"/>
       <c r="AH43" s="36">
@@ -21473,8 +21473,8 @@
         <v>313</v>
       </c>
       <c r="AE44" s="5"/>
-      <c r="AF44" s="7">
-        <v>1000</v>
+      <c r="AF44" s="36">
+        <v>560</v>
       </c>
       <c r="AG44" s="32"/>
       <c r="AH44" s="36">
@@ -21670,8 +21670,8 @@
         <v>168</v>
       </c>
       <c r="AE45" s="5"/>
-      <c r="AF45" s="7">
-        <v>1000</v>
+      <c r="AF45" s="36">
+        <v>740</v>
       </c>
       <c r="AG45" s="5"/>
       <c r="AH45" s="36">
@@ -21865,8 +21865,8 @@
         <v>313</v>
       </c>
       <c r="AE46" s="5"/>
-      <c r="AF46" s="7">
-        <v>1000</v>
+      <c r="AF46" s="36">
+        <v>600</v>
       </c>
       <c r="AG46" s="5" t="s">
         <v>528</v>
@@ -22072,8 +22072,8 @@
         <v>169</v>
       </c>
       <c r="AE47" s="5"/>
-      <c r="AF47" s="7">
-        <v>1000</v>
+      <c r="AF47" s="36">
+        <v>560</v>
       </c>
       <c r="AG47" s="32"/>
       <c r="AH47" s="36">
@@ -22269,8 +22269,8 @@
         <v>380</v>
       </c>
       <c r="AE48" s="5"/>
-      <c r="AF48" s="7">
-        <v>1000</v>
+      <c r="AF48" s="36">
+        <v>680</v>
       </c>
       <c r="AG48" s="5" t="s">
         <v>1298</v>
@@ -22468,8 +22468,8 @@
         <v>842</v>
       </c>
       <c r="AE49" s="5"/>
-      <c r="AF49" s="7">
-        <v>1000</v>
+      <c r="AF49" s="36">
+        <v>700</v>
       </c>
       <c r="AG49" s="32"/>
       <c r="AH49" s="36">
@@ -22663,8 +22663,8 @@
         <v>313</v>
       </c>
       <c r="AE50" s="3"/>
-      <c r="AF50" s="37">
-        <v>1000</v>
+      <c r="AF50" s="36">
+        <v>600</v>
       </c>
       <c r="AG50" s="3"/>
       <c r="AH50" s="36">
@@ -22862,8 +22862,8 @@
         <v>243</v>
       </c>
       <c r="AE51" s="5"/>
-      <c r="AF51" s="7">
-        <v>1000</v>
+      <c r="AF51" s="36">
+        <v>600</v>
       </c>
       <c r="AG51" s="32"/>
       <c r="AH51" s="36">
@@ -23063,8 +23063,8 @@
         <v>168</v>
       </c>
       <c r="AE52" s="5"/>
-      <c r="AF52" s="7">
-        <v>1000</v>
+      <c r="AF52" s="36">
+        <v>700</v>
       </c>
       <c r="AG52" s="5"/>
       <c r="AH52" s="36">
@@ -23258,8 +23258,8 @@
         <v>313</v>
       </c>
       <c r="AE53" s="5"/>
-      <c r="AF53" s="7">
-        <v>1000</v>
+      <c r="AF53" s="36">
+        <v>600</v>
       </c>
       <c r="AG53" s="5"/>
       <c r="AH53" s="36">
@@ -23453,8 +23453,8 @@
         <v>313</v>
       </c>
       <c r="AE54" s="5"/>
-      <c r="AF54" s="7">
-        <v>1000</v>
+      <c r="AF54" s="36">
+        <v>560</v>
       </c>
       <c r="AG54" s="5"/>
       <c r="AH54" s="36">
@@ -23649,7 +23649,7 @@
       </c>
       <c r="AE55" s="32"/>
       <c r="AF55" s="36">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AG55" s="3" t="s">
         <v>314</v>
@@ -23849,8 +23849,8 @@
         <v>380</v>
       </c>
       <c r="AE56" s="5"/>
-      <c r="AF56" s="7">
-        <v>1000</v>
+      <c r="AF56" s="36">
+        <v>620</v>
       </c>
       <c r="AG56" s="5" t="s">
         <v>528</v>
@@ -24048,8 +24048,8 @@
         <v>313</v>
       </c>
       <c r="AE57" s="5"/>
-      <c r="AF57" s="7">
-        <v>1000</v>
+      <c r="AF57" s="36">
+        <v>720</v>
       </c>
       <c r="AG57" s="5"/>
       <c r="AH57" s="36">
@@ -24249,8 +24249,8 @@
         <v>168</v>
       </c>
       <c r="AE58" s="5"/>
-      <c r="AF58" s="7">
-        <v>1000</v>
+      <c r="AF58" s="36">
+        <v>700</v>
       </c>
       <c r="AG58" s="5" t="s">
         <v>528</v>
@@ -24448,8 +24448,8 @@
         <v>313</v>
       </c>
       <c r="AE59" s="5"/>
-      <c r="AF59" s="7">
-        <v>1000</v>
+      <c r="AF59" s="36">
+        <v>660</v>
       </c>
       <c r="AG59" s="32"/>
       <c r="AH59" s="36">
@@ -24643,8 +24643,8 @@
         <v>243</v>
       </c>
       <c r="AE60" s="5"/>
-      <c r="AF60" s="7">
-        <v>1000</v>
+      <c r="AF60" s="36">
+        <v>660</v>
       </c>
       <c r="AG60" s="5"/>
       <c r="AH60" s="36">
@@ -24846,8 +24846,8 @@
         <v>243</v>
       </c>
       <c r="AE61" s="5"/>
-      <c r="AF61" s="7">
-        <v>1000</v>
+      <c r="AF61" s="36">
+        <v>540</v>
       </c>
       <c r="AG61" s="5" t="s">
         <v>314</v>
@@ -25049,8 +25049,8 @@
         <v>381</v>
       </c>
       <c r="AE62" s="5"/>
-      <c r="AF62" s="7">
-        <v>1000</v>
+      <c r="AF62" s="36">
+        <v>680</v>
       </c>
       <c r="AG62" s="5" t="s">
         <v>314</v>
@@ -25248,8 +25248,8 @@
         <v>243</v>
       </c>
       <c r="AE63" s="5"/>
-      <c r="AF63" s="7">
-        <v>1000</v>
+      <c r="AF63" s="36">
+        <v>560</v>
       </c>
       <c r="AG63" s="32"/>
       <c r="AH63" s="36">
@@ -25451,8 +25451,8 @@
         <v>380</v>
       </c>
       <c r="AE64" s="5"/>
-      <c r="AF64" s="7">
-        <v>1000</v>
+      <c r="AF64" s="36">
+        <v>560</v>
       </c>
       <c r="AG64" s="5" t="s">
         <v>334</v>
@@ -25654,8 +25654,8 @@
         <v>1449</v>
       </c>
       <c r="AE65" s="3"/>
-      <c r="AF65" s="37">
-        <v>1000</v>
+      <c r="AF65" s="36">
+        <v>640</v>
       </c>
       <c r="AG65" s="3"/>
       <c r="AH65" s="36">
@@ -25853,8 +25853,8 @@
         <v>213</v>
       </c>
       <c r="AE66" s="5"/>
-      <c r="AF66" s="7">
-        <v>1000</v>
+      <c r="AF66" s="36">
+        <v>640</v>
       </c>
       <c r="AG66" s="3" t="s">
         <v>1585</v>
@@ -26052,8 +26052,8 @@
         <v>168</v>
       </c>
       <c r="AE67" s="5"/>
-      <c r="AF67" s="7">
-        <v>1000</v>
+      <c r="AF67" s="36">
+        <v>560</v>
       </c>
       <c r="AG67" s="5"/>
       <c r="AH67" s="36">
@@ -26253,8 +26253,8 @@
         <v>168</v>
       </c>
       <c r="AE68" s="3"/>
-      <c r="AF68" s="37">
-        <v>1000</v>
+      <c r="AF68" s="36">
+        <v>580</v>
       </c>
       <c r="AG68" s="3" t="s">
         <v>314</v>
@@ -26454,8 +26454,8 @@
         <v>380</v>
       </c>
       <c r="AE69" s="5"/>
-      <c r="AF69" s="7">
-        <v>1000</v>
+      <c r="AF69" s="36">
+        <v>660</v>
       </c>
       <c r="AG69" s="5" t="s">
         <v>1770</v>
@@ -26645,8 +26645,8 @@
         <v>363</v>
       </c>
       <c r="AE70" s="5"/>
-      <c r="AF70" s="7">
-        <v>1000</v>
+      <c r="AF70" s="36">
+        <v>560</v>
       </c>
       <c r="AG70" s="3" t="s">
         <v>350</v>
@@ -26838,8 +26838,8 @@
         <v>350</v>
       </c>
       <c r="AE71" s="5"/>
-      <c r="AF71" s="7">
-        <v>1000</v>
+      <c r="AF71" s="36">
+        <v>620</v>
       </c>
       <c r="AG71" s="5" t="s">
         <v>168</v>
@@ -27037,8 +27037,8 @@
         <v>1833</v>
       </c>
       <c r="AE72" s="5"/>
-      <c r="AF72" s="7">
-        <v>1000</v>
+      <c r="AF72" s="36">
+        <v>660</v>
       </c>
       <c r="AG72" s="5" t="s">
         <v>1834</v>
@@ -27238,8 +27238,8 @@
         <v>168</v>
       </c>
       <c r="AE73" s="5"/>
-      <c r="AF73" s="7">
-        <v>1000</v>
+      <c r="AF73" s="36">
+        <v>680</v>
       </c>
       <c r="AG73" s="32"/>
       <c r="AH73" s="36">
@@ -27437,8 +27437,8 @@
         <v>313</v>
       </c>
       <c r="AE74" s="5"/>
-      <c r="AF74" s="7">
-        <v>1000</v>
+      <c r="AF74" s="36">
+        <v>600</v>
       </c>
       <c r="AG74" s="32"/>
       <c r="AH74" s="36">
@@ -27642,8 +27642,8 @@
         <v>168</v>
       </c>
       <c r="AE75" s="5"/>
-      <c r="AF75" s="7">
-        <v>1000</v>
+      <c r="AF75" s="36">
+        <v>540</v>
       </c>
       <c r="AG75" s="5" t="s">
         <v>314</v>
@@ -27843,8 +27843,8 @@
         <v>168</v>
       </c>
       <c r="AE76" s="5"/>
-      <c r="AF76" s="7">
-        <v>1000</v>
+      <c r="AF76" s="36">
+        <v>620</v>
       </c>
       <c r="AG76" s="5" t="s">
         <v>314</v>
@@ -28040,8 +28040,8 @@
         <v>243</v>
       </c>
       <c r="AE77" s="5"/>
-      <c r="AF77" s="7">
-        <v>1000</v>
+      <c r="AF77" s="36">
+        <v>580</v>
       </c>
       <c r="AG77" s="5" t="s">
         <v>1585</v>
@@ -28241,8 +28241,8 @@
         <v>243</v>
       </c>
       <c r="AE78" s="5"/>
-      <c r="AF78" s="7">
-        <v>1000</v>
+      <c r="AF78" s="36">
+        <v>660</v>
       </c>
       <c r="AG78" s="5" t="s">
         <v>334</v>
@@ -28442,8 +28442,8 @@
         <v>380</v>
       </c>
       <c r="AE79" s="5"/>
-      <c r="AF79" s="7">
-        <v>1000</v>
+      <c r="AF79" s="36">
+        <v>720</v>
       </c>
       <c r="AG79" s="32"/>
       <c r="AH79" s="36">
@@ -28641,8 +28641,8 @@
         <v>1999</v>
       </c>
       <c r="AE80" s="5"/>
-      <c r="AF80" s="7">
-        <v>1000</v>
+      <c r="AF80" s="36">
+        <v>540</v>
       </c>
       <c r="AG80" s="5" t="s">
         <v>528</v>
@@ -28839,7 +28839,7 @@
       </c>
       <c r="AE81" s="32"/>
       <c r="AF81" s="36">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AG81" s="3" t="s">
         <v>380</v>
@@ -29041,8 +29041,8 @@
         <v>313</v>
       </c>
       <c r="AE82" s="5"/>
-      <c r="AF82" s="7">
-        <v>1000</v>
+      <c r="AF82" s="36">
+        <v>580</v>
       </c>
       <c r="AG82" s="5"/>
       <c r="AH82" s="36">
@@ -29238,8 +29238,8 @@
         <v>313</v>
       </c>
       <c r="AE83" s="5"/>
-      <c r="AF83" s="7">
-        <v>1000</v>
+      <c r="AF83" s="36">
+        <v>560</v>
       </c>
       <c r="AG83" s="32"/>
       <c r="AH83" s="36">
@@ -29439,8 +29439,8 @@
         <v>313</v>
       </c>
       <c r="AE84" s="5"/>
-      <c r="AF84" s="7">
-        <v>1000</v>
+      <c r="AF84" s="36">
+        <v>720</v>
       </c>
       <c r="AG84" s="5"/>
       <c r="AH84" s="36">
@@ -29638,8 +29638,8 @@
         <v>243</v>
       </c>
       <c r="AE85" s="5"/>
-      <c r="AF85" s="7">
-        <v>1000</v>
+      <c r="AF85" s="36">
+        <v>640</v>
       </c>
       <c r="AG85" s="3" t="s">
         <v>168</v>
@@ -29837,8 +29837,8 @@
         <v>213</v>
       </c>
       <c r="AE86" s="5"/>
-      <c r="AF86" s="7">
-        <v>1000</v>
+      <c r="AF86" s="36">
+        <v>560</v>
       </c>
       <c r="AG86" s="5" t="s">
         <v>350</v>
@@ -30034,8 +30034,8 @@
         <v>842</v>
       </c>
       <c r="AE87" s="5"/>
-      <c r="AF87" s="7">
-        <v>1000</v>
+      <c r="AF87" s="36">
+        <v>620</v>
       </c>
       <c r="AG87" s="32"/>
       <c r="AH87" s="36">
@@ -30233,8 +30233,8 @@
         <v>243</v>
       </c>
       <c r="AE88" s="5"/>
-      <c r="AF88" s="7">
-        <v>1000</v>
+      <c r="AF88" s="36">
+        <v>640</v>
       </c>
       <c r="AG88" s="5"/>
       <c r="AH88" s="36">
@@ -30424,8 +30424,8 @@
         <v>313</v>
       </c>
       <c r="AE89" s="5"/>
-      <c r="AF89" s="7">
-        <v>1000</v>
+      <c r="AF89" s="36">
+        <v>660</v>
       </c>
       <c r="AG89" s="5"/>
       <c r="AH89" s="36">
@@ -30619,8 +30619,8 @@
         <v>380</v>
       </c>
       <c r="AE90" s="5"/>
-      <c r="AF90" s="7">
-        <v>1000</v>
+      <c r="AF90" s="36">
+        <v>660</v>
       </c>
       <c r="AG90" s="5"/>
       <c r="AH90" s="36">
@@ -30818,8 +30818,8 @@
         <v>313</v>
       </c>
       <c r="AE91" s="5"/>
-      <c r="AF91" s="7">
-        <v>1000</v>
+      <c r="AF91" s="36">
+        <v>680</v>
       </c>
       <c r="AG91" s="32"/>
       <c r="AH91" s="36">
@@ -31013,8 +31013,8 @@
         <v>243</v>
       </c>
       <c r="AE92" s="5"/>
-      <c r="AF92" s="7">
-        <v>1000</v>
+      <c r="AF92" s="36">
+        <v>580</v>
       </c>
       <c r="AG92" s="32"/>
       <c r="AH92" s="36">
@@ -31210,8 +31210,8 @@
         <v>243</v>
       </c>
       <c r="AE93" s="5"/>
-      <c r="AF93" s="7">
-        <v>1000</v>
+      <c r="AF93" s="36">
+        <v>640</v>
       </c>
       <c r="AG93" s="5"/>
       <c r="AH93" s="36">
@@ -31419,8 +31419,8 @@
         <v>1449</v>
       </c>
       <c r="AE94" s="5"/>
-      <c r="AF94" s="7">
-        <v>1000</v>
+      <c r="AF94" s="36">
+        <v>620</v>
       </c>
       <c r="AG94" s="5"/>
       <c r="AH94" s="36">
@@ -31618,8 +31618,8 @@
         <v>213</v>
       </c>
       <c r="AE95" s="5"/>
-      <c r="AF95" s="7">
-        <v>1000</v>
+      <c r="AF95" s="36">
+        <v>620</v>
       </c>
       <c r="AG95" s="5" t="s">
         <v>528</v>
@@ -31819,8 +31819,8 @@
         <v>313</v>
       </c>
       <c r="AE96" s="5"/>
-      <c r="AF96" s="7">
-        <v>1000</v>
+      <c r="AF96" s="36">
+        <v>620</v>
       </c>
       <c r="AG96" s="5" t="s">
         <v>428</v>
@@ -32018,8 +32018,8 @@
         <v>168</v>
       </c>
       <c r="AE97" s="5"/>
-      <c r="AF97" s="7">
-        <v>1000</v>
+      <c r="AF97" s="36">
+        <v>600</v>
       </c>
       <c r="AG97" s="32"/>
       <c r="AH97" s="36">
@@ -32225,8 +32225,8 @@
         <v>243</v>
       </c>
       <c r="AE98" s="5"/>
-      <c r="AF98" s="7">
-        <v>1000</v>
+      <c r="AF98" s="36">
+        <v>580</v>
       </c>
       <c r="AG98" s="32"/>
       <c r="AH98" s="36">
@@ -32424,8 +32424,8 @@
         <v>168</v>
       </c>
       <c r="AE99" s="5"/>
-      <c r="AF99" s="7">
-        <v>1000</v>
+      <c r="AF99" s="36">
+        <v>660</v>
       </c>
       <c r="AG99" s="5" t="s">
         <v>1585</v>
@@ -32623,8 +32623,8 @@
         <v>579</v>
       </c>
       <c r="AE100" s="5"/>
-      <c r="AF100" s="7">
-        <v>1000</v>
+      <c r="AF100" s="36">
+        <v>780</v>
       </c>
       <c r="AG100" s="5" t="s">
         <v>502</v>
@@ -32823,7 +32823,7 @@
       </c>
       <c r="AE101" s="32"/>
       <c r="AF101" s="36">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="AG101" s="32"/>
       <c r="AH101" s="36">
@@ -33011,8 +33011,8 @@
         <v>168</v>
       </c>
       <c r="AE102" s="5"/>
-      <c r="AF102" s="7">
-        <v>1000</v>
+      <c r="AF102" s="36">
+        <v>640</v>
       </c>
       <c r="AG102" s="32"/>
       <c r="AH102" s="36">
@@ -33213,7 +33213,7 @@
       </c>
       <c r="AE103" s="5"/>
       <c r="AF103" s="36">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AG103" s="32"/>
       <c r="AH103" s="36">
@@ -33418,7 +33418,7 @@
       </c>
       <c r="AE104" s="5"/>
       <c r="AF104" s="36">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="AG104" s="3" t="s">
         <v>314</v>
@@ -33615,7 +33615,7 @@
       </c>
       <c r="AE105" s="5"/>
       <c r="AF105" s="36">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AG105" s="3" t="s">
         <v>168</v>
@@ -33812,7 +33812,7 @@
       </c>
       <c r="AE106" s="5"/>
       <c r="AF106" s="36">
-        <v>1000</v>
+        <v>740</v>
       </c>
       <c r="AG106" s="32"/>
       <c r="AH106" s="36">
@@ -34005,7 +34005,7 @@
       </c>
       <c r="AE107" s="5"/>
       <c r="AF107" s="36">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AG107" s="32"/>
       <c r="AH107" s="36">
@@ -34204,7 +34204,7 @@
       </c>
       <c r="AE108" s="5"/>
       <c r="AF108" s="36">
-        <v>1000</v>
+        <v>760</v>
       </c>
       <c r="AG108" s="3" t="s">
         <v>1585</v>
@@ -34403,7 +34403,7 @@
       </c>
       <c r="AE109" s="5"/>
       <c r="AF109" s="36">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AG109" s="32"/>
       <c r="AH109" s="36">
@@ -34594,7 +34594,7 @@
       </c>
       <c r="AE110" s="5"/>
       <c r="AF110" s="36">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="AG110" s="3" t="s">
         <v>314</v>
@@ -34805,7 +34805,7 @@
       </c>
       <c r="AE111" s="5"/>
       <c r="AF111" s="36">
-        <v>1000</v>
+        <v>660</v>
       </c>
       <c r="AG111" s="3" t="s">
         <v>1298</v>
@@ -35004,7 +35004,7 @@
       </c>
       <c r="AE112" s="5"/>
       <c r="AF112" s="36">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="AG112" s="32"/>
       <c r="AH112" s="36">
@@ -35195,7 +35195,7 @@
       </c>
       <c r="AE113" s="5"/>
       <c r="AF113" s="36">
-        <v>1000</v>
+        <v>680</v>
       </c>
       <c r="AG113" s="3" t="s">
         <v>528</v>
@@ -35388,7 +35388,7 @@
       </c>
       <c r="AE114" s="5"/>
       <c r="AF114" s="36">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AG114" s="3" t="s">
         <v>314</v>
@@ -35585,7 +35585,7 @@
       </c>
       <c r="AE115" s="5"/>
       <c r="AF115" s="36">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AG115" s="32"/>
       <c r="AH115" s="36">
@@ -35783,8 +35783,8 @@
         <v>1449</v>
       </c>
       <c r="AE116" s="5"/>
-      <c r="AF116" s="37">
-        <v>1000</v>
+      <c r="AF116" s="36">
+        <v>620</v>
       </c>
       <c r="AG116" s="3"/>
       <c r="AH116" s="36">
@@ -35985,7 +35985,7 @@
       </c>
       <c r="AE117" s="5"/>
       <c r="AF117" s="36">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="AG117" s="32"/>
       <c r="AH117" s="36">
@@ -36180,7 +36180,7 @@
       </c>
       <c r="AE118" s="5"/>
       <c r="AF118" s="36">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="AG118" s="32"/>
       <c r="AH118" s="36">
@@ -36379,7 +36379,7 @@
       </c>
       <c r="AE119" s="5"/>
       <c r="AF119" s="36">
-        <v>1000</v>
+        <v>720</v>
       </c>
       <c r="AG119" s="32"/>
       <c r="AH119" s="36">
@@ -36576,7 +36576,7 @@
       </c>
       <c r="AE120" s="5"/>
       <c r="AF120" s="36">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AG120" s="3" t="s">
         <v>334</v>
@@ -36777,7 +36777,7 @@
       </c>
       <c r="AE121" s="5"/>
       <c r="AF121" s="36">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AG121" s="32"/>
       <c r="AH121" s="36">
@@ -36978,7 +36978,7 @@
       </c>
       <c r="AE122" s="5"/>
       <c r="AF122" s="36">
-        <v>1000</v>
+        <v>680</v>
       </c>
       <c r="AG122" s="32"/>
       <c r="AH122" s="36">
@@ -37179,7 +37179,7 @@
       </c>
       <c r="AE123" s="5"/>
       <c r="AF123" s="36">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AG123" s="32"/>
       <c r="AH123" s="36">
@@ -37368,7 +37368,7 @@
       </c>
       <c r="AE124" s="5"/>
       <c r="AF124" s="36">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AG124" s="32"/>
       <c r="AH124" s="36">
@@ -37563,7 +37563,7 @@
       </c>
       <c r="AE125" s="5"/>
       <c r="AF125" s="36">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AG125" s="32"/>
       <c r="AH125" s="36">

--- a/code/excels/building/building_unit_enemy.xlsx
+++ b/code/excels/building/building_unit_enemy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10528" uniqueCount="3792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10528" uniqueCount="3793">
   <si>
     <t>主键</t>
   </si>
@@ -103,7 +103,7 @@
     <t>物理护甲</t>
   </si>
   <si>
-    <t>魔法防御</t>
+    <t>魔法护甲</t>
   </si>
   <si>
     <t>出生生命值</t>
@@ -364,7 +364,7 @@
     <t>ArmorPhysical</t>
   </si>
   <si>
-    <t>MagicalResistance</t>
+    <t>ArmorMagical</t>
   </si>
   <si>
     <t>StatusHealth</t>
@@ -11278,9 +11278,6 @@
     <t>minimap_nian</t>
   </si>
   <si>
-    <t>魔法护甲</t>
-  </si>
-  <si>
     <t>生命值</t>
   </si>
   <si>
@@ -11404,6 +11401,9 @@
     <t>技能17</t>
   </si>
   <si>
+    <t>魔法防御</t>
+  </si>
+  <si>
     <t>卡片名字</t>
   </si>
   <si>
@@ -11459,6 +11459,9 @@
   </si>
   <si>
     <t>#Ability17</t>
+  </si>
+  <si>
+    <t>MagicalResistance</t>
   </si>
   <si>
     <t>CardName</t>
@@ -12682,8 +12685,8 @@
   <sheetPr/>
   <dimension ref="A1:CI306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AF125"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5"/>
@@ -66421,8 +66424,8 @@
   <sheetPr/>
   <dimension ref="A1:CI10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -78018,10 +78021,10 @@
         <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3727</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3728</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3445</v>
@@ -78033,31 +78036,31 @@
         <v>3447</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>3728</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>3729</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>3730</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>3731</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>3732</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>3733</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>3734</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>3735</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>3736</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>3737</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>33</v>
@@ -78066,10 +78069,10 @@
         <v>38</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>3737</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>3738</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>3739</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>3453</v>
@@ -78093,7 +78096,7 @@
         <v>3454</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>3456</v>
@@ -78135,10 +78138,10 @@
         <v>3462</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>3741</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>3742</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>61</v>
@@ -78183,7 +78186,7 @@
         <v>51</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="BL1" s="1" t="s">
         <v>3469</v>
@@ -78198,7 +78201,7 @@
         <v>3464</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:68">
@@ -78239,19 +78242,19 @@
         <v>119</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>3744</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>3745</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>3746</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>3747</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>3748</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>3749</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>121</v>
@@ -78272,10 +78275,10 @@
         <v>125</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>3749</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>3750</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>3751</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>108</v>
@@ -78344,7 +78347,7 @@
         <v>128</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>145</v>
@@ -78404,7 +78407,7 @@
         <v>140</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="15.5" spans="1:105">
@@ -78436,25 +78439,25 @@
         <v>6</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>3753</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>3754</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>3755</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>3756</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>3757</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>3758</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>3759</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>3760</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>7</v>
@@ -78499,28 +78502,28 @@
         <v>20</v>
       </c>
       <c r="AE3" s="5" t="s">
+        <v>3760</v>
+      </c>
+      <c r="AF3" s="5" t="s">
         <v>3761</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AG3" s="5" t="s">
         <v>3762</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>3763</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>3764</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>3765</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AK3" s="5" t="s">
         <v>3766</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AL3" s="5" t="s">
         <v>3767</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>3768</v>
       </c>
       <c r="AM3" s="3" t="s">
         <v>21</v>
@@ -78544,7 +78547,7 @@
         <v>27</v>
       </c>
       <c r="AT3" s="5" t="s">
-        <v>28</v>
+        <v>3768</v>
       </c>
       <c r="AU3" s="3" t="s">
         <v>29</v>
@@ -78861,7 +78864,7 @@
         <v>114</v>
       </c>
       <c r="AT4" s="5" t="s">
-        <v>115</v>
+        <v>3788</v>
       </c>
       <c r="AU4" s="3" t="s">
         <v>116</v>
@@ -79020,7 +79023,7 @@
         <v>146</v>
       </c>
       <c r="CU4" s="10" t="s">
-        <v>3788</v>
+        <v>3789</v>
       </c>
       <c r="CV4" s="5" t="s">
         <v>147</v>
@@ -79032,13 +79035,13 @@
         <v>149</v>
       </c>
       <c r="CY4" s="3" t="s">
-        <v>3789</v>
+        <v>3790</v>
       </c>
       <c r="CZ4" s="3" t="s">
-        <v>3790</v>
+        <v>3791</v>
       </c>
       <c r="DA4" s="3" t="s">
-        <v>3791</v>
+        <v>3792</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/building/building_unit_enemy.xlsx
+++ b/code/excels/building/building_unit_enemy.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10153" uniqueCount="3787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10153" uniqueCount="3788">
   <si>
     <t>主键</t>
   </si>
@@ -379,7 +379,7 @@
     <t>AttackCapabilities</t>
   </si>
   <si>
-    <t>AttackDamageMin</t>
+    <t>AttackDamage</t>
   </si>
   <si>
     <t>AttackRate</t>
@@ -10484,6 +10484,9 @@
   </si>
   <si>
     <t>MagicalArmor</t>
+  </si>
+  <si>
+    <t>AttackDamageMin</t>
   </si>
   <si>
     <t>AttackDamageMax</t>
@@ -12667,7 +12670,7 @@
   <sheetPr/>
   <dimension ref="A1:CH306"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AK1" sqref="AK1:AK2"/>
     </sheetView>
   </sheetViews>
@@ -13314,7 +13317,7 @@
         <v>166</v>
       </c>
       <c r="AH3" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI3" s="36">
         <v>0</v>
@@ -13508,7 +13511,7 @@
       </c>
       <c r="AG4" s="32"/>
       <c r="AH4" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI4" s="36">
         <v>0</v>
@@ -13706,7 +13709,7 @@
       </c>
       <c r="AG5" s="32"/>
       <c r="AH5" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI5" s="7">
         <v>0</v>
@@ -13906,7 +13909,7 @@
       </c>
       <c r="AG6" s="32"/>
       <c r="AH6" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI6" s="7">
         <v>0</v>
@@ -14102,7 +14105,7 @@
         <v>301</v>
       </c>
       <c r="AH7" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI7" s="36">
         <v>0</v>
@@ -14304,7 +14307,7 @@
         <v>301</v>
       </c>
       <c r="AH8" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI8" s="7">
         <v>0</v>
@@ -14506,7 +14509,7 @@
         <v>359</v>
       </c>
       <c r="AH9" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI9" s="36">
         <v>0</v>
@@ -14712,7 +14715,7 @@
       </c>
       <c r="AG10" s="3"/>
       <c r="AH10" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI10" s="37">
         <v>0</v>
@@ -14910,7 +14913,7 @@
         <v>413</v>
       </c>
       <c r="AH11" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI11" s="37">
         <v>0</v>
@@ -15102,7 +15105,7 @@
       </c>
       <c r="AG12" s="3"/>
       <c r="AH12" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI12" s="37">
         <v>0</v>
@@ -15298,7 +15301,7 @@
       </c>
       <c r="AG13" s="5"/>
       <c r="AH13" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI13" s="36">
         <v>0</v>
@@ -15496,7 +15499,7 @@
         <v>486</v>
       </c>
       <c r="AH14" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI14" s="37">
         <v>0</v>
@@ -15692,7 +15695,7 @@
         <v>512</v>
       </c>
       <c r="AH15" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI15" s="37">
         <v>0</v>
@@ -15886,7 +15889,7 @@
       </c>
       <c r="AG16" s="3"/>
       <c r="AH16" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI16" s="37">
         <v>0</v>
@@ -16080,7 +16083,7 @@
       </c>
       <c r="AG17" s="32"/>
       <c r="AH17" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI17" s="7">
         <v>0</v>
@@ -16272,7 +16275,7 @@
       </c>
       <c r="AG18" s="32"/>
       <c r="AH18" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI18" s="7">
         <v>0</v>
@@ -16468,7 +16471,7 @@
       </c>
       <c r="AG19" s="32"/>
       <c r="AH19" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI19" s="7">
         <v>0</v>
@@ -16654,7 +16657,7 @@
       </c>
       <c r="AG20" s="5"/>
       <c r="AH20" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI20" s="7">
         <v>0</v>
@@ -16858,7 +16861,7 @@
         <v>301</v>
       </c>
       <c r="AH21" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI21" s="7">
         <v>0</v>
@@ -17060,7 +17063,7 @@
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI22" s="7">
         <v>0</v>
@@ -17256,7 +17259,7 @@
       </c>
       <c r="AG23" s="32"/>
       <c r="AH23" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI23" s="7">
         <v>0</v>
@@ -17456,7 +17459,7 @@
         <v>512</v>
       </c>
       <c r="AH24" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI24" s="7">
         <v>0</v>
@@ -17668,7 +17671,7 @@
       </c>
       <c r="AG25" s="5"/>
       <c r="AH25" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI25" s="7">
         <v>0</v>
@@ -17870,7 +17873,7 @@
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI26" s="7">
         <v>0</v>
@@ -18070,7 +18073,7 @@
       </c>
       <c r="AG27" s="32"/>
       <c r="AH27" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI27" s="7">
         <v>0</v>
@@ -18266,7 +18269,7 @@
       </c>
       <c r="AG28" s="5"/>
       <c r="AH28" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI28" s="7">
         <v>0</v>
@@ -18464,7 +18467,7 @@
       </c>
       <c r="AG29" s="5"/>
       <c r="AH29" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI29" s="36">
         <v>0</v>
@@ -18656,7 +18659,7 @@
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI30" s="7">
         <v>0</v>
@@ -18858,7 +18861,7 @@
         <v>301</v>
       </c>
       <c r="AH31" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI31" s="7">
         <v>0</v>
@@ -19058,7 +19061,7 @@
       </c>
       <c r="AG32" s="32"/>
       <c r="AH32" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI32" s="7">
         <v>0</v>
@@ -19258,7 +19261,7 @@
         <v>322</v>
       </c>
       <c r="AH33" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI33" s="7">
         <v>0</v>
@@ -19448,7 +19451,7 @@
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI34" s="7">
         <v>0</v>
@@ -19640,7 +19643,7 @@
         <v>512</v>
       </c>
       <c r="AH35" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI35" s="7">
         <v>0</v>
@@ -19832,7 +19835,7 @@
       </c>
       <c r="AG36" s="5"/>
       <c r="AH36" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI36" s="7">
         <v>0</v>
@@ -20030,7 +20033,7 @@
       </c>
       <c r="AG37" s="5"/>
       <c r="AH37" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI37" s="36">
         <v>0</v>
@@ -20228,7 +20231,7 @@
         <v>512</v>
       </c>
       <c r="AH38" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI38" s="7">
         <v>0</v>
@@ -20420,7 +20423,7 @@
       </c>
       <c r="AG39" s="5"/>
       <c r="AH39" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI39" s="7">
         <v>0</v>
@@ -20622,7 +20625,7 @@
       </c>
       <c r="AG40" s="5"/>
       <c r="AH40" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI40" s="7">
         <v>0</v>
@@ -20818,7 +20821,7 @@
       </c>
       <c r="AG41" s="32"/>
       <c r="AH41" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI41" s="36">
         <v>0</v>
@@ -21026,7 +21029,7 @@
         <v>1148</v>
       </c>
       <c r="AH42" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI42" s="7">
         <v>0</v>
@@ -21224,7 +21227,7 @@
       </c>
       <c r="AG43" s="5"/>
       <c r="AH43" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI43" s="7">
         <v>0</v>
@@ -21420,7 +21423,7 @@
       </c>
       <c r="AG44" s="32"/>
       <c r="AH44" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI44" s="7">
         <v>0</v>
@@ -21616,7 +21619,7 @@
       </c>
       <c r="AG45" s="5"/>
       <c r="AH45" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI45" s="7">
         <v>0</v>
@@ -21812,7 +21815,7 @@
         <v>512</v>
       </c>
       <c r="AH46" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI46" s="7">
         <v>0</v>
@@ -22016,7 +22019,7 @@
       </c>
       <c r="AG47" s="32"/>
       <c r="AH47" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI47" s="7">
         <v>0</v>
@@ -22214,7 +22217,7 @@
         <v>1286</v>
       </c>
       <c r="AH48" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI48" s="36">
         <v>0</v>
@@ -22410,7 +22413,7 @@
       </c>
       <c r="AG49" s="32"/>
       <c r="AH49" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI49" s="7">
         <v>0</v>
@@ -22604,7 +22607,7 @@
       </c>
       <c r="AG50" s="3"/>
       <c r="AH50" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI50" s="37">
         <v>0</v>
@@ -22802,7 +22805,7 @@
       </c>
       <c r="AG51" s="32"/>
       <c r="AH51" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI51" s="7">
         <v>0</v>
@@ -23002,7 +23005,7 @@
       </c>
       <c r="AG52" s="5"/>
       <c r="AH52" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI52" s="7">
         <v>0</v>
@@ -23196,7 +23199,7 @@
       </c>
       <c r="AG53" s="5"/>
       <c r="AH53" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI53" s="7">
         <v>0</v>
@@ -23390,7 +23393,7 @@
       </c>
       <c r="AG54" s="5"/>
       <c r="AH54" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI54" s="7">
         <v>0</v>
@@ -23586,7 +23589,7 @@
         <v>301</v>
       </c>
       <c r="AH55" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI55" s="36">
         <v>0</v>
@@ -23786,7 +23789,7 @@
         <v>512</v>
       </c>
       <c r="AH56" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI56" s="7">
         <v>0</v>
@@ -23982,7 +23985,7 @@
       </c>
       <c r="AG57" s="5"/>
       <c r="AH57" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI57" s="7">
         <v>0</v>
@@ -24184,7 +24187,7 @@
         <v>512</v>
       </c>
       <c r="AH58" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI58" s="7">
         <v>0</v>
@@ -24380,7 +24383,7 @@
       </c>
       <c r="AG59" s="32"/>
       <c r="AH59" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI59" s="37">
         <v>0</v>
@@ -24574,7 +24577,7 @@
       </c>
       <c r="AG60" s="5"/>
       <c r="AH60" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI60" s="7">
         <v>0</v>
@@ -24778,7 +24781,7 @@
         <v>301</v>
       </c>
       <c r="AH61" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI61" s="7">
         <v>0</v>
@@ -24980,7 +24983,7 @@
         <v>301</v>
       </c>
       <c r="AH62" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI62" s="7">
         <v>0</v>
@@ -25176,7 +25179,7 @@
       </c>
       <c r="AG63" s="32"/>
       <c r="AH63" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI63" s="7">
         <v>0</v>
@@ -25380,7 +25383,7 @@
         <v>322</v>
       </c>
       <c r="AH64" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI64" s="7">
         <v>0</v>
@@ -25580,7 +25583,7 @@
       </c>
       <c r="AG65" s="3"/>
       <c r="AH65" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI65" s="37">
         <v>0</v>
@@ -25780,7 +25783,7 @@
         <v>1572</v>
       </c>
       <c r="AH66" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI66" s="36">
         <v>0</v>
@@ -25976,7 +25979,7 @@
       </c>
       <c r="AG67" s="5"/>
       <c r="AH67" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI67" s="7">
         <v>0</v>
@@ -26178,7 +26181,7 @@
         <v>301</v>
       </c>
       <c r="AH68" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI68" s="37">
         <v>0</v>
@@ -26378,7 +26381,7 @@
         <v>1757</v>
       </c>
       <c r="AH69" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI69" s="36">
         <v>0</v>
@@ -26568,7 +26571,7 @@
         <v>337</v>
       </c>
       <c r="AH70" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI70" s="7">
         <v>0</v>
@@ -26760,7 +26763,7 @@
         <v>166</v>
       </c>
       <c r="AH71" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI71" s="7">
         <v>0</v>
@@ -26958,7 +26961,7 @@
         <v>1819</v>
       </c>
       <c r="AH72" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI72" s="7">
         <v>0</v>
@@ -27156,7 +27159,7 @@
       </c>
       <c r="AG73" s="32"/>
       <c r="AH73" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI73" s="7">
         <v>0</v>
@@ -27354,7 +27357,7 @@
       </c>
       <c r="AG74" s="32"/>
       <c r="AH74" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI74" s="7">
         <v>0</v>
@@ -27560,7 +27563,7 @@
         <v>301</v>
       </c>
       <c r="AH75" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI75" s="7">
         <v>0</v>
@@ -27760,7 +27763,7 @@
         <v>301</v>
       </c>
       <c r="AH76" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI76" s="7">
         <v>0</v>
@@ -27956,7 +27959,7 @@
         <v>1572</v>
       </c>
       <c r="AH77" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI77" s="7">
         <v>0</v>
@@ -28156,7 +28159,7 @@
         <v>322</v>
       </c>
       <c r="AH78" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI78" s="7">
         <v>0</v>
@@ -28354,7 +28357,7 @@
       </c>
       <c r="AG79" s="32"/>
       <c r="AH79" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI79" s="7">
         <v>0</v>
@@ -28554,7 +28557,7 @@
         <v>512</v>
       </c>
       <c r="AH80" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI80" s="7">
         <v>0</v>
@@ -28750,7 +28753,7 @@
         <v>366</v>
       </c>
       <c r="AH81" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI81" s="36">
         <v>0</v>
@@ -28950,7 +28953,7 @@
       </c>
       <c r="AG82" s="5"/>
       <c r="AH82" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI82" s="7">
         <v>0</v>
@@ -29146,7 +29149,7 @@
       </c>
       <c r="AG83" s="32"/>
       <c r="AH83" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI83" s="7">
         <v>0</v>
@@ -29346,7 +29349,7 @@
       </c>
       <c r="AG84" s="5"/>
       <c r="AH84" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI84" s="7">
         <v>0</v>
@@ -29546,7 +29549,7 @@
         <v>166</v>
       </c>
       <c r="AH85" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI85" s="7">
         <v>0</v>
@@ -29744,7 +29747,7 @@
         <v>337</v>
       </c>
       <c r="AH86" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI86" s="36">
         <v>0</v>
@@ -29938,7 +29941,7 @@
       </c>
       <c r="AG87" s="32"/>
       <c r="AH87" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI87" s="7">
         <v>0</v>
@@ -30136,7 +30139,7 @@
       </c>
       <c r="AG88" s="5"/>
       <c r="AH88" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI88" s="7">
         <v>0</v>
@@ -30326,7 +30329,7 @@
       </c>
       <c r="AG89" s="5"/>
       <c r="AH89" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI89" s="7">
         <v>0</v>
@@ -30520,7 +30523,7 @@
       </c>
       <c r="AG90" s="5"/>
       <c r="AH90" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI90" s="7">
         <v>0</v>
@@ -30718,7 +30721,7 @@
       </c>
       <c r="AG91" s="32"/>
       <c r="AH91" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI91" s="7">
         <v>0</v>
@@ -30912,7 +30915,7 @@
       </c>
       <c r="AG92" s="32"/>
       <c r="AH92" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI92" s="7">
         <v>0</v>
@@ -31108,7 +31111,7 @@
       </c>
       <c r="AG93" s="5"/>
       <c r="AH93" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI93" s="7">
         <v>0</v>
@@ -31316,7 +31319,7 @@
       </c>
       <c r="AG94" s="5"/>
       <c r="AH94" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI94" s="7">
         <v>0</v>
@@ -31516,7 +31519,7 @@
         <v>512</v>
       </c>
       <c r="AH95" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI95" s="7">
         <v>0</v>
@@ -31716,7 +31719,7 @@
         <v>413</v>
       </c>
       <c r="AH96" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI96" s="7">
         <v>0</v>
@@ -31912,7 +31915,7 @@
       </c>
       <c r="AG97" s="32"/>
       <c r="AH97" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI97" s="7">
         <v>0</v>
@@ -32118,7 +32121,7 @@
       </c>
       <c r="AG98" s="32"/>
       <c r="AH98" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI98" s="7">
         <v>0</v>
@@ -32318,7 +32321,7 @@
         <v>1572</v>
       </c>
       <c r="AH99" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI99" s="7">
         <v>0</v>
@@ -32516,7 +32519,7 @@
         <v>486</v>
       </c>
       <c r="AH100" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI100" s="36">
         <v>0</v>
@@ -32712,7 +32715,7 @@
       </c>
       <c r="AG101" s="32"/>
       <c r="AH101" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI101" s="36">
         <v>0</v>
@@ -32900,7 +32903,7 @@
       </c>
       <c r="AG102" s="32"/>
       <c r="AH102" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI102" s="7">
         <v>0</v>
@@ -33100,7 +33103,7 @@
       </c>
       <c r="AG103" s="32"/>
       <c r="AH103" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI103" s="7">
         <v>0</v>
@@ -33306,7 +33309,7 @@
         <v>301</v>
       </c>
       <c r="AH104" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI104" s="7">
         <v>0</v>
@@ -33502,7 +33505,7 @@
         <v>166</v>
       </c>
       <c r="AH105" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI105" s="7">
         <v>0</v>
@@ -33696,7 +33699,7 @@
       </c>
       <c r="AG106" s="32"/>
       <c r="AH106" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI106" s="7">
         <v>0</v>
@@ -33888,7 +33891,7 @@
       </c>
       <c r="AG107" s="32"/>
       <c r="AH107" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI107" s="7">
         <v>0</v>
@@ -34088,7 +34091,7 @@
         <v>1572</v>
       </c>
       <c r="AH108" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI108" s="7">
         <v>0</v>
@@ -34284,7 +34287,7 @@
       </c>
       <c r="AG109" s="32"/>
       <c r="AH109" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI109" s="7">
         <v>0</v>
@@ -34476,7 +34479,7 @@
         <v>301</v>
       </c>
       <c r="AH110" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI110" s="7">
         <v>0</v>
@@ -34686,7 +34689,7 @@
         <v>1286</v>
       </c>
       <c r="AH111" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI111" s="7">
         <v>0</v>
@@ -34882,7 +34885,7 @@
       </c>
       <c r="AG112" s="32"/>
       <c r="AH112" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI112" s="7">
         <v>0</v>
@@ -35074,7 +35077,7 @@
         <v>512</v>
       </c>
       <c r="AH113" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI113" s="7">
         <v>0</v>
@@ -35266,7 +35269,7 @@
         <v>301</v>
       </c>
       <c r="AH114" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI114" s="7">
         <v>0</v>
@@ -35460,7 +35463,7 @@
       </c>
       <c r="AG115" s="32"/>
       <c r="AH115" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI115" s="7">
         <v>0</v>
@@ -35658,7 +35661,7 @@
       </c>
       <c r="AG116" s="3"/>
       <c r="AH116" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI116" s="7">
         <v>0</v>
@@ -35858,7 +35861,7 @@
       </c>
       <c r="AG117" s="32"/>
       <c r="AH117" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI117" s="7">
         <v>0</v>
@@ -36052,7 +36055,7 @@
       </c>
       <c r="AG118" s="32"/>
       <c r="AH118" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI118" s="7">
         <v>0</v>
@@ -36250,7 +36253,7 @@
       </c>
       <c r="AG119" s="32"/>
       <c r="AH119" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI119" s="7">
         <v>0</v>
@@ -36448,7 +36451,7 @@
         <v>322</v>
       </c>
       <c r="AH120" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI120" s="7">
         <v>0</v>
@@ -36646,7 +36649,7 @@
       </c>
       <c r="AG121" s="32"/>
       <c r="AH121" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI121" s="7">
         <v>0</v>
@@ -36846,7 +36849,7 @@
       </c>
       <c r="AG122" s="32"/>
       <c r="AH122" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI122" s="7">
         <v>0</v>
@@ -37046,7 +37049,7 @@
       </c>
       <c r="AG123" s="32"/>
       <c r="AH123" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI123" s="7">
         <v>0</v>
@@ -37234,7 +37237,7 @@
       </c>
       <c r="AG124" s="32"/>
       <c r="AH124" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI124" s="7">
         <v>0</v>
@@ -37428,7 +37431,7 @@
       </c>
       <c r="AG125" s="32"/>
       <c r="AH125" s="36">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI125" s="7">
         <v>0</v>
@@ -37610,7 +37613,7 @@
         <v>0</v>
       </c>
       <c r="AH126" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI126" s="1">
         <v>0</v>
@@ -37758,7 +37761,7 @@
         <v>0</v>
       </c>
       <c r="AH127" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI127" s="1">
         <v>0</v>
@@ -37910,7 +37913,7 @@
         <v>0</v>
       </c>
       <c r="AH128" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI128" s="1">
         <v>0</v>
@@ -38058,7 +38061,7 @@
         <v>0</v>
       </c>
       <c r="AH129" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI129" s="1">
         <v>0</v>
@@ -38210,7 +38213,7 @@
         <v>0</v>
       </c>
       <c r="AH130" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI130" s="1">
         <v>0</v>
@@ -38358,7 +38361,7 @@
         <v>0</v>
       </c>
       <c r="AH131" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI131" s="1">
         <v>0</v>
@@ -38510,7 +38513,7 @@
         <v>0</v>
       </c>
       <c r="AH132" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI132" s="1">
         <v>0</v>
@@ -38662,7 +38665,7 @@
         <v>0</v>
       </c>
       <c r="AH133" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI133" s="1">
         <v>0</v>
@@ -38810,7 +38813,7 @@
         <v>0</v>
       </c>
       <c r="AH134" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI134" s="1">
         <v>0</v>
@@ -38962,7 +38965,7 @@
         <v>0</v>
       </c>
       <c r="AH135" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI135" s="1">
         <v>0</v>
@@ -39110,7 +39113,7 @@
         <v>0</v>
       </c>
       <c r="AH136" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI136" s="1">
         <v>0</v>
@@ -39258,7 +39261,7 @@
         <v>0</v>
       </c>
       <c r="AH137" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI137" s="1">
         <v>0</v>
@@ -39410,7 +39413,7 @@
         <v>0</v>
       </c>
       <c r="AH138" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI138" s="1">
         <v>0</v>
@@ -39562,7 +39565,7 @@
         <v>0</v>
       </c>
       <c r="AH139" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI139" s="1">
         <v>0</v>
@@ -39710,7 +39713,7 @@
         <v>0</v>
       </c>
       <c r="AH140" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI140" s="1">
         <v>0</v>
@@ -39862,7 +39865,7 @@
         <v>0</v>
       </c>
       <c r="AH141" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI141" s="1">
         <v>0</v>
@@ -40010,7 +40013,7 @@
         <v>0</v>
       </c>
       <c r="AH142" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI142" s="1">
         <v>0</v>
@@ -40158,7 +40161,7 @@
         <v>0</v>
       </c>
       <c r="AH143" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI143" s="1">
         <v>0</v>
@@ -40310,7 +40313,7 @@
         <v>0</v>
       </c>
       <c r="AH144" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI144" s="1">
         <v>0</v>
@@ -40462,7 +40465,7 @@
         <v>0</v>
       </c>
       <c r="AH145" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI145" s="1">
         <v>0</v>
@@ -40610,7 +40613,7 @@
         <v>0</v>
       </c>
       <c r="AH146" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI146" s="1">
         <v>0</v>
@@ -40758,7 +40761,7 @@
         <v>0</v>
       </c>
       <c r="AH147" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI147" s="1">
         <v>0</v>
@@ -40906,7 +40909,7 @@
         <v>0</v>
       </c>
       <c r="AH148" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI148" s="1">
         <v>0</v>
@@ -41054,7 +41057,7 @@
         <v>0</v>
       </c>
       <c r="AH149" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI149" s="1">
         <v>0</v>
@@ -41204,7 +41207,7 @@
         <v>0</v>
       </c>
       <c r="AH150" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI150" s="1">
         <v>0</v>
@@ -41358,7 +41361,7 @@
         <v>0</v>
       </c>
       <c r="AH151" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI151" s="1">
         <v>0</v>
@@ -41518,7 +41521,7 @@
         <v>0</v>
       </c>
       <c r="AH152" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI152" s="1">
         <v>0</v>
@@ -41680,7 +41683,7 @@
         <v>0</v>
       </c>
       <c r="AH153" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI153" s="1">
         <v>0</v>
@@ -41840,7 +41843,7 @@
         <v>0</v>
       </c>
       <c r="AH154" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI154" s="1">
         <v>0</v>
@@ -42004,7 +42007,7 @@
         <v>0</v>
       </c>
       <c r="AH155" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI155" s="1">
         <v>0</v>
@@ -42168,7 +42171,7 @@
         <v>0</v>
       </c>
       <c r="AH156" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI156" s="1">
         <v>0</v>
@@ -42320,7 +42323,7 @@
         <v>0</v>
       </c>
       <c r="AH157" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI157" s="1">
         <v>0</v>
@@ -42478,7 +42481,7 @@
         <v>0</v>
       </c>
       <c r="AH158" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI158" s="1">
         <v>0</v>
@@ -42626,7 +42629,7 @@
         <v>0</v>
       </c>
       <c r="AH159" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI159" s="1">
         <v>0</v>
@@ -42778,7 +42781,7 @@
         <v>0</v>
       </c>
       <c r="AH160" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI160" s="1">
         <v>0</v>
@@ -42938,7 +42941,7 @@
         <v>0</v>
       </c>
       <c r="AH161" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI161" s="1">
         <v>0</v>
@@ -43098,7 +43101,7 @@
         <v>0</v>
       </c>
       <c r="AH162" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI162" s="1">
         <v>0</v>
@@ -43258,7 +43261,7 @@
         <v>0</v>
       </c>
       <c r="AH163" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI163" s="1">
         <v>0</v>
@@ -43418,7 +43421,7 @@
         <v>0</v>
       </c>
       <c r="AH164" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI164" s="1">
         <v>0</v>
@@ -43566,7 +43569,7 @@
         <v>0</v>
       </c>
       <c r="AH165" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI165" s="1">
         <v>0</v>
@@ -43722,7 +43725,7 @@
         <v>0</v>
       </c>
       <c r="AH166" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI166" s="1">
         <v>0</v>
@@ -43874,7 +43877,7 @@
         <v>0</v>
       </c>
       <c r="AH167" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI167" s="1">
         <v>0</v>
@@ -44022,7 +44025,7 @@
         <v>0</v>
       </c>
       <c r="AH168" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI168" s="1">
         <v>0</v>
@@ -44174,7 +44177,7 @@
         <v>0</v>
       </c>
       <c r="AH169" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI169" s="1">
         <v>0</v>
@@ -44336,7 +44339,7 @@
         <v>0</v>
       </c>
       <c r="AH170" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI170" s="1">
         <v>0</v>
@@ -44496,7 +44499,7 @@
         <v>0</v>
       </c>
       <c r="AH171" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI171" s="1">
         <v>0</v>
@@ -44660,7 +44663,7 @@
         <v>0</v>
       </c>
       <c r="AH172" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI172" s="1">
         <v>0</v>
@@ -44820,7 +44823,7 @@
         <v>0</v>
       </c>
       <c r="AH173" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI173" s="1">
         <v>0</v>
@@ -44984,7 +44987,7 @@
         <v>0</v>
       </c>
       <c r="AH174" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI174" s="1">
         <v>0</v>
@@ -45146,7 +45149,7 @@
         <v>0</v>
       </c>
       <c r="AH175" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI175" s="1">
         <v>0</v>
@@ -45306,7 +45309,7 @@
         <v>0</v>
       </c>
       <c r="AH176" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI176" s="1">
         <v>0</v>
@@ -45466,7 +45469,7 @@
         <v>0</v>
       </c>
       <c r="AH177" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI177" s="1">
         <v>0</v>
@@ -45626,7 +45629,7 @@
         <v>0</v>
       </c>
       <c r="AH178" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI178" s="1">
         <v>0</v>
@@ -45788,7 +45791,7 @@
         <v>0</v>
       </c>
       <c r="AH179" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI179" s="1">
         <v>0</v>
@@ -45950,7 +45953,7 @@
         <v>0</v>
       </c>
       <c r="AH180" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI180" s="1">
         <v>0</v>
@@ -46114,7 +46117,7 @@
         <v>0</v>
       </c>
       <c r="AH181" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI181" s="1">
         <v>0</v>
@@ -46276,7 +46279,7 @@
         <v>0</v>
       </c>
       <c r="AH182" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI182" s="1">
         <v>0</v>
@@ -46438,7 +46441,7 @@
         <v>0</v>
       </c>
       <c r="AH183" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI183" s="1">
         <v>0</v>
@@ -46604,7 +46607,7 @@
         <v>0</v>
       </c>
       <c r="AH184" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI184" s="1">
         <v>0</v>
@@ -46764,7 +46767,7 @@
         <v>0</v>
       </c>
       <c r="AH185" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI185" s="1">
         <v>0</v>
@@ -46926,7 +46929,7 @@
         <v>0</v>
       </c>
       <c r="AH186" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI186" s="1">
         <v>0</v>
@@ -47084,7 +47087,7 @@
         <v>0</v>
       </c>
       <c r="AH187" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI187" s="1">
         <v>0</v>
@@ -47244,7 +47247,7 @@
         <v>0</v>
       </c>
       <c r="AH188" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI188" s="1">
         <v>0</v>
@@ -47408,7 +47411,7 @@
         <v>0</v>
       </c>
       <c r="AH189" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI189" s="1">
         <v>0</v>
@@ -47568,7 +47571,7 @@
         <v>0</v>
       </c>
       <c r="AH190" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI190" s="1">
         <v>0</v>
@@ -47716,7 +47719,7 @@
         <v>0</v>
       </c>
       <c r="AH191" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI191" s="1">
         <v>0</v>
@@ -47878,7 +47881,7 @@
         <v>0</v>
       </c>
       <c r="AH192" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI192" s="1">
         <v>0</v>
@@ -48026,7 +48029,7 @@
         <v>0</v>
       </c>
       <c r="AH193" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI193" s="1">
         <v>0</v>
@@ -48184,7 +48187,7 @@
         <v>0</v>
       </c>
       <c r="AH194" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI194" s="1">
         <v>0</v>
@@ -48336,7 +48339,7 @@
         <v>0</v>
       </c>
       <c r="AH195" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI195" s="1">
         <v>0</v>
@@ -48500,7 +48503,7 @@
         <v>0</v>
       </c>
       <c r="AH196" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI196" s="1">
         <v>0</v>
@@ -48652,7 +48655,7 @@
         <v>0</v>
       </c>
       <c r="AH197" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI197" s="1">
         <v>0</v>
@@ -48800,7 +48803,7 @@
         <v>0</v>
       </c>
       <c r="AH198" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI198" s="1">
         <v>0</v>
@@ -48948,7 +48951,7 @@
         <v>0</v>
       </c>
       <c r="AH199" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI199" s="1">
         <v>0</v>
@@ -49108,7 +49111,7 @@
         <v>0</v>
       </c>
       <c r="AH200" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI200" s="1">
         <v>0</v>
@@ -49260,7 +49263,7 @@
         <v>0</v>
       </c>
       <c r="AH201" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI201" s="1">
         <v>0</v>
@@ -49418,7 +49421,7 @@
         <v>0</v>
       </c>
       <c r="AH202" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI202" s="1">
         <v>0</v>
@@ -49570,7 +49573,7 @@
         <v>0</v>
       </c>
       <c r="AH203" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI203" s="1">
         <v>0</v>
@@ -49734,7 +49737,7 @@
         <v>0</v>
       </c>
       <c r="AH204" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI204" s="1">
         <v>0</v>
@@ -49882,7 +49885,7 @@
         <v>0</v>
       </c>
       <c r="AH205" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI205" s="1">
         <v>0</v>
@@ -50042,7 +50045,7 @@
         <v>0</v>
       </c>
       <c r="AH206" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI206" s="1">
         <v>0</v>
@@ -50190,7 +50193,7 @@
         <v>0</v>
       </c>
       <c r="AH207" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI207" s="1">
         <v>0</v>
@@ -50338,7 +50341,7 @@
         <v>0</v>
       </c>
       <c r="AH208" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI208" s="1">
         <v>0</v>
@@ -50498,7 +50501,7 @@
         <v>0</v>
       </c>
       <c r="AH209" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI209" s="1">
         <v>0</v>
@@ -50662,7 +50665,7 @@
         <v>0</v>
       </c>
       <c r="AH210" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI210" s="1">
         <v>0</v>
@@ -50810,7 +50813,7 @@
         <v>0</v>
       </c>
       <c r="AH211" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI211" s="1">
         <v>0</v>
@@ -50962,7 +50965,7 @@
         <v>0</v>
       </c>
       <c r="AH212" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI212" s="1">
         <v>0</v>
@@ -51114,7 +51117,7 @@
         <v>0</v>
       </c>
       <c r="AH213" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI213" s="1">
         <v>0</v>
@@ -51266,7 +51269,7 @@
         <v>0</v>
       </c>
       <c r="AH214" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI214" s="1">
         <v>0</v>
@@ -51414,7 +51417,7 @@
         <v>0</v>
       </c>
       <c r="AH215" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI215" s="1">
         <v>0</v>
@@ -51566,7 +51569,7 @@
         <v>0</v>
       </c>
       <c r="AH216" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI216" s="1">
         <v>0</v>
@@ -51714,7 +51717,7 @@
         <v>0</v>
       </c>
       <c r="AH217" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI217" s="1">
         <v>0</v>
@@ -51874,7 +51877,7 @@
         <v>0</v>
       </c>
       <c r="AH218" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI218" s="1">
         <v>0</v>
@@ -52022,7 +52025,7 @@
         <v>0</v>
       </c>
       <c r="AH219" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI219" s="1">
         <v>0</v>
@@ -52174,7 +52177,7 @@
         <v>0</v>
       </c>
       <c r="AH220" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI220" s="1">
         <v>0</v>
@@ -52334,7 +52337,7 @@
         <v>0</v>
       </c>
       <c r="AH221" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI221" s="1">
         <v>0</v>
@@ -52490,7 +52493,7 @@
         <v>0</v>
       </c>
       <c r="AH222" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI222" s="1">
         <v>0</v>
@@ -52650,7 +52653,7 @@
         <v>0</v>
       </c>
       <c r="AH223" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI223" s="1">
         <v>0</v>
@@ -52808,7 +52811,7 @@
         <v>0</v>
       </c>
       <c r="AH224" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI224" s="1">
         <v>0</v>
@@ -52962,7 +52965,7 @@
         <v>0</v>
       </c>
       <c r="AH225" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI225" s="1">
         <v>0</v>
@@ -53122,7 +53125,7 @@
         <v>0</v>
       </c>
       <c r="AH226" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI226" s="1">
         <v>0</v>
@@ -53288,7 +53291,7 @@
         <v>0</v>
       </c>
       <c r="AH227" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI227" s="1">
         <v>0</v>
@@ -53450,7 +53453,7 @@
         <v>0</v>
       </c>
       <c r="AH228" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI228" s="1">
         <v>0</v>
@@ -53610,7 +53613,7 @@
         <v>0</v>
       </c>
       <c r="AH229" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI229" s="1">
         <v>0</v>
@@ -53770,7 +53773,7 @@
         <v>0</v>
       </c>
       <c r="AH230" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI230" s="1">
         <v>0</v>
@@ -53932,7 +53935,7 @@
         <v>0</v>
       </c>
       <c r="AH231" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI231" s="1">
         <v>0</v>
@@ -54090,7 +54093,7 @@
         <v>0</v>
       </c>
       <c r="AH232" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI232" s="1">
         <v>0</v>
@@ -54252,7 +54255,7 @@
         <v>0</v>
       </c>
       <c r="AH233" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI233" s="1">
         <v>0</v>
@@ -54412,7 +54415,7 @@
         <v>0</v>
       </c>
       <c r="AH234" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI234" s="1">
         <v>0</v>
@@ -54572,7 +54575,7 @@
         <v>0</v>
       </c>
       <c r="AH235" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI235" s="1">
         <v>0</v>
@@ -54732,7 +54735,7 @@
         <v>0</v>
       </c>
       <c r="AH236" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI236" s="1">
         <v>0</v>
@@ -54892,7 +54895,7 @@
         <v>0</v>
       </c>
       <c r="AH237" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI237" s="1">
         <v>0</v>
@@ -55052,7 +55055,7 @@
         <v>0</v>
       </c>
       <c r="AH238" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI238" s="1">
         <v>0</v>
@@ -55212,7 +55215,7 @@
         <v>0</v>
       </c>
       <c r="AH239" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI239" s="1">
         <v>0</v>
@@ -55372,7 +55375,7 @@
         <v>0</v>
       </c>
       <c r="AH240" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI240" s="1">
         <v>0</v>
@@ -55532,7 +55535,7 @@
         <v>0</v>
       </c>
       <c r="AH241" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI241" s="1">
         <v>0</v>
@@ -55692,7 +55695,7 @@
         <v>0</v>
       </c>
       <c r="AH242" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI242" s="1">
         <v>0</v>
@@ -55852,7 +55855,7 @@
         <v>0</v>
       </c>
       <c r="AH243" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI243" s="1">
         <v>0</v>
@@ -56004,7 +56007,7 @@
         <v>0</v>
       </c>
       <c r="AH244" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI244" s="1">
         <v>0</v>
@@ -56156,7 +56159,7 @@
         <v>0</v>
       </c>
       <c r="AH245" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI245" s="1">
         <v>0</v>
@@ -56308,7 +56311,7 @@
         <v>0</v>
       </c>
       <c r="AH246" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI246" s="1">
         <v>0</v>
@@ -56460,7 +56463,7 @@
         <v>0</v>
       </c>
       <c r="AH247" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI247" s="1">
         <v>0</v>
@@ -56612,7 +56615,7 @@
         <v>0</v>
       </c>
       <c r="AH248" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI248" s="1">
         <v>0</v>
@@ -56764,7 +56767,7 @@
         <v>0</v>
       </c>
       <c r="AH249" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI249" s="1">
         <v>0</v>
@@ -56916,7 +56919,7 @@
         <v>0</v>
       </c>
       <c r="AH250" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI250" s="1">
         <v>0</v>
@@ -57068,7 +57071,7 @@
         <v>0</v>
       </c>
       <c r="AH251" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI251" s="1">
         <v>0</v>
@@ -57220,7 +57223,7 @@
         <v>0</v>
       </c>
       <c r="AH252" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI252" s="1">
         <v>0</v>
@@ -57372,7 +57375,7 @@
         <v>0</v>
       </c>
       <c r="AH253" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI253" s="1">
         <v>0</v>
@@ -57534,7 +57537,7 @@
         <v>0</v>
       </c>
       <c r="AH254" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI254" s="1">
         <v>0</v>
@@ -57696,7 +57699,7 @@
         <v>0</v>
       </c>
       <c r="AH255" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI255" s="1">
         <v>0</v>
@@ -57858,7 +57861,7 @@
         <v>0</v>
       </c>
       <c r="AH256" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI256" s="1">
         <v>0</v>
@@ -58020,7 +58023,7 @@
         <v>0</v>
       </c>
       <c r="AH257" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI257" s="1">
         <v>0</v>
@@ -58182,7 +58185,7 @@
         <v>0</v>
       </c>
       <c r="AH258" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI258" s="1">
         <v>0</v>
@@ -58344,7 +58347,7 @@
         <v>0</v>
       </c>
       <c r="AH259" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI259" s="1">
         <v>0</v>
@@ -58502,7 +58505,7 @@
         <v>0</v>
       </c>
       <c r="AH260" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI260" s="1">
         <v>0</v>
@@ -58660,7 +58663,7 @@
         <v>0</v>
       </c>
       <c r="AH261" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI261" s="1">
         <v>0</v>
@@ -58818,7 +58821,7 @@
         <v>0</v>
       </c>
       <c r="AH262" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI262" s="1">
         <v>0</v>
@@ -58980,7 +58983,7 @@
         <v>0</v>
       </c>
       <c r="AH263" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI263" s="1">
         <v>0</v>
@@ -59138,7 +59141,7 @@
         <v>0</v>
       </c>
       <c r="AH264" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI264" s="1">
         <v>0</v>
@@ -59296,7 +59299,7 @@
         <v>0</v>
       </c>
       <c r="AH265" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI265" s="1">
         <v>0</v>
@@ -59454,7 +59457,7 @@
         <v>0</v>
       </c>
       <c r="AH266" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI266" s="1">
         <v>0</v>
@@ -59616,7 +59619,7 @@
         <v>0</v>
       </c>
       <c r="AH267" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI267" s="1">
         <v>0</v>
@@ -59778,7 +59781,7 @@
         <v>0</v>
       </c>
       <c r="AH268" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI268" s="1">
         <v>0</v>
@@ -59940,7 +59943,7 @@
         <v>0</v>
       </c>
       <c r="AH269" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI269" s="1">
         <v>0</v>
@@ -60102,7 +60105,7 @@
         <v>0</v>
       </c>
       <c r="AH270" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI270" s="1">
         <v>0</v>
@@ -60264,7 +60267,7 @@
         <v>0</v>
       </c>
       <c r="AH271" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI271" s="1">
         <v>0</v>
@@ -60426,7 +60429,7 @@
         <v>0</v>
       </c>
       <c r="AH272" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI272" s="1">
         <v>0</v>
@@ -60588,7 +60591,7 @@
         <v>0</v>
       </c>
       <c r="AH273" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI273" s="1">
         <v>0</v>
@@ -60736,7 +60739,7 @@
         <v>0</v>
       </c>
       <c r="AH274" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI274" s="1">
         <v>0</v>
@@ -60884,7 +60887,7 @@
         <v>0</v>
       </c>
       <c r="AH275" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI275" s="1">
         <v>0</v>
@@ -61032,7 +61035,7 @@
         <v>0</v>
       </c>
       <c r="AH276" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI276" s="1">
         <v>0</v>
@@ -61192,7 +61195,7 @@
         <v>0</v>
       </c>
       <c r="AH277" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI277" s="1">
         <v>0</v>
@@ -61352,7 +61355,7 @@
         <v>0</v>
       </c>
       <c r="AH278" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI278" s="1">
         <v>0</v>
@@ -61508,7 +61511,7 @@
         <v>0</v>
       </c>
       <c r="AH279" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI279" s="1">
         <v>0</v>
@@ -61666,7 +61669,7 @@
         <v>0</v>
       </c>
       <c r="AH280" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI280" s="1">
         <v>0</v>
@@ -61826,7 +61829,7 @@
         <v>0</v>
       </c>
       <c r="AH281" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI281" s="1">
         <v>0</v>
@@ -61974,7 +61977,7 @@
         <v>0</v>
       </c>
       <c r="AH282" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI282" s="1">
         <v>0</v>
@@ -62122,7 +62125,7 @@
         <v>0</v>
       </c>
       <c r="AH283" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI283" s="1">
         <v>0</v>
@@ -62270,7 +62273,7 @@
         <v>0</v>
       </c>
       <c r="AH284" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI284" s="1">
         <v>0</v>
@@ -62418,7 +62421,7 @@
         <v>0</v>
       </c>
       <c r="AH285" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI285" s="1">
         <v>0</v>
@@ -62566,7 +62569,7 @@
         <v>0</v>
       </c>
       <c r="AH286" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI286" s="1">
         <v>0</v>
@@ -62720,7 +62723,7 @@
         <v>0</v>
       </c>
       <c r="AH287" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI287" s="1">
         <v>0</v>
@@ -62866,7 +62869,7 @@
         <v>0</v>
       </c>
       <c r="AH288" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI288" s="1">
         <v>0</v>
@@ -63012,7 +63015,7 @@
         <v>0</v>
       </c>
       <c r="AH289" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI289" s="1">
         <v>0</v>
@@ -63158,7 +63161,7 @@
         <v>0</v>
       </c>
       <c r="AH290" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI290" s="1">
         <v>0</v>
@@ -63304,7 +63307,7 @@
         <v>0</v>
       </c>
       <c r="AH291" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI291" s="1">
         <v>0</v>
@@ -63450,7 +63453,7 @@
         <v>0</v>
       </c>
       <c r="AH292" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI292" s="1">
         <v>0</v>
@@ -63598,7 +63601,7 @@
         <v>0</v>
       </c>
       <c r="AH293" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI293" s="1">
         <v>0</v>
@@ -63756,7 +63759,7 @@
         <v>0</v>
       </c>
       <c r="AH294" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI294" s="1">
         <v>0</v>
@@ -63918,7 +63921,7 @@
         <v>0</v>
       </c>
       <c r="AH295" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI295" s="1">
         <v>0</v>
@@ -64080,7 +64083,7 @@
         <v>0</v>
       </c>
       <c r="AH296" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI296" s="1">
         <v>0</v>
@@ -64242,7 +64245,7 @@
         <v>0</v>
       </c>
       <c r="AH297" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI297" s="1">
         <v>0</v>
@@ -64402,7 +64405,7 @@
         <v>0</v>
       </c>
       <c r="AH298" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI298" s="1">
         <v>0</v>
@@ -64550,7 +64553,7 @@
         <v>0</v>
       </c>
       <c r="AH299" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI299" s="1">
         <v>0</v>
@@ -64698,7 +64701,7 @@
         <v>0</v>
       </c>
       <c r="AH300" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI300" s="1">
         <v>0</v>
@@ -64856,7 +64859,7 @@
         <v>0</v>
       </c>
       <c r="AH301" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI301" s="1">
         <v>0</v>
@@ -65012,7 +65015,7 @@
         <v>0</v>
       </c>
       <c r="AH302" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI302" s="1">
         <v>0</v>
@@ -65172,7 +65175,7 @@
         <v>0</v>
       </c>
       <c r="AH303" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI303" s="1">
         <v>0</v>
@@ -65326,7 +65329,7 @@
         <v>0</v>
       </c>
       <c r="AH304" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI304" s="1">
         <v>0</v>
@@ -65486,7 +65489,7 @@
         <v>0</v>
       </c>
       <c r="AH305" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI305" s="1">
         <v>0</v>
@@ -65642,7 +65645,7 @@
         <v>0</v>
       </c>
       <c r="AH306" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI306" s="1">
         <v>0</v>
@@ -65737,7 +65740,7 @@
   <dimension ref="A1:CH10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK$1:AK$1048576"/>
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -67034,10 +67037,10 @@
         <v>118</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>120</v>
+        <v>3463</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>121</v>
@@ -67070,16 +67073,16 @@
         <v>88</v>
       </c>
       <c r="Y2" s="18" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="Z2" s="18" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
       <c r="AA2" s="18" t="s">
         <v>135</v>
       </c>
       <c r="AB2" s="14" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="AC2" s="22" t="s">
         <v>91</v>
@@ -67094,10 +67097,10 @@
         <v>98</v>
       </c>
       <c r="AG2" s="25" t="s">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="AH2" s="25" t="s">
-        <v>3468</v>
+        <v>3469</v>
       </c>
       <c r="AI2" s="15" t="s">
         <v>108</v>
@@ -67163,7 +67166,7 @@
         <v>134</v>
       </c>
       <c r="BD2" s="18" t="s">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="BE2" s="18" t="s">
         <v>136</v>
@@ -67175,7 +67178,7 @@
         <v>97</v>
       </c>
       <c r="BH2" s="18" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="BI2" s="18" t="s">
         <v>137</v>
@@ -67183,16 +67186,16 @@
     </row>
     <row r="3" ht="15.5" spans="1:61">
       <c r="A3" s="16" t="s">
-        <v>3471</v>
+        <v>3472</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="E3" s="16">
         <v>0</v>
@@ -67244,7 +67247,7 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
       <c r="X3" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y3" s="18">
         <v>0</v>
@@ -67257,7 +67260,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="AD3" s="16">
         <v>1.1</v>
@@ -67266,10 +67269,10 @@
         <v>3126</v>
       </c>
       <c r="AF3" s="16" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG3" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH3" s="16">
         <v>125</v>
@@ -67326,16 +67329,16 @@
     </row>
     <row r="4" ht="15.5" spans="1:61">
       <c r="A4" s="16" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="E4" s="16">
         <v>2</v>
@@ -67387,7 +67390,7 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
       <c r="X4" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y4" s="18">
         <v>0</v>
@@ -67400,7 +67403,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="16" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="AD4" s="16">
         <v>1.1</v>
@@ -67409,10 +67412,10 @@
         <v>3126</v>
       </c>
       <c r="AF4" s="16" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG4" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH4" s="16">
         <v>125</v>
@@ -67473,16 +67476,16 @@
     </row>
     <row r="5" ht="15.5" spans="1:61">
       <c r="A5" s="16" t="s">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="E5" s="16">
         <v>3</v>
@@ -67534,7 +67537,7 @@
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
       <c r="X5" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y5" s="18">
         <v>0</v>
@@ -67547,7 +67550,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="16" t="s">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="AD5" s="16">
         <v>1</v>
@@ -67556,10 +67559,10 @@
         <v>3126</v>
       </c>
       <c r="AF5" s="16" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH5" s="16">
         <v>125</v>
@@ -67616,16 +67619,16 @@
     </row>
     <row r="6" ht="15.5" spans="1:61">
       <c r="A6" s="16" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="E6" s="16">
         <v>3</v>
@@ -67677,7 +67680,7 @@
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
       <c r="X6" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y6" s="18">
         <v>0</v>
@@ -67690,7 +67693,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="16" t="s">
-        <v>3485</v>
+        <v>3486</v>
       </c>
       <c r="AD6" s="19">
         <v>1</v>
@@ -67699,10 +67702,10 @@
         <v>3126</v>
       </c>
       <c r="AF6" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG6" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH6" s="16">
         <v>125</v>
@@ -67759,16 +67762,16 @@
     </row>
     <row r="7" ht="15.5" spans="1:61">
       <c r="A7" s="16" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E7" s="16">
         <v>4</v>
@@ -67816,13 +67819,13 @@
         <v>4</v>
       </c>
       <c r="T7" s="18" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y7" s="18">
         <v>1</v>
@@ -67835,7 +67838,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="16" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="AD7" s="19">
         <v>2</v>
@@ -67844,10 +67847,10 @@
         <v>3126</v>
       </c>
       <c r="AF7" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG7" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH7" s="16">
         <v>350</v>
@@ -67904,16 +67907,16 @@
     </row>
     <row r="8" ht="15.5" spans="1:61">
       <c r="A8" s="16" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="E8" s="16">
         <v>3</v>
@@ -67965,7 +67968,7 @@
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y8" s="18">
         <v>0</v>
@@ -67978,7 +67981,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="19" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="AD8" s="19">
         <v>1</v>
@@ -67987,10 +67990,10 @@
         <v>3126</v>
       </c>
       <c r="AF8" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG8" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH8" s="16">
         <v>125</v>
@@ -68047,16 +68050,16 @@
     </row>
     <row r="9" ht="15.5" spans="1:61">
       <c r="A9" s="16" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="E9" s="16">
         <v>4</v>
@@ -68108,7 +68111,7 @@
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
       <c r="X9" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y9" s="18">
         <v>0</v>
@@ -68121,7 +68124,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="16" t="s">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="AD9" s="17">
         <v>1</v>
@@ -68130,10 +68133,10 @@
         <v>3126</v>
       </c>
       <c r="AF9" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG9" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH9" s="16">
         <v>125</v>
@@ -68194,16 +68197,16 @@
     </row>
     <row r="10" ht="15.5" spans="1:61">
       <c r="A10" s="16" t="s">
-        <v>3495</v>
+        <v>3496</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="E10" s="16">
         <v>4</v>
@@ -68255,7 +68258,7 @@
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
       <c r="X10" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y10" s="18">
         <v>0</v>
@@ -68268,7 +68271,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="16" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="AD10" s="17">
         <v>1</v>
@@ -68277,10 +68280,10 @@
         <v>3126</v>
       </c>
       <c r="AF10" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG10" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH10" s="16">
         <v>125</v>
@@ -68337,16 +68340,16 @@
     </row>
     <row r="11" ht="15.5" spans="1:61">
       <c r="A11" s="16" t="s">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="E11" s="16">
         <v>5</v>
@@ -68394,13 +68397,13 @@
         <v>4</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y11" s="18">
         <v>0</v>
@@ -68413,7 +68416,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="16" t="s">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="AD11" s="17">
         <v>1</v>
@@ -68422,10 +68425,10 @@
         <v>3126</v>
       </c>
       <c r="AF11" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG11" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH11" s="16">
         <v>125</v>
@@ -68482,16 +68485,16 @@
     </row>
     <row r="12" ht="15.5" spans="1:61">
       <c r="A12" s="16" t="s">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="E12" s="16">
         <v>3</v>
@@ -68539,13 +68542,13 @@
         <v>4</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
       <c r="X12" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y12" s="18">
         <v>0</v>
@@ -68558,7 +68561,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="16" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="AD12" s="17">
         <v>2</v>
@@ -68567,10 +68570,10 @@
         <v>3126</v>
       </c>
       <c r="AF12" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG12" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH12" s="16">
         <v>350</v>
@@ -68627,16 +68630,16 @@
     </row>
     <row r="13" ht="15.5" spans="1:61">
       <c r="A13" s="16" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="E13" s="16">
         <v>4</v>
@@ -68688,7 +68691,7 @@
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
       <c r="X13" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y13" s="18">
         <v>0</v>
@@ -68701,7 +68704,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="16" t="s">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="AD13" s="17">
         <v>1.3</v>
@@ -68710,10 +68713,10 @@
         <v>3126</v>
       </c>
       <c r="AF13" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG13" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH13" s="16">
         <v>125</v>
@@ -68731,7 +68734,7 @@
         <v>164</v>
       </c>
       <c r="AM13" s="19" t="s">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="AN13" s="19">
         <v>900</v>
@@ -68774,16 +68777,16 @@
     </row>
     <row r="14" ht="15.5" spans="1:61">
       <c r="A14" s="16" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="E14" s="16">
         <v>4</v>
@@ -68835,7 +68838,7 @@
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
       <c r="X14" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y14" s="18">
         <v>0</v>
@@ -68848,7 +68851,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="16" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="AD14" s="17">
         <v>1</v>
@@ -68857,10 +68860,10 @@
         <v>3126</v>
       </c>
       <c r="AF14" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG14" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH14" s="16">
         <v>125</v>
@@ -68917,16 +68920,16 @@
     </row>
     <row r="15" ht="15.5" spans="1:61">
       <c r="A15" s="16" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="E15" s="16">
         <v>5</v>
@@ -68978,7 +68981,7 @@
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
       <c r="X15" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y15" s="18">
         <v>1</v>
@@ -68991,7 +68994,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="16" t="s">
-        <v>3515</v>
+        <v>3516</v>
       </c>
       <c r="AD15" s="17">
         <v>1</v>
@@ -69000,10 +69003,10 @@
         <v>3126</v>
       </c>
       <c r="AF15" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG15" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH15" s="16">
         <v>125</v>
@@ -69060,16 +69063,16 @@
     </row>
     <row r="16" ht="15.5" spans="1:61">
       <c r="A16" s="16" t="s">
-        <v>3516</v>
+        <v>3517</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="E16" s="16">
         <v>6</v>
@@ -69117,13 +69120,13 @@
         <v>4</v>
       </c>
       <c r="T16" s="18" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="U16" s="19"/>
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
       <c r="X16" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y16" s="18">
         <v>0</v>
@@ -69136,7 +69139,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="16" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="AD16" s="19">
         <v>1</v>
@@ -69145,10 +69148,10 @@
         <v>3126</v>
       </c>
       <c r="AF16" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG16" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH16" s="16">
         <v>125</v>
@@ -69209,16 +69212,16 @@
     </row>
     <row r="17" ht="15.5" spans="1:61">
       <c r="A17" s="16" t="s">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="E17" s="16">
         <v>5</v>
@@ -69266,13 +69269,13 @@
         <v>4</v>
       </c>
       <c r="T17" s="18" t="s">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
       <c r="X17" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y17" s="18">
         <v>0</v>
@@ -69285,7 +69288,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="16" t="s">
-        <v>3523</v>
+        <v>3524</v>
       </c>
       <c r="AD17" s="17">
         <v>2</v>
@@ -69294,10 +69297,10 @@
         <v>3126</v>
       </c>
       <c r="AF17" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG17" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH17" s="16">
         <v>350</v>
@@ -69354,16 +69357,16 @@
     </row>
     <row r="18" ht="15.5" spans="1:61">
       <c r="A18" s="16" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="E18" s="16">
         <v>4</v>
@@ -69415,7 +69418,7 @@
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y18" s="18">
         <v>0</v>
@@ -69428,7 +69431,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="16" t="s">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="AD18" s="17">
         <v>1.1</v>
@@ -69437,10 +69440,10 @@
         <v>3126</v>
       </c>
       <c r="AF18" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG18" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH18" s="16">
         <v>125</v>
@@ -69497,16 +69500,16 @@
     </row>
     <row r="19" ht="15.5" spans="1:61">
       <c r="A19" s="16" t="s">
-        <v>3527</v>
+        <v>3528</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>3528</v>
+        <v>3529</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>3528</v>
+        <v>3529</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>3528</v>
+        <v>3529</v>
       </c>
       <c r="E19" s="16">
         <v>5</v>
@@ -69558,7 +69561,7 @@
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
       <c r="X19" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y19" s="18">
         <v>0</v>
@@ -69571,7 +69574,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="16" t="s">
-        <v>3529</v>
+        <v>3530</v>
       </c>
       <c r="AD19" s="19">
         <v>1.1</v>
@@ -69580,10 +69583,10 @@
         <v>3126</v>
       </c>
       <c r="AF19" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG19" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH19" s="16">
         <v>125</v>
@@ -69640,16 +69643,16 @@
     </row>
     <row r="20" ht="15.5" spans="1:61">
       <c r="A20" s="16" t="s">
-        <v>3530</v>
+        <v>3531</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="E20" s="16">
         <v>5</v>
@@ -69701,7 +69704,7 @@
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
       <c r="X20" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y20" s="18">
         <v>0</v>
@@ -69714,7 +69717,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="16" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="AD20" s="19">
         <v>2</v>
@@ -69723,10 +69726,10 @@
         <v>3126</v>
       </c>
       <c r="AF20" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG20" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH20" s="16">
         <v>125</v>
@@ -69787,16 +69790,16 @@
     </row>
     <row r="21" ht="15.5" spans="1:61">
       <c r="A21" s="16" t="s">
-        <v>3533</v>
+        <v>3534</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="E21" s="16">
         <v>6</v>
@@ -69844,13 +69847,13 @@
         <v>4</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>3535</v>
+        <v>3536</v>
       </c>
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
       <c r="X21" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y21" s="18">
         <v>0</v>
@@ -69863,7 +69866,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="16" t="s">
-        <v>3536</v>
+        <v>3537</v>
       </c>
       <c r="AD21" s="19">
         <v>1</v>
@@ -69872,10 +69875,10 @@
         <v>3126</v>
       </c>
       <c r="AF21" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG21" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH21" s="16">
         <v>125</v>
@@ -69932,16 +69935,16 @@
     </row>
     <row r="22" ht="15.5" spans="1:61">
       <c r="A22" s="16" t="s">
-        <v>3537</v>
+        <v>3538</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="E22" s="16">
         <v>6</v>
@@ -69989,13 +69992,13 @@
         <v>4</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="U22" s="20"/>
       <c r="V22" s="19"/>
       <c r="W22" s="19"/>
       <c r="X22" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y22" s="18">
         <v>0</v>
@@ -70008,7 +70011,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="16" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="AD22" s="19">
         <v>2</v>
@@ -70017,10 +70020,10 @@
         <v>3126</v>
       </c>
       <c r="AF22" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG22" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH22" s="16">
         <v>350</v>
@@ -70077,16 +70080,16 @@
     </row>
     <row r="23" ht="15.5" spans="1:61">
       <c r="A23" s="16" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
       <c r="E23" s="16">
         <v>7</v>
@@ -70138,7 +70141,7 @@
       <c r="V23" s="19"/>
       <c r="W23" s="19"/>
       <c r="X23" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y23" s="18">
         <v>1</v>
@@ -70151,7 +70154,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>3543</v>
+        <v>3544</v>
       </c>
       <c r="AD23" s="19">
         <v>0.5</v>
@@ -70160,10 +70163,10 @@
         <v>3126</v>
       </c>
       <c r="AF23" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH23" s="16">
         <v>125</v>
@@ -70220,16 +70223,16 @@
     </row>
     <row r="24" ht="15.5" spans="1:61">
       <c r="A24" s="16" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="E24" s="16">
         <v>8</v>
@@ -70281,7 +70284,7 @@
       <c r="V24" s="19"/>
       <c r="W24" s="19"/>
       <c r="X24" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y24" s="18">
         <v>0</v>
@@ -70294,7 +70297,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="AD24" s="19">
         <v>0.7</v>
@@ -70303,10 +70306,10 @@
         <v>3126</v>
       </c>
       <c r="AF24" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH24" s="16">
         <v>125</v>
@@ -70363,16 +70366,16 @@
     </row>
     <row r="25" ht="15.5" spans="1:61">
       <c r="A25" s="16" t="s">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="E25" s="16">
         <v>9</v>
@@ -70424,7 +70427,7 @@
       <c r="V25" s="19"/>
       <c r="W25" s="19"/>
       <c r="X25" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y25" s="18">
         <v>0</v>
@@ -70437,7 +70440,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="16" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="AD25" s="19">
         <v>1.5</v>
@@ -70446,10 +70449,10 @@
         <v>3126</v>
       </c>
       <c r="AF25" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG25" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH25" s="16">
         <v>125</v>
@@ -70506,16 +70509,16 @@
     </row>
     <row r="26" ht="15.5" spans="1:61">
       <c r="A26" s="16" t="s">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="E26" s="16">
         <v>10</v>
@@ -70563,13 +70566,13 @@
         <v>4</v>
       </c>
       <c r="T26" s="18" t="s">
-        <v>3552</v>
+        <v>3553</v>
       </c>
       <c r="U26" s="19"/>
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>
       <c r="X26" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y26" s="18">
         <v>0</v>
@@ -70582,7 +70585,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="16" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
       <c r="AD26" s="19">
         <v>1.5</v>
@@ -70591,10 +70594,10 @@
         <v>3126</v>
       </c>
       <c r="AF26" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG26" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH26" s="16">
         <v>350</v>
@@ -70651,16 +70654,16 @@
     </row>
     <row r="27" ht="15.5" spans="1:61">
       <c r="A27" s="16" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="E27" s="16">
         <v>12</v>
@@ -70708,13 +70711,13 @@
         <v>4</v>
       </c>
       <c r="T27" s="18" t="s">
-        <v>3556</v>
+        <v>3557</v>
       </c>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
       <c r="W27" s="19"/>
       <c r="X27" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y27" s="18">
         <v>0</v>
@@ -70727,7 +70730,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="16" t="s">
-        <v>3557</v>
+        <v>3558</v>
       </c>
       <c r="AD27" s="19">
         <v>2</v>
@@ -70736,10 +70739,10 @@
         <v>3126</v>
       </c>
       <c r="AF27" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG27" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH27" s="16">
         <v>350</v>
@@ -70796,16 +70799,16 @@
     </row>
     <row r="28" ht="15.5" spans="1:61">
       <c r="A28" s="16" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="E28" s="16">
         <v>12</v>
@@ -70857,7 +70860,7 @@
       <c r="V28" s="19"/>
       <c r="W28" s="19"/>
       <c r="X28" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y28" s="18">
         <v>0</v>
@@ -70870,7 +70873,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="16" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="AD28" s="19">
         <v>1.1</v>
@@ -70879,10 +70882,10 @@
         <v>3126</v>
       </c>
       <c r="AF28" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG28" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH28" s="16">
         <v>350</v>
@@ -70939,16 +70942,16 @@
     </row>
     <row r="29" ht="15.5" spans="1:61">
       <c r="A29" s="16" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="E29" s="16">
         <v>13</v>
@@ -71000,7 +71003,7 @@
       <c r="V29" s="19"/>
       <c r="W29" s="19"/>
       <c r="X29" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y29" s="18">
         <v>0</v>
@@ -71013,7 +71016,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="16" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="AD29" s="19">
         <v>1</v>
@@ -71022,10 +71025,10 @@
         <v>3126</v>
       </c>
       <c r="AF29" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG29" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH29" s="16">
         <v>125</v>
@@ -71082,16 +71085,16 @@
     </row>
     <row r="30" ht="15.5" spans="1:61">
       <c r="A30" s="16" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="E30" s="16">
         <v>14</v>
@@ -71143,7 +71146,7 @@
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y30" s="18">
         <v>0</v>
@@ -71156,7 +71159,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="16" t="s">
-        <v>3566</v>
+        <v>3567</v>
       </c>
       <c r="AD30" s="19">
         <v>1.2</v>
@@ -71165,10 +71168,10 @@
         <v>3126</v>
       </c>
       <c r="AF30" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG30" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH30" s="16">
         <v>350</v>
@@ -71225,16 +71228,16 @@
     </row>
     <row r="31" ht="15.5" spans="1:61">
       <c r="A31" s="16" t="s">
-        <v>3567</v>
+        <v>3568</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="E31" s="16">
         <v>15</v>
@@ -71282,13 +71285,13 @@
         <v>4</v>
       </c>
       <c r="T31" s="18" t="s">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="U31" s="19"/>
       <c r="V31" s="19"/>
       <c r="W31" s="19"/>
       <c r="X31" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y31" s="18">
         <v>1</v>
@@ -71301,7 +71304,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="16" t="s">
-        <v>3570</v>
+        <v>3571</v>
       </c>
       <c r="AD31" s="19">
         <v>1</v>
@@ -71310,10 +71313,10 @@
         <v>3126</v>
       </c>
       <c r="AF31" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG31" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH31" s="16">
         <v>350</v>
@@ -71370,16 +71373,16 @@
     </row>
     <row r="32" ht="15.5" spans="1:61">
       <c r="A32" s="16" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="E32" s="16">
         <v>16</v>
@@ -71427,13 +71430,13 @@
         <v>4</v>
       </c>
       <c r="T32" s="18" t="s">
-        <v>3573</v>
+        <v>3574</v>
       </c>
       <c r="U32" s="19"/>
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
       <c r="X32" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y32" s="18">
         <v>0</v>
@@ -71446,7 +71449,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="16" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="AD32" s="19">
         <v>2</v>
@@ -71455,10 +71458,10 @@
         <v>3126</v>
       </c>
       <c r="AF32" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG32" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH32" s="16">
         <v>350</v>
@@ -71515,16 +71518,16 @@
     </row>
     <row r="33" ht="15.5" spans="1:61">
       <c r="A33" s="16" t="s">
-        <v>3575</v>
+        <v>3576</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="E33" s="16">
         <v>17</v>
@@ -71576,7 +71579,7 @@
       <c r="V33" s="19"/>
       <c r="W33" s="19"/>
       <c r="X33" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y33" s="18">
         <v>0</v>
@@ -71589,7 +71592,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="16" t="s">
-        <v>3577</v>
+        <v>3578</v>
       </c>
       <c r="AD33" s="19">
         <v>0.7</v>
@@ -71598,10 +71601,10 @@
         <v>3126</v>
       </c>
       <c r="AF33" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG33" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH33" s="16">
         <v>350</v>
@@ -71658,16 +71661,16 @@
     </row>
     <row r="34" ht="15.5" spans="1:61">
       <c r="A34" s="16" t="s">
-        <v>3578</v>
+        <v>3579</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="E34" s="16">
         <v>17</v>
@@ -71719,7 +71722,7 @@
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y34" s="18">
         <v>0</v>
@@ -71732,7 +71735,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="16" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="AD34" s="19">
         <v>1</v>
@@ -71741,10 +71744,10 @@
         <v>3126</v>
       </c>
       <c r="AF34" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG34" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH34" s="16">
         <v>125</v>
@@ -71801,16 +71804,16 @@
     </row>
     <row r="35" ht="15.5" spans="1:61">
       <c r="A35" s="16" t="s">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="E35" s="16">
         <v>18</v>
@@ -71858,13 +71861,13 @@
         <v>4</v>
       </c>
       <c r="T35" s="18" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="U35" s="19"/>
       <c r="V35" s="19"/>
       <c r="W35" s="19"/>
       <c r="X35" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y35" s="18">
         <v>0</v>
@@ -71877,7 +71880,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="16" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="AD35" s="19">
         <v>1</v>
@@ -71886,10 +71889,10 @@
         <v>3126</v>
       </c>
       <c r="AF35" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG35" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH35" s="16">
         <v>125</v>
@@ -71946,16 +71949,16 @@
     </row>
     <row r="36" ht="15.5" spans="1:61">
       <c r="A36" s="16" t="s">
-        <v>3585</v>
+        <v>3586</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="E36" s="16">
         <v>22</v>
@@ -72003,13 +72006,13 @@
         <v>4</v>
       </c>
       <c r="T36" s="18" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="U36" s="19"/>
       <c r="V36" s="19"/>
       <c r="W36" s="19"/>
       <c r="X36" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y36" s="18">
         <v>0</v>
@@ -72022,7 +72025,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="16" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="AD36" s="19">
         <v>1.3</v>
@@ -72031,10 +72034,10 @@
         <v>3126</v>
       </c>
       <c r="AF36" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG36" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH36" s="16">
         <v>125</v>
@@ -72091,7 +72094,7 @@
     </row>
     <row r="37" ht="15.5" spans="1:61">
       <c r="A37" s="16" t="s">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>1933</v>
@@ -72148,13 +72151,13 @@
         <v>4</v>
       </c>
       <c r="T37" s="18" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
       <c r="U37" s="19"/>
       <c r="V37" s="19"/>
       <c r="W37" s="19"/>
       <c r="X37" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y37" s="18">
         <v>0</v>
@@ -72167,7 +72170,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="16" t="s">
-        <v>3591</v>
+        <v>3592</v>
       </c>
       <c r="AD37" s="19">
         <v>2</v>
@@ -72176,10 +72179,10 @@
         <v>3126</v>
       </c>
       <c r="AF37" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG37" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH37" s="16">
         <v>350</v>
@@ -72236,16 +72239,16 @@
     </row>
     <row r="38" ht="15.5" spans="1:61">
       <c r="A38" s="16" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="E38" s="16">
         <v>23</v>
@@ -72297,7 +72300,7 @@
       <c r="V38" s="19"/>
       <c r="W38" s="19"/>
       <c r="X38" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y38" s="18">
         <v>0</v>
@@ -72310,7 +72313,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="16" t="s">
-        <v>3594</v>
+        <v>3595</v>
       </c>
       <c r="AD38" s="19">
         <v>2</v>
@@ -72319,10 +72322,10 @@
         <v>3126</v>
       </c>
       <c r="AF38" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG38" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH38" s="16">
         <v>125</v>
@@ -72379,16 +72382,16 @@
     </row>
     <row r="39" ht="15.5" spans="1:61">
       <c r="A39" s="16" t="s">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="E39" s="16">
         <v>24</v>
@@ -72436,13 +72439,13 @@
         <v>4</v>
       </c>
       <c r="T39" s="18" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="U39" s="19"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
       <c r="X39" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y39" s="18">
         <v>0</v>
@@ -72455,7 +72458,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="16" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="AD39" s="19">
         <v>1</v>
@@ -72464,10 +72467,10 @@
         <v>3126</v>
       </c>
       <c r="AF39" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG39" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH39" s="16">
         <v>125</v>
@@ -72524,16 +72527,16 @@
     </row>
     <row r="40" ht="15.5" spans="1:61">
       <c r="A40" s="16" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="E40" s="16">
         <v>25</v>
@@ -72585,7 +72588,7 @@
       <c r="V40" s="19"/>
       <c r="W40" s="19"/>
       <c r="X40" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y40" s="18">
         <v>0</v>
@@ -72598,7 +72601,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="16" t="s">
-        <v>3601</v>
+        <v>3602</v>
       </c>
       <c r="AD40" s="19">
         <v>0.7</v>
@@ -72607,10 +72610,10 @@
         <v>3126</v>
       </c>
       <c r="AF40" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG40" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH40" s="16">
         <v>125</v>
@@ -72667,16 +72670,16 @@
     </row>
     <row r="41" ht="15.5" spans="1:61">
       <c r="A41" s="16" t="s">
-        <v>3602</v>
+        <v>3603</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="E41" s="16">
         <v>30</v>
@@ -72724,13 +72727,13 @@
         <v>4</v>
       </c>
       <c r="T41" s="18" t="s">
-        <v>3604</v>
+        <v>3605</v>
       </c>
       <c r="U41" s="19"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
       <c r="X41" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y41" s="18">
         <v>0</v>
@@ -72743,7 +72746,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="16" t="s">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="AD41" s="19">
         <v>0.7</v>
@@ -72752,10 +72755,10 @@
         <v>3126</v>
       </c>
       <c r="AF41" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG41" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH41" s="16">
         <v>125</v>
@@ -72812,16 +72815,16 @@
     </row>
     <row r="42" ht="15.5" spans="1:61">
       <c r="A42" s="16" t="s">
-        <v>3606</v>
+        <v>3607</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
       <c r="E42" s="16">
         <v>32</v>
@@ -72869,13 +72872,13 @@
         <v>4</v>
       </c>
       <c r="T42" s="18" t="s">
-        <v>3608</v>
+        <v>3609</v>
       </c>
       <c r="U42" s="19"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
       <c r="X42" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y42" s="18">
         <v>0</v>
@@ -72897,10 +72900,10 @@
         <v>3126</v>
       </c>
       <c r="AF42" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG42" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH42" s="16">
         <v>350</v>
@@ -72957,16 +72960,16 @@
     </row>
     <row r="43" ht="15.5" spans="1:61">
       <c r="A43" s="16" t="s">
-        <v>3609</v>
+        <v>3610</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>3610</v>
+        <v>3611</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>3610</v>
+        <v>3611</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>3610</v>
+        <v>3611</v>
       </c>
       <c r="E43" s="16">
         <v>28</v>
@@ -73018,7 +73021,7 @@
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
       <c r="X43" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y43" s="18">
         <v>0</v>
@@ -73031,7 +73034,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="16" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="AD43" s="19">
         <v>1</v>
@@ -73040,10 +73043,10 @@
         <v>3126</v>
       </c>
       <c r="AF43" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG43" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH43" s="16">
         <v>350</v>
@@ -73100,16 +73103,16 @@
     </row>
     <row r="44" ht="15.5" spans="1:61">
       <c r="A44" s="16" t="s">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>3613</v>
+        <v>3614</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>3613</v>
+        <v>3614</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>3613</v>
+        <v>3614</v>
       </c>
       <c r="E44" s="16">
         <v>29</v>
@@ -73161,7 +73164,7 @@
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
       <c r="X44" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y44" s="18">
         <v>0</v>
@@ -73174,7 +73177,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="16" t="s">
-        <v>3614</v>
+        <v>3615</v>
       </c>
       <c r="AD44" s="19">
         <v>0.8</v>
@@ -73183,10 +73186,10 @@
         <v>3126</v>
       </c>
       <c r="AF44" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG44" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH44" s="16">
         <v>350</v>
@@ -73243,16 +73246,16 @@
     </row>
     <row r="45" ht="15.5" spans="1:61">
       <c r="A45" s="16" t="s">
-        <v>3615</v>
+        <v>3616</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>3616</v>
+        <v>3617</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>3616</v>
+        <v>3617</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>3616</v>
+        <v>3617</v>
       </c>
       <c r="E45" s="16">
         <v>27</v>
@@ -73300,13 +73303,13 @@
         <v>4</v>
       </c>
       <c r="T45" s="18" t="s">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="U45" s="19"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
       <c r="X45" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y45" s="18">
         <v>0</v>
@@ -73319,7 +73322,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="16" t="s">
-        <v>3618</v>
+        <v>3619</v>
       </c>
       <c r="AD45" s="19">
         <v>1</v>
@@ -73328,10 +73331,10 @@
         <v>3126</v>
       </c>
       <c r="AF45" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG45" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH45" s="16">
         <v>350</v>
@@ -73388,16 +73391,16 @@
     </row>
     <row r="46" ht="15.5" spans="1:61">
       <c r="A46" s="16" t="s">
-        <v>3619</v>
+        <v>3620</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="E46" s="16">
         <v>27</v>
@@ -73445,13 +73448,13 @@
         <v>4</v>
       </c>
       <c r="T46" s="18" t="s">
-        <v>3621</v>
+        <v>3622</v>
       </c>
       <c r="U46" s="19"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
       <c r="X46" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y46" s="18">
         <v>0</v>
@@ -73464,7 +73467,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="16" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="AD46" s="19">
         <v>2</v>
@@ -73473,10 +73476,10 @@
         <v>3126</v>
       </c>
       <c r="AF46" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG46" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH46" s="16">
         <v>350</v>
@@ -73533,16 +73536,16 @@
     </row>
     <row r="47" ht="15.5" spans="1:61">
       <c r="A47" s="16" t="s">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="E47" s="16">
         <v>32</v>
@@ -73594,7 +73597,7 @@
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
       <c r="X47" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y47" s="18">
         <v>0</v>
@@ -73607,7 +73610,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="16" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="AD47" s="19">
         <v>1.2</v>
@@ -73616,10 +73619,10 @@
         <v>3126</v>
       </c>
       <c r="AF47" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG47" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH47" s="16">
         <v>350</v>
@@ -73676,16 +73679,16 @@
     </row>
     <row r="48" ht="15.5" spans="1:61">
       <c r="A48" s="16" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
       <c r="E48" s="16">
         <v>33</v>
@@ -73737,7 +73740,7 @@
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
       <c r="X48" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y48" s="18">
         <v>0</v>
@@ -73750,7 +73753,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="16" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="AD48" s="19">
         <v>1.3</v>
@@ -73759,10 +73762,10 @@
         <v>3126</v>
       </c>
       <c r="AF48" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG48" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH48" s="16">
         <v>125</v>
@@ -73819,16 +73822,16 @@
     </row>
     <row r="49" ht="15.5" spans="1:61">
       <c r="A49" s="16" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="E49" s="16">
         <v>34</v>
@@ -73880,7 +73883,7 @@
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
       <c r="X49" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y49" s="18">
         <v>0</v>
@@ -73902,10 +73905,10 @@
         <v>3126</v>
       </c>
       <c r="AF49" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG49" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH49" s="16">
         <v>350</v>
@@ -73962,16 +73965,16 @@
     </row>
     <row r="50" ht="15.5" spans="1:61">
       <c r="A50" s="16" t="s">
-        <v>3630</v>
+        <v>3631</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="E50" s="16">
         <v>35</v>
@@ -74023,7 +74026,7 @@
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
       <c r="X50" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y50" s="18">
         <v>0</v>
@@ -74036,7 +74039,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="16" t="s">
-        <v>3632</v>
+        <v>3633</v>
       </c>
       <c r="AD50" s="19">
         <v>1.3</v>
@@ -74045,10 +74048,10 @@
         <v>3126</v>
       </c>
       <c r="AF50" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG50" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH50" s="16">
         <v>125</v>
@@ -74105,16 +74108,16 @@
     </row>
     <row r="51" ht="15.5" spans="1:61">
       <c r="A51" s="16" t="s">
-        <v>3633</v>
+        <v>3634</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="E51" s="16">
         <v>37</v>
@@ -74166,7 +74169,7 @@
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
       <c r="X51" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y51" s="18">
         <v>0</v>
@@ -74179,7 +74182,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="16" t="s">
-        <v>3635</v>
+        <v>3636</v>
       </c>
       <c r="AD51" s="19">
         <v>1.3</v>
@@ -74188,10 +74191,10 @@
         <v>3126</v>
       </c>
       <c r="AF51" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG51" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH51" s="16">
         <v>350</v>
@@ -74248,16 +74251,16 @@
     </row>
     <row r="52" ht="15.5" spans="1:61">
       <c r="A52" s="16" t="s">
-        <v>3636</v>
+        <v>3637</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="E52" s="16">
         <v>37</v>
@@ -74309,7 +74312,7 @@
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
       <c r="X52" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y52" s="18">
         <v>0</v>
@@ -74322,7 +74325,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="16" t="s">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="AD52" s="19">
         <v>1.3</v>
@@ -74331,10 +74334,10 @@
         <v>3126</v>
       </c>
       <c r="AF52" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG52" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH52" s="16">
         <v>350</v>
@@ -74391,16 +74394,16 @@
     </row>
     <row r="53" ht="15.5" spans="1:61">
       <c r="A53" s="16" t="s">
-        <v>3639</v>
+        <v>3640</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="E53" s="16">
         <v>38</v>
@@ -74452,7 +74455,7 @@
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y53" s="18">
         <v>0</v>
@@ -74465,7 +74468,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="16" t="s">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="AD53" s="19">
         <v>1.3</v>
@@ -74474,10 +74477,10 @@
         <v>3126</v>
       </c>
       <c r="AF53" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG53" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH53" s="16">
         <v>350</v>
@@ -74534,16 +74537,16 @@
     </row>
     <row r="54" ht="15.5" spans="1:61">
       <c r="A54" s="16" t="s">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="E54" s="16">
         <v>39</v>
@@ -74595,7 +74598,7 @@
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y54" s="18">
         <v>0</v>
@@ -74608,7 +74611,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="16" t="s">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="AD54" s="19">
         <v>1.5</v>
@@ -74617,10 +74620,10 @@
         <v>3126</v>
       </c>
       <c r="AF54" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG54" s="16" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="AH54" s="16">
         <v>125</v>
@@ -74677,16 +74680,16 @@
     </row>
     <row r="55" ht="15.5" spans="1:61">
       <c r="A55" s="16" t="s">
-        <v>3645</v>
+        <v>3646</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>3646</v>
+        <v>3647</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>3646</v>
+        <v>3647</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>3646</v>
+        <v>3647</v>
       </c>
       <c r="E55" s="16">
         <v>40</v>
@@ -74738,7 +74741,7 @@
       <c r="V55" s="19"/>
       <c r="W55" s="19"/>
       <c r="X55" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y55" s="18">
         <v>0</v>
@@ -74751,7 +74754,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="16" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="AD55" s="19">
         <v>1.3</v>
@@ -74760,10 +74763,10 @@
         <v>3126</v>
       </c>
       <c r="AF55" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG55" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH55" s="16">
         <v>350</v>
@@ -74820,16 +74823,16 @@
     </row>
     <row r="56" ht="15.5" spans="1:61">
       <c r="A56" s="16" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="E56" s="16">
         <v>42</v>
@@ -74881,7 +74884,7 @@
       <c r="V56" s="19"/>
       <c r="W56" s="19"/>
       <c r="X56" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y56" s="18">
         <v>0</v>
@@ -74894,7 +74897,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="16" t="s">
-        <v>3650</v>
+        <v>3651</v>
       </c>
       <c r="AD56" s="19">
         <v>1.3</v>
@@ -74903,10 +74906,10 @@
         <v>3126</v>
       </c>
       <c r="AF56" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG56" s="16" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="AH56" s="16">
         <v>350</v>
@@ -74963,16 +74966,16 @@
     </row>
     <row r="57" ht="15.5" spans="1:61">
       <c r="A57" s="16" t="s">
-        <v>3651</v>
+        <v>3652</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>3652</v>
+        <v>3653</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>3652</v>
+        <v>3653</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>3652</v>
+        <v>3653</v>
       </c>
       <c r="E57" s="16">
         <v>40</v>
@@ -75020,15 +75023,15 @@
         <v>4</v>
       </c>
       <c r="T57" s="18" t="s">
-        <v>3653</v>
+        <v>3654</v>
       </c>
       <c r="U57" s="19" t="s">
-        <v>3654</v>
+        <v>3655</v>
       </c>
       <c r="V57" s="19"/>
       <c r="W57" s="19"/>
       <c r="X57" s="18" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="Y57" s="18">
         <v>0</v>
@@ -75041,7 +75044,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="16" t="s">
-        <v>3656</v>
+        <v>3657</v>
       </c>
       <c r="AD57" s="19">
         <v>1.2</v>
@@ -75050,10 +75053,10 @@
         <v>3126</v>
       </c>
       <c r="AF57" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG57" s="16" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="AH57" s="16">
         <v>450</v>
@@ -75110,16 +75113,16 @@
     </row>
     <row r="58" ht="15.5" spans="1:61">
       <c r="A58" s="16" t="s">
-        <v>3658</v>
+        <v>3659</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>3659</v>
+        <v>3660</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>3659</v>
+        <v>3660</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>3659</v>
+        <v>3660</v>
       </c>
       <c r="E58" s="16">
         <v>4</v>
@@ -75171,7 +75174,7 @@
       <c r="V58" s="19"/>
       <c r="W58" s="19"/>
       <c r="X58" s="18" t="s">
-        <v>3660</v>
+        <v>3661</v>
       </c>
       <c r="Y58" s="18">
         <v>0</v>
@@ -75184,7 +75187,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="16" t="s">
-        <v>3661</v>
+        <v>3662</v>
       </c>
       <c r="AD58" s="19">
         <v>1</v>
@@ -75193,10 +75196,10 @@
         <v>3126</v>
       </c>
       <c r="AF58" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG58" s="16" t="s">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="AH58" s="16">
         <v>350</v>
@@ -75253,16 +75256,16 @@
     </row>
     <row r="59" ht="15.5" spans="1:61">
       <c r="A59" s="16" t="s">
-        <v>3663</v>
+        <v>3664</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="E59" s="16">
         <v>2</v>
@@ -75314,7 +75317,7 @@
       <c r="V59" s="19"/>
       <c r="W59" s="19"/>
       <c r="X59" s="18" t="s">
-        <v>3660</v>
+        <v>3661</v>
       </c>
       <c r="Y59" s="18">
         <v>0</v>
@@ -75336,10 +75339,10 @@
         <v>3126</v>
       </c>
       <c r="AF59" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG59" s="16" t="s">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="AH59" s="16">
         <v>350</v>
@@ -75396,16 +75399,16 @@
     </row>
     <row r="60" ht="15.5" spans="1:61">
       <c r="A60" s="16" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>3666</v>
+        <v>3667</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>3666</v>
+        <v>3667</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>3666</v>
+        <v>3667</v>
       </c>
       <c r="E60" s="16">
         <v>25</v>
@@ -75453,17 +75456,17 @@
         <v>4</v>
       </c>
       <c r="T60" s="18" t="s">
-        <v>3667</v>
+        <v>3668</v>
       </c>
       <c r="U60" s="19" t="s">
-        <v>3668</v>
+        <v>3669</v>
       </c>
       <c r="V60" s="19" t="s">
-        <v>3669</v>
+        <v>3670</v>
       </c>
       <c r="W60" s="19"/>
       <c r="X60" s="18" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="Y60" s="18">
         <v>0</v>
@@ -75476,7 +75479,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="16" t="s">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="AD60" s="19">
         <v>2.7</v>
@@ -75485,10 +75488,10 @@
         <v>3126</v>
       </c>
       <c r="AF60" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG60" s="16" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="AH60" s="16">
         <v>450</v>
@@ -75545,16 +75548,16 @@
     </row>
     <row r="61" ht="15.5" spans="1:61">
       <c r="A61" s="16" t="s">
-        <v>3671</v>
+        <v>3672</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="E61" s="16">
         <v>3</v>
@@ -75602,13 +75605,13 @@
         <v>4</v>
       </c>
       <c r="T61" s="18" t="s">
-        <v>3673</v>
+        <v>3674</v>
       </c>
       <c r="U61" s="19"/>
       <c r="V61" s="19"/>
       <c r="W61" s="19"/>
       <c r="X61" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y61" s="18">
         <v>0</v>
@@ -75621,7 +75624,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="16" t="s">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="AD61" s="19">
         <v>1</v>
@@ -75630,10 +75633,10 @@
         <v>3126</v>
       </c>
       <c r="AF61" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG61" s="16" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="AH61" s="16">
         <v>450</v>
@@ -75690,16 +75693,16 @@
     </row>
     <row r="62" ht="15.5" spans="1:61">
       <c r="A62" s="16" t="s">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="E62" s="16">
         <v>6</v>
@@ -75747,13 +75750,13 @@
         <v>4</v>
       </c>
       <c r="T62" s="18" t="s">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="U62" s="19"/>
       <c r="V62" s="19"/>
       <c r="W62" s="19"/>
       <c r="X62" s="18" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="Y62" s="18">
         <v>0</v>
@@ -75766,7 +75769,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="16" t="s">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="AD62" s="19">
         <v>1</v>
@@ -75775,10 +75778,10 @@
         <v>3126</v>
       </c>
       <c r="AF62" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG62" s="16" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="AH62" s="16">
         <v>450</v>
@@ -75835,16 +75838,16 @@
     </row>
     <row r="63" ht="15.5" spans="1:61">
       <c r="A63" s="16" t="s">
-        <v>3679</v>
+        <v>3680</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>3680</v>
+        <v>3681</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>3680</v>
+        <v>3681</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>3680</v>
+        <v>3681</v>
       </c>
       <c r="E63" s="16">
         <v>25</v>
@@ -75896,7 +75899,7 @@
       <c r="V63" s="19"/>
       <c r="W63" s="19"/>
       <c r="X63" s="18" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="Y63" s="18">
         <v>0</v>
@@ -75909,7 +75912,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="16" t="s">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="AD63" s="19">
         <v>1</v>
@@ -75918,10 +75921,10 @@
         <v>3126</v>
       </c>
       <c r="AF63" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG63" s="16" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="AH63" s="16">
         <v>450</v>
@@ -75978,16 +75981,16 @@
     </row>
     <row r="64" ht="15.5" spans="1:61">
       <c r="A64" s="16" t="s">
-        <v>3682</v>
+        <v>3683</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="E64" s="16">
         <v>10</v>
@@ -76035,13 +76038,13 @@
         <v>4</v>
       </c>
       <c r="T64" s="18" t="s">
-        <v>3684</v>
+        <v>3685</v>
       </c>
       <c r="U64" s="19"/>
       <c r="V64" s="19"/>
       <c r="W64" s="19"/>
       <c r="X64" s="18" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="Y64" s="18">
         <v>0</v>
@@ -76054,7 +76057,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="16" t="s">
-        <v>3685</v>
+        <v>3686</v>
       </c>
       <c r="AD64" s="19">
         <v>1.3</v>
@@ -76063,10 +76066,10 @@
         <v>3126</v>
       </c>
       <c r="AF64" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG64" s="16" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="AH64" s="16">
         <v>450</v>
@@ -76123,16 +76126,16 @@
     </row>
     <row r="65" ht="15.5" spans="1:61">
       <c r="A65" s="16" t="s">
-        <v>3686</v>
+        <v>3687</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>3687</v>
+        <v>3688</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>3687</v>
+        <v>3688</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>3687</v>
+        <v>3688</v>
       </c>
       <c r="E65" s="16">
         <v>25</v>
@@ -76184,7 +76187,7 @@
       <c r="V65" s="19"/>
       <c r="W65" s="19"/>
       <c r="X65" s="18" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="Y65" s="18">
         <v>0</v>
@@ -76197,7 +76200,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="16" t="s">
-        <v>3688</v>
+        <v>3689</v>
       </c>
       <c r="AD65" s="19">
         <v>1</v>
@@ -76206,10 +76209,10 @@
         <v>3126</v>
       </c>
       <c r="AF65" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG65" s="16" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="AH65" s="16">
         <v>450</v>
@@ -76266,16 +76269,16 @@
     </row>
     <row r="66" ht="15.5" spans="1:61">
       <c r="A66" s="16" t="s">
-        <v>3689</v>
+        <v>3690</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>3690</v>
+        <v>3691</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>3690</v>
+        <v>3691</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>3690</v>
+        <v>3691</v>
       </c>
       <c r="E66" s="16">
         <v>10</v>
@@ -76327,7 +76330,7 @@
       <c r="V66" s="19"/>
       <c r="W66" s="19"/>
       <c r="X66" s="18" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="Y66" s="18">
         <v>0</v>
@@ -76340,7 +76343,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="16" t="s">
-        <v>3691</v>
+        <v>3692</v>
       </c>
       <c r="AD66" s="19">
         <v>1.4</v>
@@ -76349,10 +76352,10 @@
         <v>3126</v>
       </c>
       <c r="AF66" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG66" s="16" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="AH66" s="16">
         <v>450</v>
@@ -76409,16 +76412,16 @@
     </row>
     <row r="67" ht="15.5" spans="1:61">
       <c r="A67" s="16" t="s">
-        <v>3692</v>
+        <v>3693</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>3693</v>
+        <v>3694</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>3693</v>
+        <v>3694</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>3693</v>
+        <v>3694</v>
       </c>
       <c r="E67" s="16">
         <v>10</v>
@@ -76466,15 +76469,15 @@
         <v>4</v>
       </c>
       <c r="T67" s="18" t="s">
-        <v>3694</v>
+        <v>3695</v>
       </c>
       <c r="U67" s="19" t="s">
-        <v>3695</v>
+        <v>3696</v>
       </c>
       <c r="V67" s="19"/>
       <c r="W67" s="19"/>
       <c r="X67" s="18" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="Y67" s="18">
         <v>0</v>
@@ -76487,7 +76490,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="16" t="s">
-        <v>3696</v>
+        <v>3697</v>
       </c>
       <c r="AD67" s="19">
         <v>1.3</v>
@@ -76496,10 +76499,10 @@
         <v>3126</v>
       </c>
       <c r="AF67" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG67" s="16" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="AH67" s="16">
         <v>450</v>
@@ -76556,16 +76559,16 @@
     </row>
     <row r="68" ht="15.5" spans="1:61">
       <c r="A68" s="16" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="E68" s="16">
         <v>10</v>
@@ -76613,15 +76616,15 @@
         <v>4</v>
       </c>
       <c r="T68" s="18" t="s">
-        <v>3699</v>
+        <v>3700</v>
       </c>
       <c r="U68" s="19" t="s">
-        <v>3700</v>
+        <v>3701</v>
       </c>
       <c r="V68" s="19"/>
       <c r="W68" s="19"/>
       <c r="X68" s="18" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="Y68" s="18">
         <v>0</v>
@@ -76634,7 +76637,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="16" t="s">
-        <v>3696</v>
+        <v>3697</v>
       </c>
       <c r="AD68" s="19">
         <v>1.3</v>
@@ -76643,10 +76646,10 @@
         <v>3126</v>
       </c>
       <c r="AF68" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG68" s="16" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="AH68" s="16">
         <v>450</v>
@@ -76703,16 +76706,16 @@
     </row>
     <row r="69" ht="15.5" spans="1:61">
       <c r="A69" s="16" t="s">
-        <v>3701</v>
+        <v>3702</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="E69" s="16">
         <v>10</v>
@@ -76760,15 +76763,15 @@
         <v>4</v>
       </c>
       <c r="T69" s="18" t="s">
-        <v>3703</v>
+        <v>3704</v>
       </c>
       <c r="U69" s="19" t="s">
-        <v>3704</v>
+        <v>3705</v>
       </c>
       <c r="V69" s="19"/>
       <c r="W69" s="19"/>
       <c r="X69" s="18" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="Y69" s="18">
         <v>0</v>
@@ -76781,7 +76784,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="16" t="s">
-        <v>3696</v>
+        <v>3697</v>
       </c>
       <c r="AD69" s="19">
         <v>1.3</v>
@@ -76790,10 +76793,10 @@
         <v>3126</v>
       </c>
       <c r="AF69" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG69" s="16" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="AH69" s="16">
         <v>450</v>
@@ -76850,16 +76853,16 @@
     </row>
     <row r="70" ht="15.5" spans="1:61">
       <c r="A70" s="16" t="s">
-        <v>3705</v>
+        <v>3706</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="E70" s="16">
         <v>0</v>
@@ -76907,13 +76910,13 @@
         <v>4</v>
       </c>
       <c r="T70" s="18" t="s">
-        <v>3707</v>
+        <v>3708</v>
       </c>
       <c r="U70" s="16"/>
       <c r="V70" s="16"/>
       <c r="W70" s="16"/>
       <c r="X70" s="18" t="s">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="Y70" s="18">
         <v>0</v>
@@ -76926,7 +76929,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="16" t="s">
-        <v>3709</v>
+        <v>3710</v>
       </c>
       <c r="AD70" s="16">
         <v>1</v>
@@ -76935,10 +76938,10 @@
         <v>3126</v>
       </c>
       <c r="AF70" s="16" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG70" s="16" t="s">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="AH70" s="16">
         <v>450</v>
@@ -76995,16 +76998,16 @@
     </row>
     <row r="71" ht="15.5" spans="1:61">
       <c r="A71" s="16" t="s">
-        <v>3710</v>
+        <v>3711</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>3711</v>
+        <v>3712</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>3711</v>
+        <v>3712</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>3711</v>
+        <v>3712</v>
       </c>
       <c r="E71" s="16">
         <v>15</v>
@@ -77056,7 +77059,7 @@
       <c r="V71" s="19"/>
       <c r="W71" s="19"/>
       <c r="X71" s="18" t="s">
-        <v>3712</v>
+        <v>3713</v>
       </c>
       <c r="Y71" s="18">
         <v>0</v>
@@ -77069,7 +77072,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="16" t="s">
-        <v>3713</v>
+        <v>3714</v>
       </c>
       <c r="AD71" s="19">
         <v>1</v>
@@ -77078,10 +77081,10 @@
         <v>3126</v>
       </c>
       <c r="AF71" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG71" s="16" t="s">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="AH71" s="16">
         <v>125</v>
@@ -77138,16 +77141,16 @@
     </row>
     <row r="72" ht="15.5" spans="1:61">
       <c r="A72" s="16" t="s">
-        <v>3714</v>
+        <v>3715</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>3715</v>
+        <v>3716</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>3715</v>
+        <v>3716</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>3715</v>
+        <v>3716</v>
       </c>
       <c r="E72" s="16">
         <v>150</v>
@@ -77195,13 +77198,13 @@
         <v>4</v>
       </c>
       <c r="T72" s="18" t="s">
-        <v>3716</v>
+        <v>3717</v>
       </c>
       <c r="U72" s="19"/>
       <c r="V72" s="19"/>
       <c r="W72" s="19"/>
       <c r="X72" s="18" t="s">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="Y72" s="18">
         <v>0</v>
@@ -77214,7 +77217,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="16" t="s">
-        <v>3717</v>
+        <v>3718</v>
       </c>
       <c r="AD72" s="19">
         <v>2.4</v>
@@ -77223,10 +77226,10 @@
         <v>3126</v>
       </c>
       <c r="AF72" s="19" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="AG72" s="16" t="s">
-        <v>3718</v>
+        <v>3719</v>
       </c>
       <c r="AH72" s="16">
         <v>500</v>
@@ -77324,7 +77327,7 @@
         <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3719</v>
+        <v>3720</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3436</v>
@@ -77336,31 +77339,31 @@
         <v>3438</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>3720</v>
+        <v>3721</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>3721</v>
+        <v>3722</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>3722</v>
+        <v>3723</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>3723</v>
+        <v>3724</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>3724</v>
+        <v>3725</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>3725</v>
+        <v>3726</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>3726</v>
+        <v>3727</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>3727</v>
+        <v>3728</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>3728</v>
+        <v>3729</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>33</v>
@@ -77369,10 +77372,10 @@
         <v>37</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>3729</v>
+        <v>3730</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>3730</v>
+        <v>3731</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>3444</v>
@@ -77396,7 +77399,7 @@
         <v>3445</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>3731</v>
+        <v>3732</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>3447</v>
@@ -77438,10 +77441,10 @@
         <v>3453</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>3732</v>
+        <v>3733</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>3733</v>
+        <v>3734</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>60</v>
@@ -77486,7 +77489,7 @@
         <v>50</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>3734</v>
+        <v>3735</v>
       </c>
       <c r="BL1" s="1" t="s">
         <v>3460</v>
@@ -77501,7 +77504,7 @@
         <v>3455</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>3735</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:68">
@@ -77542,25 +77545,25 @@
         <v>118</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>3736</v>
+        <v>3737</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>3737</v>
+        <v>3738</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>3738</v>
+        <v>3739</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>3739</v>
+        <v>3740</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>3740</v>
+        <v>3741</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>120</v>
+        <v>3463</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>121</v>
@@ -77575,10 +77578,10 @@
         <v>123</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>3741</v>
+        <v>3742</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>3742</v>
+        <v>3743</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>107</v>
@@ -77599,16 +77602,16 @@
         <v>88</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>135</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>91</v>
@@ -77623,10 +77626,10 @@
         <v>98</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>3468</v>
+        <v>3469</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>108</v>
@@ -77647,7 +77650,7 @@
         <v>126</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>3743</v>
+        <v>3744</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>143</v>
@@ -77686,7 +77689,7 @@
         <v>134</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="BJ2" s="1" t="s">
         <v>136</v>
@@ -77698,7 +77701,7 @@
         <v>97</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="BN2" s="1" t="s">
         <v>137</v>
@@ -77707,7 +77710,7 @@
         <v>138</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>3744</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="15.5" spans="1:105">
@@ -77739,25 +77742,25 @@
         <v>6</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>3745</v>
+        <v>3746</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>3746</v>
+        <v>3747</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>3747</v>
+        <v>3748</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>3748</v>
+        <v>3749</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>3750</v>
+        <v>3751</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>3751</v>
+        <v>3752</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>7</v>
@@ -77802,28 +77805,28 @@
         <v>20</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>3752</v>
+        <v>3753</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>3753</v>
+        <v>3754</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>3754</v>
+        <v>3755</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>3755</v>
+        <v>3756</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>3756</v>
+        <v>3757</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>3757</v>
+        <v>3758</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>3758</v>
+        <v>3759</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>3759</v>
+        <v>3760</v>
       </c>
       <c r="AM3" s="3" t="s">
         <v>21</v>
@@ -77847,7 +77850,7 @@
         <v>27</v>
       </c>
       <c r="AT3" s="5" t="s">
-        <v>3760</v>
+        <v>3761</v>
       </c>
       <c r="AU3" s="3" t="s">
         <v>29</v>
@@ -77865,10 +77868,10 @@
         <v>33</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>3761</v>
+        <v>3762</v>
       </c>
       <c r="BA3" s="3" t="s">
-        <v>3762</v>
+        <v>3763</v>
       </c>
       <c r="BB3" s="3" t="s">
         <v>35</v>
@@ -78006,7 +78009,7 @@
         <v>80</v>
       </c>
       <c r="CU3" s="10" t="s">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="CV3" s="5" t="s">
         <v>81</v>
@@ -78018,13 +78021,13 @@
         <v>83</v>
       </c>
       <c r="CY3" s="3" t="s">
-        <v>3764</v>
+        <v>3765</v>
       </c>
       <c r="CZ3" s="3" t="s">
-        <v>3765</v>
+        <v>3766</v>
       </c>
       <c r="DA3" s="3" t="s">
-        <v>3766</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.5" spans="1:105">
@@ -78056,25 +78059,25 @@
         <v>92</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>3768</v>
+        <v>3769</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>3769</v>
+        <v>3770</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>3770</v>
+        <v>3771</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>3771</v>
+        <v>3772</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>3772</v>
+        <v>3773</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>3773</v>
+        <v>3774</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>93</v>
@@ -78119,28 +78122,28 @@
         <v>106</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>3774</v>
+        <v>3775</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>3776</v>
+        <v>3777</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>3777</v>
+        <v>3778</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>3778</v>
+        <v>3779</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>3779</v>
+        <v>3780</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>3780</v>
+        <v>3781</v>
       </c>
       <c r="AL4" s="5" t="s">
-        <v>3781</v>
+        <v>3782</v>
       </c>
       <c r="AM4" s="3" t="s">
         <v>107</v>
@@ -78164,7 +78167,7 @@
         <v>113</v>
       </c>
       <c r="AT4" s="5" t="s">
-        <v>3782</v>
+        <v>3783</v>
       </c>
       <c r="AU4" s="3" t="s">
         <v>115</v>
@@ -78182,10 +78185,10 @@
         <v>119</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>120</v>
+        <v>3463</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="BB4" s="3" t="s">
         <v>121</v>
@@ -78323,7 +78326,7 @@
         <v>144</v>
       </c>
       <c r="CU4" s="10" t="s">
-        <v>3783</v>
+        <v>3784</v>
       </c>
       <c r="CV4" s="5" t="s">
         <v>145</v>
@@ -78335,13 +78338,13 @@
         <v>147</v>
       </c>
       <c r="CY4" s="3" t="s">
-        <v>3784</v>
+        <v>3785</v>
       </c>
       <c r="CZ4" s="3" t="s">
-        <v>3785</v>
+        <v>3786</v>
       </c>
       <c r="DA4" s="3" t="s">
-        <v>3786</v>
+        <v>3787</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/building/building_unit_enemy.xlsx
+++ b/code/excels/building/building_unit_enemy.xlsx
@@ -12935,8 +12935,8 @@
   <sheetPr/>
   <dimension ref="A1:CN329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5"/>
@@ -13630,7 +13630,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="44">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AM3" s="3">
         <v>0</v>
@@ -13645,7 +13645,7 @@
         <v>172</v>
       </c>
       <c r="AQ3" s="3">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="AR3" s="3">
         <v>0.9</v>
@@ -13831,7 +13831,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="44">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="AM4" s="3">
         <v>0</v>
@@ -13846,7 +13846,7 @@
         <v>172</v>
       </c>
       <c r="AQ4" s="3">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="AR4" s="3">
         <v>0.9</v>
@@ -14030,7 +14030,7 @@
         <v>0</v>
       </c>
       <c r="AL5" s="44">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="AM5" s="3">
         <v>0</v>
@@ -14045,7 +14045,7 @@
         <v>172</v>
       </c>
       <c r="AQ5" s="3">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="AR5" s="3">
         <v>0.9</v>
@@ -14229,7 +14229,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="44">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="AM6" s="3">
         <v>0</v>
@@ -14244,7 +14244,7 @@
         <v>172</v>
       </c>
       <c r="AQ6" s="3">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AR6" s="3">
         <v>0.9</v>
@@ -14428,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="AL7" s="44">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="AM7" s="3">
         <v>0</v>
@@ -14443,7 +14443,7 @@
         <v>172</v>
       </c>
       <c r="AQ7" s="3">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="AR7" s="3">
         <v>0.9</v>
@@ -14627,7 +14627,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="44">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="AM8" s="3">
         <v>0</v>
@@ -14642,7 +14642,7 @@
         <v>172</v>
       </c>
       <c r="AQ8" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AR8" s="3">
         <v>0.9</v>
@@ -14826,7 +14826,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="44">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="AM9" s="3">
         <v>0</v>
@@ -14841,7 +14841,7 @@
         <v>172</v>
       </c>
       <c r="AQ9" s="3">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="AR9" s="3">
         <v>0.9</v>
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="44">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="AM10" s="3">
         <v>0</v>
@@ -15040,7 +15040,7 @@
         <v>172</v>
       </c>
       <c r="AQ10" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AR10" s="3">
         <v>0.9</v>
@@ -15224,7 +15224,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="44">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="AM11" s="3">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>172</v>
       </c>
       <c r="AQ11" s="3">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AR11" s="3">
         <v>0.9</v>
@@ -15423,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="44">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="AM12" s="3">
         <v>0</v>
@@ -15438,7 +15438,7 @@
         <v>172</v>
       </c>
       <c r="AQ12" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AR12" s="3">
         <v>0.9</v>
@@ -15622,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="AL13" s="44">
-        <v>22500</v>
+        <v>7500</v>
       </c>
       <c r="AM13" s="3">
         <v>0</v>
@@ -15637,7 +15637,7 @@
         <v>172</v>
       </c>
       <c r="AQ13" s="3">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AR13" s="3">
         <v>0.9</v>
@@ -15821,7 +15821,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="44">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="AM14" s="3">
         <v>0</v>
@@ -15836,7 +15836,7 @@
         <v>172</v>
       </c>
       <c r="AQ14" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AR14" s="3">
         <v>0.9</v>
@@ -16035,7 +16035,7 @@
         <v>172</v>
       </c>
       <c r="AQ15" s="3">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AR15" s="3">
         <v>0.9</v>
@@ -16234,7 +16234,7 @@
         <v>172</v>
       </c>
       <c r="AQ16" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AR16" s="3">
         <v>0.9</v>
@@ -16433,7 +16433,7 @@
         <v>172</v>
       </c>
       <c r="AQ17" s="3">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR17" s="3">
         <v>0.9</v>
@@ -16819,8 +16819,8 @@
       <c r="AK19" s="5">
         <v>0</v>
       </c>
-      <c r="AL19" s="43">
-        <v>33000</v>
+      <c r="AL19" s="44">
+        <v>10000</v>
       </c>
       <c r="AM19" s="3">
         <v>0</v>
@@ -16835,7 +16835,7 @@
         <v>172</v>
       </c>
       <c r="AQ19" s="3">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR19" s="3">
         <v>0.9</v>
@@ -17019,7 +17019,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="44">
-        <v>31500</v>
+        <v>10000</v>
       </c>
       <c r="AM20" s="3">
         <v>0</v>
@@ -17034,7 +17034,7 @@
         <v>172</v>
       </c>
       <c r="AQ20" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR20" s="3">
         <v>0.9</v>
@@ -42626,7 +42626,7 @@
         <v>242</v>
       </c>
       <c r="AQ146" s="31">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AR146" s="1">
         <v>1</v>
@@ -42798,7 +42798,7 @@
         <v>172</v>
       </c>
       <c r="AQ147" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AR147" s="1">
         <v>1</v>
@@ -42974,7 +42974,7 @@
         <v>242</v>
       </c>
       <c r="AQ148" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AR148" s="1">
         <v>1</v>
@@ -43146,7 +43146,7 @@
         <v>172</v>
       </c>
       <c r="AQ149" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AR149" s="1">
         <v>1</v>
@@ -43322,7 +43322,7 @@
         <v>242</v>
       </c>
       <c r="AQ150" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AR150" s="1">
         <v>1</v>
@@ -43494,7 +43494,7 @@
         <v>172</v>
       </c>
       <c r="AQ151" s="3">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="AR151" s="1">
         <v>1</v>
@@ -43670,7 +43670,7 @@
         <v>172</v>
       </c>
       <c r="AQ152" s="3">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="AR152" s="1">
         <v>1</v>
@@ -43846,7 +43846,7 @@
         <v>242</v>
       </c>
       <c r="AQ153" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="AR153" s="1">
         <v>1</v>
@@ -44018,7 +44018,7 @@
         <v>172</v>
       </c>
       <c r="AQ154" s="3">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="AR154" s="1">
         <v>1</v>
@@ -44194,7 +44194,7 @@
         <v>242</v>
       </c>
       <c r="AQ155" s="3">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="AR155" s="1">
         <v>1</v>
@@ -44366,7 +44366,7 @@
         <v>242</v>
       </c>
       <c r="AQ156" s="3">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="AR156" s="1">
         <v>1</v>
@@ -44538,7 +44538,7 @@
         <v>172</v>
       </c>
       <c r="AQ157" s="3">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="AR157" s="1">
         <v>1</v>
@@ -44714,7 +44714,7 @@
         <v>172</v>
       </c>
       <c r="AQ158" s="3">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="AR158" s="1">
         <v>1</v>
@@ -44890,7 +44890,7 @@
         <v>242</v>
       </c>
       <c r="AQ159" s="3">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="AR159" s="1">
         <v>1</v>
@@ -45062,7 +45062,7 @@
         <v>172</v>
       </c>
       <c r="AQ160" s="3">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="AR160" s="1">
         <v>1</v>
@@ -45238,7 +45238,7 @@
         <v>242</v>
       </c>
       <c r="AQ161" s="3">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="AR161" s="1">
         <v>1</v>
@@ -45410,7 +45410,7 @@
         <v>242</v>
       </c>
       <c r="AQ162" s="3">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="AR162" s="1">
         <v>1</v>
@@ -45582,7 +45582,7 @@
         <v>172</v>
       </c>
       <c r="AQ163" s="3">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="AR163" s="1">
         <v>1</v>
@@ -45758,7 +45758,7 @@
         <v>172</v>
       </c>
       <c r="AQ164" s="3">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="AR164" s="1">
         <v>1</v>
@@ -45934,7 +45934,7 @@
         <v>242</v>
       </c>
       <c r="AQ165" s="3">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="AR165" s="1">
         <v>1</v>
@@ -46106,7 +46106,7 @@
         <v>242</v>
       </c>
       <c r="AQ166" s="3">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="AR166" s="1">
         <v>1</v>
@@ -46278,7 +46278,7 @@
         <v>242</v>
       </c>
       <c r="AQ167" s="3">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="AR167" s="1">
         <v>1</v>
@@ -46450,7 +46450,7 @@
         <v>242</v>
       </c>
       <c r="AQ168" s="3">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="AR168" s="1">
         <v>1</v>
@@ -46622,7 +46622,7 @@
         <v>242</v>
       </c>
       <c r="AQ169" s="3">
-        <v>168</v>
+        <v>1</v>
       </c>
       <c r="AR169" s="1">
         <v>1</v>
@@ -46794,7 +46794,7 @@
         <v>242</v>
       </c>
       <c r="AQ170" s="3">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="AR170" s="1">
         <v>1</v>
@@ -46966,7 +46966,7 @@
         <v>172</v>
       </c>
       <c r="AQ171" s="3">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="AR171" s="1">
         <v>1</v>
@@ -47142,7 +47142,7 @@
         <v>172</v>
       </c>
       <c r="AQ172" s="3">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="AR172" s="1">
         <v>1</v>
@@ -47326,7 +47326,7 @@
         <v>172</v>
       </c>
       <c r="AQ173" s="3">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="AR173" s="1">
         <v>1</v>
@@ -47510,7 +47510,7 @@
         <v>172</v>
       </c>
       <c r="AQ174" s="3">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="AR174" s="1">
         <v>1</v>
@@ -47694,7 +47694,7 @@
         <v>242</v>
       </c>
       <c r="AQ175" s="3">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="AR175" s="1">
         <v>1</v>
@@ -47878,7 +47878,7 @@
         <v>242</v>
       </c>
       <c r="AQ176" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="AR176" s="1">
         <v>1</v>
@@ -48050,7 +48050,7 @@
         <v>242</v>
       </c>
       <c r="AQ177" s="3">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="AR177" s="1">
         <v>1</v>
@@ -48230,7 +48230,7 @@
         <v>172</v>
       </c>
       <c r="AQ178" s="3">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="AR178" s="1">
         <v>1</v>
@@ -48406,7 +48406,7 @@
         <v>242</v>
       </c>
       <c r="AQ179" s="3">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="AR179" s="1">
         <v>1</v>
@@ -48578,7 +48578,7 @@
         <v>242</v>
       </c>
       <c r="AQ180" s="3">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="AR180" s="1">
         <v>1</v>
@@ -48754,7 +48754,7 @@
         <v>242</v>
       </c>
       <c r="AQ181" s="3">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="AR181" s="1">
         <v>1</v>
@@ -48940,7 +48940,7 @@
         <v>172</v>
       </c>
       <c r="AQ182" s="3">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="AR182" s="1">
         <v>1</v>
@@ -49124,7 +49124,7 @@
         <v>172</v>
       </c>
       <c r="AQ183" s="3">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="AR183" s="1">
         <v>1</v>
@@ -49312,7 +49312,7 @@
         <v>242</v>
       </c>
       <c r="AQ184" s="3">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="AR184" s="1">
         <v>1</v>
@@ -49496,7 +49496,7 @@
         <v>172</v>
       </c>
       <c r="AQ185" s="3">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="AR185" s="1">
         <v>1</v>
@@ -49684,7 +49684,7 @@
         <v>242</v>
       </c>
       <c r="AQ186" s="3">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="AR186" s="1">
         <v>1</v>
@@ -49870,7 +49870,7 @@
         <v>242</v>
       </c>
       <c r="AQ187" s="3">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="AR187" s="1">
         <v>1</v>
@@ -50054,7 +50054,7 @@
         <v>242</v>
       </c>
       <c r="AQ188" s="3">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="AR188" s="1">
         <v>1</v>
@@ -50238,7 +50238,7 @@
         <v>242</v>
       </c>
       <c r="AQ189" s="3">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="AR189" s="1">
         <v>1</v>
@@ -50422,7 +50422,7 @@
         <v>172</v>
       </c>
       <c r="AQ190" s="3">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="AR190" s="1">
         <v>1</v>
@@ -50608,7 +50608,7 @@
         <v>242</v>
       </c>
       <c r="AQ191" s="3">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="AR191" s="1">
         <v>1</v>
@@ -50794,7 +50794,7 @@
         <v>172</v>
       </c>
       <c r="AQ192" s="3">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="AR192" s="1">
         <v>1</v>
@@ -50982,7 +50982,7 @@
         <v>172</v>
       </c>
       <c r="AQ193" s="3">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="AR193" s="1">
         <v>1</v>
@@ -51168,7 +51168,7 @@
         <v>172</v>
       </c>
       <c r="AQ194" s="3">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="AR194" s="1">
         <v>1</v>
@@ -51354,7 +51354,7 @@
         <v>172</v>
       </c>
       <c r="AQ195" s="3">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="AR195" s="1">
         <v>1</v>
@@ -51544,7 +51544,7 @@
         <v>172</v>
       </c>
       <c r="AQ196" s="3">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="AR196" s="1">
         <v>1</v>
@@ -51728,7 +51728,7 @@
         <v>242</v>
       </c>
       <c r="AQ197" s="3">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="AR197" s="1">
         <v>1</v>
@@ -51914,7 +51914,7 @@
         <v>242</v>
       </c>
       <c r="AQ198" s="3">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="AR198" s="1">
         <v>1</v>
@@ -52096,7 +52096,7 @@
         <v>172</v>
       </c>
       <c r="AQ199" s="3">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="AR199" s="1">
         <v>1</v>
@@ -52280,7 +52280,7 @@
         <v>172</v>
       </c>
       <c r="AQ200" s="3">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="AR200" s="1">
         <v>1</v>
@@ -52468,7 +52468,7 @@
         <v>242</v>
       </c>
       <c r="AQ201" s="3">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="AR201" s="1">
         <v>1</v>
@@ -52652,7 +52652,7 @@
         <v>242</v>
       </c>
       <c r="AQ202" s="3">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="AR202" s="1">
         <v>1</v>
@@ -52824,7 +52824,7 @@
         <v>172</v>
       </c>
       <c r="AQ203" s="3">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="AR203" s="1">
         <v>1</v>
@@ -53010,7 +53010,7 @@
         <v>242</v>
       </c>
       <c r="AQ204" s="3">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="AR204" s="1">
         <v>1</v>
@@ -53182,7 +53182,7 @@
         <v>242</v>
       </c>
       <c r="AQ205" s="3">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="AR205" s="1">
         <v>1</v>
@@ -53364,7 +53364,7 @@
         <v>172</v>
       </c>
       <c r="AQ206" s="3">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="AR206" s="1">
         <v>1</v>
@@ -53540,7 +53540,7 @@
         <v>172</v>
       </c>
       <c r="AQ207" s="3">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="AR207" s="1">
         <v>1</v>
@@ -53728,7 +53728,7 @@
         <v>172</v>
       </c>
       <c r="AQ208" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AR208" s="1">
         <v>1</v>
@@ -53904,7 +53904,7 @@
         <v>242</v>
       </c>
       <c r="AQ209" s="3">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="AR209" s="1">
         <v>1</v>
@@ -54076,7 +54076,7 @@
         <v>242</v>
       </c>
       <c r="AQ210" s="3">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="AR210" s="1">
         <v>1</v>
@@ -54248,7 +54248,7 @@
         <v>172</v>
       </c>
       <c r="AQ211" s="3">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="AR211" s="1">
         <v>1</v>
@@ -54432,7 +54432,7 @@
         <v>172</v>
       </c>
       <c r="AQ212" s="3">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="AR212" s="1">
         <v>1</v>
@@ -54608,7 +54608,7 @@
         <v>242</v>
       </c>
       <c r="AQ213" s="3">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="AR213" s="1">
         <v>1</v>
@@ -54790,7 +54790,7 @@
         <v>172</v>
       </c>
       <c r="AQ214" s="3">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="AR214" s="1">
         <v>1</v>
@@ -54966,7 +54966,7 @@
         <v>242</v>
       </c>
       <c r="AQ215" s="3">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="AR215" s="1">
         <v>1</v>
@@ -55154,7 +55154,7 @@
         <v>242</v>
       </c>
       <c r="AQ216" s="3">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="AR216" s="1">
         <v>1</v>
@@ -55326,7 +55326,7 @@
         <v>242</v>
       </c>
       <c r="AQ217" s="3">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="AR217" s="1">
         <v>1</v>
@@ -55510,7 +55510,7 @@
         <v>242</v>
       </c>
       <c r="AQ218" s="3">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="AR218" s="1">
         <v>1</v>
@@ -55682,7 +55682,7 @@
         <v>242</v>
       </c>
       <c r="AQ219" s="3">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="AR219" s="1">
         <v>1</v>
@@ -55854,7 +55854,7 @@
         <v>172</v>
       </c>
       <c r="AQ220" s="3">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="AR220" s="1">
         <v>1</v>
@@ -56038,7 +56038,7 @@
         <v>172</v>
       </c>
       <c r="AQ221" s="3">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="AR221" s="1">
         <v>1</v>
@@ -56226,7 +56226,7 @@
         <v>242</v>
       </c>
       <c r="AQ222" s="3">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="AR222" s="1">
         <v>1</v>
@@ -56398,7 +56398,7 @@
         <v>172</v>
       </c>
       <c r="AQ223" s="3">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="AR223" s="1">
         <v>1</v>
@@ -56574,7 +56574,7 @@
         <v>172</v>
       </c>
       <c r="AQ224" s="3">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="AR224" s="1">
         <v>1</v>
@@ -56750,7 +56750,7 @@
         <v>172</v>
       </c>
       <c r="AQ225" s="3">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="AR225" s="1">
         <v>1</v>
@@ -56926,7 +56926,7 @@
         <v>242</v>
       </c>
       <c r="AQ226" s="3">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="AR226" s="1">
         <v>1</v>
@@ -57098,7 +57098,7 @@
         <v>172</v>
       </c>
       <c r="AQ227" s="3">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="AR227" s="1">
         <v>1</v>
@@ -57274,7 +57274,7 @@
         <v>242</v>
       </c>
       <c r="AQ228" s="3">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="AR228" s="1">
         <v>1</v>
@@ -75091,9 +75091,6 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R21">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$S21="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
-    </cfRule>
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -75101,17 +75098,20 @@
         <cfvo type="num" val="513"/>
       </iconSet>
     </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$S21="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$S22="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
-    </cfRule>
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="129"/>
         <cfvo type="num" val="513"/>
       </iconSet>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$S22="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -75133,7 +75133,7 @@
   <dimension ref="A1:CN18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:N4"/>
+      <selection activeCell="CO1" sqref="CO$1:CO$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>

--- a/code/excels/building/building_unit_enemy.xlsx
+++ b/code/excels/building/building_unit_enemy.xlsx
@@ -12545,8 +12545,8 @@
   <sheetPr/>
   <dimension ref="A1:CN329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD132" workbookViewId="0">
-      <selection activeCell="AO149" sqref="AO149"/>
+    <sheetView tabSelected="1" topLeftCell="BK22" workbookViewId="0">
+      <selection activeCell="BQ29" sqref="BQ29:BW29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5"/>
@@ -18526,7 +18526,6 @@
       <c r="BW29" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="BX29" s="8"/>
       <c r="BY29" s="8"/>
       <c r="BZ29" s="8"/>
       <c r="CA29" s="8"/>
@@ -86521,7 +86520,7 @@
   <dimension ref="A1:DA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:P9"/>
+      <selection activeCell="F19" sqref="F19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="3"/>

--- a/code/excels/building/building_unit_enemy.xlsx
+++ b/code/excels/building/building_unit_enemy.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10883" uniqueCount="3732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10883" uniqueCount="3733">
   <si>
     <t>主键</t>
   </si>
@@ -151,7 +151,7 @@
     <t>攻击范围</t>
   </si>
   <si>
-    <t>攻击拾取范围</t>
+    <t>攻击警戒范围</t>
   </si>
   <si>
     <t>弹道模型</t>
@@ -11220,6 +11220,9 @@
   </si>
   <si>
     <t>最大攻击</t>
+  </si>
+  <si>
+    <t>攻击拾取范围</t>
   </si>
   <si>
     <t>卡片名字</t>
@@ -12545,8 +12548,8 @@
   <sheetPr/>
   <dimension ref="A1:CN329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK22" workbookViewId="0">
-      <selection activeCell="BQ29" sqref="BQ29:BW29"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5"/>
@@ -74875,8 +74878,8 @@
   <sheetPr/>
   <dimension ref="A1:CN18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="CO1" sqref="CO$1:CO$1048576"/>
+    <sheetView topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -87107,7 +87110,7 @@
         <v>43</v>
       </c>
       <c r="BE3" s="5" t="s">
-        <v>44</v>
+        <v>3708</v>
       </c>
       <c r="BF3" s="3" t="s">
         <v>45</v>
@@ -87233,7 +87236,7 @@
         <v>86</v>
       </c>
       <c r="CU3" s="10" t="s">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="CV3" s="5" t="s">
         <v>87</v>
@@ -87245,13 +87248,13 @@
         <v>89</v>
       </c>
       <c r="CY3" s="3" t="s">
-        <v>3709</v>
+        <v>3710</v>
       </c>
       <c r="CZ3" s="3" t="s">
-        <v>3710</v>
+        <v>3711</v>
       </c>
       <c r="DA3" s="3" t="s">
-        <v>3711</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.5" spans="1:105">
@@ -87283,25 +87286,25 @@
         <v>98</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>3712</v>
+        <v>3713</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>3713</v>
+        <v>3714</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>3714</v>
+        <v>3715</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>3715</v>
+        <v>3716</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>3716</v>
+        <v>3717</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>3717</v>
+        <v>3718</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>3718</v>
+        <v>3719</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>105</v>
@@ -87346,28 +87349,28 @@
         <v>118</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>3719</v>
+        <v>3720</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>3720</v>
+        <v>3721</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>3721</v>
+        <v>3722</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>3722</v>
+        <v>3723</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>3723</v>
+        <v>3724</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>3724</v>
+        <v>3725</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>3725</v>
+        <v>3726</v>
       </c>
       <c r="AL4" s="5" t="s">
-        <v>3726</v>
+        <v>3727</v>
       </c>
       <c r="AM4" s="3" t="s">
         <v>119</v>
@@ -87391,7 +87394,7 @@
         <v>125</v>
       </c>
       <c r="AT4" s="5" t="s">
-        <v>3727</v>
+        <v>3728</v>
       </c>
       <c r="AU4" s="3" t="s">
         <v>127</v>
@@ -87550,7 +87553,7 @@
         <v>156</v>
       </c>
       <c r="CU4" s="10" t="s">
-        <v>3728</v>
+        <v>3729</v>
       </c>
       <c r="CV4" s="5" t="s">
         <v>157</v>
@@ -87562,13 +87565,13 @@
         <v>159</v>
       </c>
       <c r="CY4" s="3" t="s">
-        <v>3729</v>
+        <v>3730</v>
       </c>
       <c r="CZ4" s="3" t="s">
-        <v>3730</v>
+        <v>3731</v>
       </c>
       <c r="DA4" s="3" t="s">
-        <v>3731</v>
+        <v>3732</v>
       </c>
     </row>
   </sheetData>
